--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Manzana.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Manzana.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T984"/>
+  <dimension ref="A1:T993"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76967,7 +76967,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E958" t="n">
         <v>4</v>
@@ -77004,16 +77004,16 @@
         </is>
       </c>
       <c r="M958" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N958" t="n">
-        <v>285000</v>
+        <v>275000</v>
       </c>
       <c r="O958" t="n">
-        <v>290000</v>
+        <v>280000</v>
       </c>
       <c r="P958" t="n">
-        <v>287500</v>
+        <v>277500</v>
       </c>
       <c r="Q958" t="inlineStr">
         <is>
@@ -77026,7 +77026,7 @@
         </is>
       </c>
       <c r="S958" t="n">
-        <v>719</v>
+        <v>694</v>
       </c>
       <c r="T958" t="n">
         <v>400</v>
@@ -77047,7 +77047,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E959" t="n">
         <v>4</v>
@@ -77087,13 +77087,13 @@
         <v>20</v>
       </c>
       <c r="N959" t="n">
-        <v>265000</v>
+        <v>245000</v>
       </c>
       <c r="O959" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="P959" t="n">
-        <v>267500</v>
+        <v>247500</v>
       </c>
       <c r="Q959" t="inlineStr">
         <is>
@@ -77106,7 +77106,7 @@
         </is>
       </c>
       <c r="S959" t="n">
-        <v>669</v>
+        <v>619</v>
       </c>
       <c r="T959" t="n">
         <v>400</v>
@@ -77127,7 +77127,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E960" t="n">
         <v>4</v>
@@ -77155,25 +77155,25 @@
       </c>
       <c r="K960" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L960" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M960" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N960" t="n">
-        <v>305000</v>
+        <v>215000</v>
       </c>
       <c r="O960" t="n">
-        <v>310000</v>
+        <v>220000</v>
       </c>
       <c r="P960" t="n">
-        <v>307500</v>
+        <v>217500</v>
       </c>
       <c r="Q960" t="inlineStr">
         <is>
@@ -77186,7 +77186,7 @@
         </is>
       </c>
       <c r="S960" t="n">
-        <v>769</v>
+        <v>544</v>
       </c>
       <c r="T960" t="n">
         <v>400</v>
@@ -77207,7 +77207,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E961" t="n">
         <v>4</v>
@@ -77240,20 +77240,20 @@
       </c>
       <c r="L961" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M961" t="n">
         <v>20</v>
       </c>
       <c r="N961" t="n">
-        <v>285000</v>
+        <v>255000</v>
       </c>
       <c r="O961" t="n">
-        <v>290000</v>
+        <v>260000</v>
       </c>
       <c r="P961" t="n">
-        <v>287500</v>
+        <v>257500</v>
       </c>
       <c r="Q961" t="inlineStr">
         <is>
@@ -77266,7 +77266,7 @@
         </is>
       </c>
       <c r="S961" t="n">
-        <v>719</v>
+        <v>644</v>
       </c>
       <c r="T961" t="n">
         <v>400</v>
@@ -77287,7 +77287,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E962" t="n">
         <v>4</v>
@@ -77320,20 +77320,20 @@
       </c>
       <c r="L962" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M962" t="n">
         <v>20</v>
       </c>
       <c r="N962" t="n">
-        <v>235000</v>
+        <v>225000</v>
       </c>
       <c r="O962" t="n">
-        <v>240000</v>
+        <v>230000</v>
       </c>
       <c r="P962" t="n">
-        <v>237500</v>
+        <v>227500</v>
       </c>
       <c r="Q962" t="inlineStr">
         <is>
@@ -77346,7 +77346,7 @@
         </is>
       </c>
       <c r="S962" t="n">
-        <v>594</v>
+        <v>569</v>
       </c>
       <c r="T962" t="n">
         <v>400</v>
@@ -77367,7 +77367,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E963" t="n">
         <v>4</v>
@@ -77395,25 +77395,25 @@
       </c>
       <c r="K963" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L963" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M963" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N963" t="n">
-        <v>325000</v>
+        <v>195000</v>
       </c>
       <c r="O963" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="P963" t="n">
-        <v>327500</v>
+        <v>197500</v>
       </c>
       <c r="Q963" t="inlineStr">
         <is>
@@ -77426,7 +77426,7 @@
         </is>
       </c>
       <c r="S963" t="n">
-        <v>819</v>
+        <v>494</v>
       </c>
       <c r="T963" t="n">
         <v>400</v>
@@ -77447,7 +77447,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E964" t="n">
         <v>4</v>
@@ -77475,25 +77475,25 @@
       </c>
       <c r="K964" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L964" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M964" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N964" t="n">
-        <v>285000</v>
+        <v>225000</v>
       </c>
       <c r="O964" t="n">
-        <v>290000</v>
+        <v>230000</v>
       </c>
       <c r="P964" t="n">
-        <v>287500</v>
+        <v>227500</v>
       </c>
       <c r="Q964" t="inlineStr">
         <is>
@@ -77502,11 +77502,11 @@
       </c>
       <c r="R964" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S964" t="n">
-        <v>719</v>
+        <v>569</v>
       </c>
       <c r="T964" t="n">
         <v>400</v>
@@ -77527,7 +77527,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E965" t="n">
         <v>4</v>
@@ -77555,25 +77555,25 @@
       </c>
       <c r="K965" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L965" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M965" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N965" t="n">
-        <v>235000</v>
+        <v>205000</v>
       </c>
       <c r="O965" t="n">
-        <v>240000</v>
+        <v>210000</v>
       </c>
       <c r="P965" t="n">
-        <v>237500</v>
+        <v>207500</v>
       </c>
       <c r="Q965" t="inlineStr">
         <is>
@@ -77582,11 +77582,11 @@
       </c>
       <c r="R965" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S965" t="n">
-        <v>594</v>
+        <v>519</v>
       </c>
       <c r="T965" t="n">
         <v>400</v>
@@ -77607,7 +77607,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E966" t="n">
         <v>4</v>
@@ -77635,25 +77635,25 @@
       </c>
       <c r="K966" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L966" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M966" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N966" t="n">
-        <v>215000</v>
+        <v>180000</v>
       </c>
       <c r="O966" t="n">
-        <v>220000</v>
+        <v>185000</v>
       </c>
       <c r="P966" t="n">
-        <v>217500</v>
+        <v>182500</v>
       </c>
       <c r="Q966" t="inlineStr">
         <is>
@@ -77662,11 +77662,11 @@
       </c>
       <c r="R966" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S966" t="n">
-        <v>544</v>
+        <v>456</v>
       </c>
       <c r="T966" t="n">
         <v>400</v>
@@ -77687,7 +77687,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E967" t="n">
         <v>4</v>
@@ -77720,20 +77720,20 @@
       </c>
       <c r="L967" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M967" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N967" t="n">
-        <v>195000</v>
+        <v>285000</v>
       </c>
       <c r="O967" t="n">
-        <v>200000</v>
+        <v>290000</v>
       </c>
       <c r="P967" t="n">
-        <v>197500</v>
+        <v>287500</v>
       </c>
       <c r="Q967" t="inlineStr">
         <is>
@@ -77746,7 +77746,7 @@
         </is>
       </c>
       <c r="S967" t="n">
-        <v>494</v>
+        <v>719</v>
       </c>
       <c r="T967" t="n">
         <v>400</v>
@@ -77767,7 +77767,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E968" t="n">
         <v>4</v>
@@ -77795,7 +77795,7 @@
       </c>
       <c r="K968" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L968" t="inlineStr">
@@ -77807,13 +77807,13 @@
         <v>20</v>
       </c>
       <c r="N968" t="n">
-        <v>205000</v>
+        <v>265000</v>
       </c>
       <c r="O968" t="n">
-        <v>210000</v>
+        <v>270000</v>
       </c>
       <c r="P968" t="n">
-        <v>207500</v>
+        <v>267500</v>
       </c>
       <c r="Q968" t="inlineStr">
         <is>
@@ -77826,7 +77826,7 @@
         </is>
       </c>
       <c r="S968" t="n">
-        <v>519</v>
+        <v>669</v>
       </c>
       <c r="T968" t="n">
         <v>400</v>
@@ -77847,7 +77847,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E969" t="n">
         <v>4</v>
@@ -77880,20 +77880,20 @@
       </c>
       <c r="L969" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M969" t="n">
         <v>20</v>
       </c>
       <c r="N969" t="n">
-        <v>175000</v>
+        <v>305000</v>
       </c>
       <c r="O969" t="n">
-        <v>180000</v>
+        <v>310000</v>
       </c>
       <c r="P969" t="n">
-        <v>177500</v>
+        <v>307500</v>
       </c>
       <c r="Q969" t="inlineStr">
         <is>
@@ -77906,7 +77906,7 @@
         </is>
       </c>
       <c r="S969" t="n">
-        <v>444</v>
+        <v>769</v>
       </c>
       <c r="T969" t="n">
         <v>400</v>
@@ -77927,7 +77927,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E970" t="n">
         <v>4</v>
@@ -77955,7 +77955,7 @@
       </c>
       <c r="K970" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L970" t="inlineStr">
@@ -77964,16 +77964,16 @@
         </is>
       </c>
       <c r="M970" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N970" t="n">
-        <v>175000</v>
+        <v>285000</v>
       </c>
       <c r="O970" t="n">
-        <v>180000</v>
+        <v>290000</v>
       </c>
       <c r="P970" t="n">
-        <v>177500</v>
+        <v>287500</v>
       </c>
       <c r="Q970" t="inlineStr">
         <is>
@@ -77986,7 +77986,7 @@
         </is>
       </c>
       <c r="S970" t="n">
-        <v>444</v>
+        <v>719</v>
       </c>
       <c r="T970" t="n">
         <v>400</v>
@@ -78007,7 +78007,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E971" t="n">
         <v>4</v>
@@ -78035,7 +78035,7 @@
       </c>
       <c r="K971" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L971" t="inlineStr">
@@ -78044,16 +78044,16 @@
         </is>
       </c>
       <c r="M971" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N971" t="n">
-        <v>155000</v>
+        <v>235000</v>
       </c>
       <c r="O971" t="n">
-        <v>160000</v>
+        <v>240000</v>
       </c>
       <c r="P971" t="n">
-        <v>157500</v>
+        <v>237500</v>
       </c>
       <c r="Q971" t="inlineStr">
         <is>
@@ -78066,7 +78066,7 @@
         </is>
       </c>
       <c r="S971" t="n">
-        <v>394</v>
+        <v>594</v>
       </c>
       <c r="T971" t="n">
         <v>400</v>
@@ -78087,7 +78087,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E972" t="n">
         <v>4</v>
@@ -78115,7 +78115,7 @@
       </c>
       <c r="K972" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L972" t="inlineStr">
@@ -78124,16 +78124,16 @@
         </is>
       </c>
       <c r="M972" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N972" t="n">
-        <v>235000</v>
+        <v>325000</v>
       </c>
       <c r="O972" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="P972" t="n">
-        <v>237500</v>
+        <v>327500</v>
       </c>
       <c r="Q972" t="inlineStr">
         <is>
@@ -78146,7 +78146,7 @@
         </is>
       </c>
       <c r="S972" t="n">
-        <v>594</v>
+        <v>819</v>
       </c>
       <c r="T972" t="n">
         <v>400</v>
@@ -78167,7 +78167,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E973" t="n">
         <v>4</v>
@@ -78195,7 +78195,7 @@
       </c>
       <c r="K973" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L973" t="inlineStr">
@@ -78204,16 +78204,16 @@
         </is>
       </c>
       <c r="M973" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N973" t="n">
-        <v>215000</v>
+        <v>285000</v>
       </c>
       <c r="O973" t="n">
-        <v>220000</v>
+        <v>290000</v>
       </c>
       <c r="P973" t="n">
-        <v>217500</v>
+        <v>287500</v>
       </c>
       <c r="Q973" t="inlineStr">
         <is>
@@ -78226,7 +78226,7 @@
         </is>
       </c>
       <c r="S973" t="n">
-        <v>544</v>
+        <v>719</v>
       </c>
       <c r="T973" t="n">
         <v>400</v>
@@ -78247,7 +78247,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E974" t="n">
         <v>4</v>
@@ -78284,16 +78284,16 @@
         </is>
       </c>
       <c r="M974" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N974" t="n">
-        <v>245000</v>
+        <v>235000</v>
       </c>
       <c r="O974" t="n">
-        <v>250000</v>
+        <v>240000</v>
       </c>
       <c r="P974" t="n">
-        <v>247500</v>
+        <v>237500</v>
       </c>
       <c r="Q974" t="inlineStr">
         <is>
@@ -78302,11 +78302,11 @@
       </c>
       <c r="R974" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S974" t="n">
-        <v>619</v>
+        <v>594</v>
       </c>
       <c r="T974" t="n">
         <v>400</v>
@@ -78327,7 +78327,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E975" t="n">
         <v>4</v>
@@ -78367,13 +78367,13 @@
         <v>20</v>
       </c>
       <c r="N975" t="n">
-        <v>225000</v>
+        <v>215000</v>
       </c>
       <c r="O975" t="n">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="P975" t="n">
-        <v>227500</v>
+        <v>217500</v>
       </c>
       <c r="Q975" t="inlineStr">
         <is>
@@ -78382,11 +78382,11 @@
       </c>
       <c r="R975" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S975" t="n">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="T975" t="n">
         <v>400</v>
@@ -78407,7 +78407,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E976" t="n">
         <v>4</v>
@@ -78462,7 +78462,7 @@
       </c>
       <c r="R976" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S976" t="n">
@@ -78487,7 +78487,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E977" t="n">
         <v>4</v>
@@ -78520,20 +78520,20 @@
       </c>
       <c r="L977" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M977" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N977" t="n">
-        <v>235000</v>
+        <v>205000</v>
       </c>
       <c r="O977" t="n">
-        <v>240000</v>
+        <v>210000</v>
       </c>
       <c r="P977" t="n">
-        <v>237500</v>
+        <v>207500</v>
       </c>
       <c r="Q977" t="inlineStr">
         <is>
@@ -78542,11 +78542,11 @@
       </c>
       <c r="R977" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S977" t="n">
-        <v>594</v>
+        <v>519</v>
       </c>
       <c r="T977" t="n">
         <v>400</v>
@@ -78567,7 +78567,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E978" t="n">
         <v>4</v>
@@ -78600,20 +78600,20 @@
       </c>
       <c r="L978" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M978" t="n">
         <v>20</v>
       </c>
       <c r="N978" t="n">
-        <v>205000</v>
+        <v>175000</v>
       </c>
       <c r="O978" t="n">
-        <v>210000</v>
+        <v>180000</v>
       </c>
       <c r="P978" t="n">
-        <v>207500</v>
+        <v>177500</v>
       </c>
       <c r="Q978" t="inlineStr">
         <is>
@@ -78622,11 +78622,11 @@
       </c>
       <c r="R978" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S978" t="n">
-        <v>519</v>
+        <v>444</v>
       </c>
       <c r="T978" t="n">
         <v>400</v>
@@ -78647,7 +78647,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E979" t="n">
         <v>4</v>
@@ -78675,25 +78675,25 @@
       </c>
       <c r="K979" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L979" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M979" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N979" t="n">
-        <v>185000</v>
+        <v>175000</v>
       </c>
       <c r="O979" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="P979" t="n">
-        <v>187500</v>
+        <v>177500</v>
       </c>
       <c r="Q979" t="inlineStr">
         <is>
@@ -78702,11 +78702,11 @@
       </c>
       <c r="R979" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S979" t="n">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="T979" t="n">
         <v>400</v>
@@ -78727,7 +78727,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E980" t="n">
         <v>4</v>
@@ -78760,20 +78760,20 @@
       </c>
       <c r="L980" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M980" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N980" t="n">
-        <v>175000</v>
+        <v>155000</v>
       </c>
       <c r="O980" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="P980" t="n">
-        <v>177500</v>
+        <v>157500</v>
       </c>
       <c r="Q980" t="inlineStr">
         <is>
@@ -78786,7 +78786,7 @@
         </is>
       </c>
       <c r="S980" t="n">
-        <v>444</v>
+        <v>394</v>
       </c>
       <c r="T980" t="n">
         <v>400</v>
@@ -78807,7 +78807,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E981" t="n">
         <v>4</v>
@@ -78835,25 +78835,25 @@
       </c>
       <c r="K981" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L981" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M981" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N981" t="n">
-        <v>155000</v>
+        <v>235000</v>
       </c>
       <c r="O981" t="n">
-        <v>160000</v>
+        <v>240000</v>
       </c>
       <c r="P981" t="n">
-        <v>157500</v>
+        <v>237500</v>
       </c>
       <c r="Q981" t="inlineStr">
         <is>
@@ -78866,7 +78866,7 @@
         </is>
       </c>
       <c r="S981" t="n">
-        <v>394</v>
+        <v>594</v>
       </c>
       <c r="T981" t="n">
         <v>400</v>
@@ -78887,7 +78887,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E982" t="n">
         <v>4</v>
@@ -78920,20 +78920,20 @@
       </c>
       <c r="L982" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M982" t="n">
         <v>16</v>
       </c>
       <c r="N982" t="n">
-        <v>235000</v>
+        <v>215000</v>
       </c>
       <c r="O982" t="n">
-        <v>240000</v>
+        <v>220000</v>
       </c>
       <c r="P982" t="n">
-        <v>237500</v>
+        <v>217500</v>
       </c>
       <c r="Q982" t="inlineStr">
         <is>
@@ -78946,7 +78946,7 @@
         </is>
       </c>
       <c r="S982" t="n">
-        <v>594</v>
+        <v>544</v>
       </c>
       <c r="T982" t="n">
         <v>400</v>
@@ -78995,25 +78995,25 @@
       </c>
       <c r="K983" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L983" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M983" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N983" t="n">
-        <v>215000</v>
+        <v>245000</v>
       </c>
       <c r="O983" t="n">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="P983" t="n">
-        <v>217500</v>
+        <v>247500</v>
       </c>
       <c r="Q983" t="inlineStr">
         <is>
@@ -79022,11 +79022,11 @@
       </c>
       <c r="R983" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S983" t="n">
-        <v>544</v>
+        <v>619</v>
       </c>
       <c r="T983" t="n">
         <v>400</v>
@@ -79075,40 +79075,760 @@
       </c>
       <c r="K984" t="inlineStr">
         <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L984" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M984" t="n">
+        <v>20</v>
+      </c>
+      <c r="N984" t="n">
+        <v>225000</v>
+      </c>
+      <c r="O984" t="n">
+        <v>230000</v>
+      </c>
+      <c r="P984" t="n">
+        <v>227500</v>
+      </c>
+      <c r="Q984" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R984" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S984" t="n">
+        <v>569</v>
+      </c>
+      <c r="T984" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="n">
+        <v>8</v>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C985" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D985" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E985" t="n">
+        <v>4</v>
+      </c>
+      <c r="F985" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G985" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H985" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I985" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J985" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L985" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M985" t="n">
+        <v>20</v>
+      </c>
+      <c r="N985" t="n">
+        <v>195000</v>
+      </c>
+      <c r="O985" t="n">
+        <v>200000</v>
+      </c>
+      <c r="P985" t="n">
+        <v>197500</v>
+      </c>
+      <c r="Q985" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R985" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S985" t="n">
+        <v>494</v>
+      </c>
+      <c r="T985" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="n">
+        <v>8</v>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D986" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E986" t="n">
+        <v>4</v>
+      </c>
+      <c r="F986" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G986" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H986" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I986" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J986" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L986" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M986" t="n">
+        <v>16</v>
+      </c>
+      <c r="N986" t="n">
+        <v>235000</v>
+      </c>
+      <c r="O986" t="n">
+        <v>240000</v>
+      </c>
+      <c r="P986" t="n">
+        <v>237500</v>
+      </c>
+      <c r="Q986" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R986" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S986" t="n">
+        <v>594</v>
+      </c>
+      <c r="T986" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="n">
+        <v>8</v>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C987" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D987" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E987" t="n">
+        <v>4</v>
+      </c>
+      <c r="F987" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G987" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H987" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I987" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J987" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L987" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M987" t="n">
+        <v>20</v>
+      </c>
+      <c r="N987" t="n">
+        <v>205000</v>
+      </c>
+      <c r="O987" t="n">
+        <v>210000</v>
+      </c>
+      <c r="P987" t="n">
+        <v>207500</v>
+      </c>
+      <c r="Q987" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R987" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S987" t="n">
+        <v>519</v>
+      </c>
+      <c r="T987" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="n">
+        <v>8</v>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C988" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D988" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E988" t="n">
+        <v>4</v>
+      </c>
+      <c r="F988" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G988" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H988" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I988" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J988" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L988" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M988" t="n">
+        <v>12</v>
+      </c>
+      <c r="N988" t="n">
+        <v>185000</v>
+      </c>
+      <c r="O988" t="n">
+        <v>190000</v>
+      </c>
+      <c r="P988" t="n">
+        <v>187500</v>
+      </c>
+      <c r="Q988" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R988" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S988" t="n">
+        <v>469</v>
+      </c>
+      <c r="T988" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="n">
+        <v>8</v>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C989" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D989" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E989" t="n">
+        <v>4</v>
+      </c>
+      <c r="F989" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G989" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H989" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I989" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J989" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>Pink Lady</t>
+        </is>
+      </c>
+      <c r="L989" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M989" t="n">
+        <v>20</v>
+      </c>
+      <c r="N989" t="n">
+        <v>175000</v>
+      </c>
+      <c r="O989" t="n">
+        <v>180000</v>
+      </c>
+      <c r="P989" t="n">
+        <v>177500</v>
+      </c>
+      <c r="Q989" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R989" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S989" t="n">
+        <v>444</v>
+      </c>
+      <c r="T989" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="n">
+        <v>8</v>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C990" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D990" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E990" t="n">
+        <v>4</v>
+      </c>
+      <c r="F990" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G990" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H990" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I990" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J990" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>Pink Lady</t>
+        </is>
+      </c>
+      <c r="L990" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M990" t="n">
+        <v>20</v>
+      </c>
+      <c r="N990" t="n">
+        <v>155000</v>
+      </c>
+      <c r="O990" t="n">
+        <v>160000</v>
+      </c>
+      <c r="P990" t="n">
+        <v>157500</v>
+      </c>
+      <c r="Q990" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R990" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S990" t="n">
+        <v>394</v>
+      </c>
+      <c r="T990" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="n">
+        <v>8</v>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C991" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D991" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E991" t="n">
+        <v>4</v>
+      </c>
+      <c r="F991" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G991" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H991" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I991" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J991" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K991" t="inlineStr">
+        <is>
           <t>Scarlett</t>
         </is>
       </c>
-      <c r="L984" t="inlineStr">
+      <c r="L991" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M991" t="n">
+        <v>16</v>
+      </c>
+      <c r="N991" t="n">
+        <v>235000</v>
+      </c>
+      <c r="O991" t="n">
+        <v>240000</v>
+      </c>
+      <c r="P991" t="n">
+        <v>237500</v>
+      </c>
+      <c r="Q991" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R991" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S991" t="n">
+        <v>594</v>
+      </c>
+      <c r="T991" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="n">
+        <v>8</v>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C992" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D992" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E992" t="n">
+        <v>4</v>
+      </c>
+      <c r="F992" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G992" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H992" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I992" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J992" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K992" t="inlineStr">
+        <is>
+          <t>Scarlett</t>
+        </is>
+      </c>
+      <c r="L992" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M992" t="n">
+        <v>16</v>
+      </c>
+      <c r="N992" t="n">
+        <v>215000</v>
+      </c>
+      <c r="O992" t="n">
+        <v>220000</v>
+      </c>
+      <c r="P992" t="n">
+        <v>217500</v>
+      </c>
+      <c r="Q992" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R992" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S992" t="n">
+        <v>544</v>
+      </c>
+      <c r="T992" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="n">
+        <v>8</v>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C993" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D993" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E993" t="n">
+        <v>4</v>
+      </c>
+      <c r="F993" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G993" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H993" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I993" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J993" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K993" t="inlineStr">
+        <is>
+          <t>Scarlett</t>
+        </is>
+      </c>
+      <c r="L993" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M984" t="n">
+      <c r="M993" t="n">
         <v>16</v>
       </c>
-      <c r="N984" t="n">
+      <c r="N993" t="n">
         <v>195000</v>
       </c>
-      <c r="O984" t="n">
+      <c r="O993" t="n">
         <v>200000</v>
       </c>
-      <c r="P984" t="n">
+      <c r="P993" t="n">
         <v>197500</v>
       </c>
-      <c r="Q984" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R984" t="inlineStr">
+      <c r="Q993" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R993" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S984" t="n">
+      <c r="S993" t="n">
         <v>494</v>
       </c>
-      <c r="T984" t="n">
+      <c r="T993" t="n">
         <v>400</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Manzana.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Manzana.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T993"/>
+  <dimension ref="A1:T1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69607,7 +69607,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E866" t="n">
         <v>4</v>
@@ -69644,16 +69644,16 @@
         </is>
       </c>
       <c r="M866" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N866" t="n">
-        <v>290000</v>
+        <v>275000</v>
       </c>
       <c r="O866" t="n">
-        <v>295000</v>
+        <v>280000</v>
       </c>
       <c r="P866" t="n">
-        <v>292500</v>
+        <v>277500</v>
       </c>
       <c r="Q866" t="inlineStr">
         <is>
@@ -69662,11 +69662,11 @@
       </c>
       <c r="R866" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S866" t="n">
-        <v>731</v>
+        <v>694</v>
       </c>
       <c r="T866" t="n">
         <v>400</v>
@@ -69687,7 +69687,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E867" t="n">
         <v>4</v>
@@ -69727,13 +69727,13 @@
         <v>20</v>
       </c>
       <c r="N867" t="n">
-        <v>270000</v>
+        <v>245000</v>
       </c>
       <c r="O867" t="n">
-        <v>275000</v>
+        <v>250000</v>
       </c>
       <c r="P867" t="n">
-        <v>272500</v>
+        <v>247500</v>
       </c>
       <c r="Q867" t="inlineStr">
         <is>
@@ -69742,11 +69742,11 @@
       </c>
       <c r="R867" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S867" t="n">
-        <v>681</v>
+        <v>619</v>
       </c>
       <c r="T867" t="n">
         <v>400</v>
@@ -69767,7 +69767,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E868" t="n">
         <v>4</v>
@@ -69807,13 +69807,13 @@
         <v>20</v>
       </c>
       <c r="N868" t="n">
-        <v>245000</v>
+        <v>215000</v>
       </c>
       <c r="O868" t="n">
-        <v>250000</v>
+        <v>220000</v>
       </c>
       <c r="P868" t="n">
-        <v>247500</v>
+        <v>217500</v>
       </c>
       <c r="Q868" t="inlineStr">
         <is>
@@ -69822,11 +69822,11 @@
       </c>
       <c r="R868" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S868" t="n">
-        <v>619</v>
+        <v>544</v>
       </c>
       <c r="T868" t="n">
         <v>400</v>
@@ -69847,7 +69847,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E869" t="n">
         <v>4</v>
@@ -69884,16 +69884,16 @@
         </is>
       </c>
       <c r="M869" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N869" t="n">
-        <v>275000</v>
+        <v>255000</v>
       </c>
       <c r="O869" t="n">
-        <v>280000</v>
+        <v>260000</v>
       </c>
       <c r="P869" t="n">
-        <v>277500</v>
+        <v>257500</v>
       </c>
       <c r="Q869" t="inlineStr">
         <is>
@@ -69902,11 +69902,11 @@
       </c>
       <c r="R869" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S869" t="n">
-        <v>694</v>
+        <v>644</v>
       </c>
       <c r="T869" t="n">
         <v>400</v>
@@ -69927,7 +69927,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E870" t="n">
         <v>4</v>
@@ -69967,13 +69967,13 @@
         <v>20</v>
       </c>
       <c r="N870" t="n">
-        <v>255000</v>
+        <v>225000</v>
       </c>
       <c r="O870" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="P870" t="n">
-        <v>257500</v>
+        <v>227500</v>
       </c>
       <c r="Q870" t="inlineStr">
         <is>
@@ -69982,11 +69982,11 @@
       </c>
       <c r="R870" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S870" t="n">
-        <v>644</v>
+        <v>569</v>
       </c>
       <c r="T870" t="n">
         <v>400</v>
@@ -70007,7 +70007,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E871" t="n">
         <v>4</v>
@@ -70044,16 +70044,16 @@
         </is>
       </c>
       <c r="M871" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N871" t="n">
-        <v>215000</v>
+        <v>195000</v>
       </c>
       <c r="O871" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="P871" t="n">
-        <v>217500</v>
+        <v>197500</v>
       </c>
       <c r="Q871" t="inlineStr">
         <is>
@@ -70062,11 +70062,11 @@
       </c>
       <c r="R871" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S871" t="n">
-        <v>544</v>
+        <v>494</v>
       </c>
       <c r="T871" t="n">
         <v>400</v>
@@ -70087,7 +70087,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E872" t="n">
         <v>4</v>
@@ -70120,20 +70120,20 @@
       </c>
       <c r="L872" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M872" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N872" t="n">
-        <v>190000</v>
+        <v>220000</v>
       </c>
       <c r="O872" t="n">
-        <v>195000</v>
+        <v>225000</v>
       </c>
       <c r="P872" t="n">
-        <v>192500</v>
+        <v>222500</v>
       </c>
       <c r="Q872" t="inlineStr">
         <is>
@@ -70142,11 +70142,11 @@
       </c>
       <c r="R872" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S872" t="n">
-        <v>481</v>
+        <v>556</v>
       </c>
       <c r="T872" t="n">
         <v>400</v>
@@ -70167,7 +70167,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E873" t="n">
         <v>4</v>
@@ -70200,20 +70200,20 @@
       </c>
       <c r="L873" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M873" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N873" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="O873" t="n">
-        <v>165000</v>
+        <v>205000</v>
       </c>
       <c r="P873" t="n">
-        <v>162500</v>
+        <v>202500</v>
       </c>
       <c r="Q873" t="inlineStr">
         <is>
@@ -70222,11 +70222,11 @@
       </c>
       <c r="R873" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S873" t="n">
-        <v>406</v>
+        <v>506</v>
       </c>
       <c r="T873" t="n">
         <v>400</v>
@@ -70247,7 +70247,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E874" t="n">
         <v>4</v>
@@ -70275,25 +70275,25 @@
       </c>
       <c r="K874" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L874" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M874" t="n">
         <v>20</v>
       </c>
       <c r="N874" t="n">
-        <v>275000</v>
+        <v>175000</v>
       </c>
       <c r="O874" t="n">
-        <v>280000</v>
+        <v>180000</v>
       </c>
       <c r="P874" t="n">
-        <v>277500</v>
+        <v>177500</v>
       </c>
       <c r="Q874" t="inlineStr">
         <is>
@@ -70302,11 +70302,11 @@
       </c>
       <c r="R874" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S874" t="n">
-        <v>694</v>
+        <v>444</v>
       </c>
       <c r="T874" t="n">
         <v>400</v>
@@ -70327,7 +70327,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E875" t="n">
         <v>4</v>
@@ -70360,20 +70360,20 @@
       </c>
       <c r="L875" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M875" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N875" t="n">
-        <v>255000</v>
+        <v>290000</v>
       </c>
       <c r="O875" t="n">
-        <v>260000</v>
+        <v>295000</v>
       </c>
       <c r="P875" t="n">
-        <v>257500</v>
+        <v>292500</v>
       </c>
       <c r="Q875" t="inlineStr">
         <is>
@@ -70386,7 +70386,7 @@
         </is>
       </c>
       <c r="S875" t="n">
-        <v>644</v>
+        <v>731</v>
       </c>
       <c r="T875" t="n">
         <v>400</v>
@@ -70407,7 +70407,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E876" t="n">
         <v>4</v>
@@ -70440,20 +70440,20 @@
       </c>
       <c r="L876" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M876" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N876" t="n">
-        <v>235000</v>
+        <v>270000</v>
       </c>
       <c r="O876" t="n">
-        <v>240000</v>
+        <v>275000</v>
       </c>
       <c r="P876" t="n">
-        <v>237500</v>
+        <v>272500</v>
       </c>
       <c r="Q876" t="inlineStr">
         <is>
@@ -70466,7 +70466,7 @@
         </is>
       </c>
       <c r="S876" t="n">
-        <v>594</v>
+        <v>681</v>
       </c>
       <c r="T876" t="n">
         <v>400</v>
@@ -70487,7 +70487,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E877" t="n">
         <v>4</v>
@@ -70515,25 +70515,25 @@
       </c>
       <c r="K877" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L877" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M877" t="n">
         <v>20</v>
       </c>
       <c r="N877" t="n">
-        <v>255000</v>
+        <v>245000</v>
       </c>
       <c r="O877" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="P877" t="n">
-        <v>257500</v>
+        <v>247500</v>
       </c>
       <c r="Q877" t="inlineStr">
         <is>
@@ -70546,7 +70546,7 @@
         </is>
       </c>
       <c r="S877" t="n">
-        <v>644</v>
+        <v>619</v>
       </c>
       <c r="T877" t="n">
         <v>400</v>
@@ -70567,7 +70567,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E878" t="n">
         <v>4</v>
@@ -70600,20 +70600,20 @@
       </c>
       <c r="L878" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M878" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N878" t="n">
-        <v>235000</v>
+        <v>275000</v>
       </c>
       <c r="O878" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="P878" t="n">
-        <v>237500</v>
+        <v>277500</v>
       </c>
       <c r="Q878" t="inlineStr">
         <is>
@@ -70626,7 +70626,7 @@
         </is>
       </c>
       <c r="S878" t="n">
-        <v>594</v>
+        <v>694</v>
       </c>
       <c r="T878" t="n">
         <v>400</v>
@@ -70647,7 +70647,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E879" t="n">
         <v>4</v>
@@ -70680,20 +70680,20 @@
       </c>
       <c r="L879" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M879" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N879" t="n">
-        <v>215000</v>
+        <v>255000</v>
       </c>
       <c r="O879" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="P879" t="n">
-        <v>217500</v>
+        <v>257500</v>
       </c>
       <c r="Q879" t="inlineStr">
         <is>
@@ -70706,7 +70706,7 @@
         </is>
       </c>
       <c r="S879" t="n">
-        <v>544</v>
+        <v>644</v>
       </c>
       <c r="T879" t="n">
         <v>400</v>
@@ -70727,7 +70727,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E880" t="n">
         <v>4</v>
@@ -70755,25 +70755,25 @@
       </c>
       <c r="K880" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L880" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M880" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N880" t="n">
-        <v>205000</v>
+        <v>215000</v>
       </c>
       <c r="O880" t="n">
-        <v>210000</v>
+        <v>220000</v>
       </c>
       <c r="P880" t="n">
-        <v>207500</v>
+        <v>217500</v>
       </c>
       <c r="Q880" t="inlineStr">
         <is>
@@ -70782,11 +70782,11 @@
       </c>
       <c r="R880" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S880" t="n">
-        <v>519</v>
+        <v>544</v>
       </c>
       <c r="T880" t="n">
         <v>400</v>
@@ -70807,7 +70807,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E881" t="n">
         <v>4</v>
@@ -70840,20 +70840,20 @@
       </c>
       <c r="L881" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M881" t="n">
         <v>20</v>
       </c>
       <c r="N881" t="n">
-        <v>185000</v>
+        <v>190000</v>
       </c>
       <c r="O881" t="n">
-        <v>190000</v>
+        <v>195000</v>
       </c>
       <c r="P881" t="n">
-        <v>187500</v>
+        <v>192500</v>
       </c>
       <c r="Q881" t="inlineStr">
         <is>
@@ -70862,11 +70862,11 @@
       </c>
       <c r="R881" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S881" t="n">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="T881" t="n">
         <v>400</v>
@@ -70887,7 +70887,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E882" t="n">
         <v>4</v>
@@ -70915,25 +70915,25 @@
       </c>
       <c r="K882" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L882" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M882" t="n">
         <v>16</v>
       </c>
       <c r="N882" t="n">
-        <v>255000</v>
+        <v>160000</v>
       </c>
       <c r="O882" t="n">
-        <v>260000</v>
+        <v>165000</v>
       </c>
       <c r="P882" t="n">
-        <v>257500</v>
+        <v>162500</v>
       </c>
       <c r="Q882" t="inlineStr">
         <is>
@@ -70946,7 +70946,7 @@
         </is>
       </c>
       <c r="S882" t="n">
-        <v>644</v>
+        <v>406</v>
       </c>
       <c r="T882" t="n">
         <v>400</v>
@@ -70967,7 +70967,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E883" t="n">
         <v>4</v>
@@ -70995,25 +70995,25 @@
       </c>
       <c r="K883" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L883" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M883" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N883" t="n">
+        <v>275000</v>
+      </c>
+      <c r="O883" t="n">
         <v>280000</v>
       </c>
-      <c r="O883" t="n">
-        <v>290000</v>
-      </c>
       <c r="P883" t="n">
-        <v>285000</v>
+        <v>277500</v>
       </c>
       <c r="Q883" t="inlineStr">
         <is>
@@ -71022,11 +71022,11 @@
       </c>
       <c r="R883" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S883" t="n">
-        <v>712</v>
+        <v>694</v>
       </c>
       <c r="T883" t="n">
         <v>400</v>
@@ -71047,7 +71047,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E884" t="n">
         <v>4</v>
@@ -71075,25 +71075,25 @@
       </c>
       <c r="K884" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L884" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M884" t="n">
         <v>20</v>
       </c>
       <c r="N884" t="n">
-        <v>250000</v>
+        <v>255000</v>
       </c>
       <c r="O884" t="n">
         <v>260000</v>
       </c>
       <c r="P884" t="n">
-        <v>255000</v>
+        <v>257500</v>
       </c>
       <c r="Q884" t="inlineStr">
         <is>
@@ -71102,11 +71102,11 @@
       </c>
       <c r="R884" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S884" t="n">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="T884" t="n">
         <v>400</v>
@@ -71127,7 +71127,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E885" t="n">
         <v>4</v>
@@ -71160,20 +71160,20 @@
       </c>
       <c r="L885" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M885" t="n">
         <v>16</v>
       </c>
       <c r="N885" t="n">
-        <v>260000</v>
+        <v>235000</v>
       </c>
       <c r="O885" t="n">
-        <v>265000</v>
+        <v>240000</v>
       </c>
       <c r="P885" t="n">
-        <v>262500</v>
+        <v>237500</v>
       </c>
       <c r="Q885" t="inlineStr">
         <is>
@@ -71186,7 +71186,7 @@
         </is>
       </c>
       <c r="S885" t="n">
-        <v>656</v>
+        <v>594</v>
       </c>
       <c r="T885" t="n">
         <v>400</v>
@@ -71207,7 +71207,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E886" t="n">
         <v>4</v>
@@ -71235,25 +71235,25 @@
       </c>
       <c r="K886" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L886" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M886" t="n">
         <v>20</v>
       </c>
       <c r="N886" t="n">
-        <v>235000</v>
+        <v>255000</v>
       </c>
       <c r="O886" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="P886" t="n">
-        <v>237500</v>
+        <v>257500</v>
       </c>
       <c r="Q886" t="inlineStr">
         <is>
@@ -71266,7 +71266,7 @@
         </is>
       </c>
       <c r="S886" t="n">
-        <v>594</v>
+        <v>644</v>
       </c>
       <c r="T886" t="n">
         <v>400</v>
@@ -71287,7 +71287,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E887" t="n">
         <v>4</v>
@@ -71315,25 +71315,25 @@
       </c>
       <c r="K887" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L887" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M887" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N887" t="n">
-        <v>205000</v>
+        <v>235000</v>
       </c>
       <c r="O887" t="n">
-        <v>210000</v>
+        <v>240000</v>
       </c>
       <c r="P887" t="n">
-        <v>207500</v>
+        <v>237500</v>
       </c>
       <c r="Q887" t="inlineStr">
         <is>
@@ -71346,7 +71346,7 @@
         </is>
       </c>
       <c r="S887" t="n">
-        <v>519</v>
+        <v>594</v>
       </c>
       <c r="T887" t="n">
         <v>400</v>
@@ -71367,7 +71367,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E888" t="n">
         <v>4</v>
@@ -71400,20 +71400,20 @@
       </c>
       <c r="L888" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M888" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N888" t="n">
-        <v>235000</v>
+        <v>215000</v>
       </c>
       <c r="O888" t="n">
-        <v>240000</v>
+        <v>220000</v>
       </c>
       <c r="P888" t="n">
-        <v>237500</v>
+        <v>217500</v>
       </c>
       <c r="Q888" t="inlineStr">
         <is>
@@ -71426,7 +71426,7 @@
         </is>
       </c>
       <c r="S888" t="n">
-        <v>594</v>
+        <v>544</v>
       </c>
       <c r="T888" t="n">
         <v>400</v>
@@ -71447,7 +71447,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E889" t="n">
         <v>4</v>
@@ -71475,7 +71475,7 @@
       </c>
       <c r="K889" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L889" t="inlineStr">
@@ -71484,16 +71484,16 @@
         </is>
       </c>
       <c r="M889" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N889" t="n">
-        <v>215000</v>
+        <v>205000</v>
       </c>
       <c r="O889" t="n">
-        <v>220000</v>
+        <v>210000</v>
       </c>
       <c r="P889" t="n">
-        <v>218214</v>
+        <v>207500</v>
       </c>
       <c r="Q889" t="inlineStr">
         <is>
@@ -71502,11 +71502,11 @@
       </c>
       <c r="R889" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S889" t="n">
-        <v>546</v>
+        <v>519</v>
       </c>
       <c r="T889" t="n">
         <v>400</v>
@@ -71527,7 +71527,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E890" t="n">
         <v>4</v>
@@ -71555,7 +71555,7 @@
       </c>
       <c r="K890" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L890" t="inlineStr">
@@ -71564,16 +71564,16 @@
         </is>
       </c>
       <c r="M890" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N890" t="n">
-        <v>200000</v>
+        <v>185000</v>
       </c>
       <c r="O890" t="n">
-        <v>205000</v>
+        <v>190000</v>
       </c>
       <c r="P890" t="n">
-        <v>202500</v>
+        <v>187500</v>
       </c>
       <c r="Q890" t="inlineStr">
         <is>
@@ -71582,11 +71582,11 @@
       </c>
       <c r="R890" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S890" t="n">
-        <v>506</v>
+        <v>469</v>
       </c>
       <c r="T890" t="n">
         <v>400</v>
@@ -71607,7 +71607,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E891" t="n">
         <v>4</v>
@@ -71635,25 +71635,25 @@
       </c>
       <c r="K891" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L891" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M891" t="n">
         <v>16</v>
       </c>
       <c r="N891" t="n">
-        <v>215000</v>
+        <v>255000</v>
       </c>
       <c r="O891" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="P891" t="n">
-        <v>217500</v>
+        <v>257500</v>
       </c>
       <c r="Q891" t="inlineStr">
         <is>
@@ -71662,11 +71662,11 @@
       </c>
       <c r="R891" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S891" t="n">
-        <v>544</v>
+        <v>644</v>
       </c>
       <c r="T891" t="n">
         <v>400</v>
@@ -71687,7 +71687,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E892" t="n">
         <v>4</v>
@@ -71715,7 +71715,7 @@
       </c>
       <c r="K892" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L892" t="inlineStr">
@@ -71724,16 +71724,16 @@
         </is>
       </c>
       <c r="M892" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N892" t="n">
-        <v>195000</v>
+        <v>280000</v>
       </c>
       <c r="O892" t="n">
-        <v>200000</v>
+        <v>290000</v>
       </c>
       <c r="P892" t="n">
-        <v>197500</v>
+        <v>285000</v>
       </c>
       <c r="Q892" t="inlineStr">
         <is>
@@ -71746,7 +71746,7 @@
         </is>
       </c>
       <c r="S892" t="n">
-        <v>494</v>
+        <v>712</v>
       </c>
       <c r="T892" t="n">
         <v>400</v>
@@ -71767,7 +71767,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E893" t="n">
         <v>4</v>
@@ -71795,7 +71795,7 @@
       </c>
       <c r="K893" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L893" t="inlineStr">
@@ -71804,16 +71804,16 @@
         </is>
       </c>
       <c r="M893" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N893" t="n">
-        <v>175000</v>
+        <v>250000</v>
       </c>
       <c r="O893" t="n">
-        <v>180000</v>
+        <v>260000</v>
       </c>
       <c r="P893" t="n">
-        <v>177500</v>
+        <v>255000</v>
       </c>
       <c r="Q893" t="inlineStr">
         <is>
@@ -71826,7 +71826,7 @@
         </is>
       </c>
       <c r="S893" t="n">
-        <v>444</v>
+        <v>638</v>
       </c>
       <c r="T893" t="n">
         <v>400</v>
@@ -71847,7 +71847,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E894" t="n">
         <v>4</v>
@@ -71884,16 +71884,16 @@
         </is>
       </c>
       <c r="M894" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N894" t="n">
-        <v>275000</v>
+        <v>260000</v>
       </c>
       <c r="O894" t="n">
-        <v>280000</v>
+        <v>265000</v>
       </c>
       <c r="P894" t="n">
-        <v>277500</v>
+        <v>262500</v>
       </c>
       <c r="Q894" t="inlineStr">
         <is>
@@ -71906,7 +71906,7 @@
         </is>
       </c>
       <c r="S894" t="n">
-        <v>694</v>
+        <v>656</v>
       </c>
       <c r="T894" t="n">
         <v>400</v>
@@ -71927,7 +71927,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E895" t="n">
         <v>4</v>
@@ -71967,13 +71967,13 @@
         <v>20</v>
       </c>
       <c r="N895" t="n">
-        <v>250000</v>
+        <v>235000</v>
       </c>
       <c r="O895" t="n">
-        <v>255000</v>
+        <v>240000</v>
       </c>
       <c r="P895" t="n">
-        <v>252500</v>
+        <v>237500</v>
       </c>
       <c r="Q895" t="inlineStr">
         <is>
@@ -71986,7 +71986,7 @@
         </is>
       </c>
       <c r="S895" t="n">
-        <v>631</v>
+        <v>594</v>
       </c>
       <c r="T895" t="n">
         <v>400</v>
@@ -72007,7 +72007,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E896" t="n">
         <v>4</v>
@@ -72047,13 +72047,13 @@
         <v>16</v>
       </c>
       <c r="N896" t="n">
-        <v>225000</v>
+        <v>205000</v>
       </c>
       <c r="O896" t="n">
-        <v>230000</v>
+        <v>210000</v>
       </c>
       <c r="P896" t="n">
-        <v>227500</v>
+        <v>207500</v>
       </c>
       <c r="Q896" t="inlineStr">
         <is>
@@ -72066,7 +72066,7 @@
         </is>
       </c>
       <c r="S896" t="n">
-        <v>569</v>
+        <v>519</v>
       </c>
       <c r="T896" t="n">
         <v>400</v>
@@ -72087,7 +72087,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E897" t="n">
         <v>4</v>
@@ -72127,13 +72127,13 @@
         <v>10</v>
       </c>
       <c r="N897" t="n">
-        <v>255000</v>
+        <v>235000</v>
       </c>
       <c r="O897" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="P897" t="n">
-        <v>257500</v>
+        <v>237500</v>
       </c>
       <c r="Q897" t="inlineStr">
         <is>
@@ -72142,11 +72142,11 @@
       </c>
       <c r="R897" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S897" t="n">
-        <v>644</v>
+        <v>594</v>
       </c>
       <c r="T897" t="n">
         <v>400</v>
@@ -72167,7 +72167,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E898" t="n">
         <v>4</v>
@@ -72204,16 +72204,16 @@
         </is>
       </c>
       <c r="M898" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N898" t="n">
-        <v>230000</v>
+        <v>215000</v>
       </c>
       <c r="O898" t="n">
-        <v>235000</v>
+        <v>220000</v>
       </c>
       <c r="P898" t="n">
-        <v>232500</v>
+        <v>218214</v>
       </c>
       <c r="Q898" t="inlineStr">
         <is>
@@ -72222,11 +72222,11 @@
       </c>
       <c r="R898" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S898" t="n">
-        <v>581</v>
+        <v>546</v>
       </c>
       <c r="T898" t="n">
         <v>400</v>
@@ -72247,7 +72247,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E899" t="n">
         <v>4</v>
@@ -72287,13 +72287,13 @@
         <v>16</v>
       </c>
       <c r="N899" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="O899" t="n">
-        <v>215000</v>
+        <v>205000</v>
       </c>
       <c r="P899" t="n">
-        <v>212500</v>
+        <v>202500</v>
       </c>
       <c r="Q899" t="inlineStr">
         <is>
@@ -72302,11 +72302,11 @@
       </c>
       <c r="R899" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S899" t="n">
-        <v>531</v>
+        <v>506</v>
       </c>
       <c r="T899" t="n">
         <v>400</v>
@@ -72327,7 +72327,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E900" t="n">
         <v>4</v>
@@ -72364,16 +72364,16 @@
         </is>
       </c>
       <c r="M900" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N900" t="n">
-        <v>225000</v>
+        <v>215000</v>
       </c>
       <c r="O900" t="n">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="P900" t="n">
-        <v>227500</v>
+        <v>217500</v>
       </c>
       <c r="Q900" t="inlineStr">
         <is>
@@ -72386,7 +72386,7 @@
         </is>
       </c>
       <c r="S900" t="n">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="T900" t="n">
         <v>400</v>
@@ -72407,7 +72407,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E901" t="n">
         <v>4</v>
@@ -72444,16 +72444,16 @@
         </is>
       </c>
       <c r="M901" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N901" t="n">
+        <v>195000</v>
+      </c>
+      <c r="O901" t="n">
         <v>200000</v>
       </c>
-      <c r="O901" t="n">
-        <v>205000</v>
-      </c>
       <c r="P901" t="n">
-        <v>202500</v>
+        <v>197500</v>
       </c>
       <c r="Q901" t="inlineStr">
         <is>
@@ -72466,7 +72466,7 @@
         </is>
       </c>
       <c r="S901" t="n">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="T901" t="n">
         <v>400</v>
@@ -72487,7 +72487,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E902" t="n">
         <v>4</v>
@@ -72524,16 +72524,16 @@
         </is>
       </c>
       <c r="M902" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N902" t="n">
+        <v>175000</v>
+      </c>
+      <c r="O902" t="n">
         <v>180000</v>
       </c>
-      <c r="O902" t="n">
-        <v>185000</v>
-      </c>
       <c r="P902" t="n">
-        <v>182500</v>
+        <v>177500</v>
       </c>
       <c r="Q902" t="inlineStr">
         <is>
@@ -72546,7 +72546,7 @@
         </is>
       </c>
       <c r="S902" t="n">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="T902" t="n">
         <v>400</v>
@@ -72595,7 +72595,7 @@
       </c>
       <c r="K903" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L903" t="inlineStr">
@@ -72604,16 +72604,16 @@
         </is>
       </c>
       <c r="M903" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N903" t="n">
-        <v>295000</v>
+        <v>275000</v>
       </c>
       <c r="O903" t="n">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="P903" t="n">
-        <v>297500</v>
+        <v>277500</v>
       </c>
       <c r="Q903" t="inlineStr">
         <is>
@@ -72626,7 +72626,7 @@
         </is>
       </c>
       <c r="S903" t="n">
-        <v>744</v>
+        <v>694</v>
       </c>
       <c r="T903" t="n">
         <v>400</v>
@@ -72675,7 +72675,7 @@
       </c>
       <c r="K904" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L904" t="inlineStr">
@@ -72684,16 +72684,16 @@
         </is>
       </c>
       <c r="M904" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N904" t="n">
+        <v>250000</v>
+      </c>
+      <c r="O904" t="n">
         <v>255000</v>
       </c>
-      <c r="O904" t="n">
-        <v>260000</v>
-      </c>
       <c r="P904" t="n">
-        <v>257500</v>
+        <v>252500</v>
       </c>
       <c r="Q904" t="inlineStr">
         <is>
@@ -72706,7 +72706,7 @@
         </is>
       </c>
       <c r="S904" t="n">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="T904" t="n">
         <v>400</v>
@@ -72727,7 +72727,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E905" t="n">
         <v>4</v>
@@ -72760,20 +72760,20 @@
       </c>
       <c r="L905" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M905" t="n">
         <v>16</v>
       </c>
       <c r="N905" t="n">
-        <v>265000</v>
+        <v>225000</v>
       </c>
       <c r="O905" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="P905" t="n">
-        <v>267500</v>
+        <v>227500</v>
       </c>
       <c r="Q905" t="inlineStr">
         <is>
@@ -72786,7 +72786,7 @@
         </is>
       </c>
       <c r="S905" t="n">
-        <v>669</v>
+        <v>569</v>
       </c>
       <c r="T905" t="n">
         <v>400</v>
@@ -72807,7 +72807,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E906" t="n">
         <v>4</v>
@@ -72835,7 +72835,7 @@
       </c>
       <c r="K906" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L906" t="inlineStr">
@@ -72844,16 +72844,16 @@
         </is>
       </c>
       <c r="M906" t="n">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="N906" t="n">
-        <v>265000</v>
+        <v>255000</v>
       </c>
       <c r="O906" t="n">
-        <v>270000</v>
+        <v>260000</v>
       </c>
       <c r="P906" t="n">
-        <v>267500</v>
+        <v>257500</v>
       </c>
       <c r="Q906" t="inlineStr">
         <is>
@@ -72866,7 +72866,7 @@
         </is>
       </c>
       <c r="S906" t="n">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="T906" t="n">
         <v>400</v>
@@ -72887,7 +72887,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E907" t="n">
         <v>4</v>
@@ -72915,7 +72915,7 @@
       </c>
       <c r="K907" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L907" t="inlineStr">
@@ -72927,13 +72927,13 @@
         <v>20</v>
       </c>
       <c r="N907" t="n">
+        <v>230000</v>
+      </c>
+      <c r="O907" t="n">
         <v>235000</v>
       </c>
-      <c r="O907" t="n">
-        <v>240000</v>
-      </c>
       <c r="P907" t="n">
-        <v>237500</v>
+        <v>232500</v>
       </c>
       <c r="Q907" t="inlineStr">
         <is>
@@ -72942,11 +72942,11 @@
       </c>
       <c r="R907" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S907" t="n">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="T907" t="n">
         <v>400</v>
@@ -72967,7 +72967,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E908" t="n">
         <v>4</v>
@@ -72995,25 +72995,25 @@
       </c>
       <c r="K908" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L908" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M908" t="n">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="N908" t="n">
-        <v>235000</v>
+        <v>210000</v>
       </c>
       <c r="O908" t="n">
-        <v>240000</v>
+        <v>215000</v>
       </c>
       <c r="P908" t="n">
-        <v>237500</v>
+        <v>212500</v>
       </c>
       <c r="Q908" t="inlineStr">
         <is>
@@ -73026,7 +73026,7 @@
         </is>
       </c>
       <c r="S908" t="n">
-        <v>594</v>
+        <v>531</v>
       </c>
       <c r="T908" t="n">
         <v>400</v>
@@ -73047,7 +73047,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E909" t="n">
         <v>4</v>
@@ -73075,25 +73075,25 @@
       </c>
       <c r="K909" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L909" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M909" t="n">
         <v>20</v>
       </c>
       <c r="N909" t="n">
-        <v>215000</v>
+        <v>225000</v>
       </c>
       <c r="O909" t="n">
-        <v>220000</v>
+        <v>230000</v>
       </c>
       <c r="P909" t="n">
-        <v>217500</v>
+        <v>227500</v>
       </c>
       <c r="Q909" t="inlineStr">
         <is>
@@ -73102,11 +73102,11 @@
       </c>
       <c r="R909" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S909" t="n">
-        <v>544</v>
+        <v>569</v>
       </c>
       <c r="T909" t="n">
         <v>400</v>
@@ -73127,7 +73127,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E910" t="n">
         <v>4</v>
@@ -73155,25 +73155,25 @@
       </c>
       <c r="K910" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L910" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M910" t="n">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="N910" t="n">
-        <v>215000</v>
+        <v>200000</v>
       </c>
       <c r="O910" t="n">
-        <v>220000</v>
+        <v>205000</v>
       </c>
       <c r="P910" t="n">
-        <v>217500</v>
+        <v>202500</v>
       </c>
       <c r="Q910" t="inlineStr">
         <is>
@@ -73186,7 +73186,7 @@
         </is>
       </c>
       <c r="S910" t="n">
-        <v>544</v>
+        <v>506</v>
       </c>
       <c r="T910" t="n">
         <v>400</v>
@@ -73207,7 +73207,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E911" t="n">
         <v>4</v>
@@ -73235,25 +73235,25 @@
       </c>
       <c r="K911" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L911" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M911" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N911" t="n">
-        <v>255000</v>
+        <v>180000</v>
       </c>
       <c r="O911" t="n">
-        <v>260000</v>
+        <v>185000</v>
       </c>
       <c r="P911" t="n">
-        <v>257500</v>
+        <v>182500</v>
       </c>
       <c r="Q911" t="inlineStr">
         <is>
@@ -73262,11 +73262,11 @@
       </c>
       <c r="R911" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S911" t="n">
-        <v>644</v>
+        <v>456</v>
       </c>
       <c r="T911" t="n">
         <v>400</v>
@@ -73287,7 +73287,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E912" t="n">
         <v>4</v>
@@ -73315,7 +73315,7 @@
       </c>
       <c r="K912" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L912" t="inlineStr">
@@ -73324,16 +73324,16 @@
         </is>
       </c>
       <c r="M912" t="n">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="N912" t="n">
-        <v>250000</v>
+        <v>295000</v>
       </c>
       <c r="O912" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="P912" t="n">
-        <v>254167</v>
+        <v>297500</v>
       </c>
       <c r="Q912" t="inlineStr">
         <is>
@@ -73342,11 +73342,11 @@
       </c>
       <c r="R912" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S912" t="n">
-        <v>635</v>
+        <v>744</v>
       </c>
       <c r="T912" t="n">
         <v>400</v>
@@ -73367,7 +73367,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E913" t="n">
         <v>4</v>
@@ -73395,7 +73395,7 @@
       </c>
       <c r="K913" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L913" t="inlineStr">
@@ -73404,16 +73404,16 @@
         </is>
       </c>
       <c r="M913" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="N913" t="n">
-        <v>225000</v>
+        <v>255000</v>
       </c>
       <c r="O913" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="P913" t="n">
-        <v>227500</v>
+        <v>257500</v>
       </c>
       <c r="Q913" t="inlineStr">
         <is>
@@ -73426,7 +73426,7 @@
         </is>
       </c>
       <c r="S913" t="n">
-        <v>569</v>
+        <v>644</v>
       </c>
       <c r="T913" t="n">
         <v>400</v>
@@ -73475,25 +73475,25 @@
       </c>
       <c r="K914" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L914" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M914" t="n">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="N914" t="n">
-        <v>230000</v>
+        <v>265000</v>
       </c>
       <c r="O914" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="P914" t="n">
-        <v>234286</v>
+        <v>267500</v>
       </c>
       <c r="Q914" t="inlineStr">
         <is>
@@ -73502,11 +73502,11 @@
       </c>
       <c r="R914" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S914" t="n">
-        <v>586</v>
+        <v>669</v>
       </c>
       <c r="T914" t="n">
         <v>400</v>
@@ -73555,25 +73555,25 @@
       </c>
       <c r="K915" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L915" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M915" t="n">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="N915" t="n">
-        <v>210000</v>
+        <v>265000</v>
       </c>
       <c r="O915" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="P915" t="n">
-        <v>214405</v>
+        <v>267500</v>
       </c>
       <c r="Q915" t="inlineStr">
         <is>
@@ -73586,7 +73586,7 @@
         </is>
       </c>
       <c r="S915" t="n">
-        <v>536</v>
+        <v>669</v>
       </c>
       <c r="T915" t="n">
         <v>400</v>
@@ -73635,7 +73635,7 @@
       </c>
       <c r="K916" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L916" t="inlineStr">
@@ -73644,16 +73644,16 @@
         </is>
       </c>
       <c r="M916" t="n">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="N916" t="n">
-        <v>200000</v>
+        <v>235000</v>
       </c>
       <c r="O916" t="n">
-        <v>210000</v>
+        <v>240000</v>
       </c>
       <c r="P916" t="n">
-        <v>204423</v>
+        <v>237500</v>
       </c>
       <c r="Q916" t="inlineStr">
         <is>
@@ -73662,11 +73662,11 @@
       </c>
       <c r="R916" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S916" t="n">
-        <v>511</v>
+        <v>594</v>
       </c>
       <c r="T916" t="n">
         <v>400</v>
@@ -73715,25 +73715,25 @@
       </c>
       <c r="K917" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L917" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M917" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="N917" t="n">
-        <v>180000</v>
+        <v>235000</v>
       </c>
       <c r="O917" t="n">
-        <v>190000</v>
+        <v>240000</v>
       </c>
       <c r="P917" t="n">
-        <v>184405</v>
+        <v>237500</v>
       </c>
       <c r="Q917" t="inlineStr">
         <is>
@@ -73746,7 +73746,7 @@
         </is>
       </c>
       <c r="S917" t="n">
-        <v>461</v>
+        <v>594</v>
       </c>
       <c r="T917" t="n">
         <v>400</v>
@@ -73795,25 +73795,25 @@
       </c>
       <c r="K918" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L918" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M918" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N918" t="n">
-        <v>295000</v>
+        <v>215000</v>
       </c>
       <c r="O918" t="n">
-        <v>300000</v>
+        <v>220000</v>
       </c>
       <c r="P918" t="n">
-        <v>297500</v>
+        <v>217500</v>
       </c>
       <c r="Q918" t="inlineStr">
         <is>
@@ -73826,7 +73826,7 @@
         </is>
       </c>
       <c r="S918" t="n">
-        <v>744</v>
+        <v>544</v>
       </c>
       <c r="T918" t="n">
         <v>400</v>
@@ -73875,25 +73875,25 @@
       </c>
       <c r="K919" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L919" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M919" t="n">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="N919" t="n">
-        <v>255000</v>
+        <v>215000</v>
       </c>
       <c r="O919" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="P919" t="n">
-        <v>257500</v>
+        <v>217500</v>
       </c>
       <c r="Q919" t="inlineStr">
         <is>
@@ -73902,11 +73902,11 @@
       </c>
       <c r="R919" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S919" t="n">
-        <v>644</v>
+        <v>544</v>
       </c>
       <c r="T919" t="n">
         <v>400</v>
@@ -73927,7 +73927,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E920" t="n">
         <v>4</v>
@@ -73955,7 +73955,7 @@
       </c>
       <c r="K920" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L920" t="inlineStr">
@@ -73964,7 +73964,7 @@
         </is>
       </c>
       <c r="M920" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N920" t="n">
         <v>255000</v>
@@ -74007,7 +74007,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E921" t="n">
         <v>4</v>
@@ -74035,25 +74035,25 @@
       </c>
       <c r="K921" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L921" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M921" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="N921" t="n">
-        <v>225000</v>
+        <v>250000</v>
       </c>
       <c r="O921" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="P921" t="n">
-        <v>227500</v>
+        <v>254167</v>
       </c>
       <c r="Q921" t="inlineStr">
         <is>
@@ -74062,11 +74062,11 @@
       </c>
       <c r="R921" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S921" t="n">
-        <v>569</v>
+        <v>635</v>
       </c>
       <c r="T921" t="n">
         <v>400</v>
@@ -74087,7 +74087,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E922" t="n">
         <v>4</v>
@@ -74115,25 +74115,25 @@
       </c>
       <c r="K922" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L922" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M922" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N922" t="n">
-        <v>205000</v>
+        <v>225000</v>
       </c>
       <c r="O922" t="n">
-        <v>210000</v>
+        <v>230000</v>
       </c>
       <c r="P922" t="n">
-        <v>207500</v>
+        <v>227500</v>
       </c>
       <c r="Q922" t="inlineStr">
         <is>
@@ -74146,7 +74146,7 @@
         </is>
       </c>
       <c r="S922" t="n">
-        <v>519</v>
+        <v>569</v>
       </c>
       <c r="T922" t="n">
         <v>400</v>
@@ -74167,7 +74167,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E923" t="n">
         <v>4</v>
@@ -74200,20 +74200,20 @@
       </c>
       <c r="L923" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M923" t="n">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="N923" t="n">
-        <v>235000</v>
+        <v>230000</v>
       </c>
       <c r="O923" t="n">
         <v>240000</v>
       </c>
       <c r="P923" t="n">
-        <v>237500</v>
+        <v>234286</v>
       </c>
       <c r="Q923" t="inlineStr">
         <is>
@@ -74226,7 +74226,7 @@
         </is>
       </c>
       <c r="S923" t="n">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="T923" t="n">
         <v>400</v>
@@ -74247,7 +74247,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E924" t="n">
         <v>4</v>
@@ -74280,20 +74280,20 @@
       </c>
       <c r="L924" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M924" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="N924" t="n">
-        <v>215000</v>
+        <v>210000</v>
       </c>
       <c r="O924" t="n">
         <v>220000</v>
       </c>
       <c r="P924" t="n">
-        <v>217500</v>
+        <v>214405</v>
       </c>
       <c r="Q924" t="inlineStr">
         <is>
@@ -74306,7 +74306,7 @@
         </is>
       </c>
       <c r="S924" t="n">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="T924" t="n">
         <v>400</v>
@@ -74327,7 +74327,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E925" t="n">
         <v>4</v>
@@ -74355,25 +74355,25 @@
       </c>
       <c r="K925" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L925" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M925" t="n">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="N925" t="n">
-        <v>195000</v>
+        <v>200000</v>
       </c>
       <c r="O925" t="n">
-        <v>200000</v>
+        <v>210000</v>
       </c>
       <c r="P925" t="n">
-        <v>197500</v>
+        <v>204423</v>
       </c>
       <c r="Q925" t="inlineStr">
         <is>
@@ -74386,7 +74386,7 @@
         </is>
       </c>
       <c r="S925" t="n">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="T925" t="n">
         <v>400</v>
@@ -74407,7 +74407,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E926" t="n">
         <v>4</v>
@@ -74440,20 +74440,20 @@
       </c>
       <c r="L926" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M926" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="N926" t="n">
-        <v>255000</v>
+        <v>180000</v>
       </c>
       <c r="O926" t="n">
-        <v>260000</v>
+        <v>190000</v>
       </c>
       <c r="P926" t="n">
-        <v>257500</v>
+        <v>184405</v>
       </c>
       <c r="Q926" t="inlineStr">
         <is>
@@ -74466,7 +74466,7 @@
         </is>
       </c>
       <c r="S926" t="n">
-        <v>644</v>
+        <v>461</v>
       </c>
       <c r="T926" t="n">
         <v>400</v>
@@ -74487,7 +74487,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E927" t="n">
         <v>4</v>
@@ -74515,25 +74515,25 @@
       </c>
       <c r="K927" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L927" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M927" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N927" t="n">
-        <v>225000</v>
+        <v>295000</v>
       </c>
       <c r="O927" t="n">
-        <v>230000</v>
+        <v>300000</v>
       </c>
       <c r="P927" t="n">
-        <v>227500</v>
+        <v>297500</v>
       </c>
       <c r="Q927" t="inlineStr">
         <is>
@@ -74542,11 +74542,11 @@
       </c>
       <c r="R927" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S927" t="n">
-        <v>569</v>
+        <v>744</v>
       </c>
       <c r="T927" t="n">
         <v>400</v>
@@ -74567,7 +74567,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E928" t="n">
         <v>4</v>
@@ -74595,25 +74595,25 @@
       </c>
       <c r="K928" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L928" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M928" t="n">
         <v>20</v>
       </c>
       <c r="N928" t="n">
-        <v>205000</v>
+        <v>255000</v>
       </c>
       <c r="O928" t="n">
-        <v>210000</v>
+        <v>260000</v>
       </c>
       <c r="P928" t="n">
-        <v>207500</v>
+        <v>257500</v>
       </c>
       <c r="Q928" t="inlineStr">
         <is>
@@ -74622,11 +74622,11 @@
       </c>
       <c r="R928" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S928" t="n">
-        <v>519</v>
+        <v>644</v>
       </c>
       <c r="T928" t="n">
         <v>400</v>
@@ -74675,25 +74675,25 @@
       </c>
       <c r="K929" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L929" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M929" t="n">
         <v>20</v>
       </c>
       <c r="N929" t="n">
-        <v>205000</v>
+        <v>255000</v>
       </c>
       <c r="O929" t="n">
-        <v>210000</v>
+        <v>260000</v>
       </c>
       <c r="P929" t="n">
-        <v>207500</v>
+        <v>257500</v>
       </c>
       <c r="Q929" t="inlineStr">
         <is>
@@ -74702,11 +74702,11 @@
       </c>
       <c r="R929" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S929" t="n">
-        <v>519</v>
+        <v>644</v>
       </c>
       <c r="T929" t="n">
         <v>400</v>
@@ -74755,25 +74755,25 @@
       </c>
       <c r="K930" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L930" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M930" t="n">
         <v>20</v>
       </c>
       <c r="N930" t="n">
-        <v>185000</v>
+        <v>225000</v>
       </c>
       <c r="O930" t="n">
-        <v>190000</v>
+        <v>230000</v>
       </c>
       <c r="P930" t="n">
-        <v>187500</v>
+        <v>227500</v>
       </c>
       <c r="Q930" t="inlineStr">
         <is>
@@ -74782,11 +74782,11 @@
       </c>
       <c r="R930" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S930" t="n">
-        <v>469</v>
+        <v>569</v>
       </c>
       <c r="T930" t="n">
         <v>400</v>
@@ -74807,7 +74807,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E931" t="n">
         <v>4</v>
@@ -74840,20 +74840,20 @@
       </c>
       <c r="L931" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M931" t="n">
         <v>20</v>
       </c>
       <c r="N931" t="n">
-        <v>265000</v>
+        <v>205000</v>
       </c>
       <c r="O931" t="n">
-        <v>270000</v>
+        <v>210000</v>
       </c>
       <c r="P931" t="n">
-        <v>267500</v>
+        <v>207500</v>
       </c>
       <c r="Q931" t="inlineStr">
         <is>
@@ -74862,11 +74862,11 @@
       </c>
       <c r="R931" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S931" t="n">
-        <v>669</v>
+        <v>519</v>
       </c>
       <c r="T931" t="n">
         <v>400</v>
@@ -74887,7 +74887,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E932" t="n">
         <v>4</v>
@@ -74915,25 +74915,25 @@
       </c>
       <c r="K932" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L932" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M932" t="n">
         <v>20</v>
       </c>
       <c r="N932" t="n">
-        <v>225000</v>
+        <v>235000</v>
       </c>
       <c r="O932" t="n">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="P932" t="n">
-        <v>227500</v>
+        <v>237500</v>
       </c>
       <c r="Q932" t="inlineStr">
         <is>
@@ -74946,7 +74946,7 @@
         </is>
       </c>
       <c r="S932" t="n">
-        <v>569</v>
+        <v>594</v>
       </c>
       <c r="T932" t="n">
         <v>400</v>
@@ -74967,7 +74967,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E933" t="n">
         <v>4</v>
@@ -75004,16 +75004,16 @@
         </is>
       </c>
       <c r="M933" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N933" t="n">
-        <v>255000</v>
+        <v>215000</v>
       </c>
       <c r="O933" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="P933" t="n">
-        <v>257500</v>
+        <v>217500</v>
       </c>
       <c r="Q933" t="inlineStr">
         <is>
@@ -75026,7 +75026,7 @@
         </is>
       </c>
       <c r="S933" t="n">
-        <v>644</v>
+        <v>544</v>
       </c>
       <c r="T933" t="n">
         <v>400</v>
@@ -75047,7 +75047,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E934" t="n">
         <v>4</v>
@@ -75087,13 +75087,13 @@
         <v>20</v>
       </c>
       <c r="N934" t="n">
-        <v>205000</v>
+        <v>195000</v>
       </c>
       <c r="O934" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="P934" t="n">
-        <v>207500</v>
+        <v>197500</v>
       </c>
       <c r="Q934" t="inlineStr">
         <is>
@@ -75106,7 +75106,7 @@
         </is>
       </c>
       <c r="S934" t="n">
-        <v>519</v>
+        <v>494</v>
       </c>
       <c r="T934" t="n">
         <v>400</v>
@@ -75127,7 +75127,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E935" t="n">
         <v>4</v>
@@ -75160,20 +75160,20 @@
       </c>
       <c r="L935" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M935" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N935" t="n">
-        <v>205000</v>
+        <v>255000</v>
       </c>
       <c r="O935" t="n">
-        <v>210000</v>
+        <v>260000</v>
       </c>
       <c r="P935" t="n">
-        <v>207500</v>
+        <v>257500</v>
       </c>
       <c r="Q935" t="inlineStr">
         <is>
@@ -75186,7 +75186,7 @@
         </is>
       </c>
       <c r="S935" t="n">
-        <v>519</v>
+        <v>644</v>
       </c>
       <c r="T935" t="n">
         <v>400</v>
@@ -75207,7 +75207,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E936" t="n">
         <v>4</v>
@@ -75240,20 +75240,20 @@
       </c>
       <c r="L936" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M936" t="n">
         <v>20</v>
       </c>
       <c r="N936" t="n">
-        <v>175000</v>
+        <v>225000</v>
       </c>
       <c r="O936" t="n">
-        <v>180000</v>
+        <v>230000</v>
       </c>
       <c r="P936" t="n">
-        <v>177500</v>
+        <v>227500</v>
       </c>
       <c r="Q936" t="inlineStr">
         <is>
@@ -75266,7 +75266,7 @@
         </is>
       </c>
       <c r="S936" t="n">
-        <v>444</v>
+        <v>569</v>
       </c>
       <c r="T936" t="n">
         <v>400</v>
@@ -75287,7 +75287,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E937" t="n">
         <v>4</v>
@@ -75315,25 +75315,25 @@
       </c>
       <c r="K937" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L937" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M937" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N937" t="n">
-        <v>200000</v>
+        <v>205000</v>
       </c>
       <c r="O937" t="n">
         <v>210000</v>
       </c>
       <c r="P937" t="n">
-        <v>205000</v>
+        <v>207500</v>
       </c>
       <c r="Q937" t="inlineStr">
         <is>
@@ -75346,7 +75346,7 @@
         </is>
       </c>
       <c r="S937" t="n">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="T937" t="n">
         <v>400</v>
@@ -75367,7 +75367,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E938" t="n">
         <v>4</v>
@@ -75395,25 +75395,25 @@
       </c>
       <c r="K938" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L938" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M938" t="n">
         <v>20</v>
       </c>
       <c r="N938" t="n">
-        <v>180000</v>
+        <v>205000</v>
       </c>
       <c r="O938" t="n">
-        <v>190000</v>
+        <v>210000</v>
       </c>
       <c r="P938" t="n">
-        <v>185000</v>
+        <v>207500</v>
       </c>
       <c r="Q938" t="inlineStr">
         <is>
@@ -75426,7 +75426,7 @@
         </is>
       </c>
       <c r="S938" t="n">
-        <v>462</v>
+        <v>519</v>
       </c>
       <c r="T938" t="n">
         <v>400</v>
@@ -75447,7 +75447,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44279</v>
+        <v>44319</v>
       </c>
       <c r="E939" t="n">
         <v>4</v>
@@ -75475,25 +75475,25 @@
       </c>
       <c r="K939" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L939" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M939" t="n">
         <v>20</v>
       </c>
       <c r="N939" t="n">
-        <v>325000</v>
+        <v>185000</v>
       </c>
       <c r="O939" t="n">
-        <v>330000</v>
+        <v>190000</v>
       </c>
       <c r="P939" t="n">
-        <v>327500</v>
+        <v>187500</v>
       </c>
       <c r="Q939" t="inlineStr">
         <is>
@@ -75502,11 +75502,11 @@
       </c>
       <c r="R939" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S939" t="n">
-        <v>819</v>
+        <v>469</v>
       </c>
       <c r="T939" t="n">
         <v>400</v>
@@ -75527,7 +75527,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44279</v>
+        <v>44175</v>
       </c>
       <c r="E940" t="n">
         <v>4</v>
@@ -75564,16 +75564,16 @@
         </is>
       </c>
       <c r="M940" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N940" t="n">
-        <v>295000</v>
+        <v>265000</v>
       </c>
       <c r="O940" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="P940" t="n">
-        <v>297500</v>
+        <v>267500</v>
       </c>
       <c r="Q940" t="inlineStr">
         <is>
@@ -75582,11 +75582,11 @@
       </c>
       <c r="R940" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S940" t="n">
-        <v>744</v>
+        <v>669</v>
       </c>
       <c r="T940" t="n">
         <v>400</v>
@@ -75607,7 +75607,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44279</v>
+        <v>44175</v>
       </c>
       <c r="E941" t="n">
         <v>4</v>
@@ -75644,16 +75644,16 @@
         </is>
       </c>
       <c r="M941" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N941" t="n">
-        <v>265000</v>
+        <v>225000</v>
       </c>
       <c r="O941" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="P941" t="n">
-        <v>267500</v>
+        <v>227500</v>
       </c>
       <c r="Q941" t="inlineStr">
         <is>
@@ -75662,11 +75662,11 @@
       </c>
       <c r="R941" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S941" t="n">
-        <v>669</v>
+        <v>569</v>
       </c>
       <c r="T941" t="n">
         <v>400</v>
@@ -75687,7 +75687,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44279</v>
+        <v>44175</v>
       </c>
       <c r="E942" t="n">
         <v>4</v>
@@ -75720,20 +75720,20 @@
       </c>
       <c r="L942" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M942" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N942" t="n">
-        <v>285000</v>
+        <v>255000</v>
       </c>
       <c r="O942" t="n">
-        <v>290000</v>
+        <v>260000</v>
       </c>
       <c r="P942" t="n">
-        <v>287500</v>
+        <v>257500</v>
       </c>
       <c r="Q942" t="inlineStr">
         <is>
@@ -75742,11 +75742,11 @@
       </c>
       <c r="R942" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S942" t="n">
-        <v>719</v>
+        <v>644</v>
       </c>
       <c r="T942" t="n">
         <v>400</v>
@@ -75767,7 +75767,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44279</v>
+        <v>44175</v>
       </c>
       <c r="E943" t="n">
         <v>4</v>
@@ -75800,20 +75800,20 @@
       </c>
       <c r="L943" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M943" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N943" t="n">
-        <v>255000</v>
+        <v>205000</v>
       </c>
       <c r="O943" t="n">
-        <v>260000</v>
+        <v>210000</v>
       </c>
       <c r="P943" t="n">
-        <v>257500</v>
+        <v>207500</v>
       </c>
       <c r="Q943" t="inlineStr">
         <is>
@@ -75822,11 +75822,11 @@
       </c>
       <c r="R943" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S943" t="n">
-        <v>644</v>
+        <v>519</v>
       </c>
       <c r="T943" t="n">
         <v>400</v>
@@ -75847,7 +75847,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44279</v>
+        <v>44175</v>
       </c>
       <c r="E944" t="n">
         <v>4</v>
@@ -75875,25 +75875,25 @@
       </c>
       <c r="K944" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L944" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M944" t="n">
         <v>16</v>
       </c>
       <c r="N944" t="n">
-        <v>215000</v>
+        <v>205000</v>
       </c>
       <c r="O944" t="n">
-        <v>220000</v>
+        <v>210000</v>
       </c>
       <c r="P944" t="n">
-        <v>217500</v>
+        <v>207500</v>
       </c>
       <c r="Q944" t="inlineStr">
         <is>
@@ -75902,11 +75902,11 @@
       </c>
       <c r="R944" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S944" t="n">
-        <v>544</v>
+        <v>519</v>
       </c>
       <c r="T944" t="n">
         <v>400</v>
@@ -75927,7 +75927,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44279</v>
+        <v>44175</v>
       </c>
       <c r="E945" t="n">
         <v>4</v>
@@ -75955,25 +75955,25 @@
       </c>
       <c r="K945" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L945" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M945" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N945" t="n">
-        <v>265000</v>
+        <v>175000</v>
       </c>
       <c r="O945" t="n">
-        <v>270000</v>
+        <v>180000</v>
       </c>
       <c r="P945" t="n">
-        <v>267500</v>
+        <v>177500</v>
       </c>
       <c r="Q945" t="inlineStr">
         <is>
@@ -75986,7 +75986,7 @@
         </is>
       </c>
       <c r="S945" t="n">
-        <v>669</v>
+        <v>444</v>
       </c>
       <c r="T945" t="n">
         <v>400</v>
@@ -76007,7 +76007,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E946" t="n">
         <v>4</v>
@@ -76035,7 +76035,7 @@
       </c>
       <c r="K946" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L946" t="inlineStr">
@@ -76044,16 +76044,16 @@
         </is>
       </c>
       <c r="M946" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N946" t="n">
-        <v>235000</v>
+        <v>200000</v>
       </c>
       <c r="O946" t="n">
-        <v>240000</v>
+        <v>210000</v>
       </c>
       <c r="P946" t="n">
-        <v>237500</v>
+        <v>205000</v>
       </c>
       <c r="Q946" t="inlineStr">
         <is>
@@ -76066,7 +76066,7 @@
         </is>
       </c>
       <c r="S946" t="n">
-        <v>594</v>
+        <v>512</v>
       </c>
       <c r="T946" t="n">
         <v>400</v>
@@ -76087,7 +76087,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E947" t="n">
         <v>4</v>
@@ -76115,7 +76115,7 @@
       </c>
       <c r="K947" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L947" t="inlineStr">
@@ -76124,16 +76124,16 @@
         </is>
       </c>
       <c r="M947" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N947" t="n">
-        <v>205000</v>
+        <v>180000</v>
       </c>
       <c r="O947" t="n">
-        <v>210000</v>
+        <v>190000</v>
       </c>
       <c r="P947" t="n">
-        <v>207500</v>
+        <v>185000</v>
       </c>
       <c r="Q947" t="inlineStr">
         <is>
@@ -76146,7 +76146,7 @@
         </is>
       </c>
       <c r="S947" t="n">
-        <v>519</v>
+        <v>462</v>
       </c>
       <c r="T947" t="n">
         <v>400</v>
@@ -76167,7 +76167,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E948" t="n">
         <v>4</v>
@@ -76195,7 +76195,7 @@
       </c>
       <c r="K948" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L948" t="inlineStr">
@@ -76204,16 +76204,16 @@
         </is>
       </c>
       <c r="M948" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N948" t="n">
-        <v>240000</v>
+        <v>325000</v>
       </c>
       <c r="O948" t="n">
-        <v>250000</v>
+        <v>330000</v>
       </c>
       <c r="P948" t="n">
-        <v>245000</v>
+        <v>327500</v>
       </c>
       <c r="Q948" t="inlineStr">
         <is>
@@ -76222,11 +76222,11 @@
       </c>
       <c r="R948" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S948" t="n">
-        <v>612</v>
+        <v>819</v>
       </c>
       <c r="T948" t="n">
         <v>400</v>
@@ -76247,7 +76247,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E949" t="n">
         <v>4</v>
@@ -76275,7 +76275,7 @@
       </c>
       <c r="K949" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L949" t="inlineStr">
@@ -76284,16 +76284,16 @@
         </is>
       </c>
       <c r="M949" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N949" t="n">
-        <v>220000</v>
+        <v>295000</v>
       </c>
       <c r="O949" t="n">
-        <v>230000</v>
+        <v>300000</v>
       </c>
       <c r="P949" t="n">
-        <v>225000</v>
+        <v>297500</v>
       </c>
       <c r="Q949" t="inlineStr">
         <is>
@@ -76302,11 +76302,11 @@
       </c>
       <c r="R949" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S949" t="n">
-        <v>562</v>
+        <v>744</v>
       </c>
       <c r="T949" t="n">
         <v>400</v>
@@ -76327,7 +76327,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E950" t="n">
         <v>4</v>
@@ -76355,7 +76355,7 @@
       </c>
       <c r="K950" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L950" t="inlineStr">
@@ -76364,16 +76364,16 @@
         </is>
       </c>
       <c r="M950" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N950" t="n">
-        <v>190000</v>
+        <v>265000</v>
       </c>
       <c r="O950" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="P950" t="n">
-        <v>195000</v>
+        <v>267500</v>
       </c>
       <c r="Q950" t="inlineStr">
         <is>
@@ -76382,11 +76382,11 @@
       </c>
       <c r="R950" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S950" t="n">
-        <v>488</v>
+        <v>669</v>
       </c>
       <c r="T950" t="n">
         <v>400</v>
@@ -76407,7 +76407,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E951" t="n">
         <v>4</v>
@@ -76435,7 +76435,7 @@
       </c>
       <c r="K951" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L951" t="inlineStr">
@@ -76444,16 +76444,16 @@
         </is>
       </c>
       <c r="M951" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N951" t="n">
-        <v>270000</v>
+        <v>285000</v>
       </c>
       <c r="O951" t="n">
-        <v>280000</v>
+        <v>290000</v>
       </c>
       <c r="P951" t="n">
-        <v>275000</v>
+        <v>287500</v>
       </c>
       <c r="Q951" t="inlineStr">
         <is>
@@ -76462,11 +76462,11 @@
       </c>
       <c r="R951" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S951" t="n">
-        <v>688</v>
+        <v>719</v>
       </c>
       <c r="T951" t="n">
         <v>400</v>
@@ -76487,7 +76487,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E952" t="n">
         <v>4</v>
@@ -76515,7 +76515,7 @@
       </c>
       <c r="K952" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L952" t="inlineStr">
@@ -76524,16 +76524,16 @@
         </is>
       </c>
       <c r="M952" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N952" t="n">
-        <v>230000</v>
+        <v>255000</v>
       </c>
       <c r="O952" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="P952" t="n">
-        <v>235000</v>
+        <v>257500</v>
       </c>
       <c r="Q952" t="inlineStr">
         <is>
@@ -76542,11 +76542,11 @@
       </c>
       <c r="R952" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S952" t="n">
-        <v>588</v>
+        <v>644</v>
       </c>
       <c r="T952" t="n">
         <v>400</v>
@@ -76567,7 +76567,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44314</v>
+        <v>44279</v>
       </c>
       <c r="E953" t="n">
         <v>4</v>
@@ -76600,20 +76600,20 @@
       </c>
       <c r="L953" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M953" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N953" t="n">
-        <v>255000</v>
+        <v>215000</v>
       </c>
       <c r="O953" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="P953" t="n">
-        <v>257500</v>
+        <v>217500</v>
       </c>
       <c r="Q953" t="inlineStr">
         <is>
@@ -76626,7 +76626,7 @@
         </is>
       </c>
       <c r="S953" t="n">
-        <v>644</v>
+        <v>544</v>
       </c>
       <c r="T953" t="n">
         <v>400</v>
@@ -76647,7 +76647,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44314</v>
+        <v>44279</v>
       </c>
       <c r="E954" t="n">
         <v>4</v>
@@ -76675,25 +76675,25 @@
       </c>
       <c r="K954" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L954" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M954" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N954" t="n">
-        <v>230000</v>
+        <v>265000</v>
       </c>
       <c r="O954" t="n">
-        <v>235000</v>
+        <v>270000</v>
       </c>
       <c r="P954" t="n">
-        <v>232500</v>
+        <v>267500</v>
       </c>
       <c r="Q954" t="inlineStr">
         <is>
@@ -76702,11 +76702,11 @@
       </c>
       <c r="R954" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S954" t="n">
-        <v>581</v>
+        <v>669</v>
       </c>
       <c r="T954" t="n">
         <v>400</v>
@@ -76727,7 +76727,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44314</v>
+        <v>44279</v>
       </c>
       <c r="E955" t="n">
         <v>4</v>
@@ -76755,25 +76755,25 @@
       </c>
       <c r="K955" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L955" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M955" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N955" t="n">
-        <v>195000</v>
+        <v>235000</v>
       </c>
       <c r="O955" t="n">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="P955" t="n">
-        <v>197500</v>
+        <v>237500</v>
       </c>
       <c r="Q955" t="inlineStr">
         <is>
@@ -76782,11 +76782,11 @@
       </c>
       <c r="R955" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S955" t="n">
-        <v>494</v>
+        <v>594</v>
       </c>
       <c r="T955" t="n">
         <v>400</v>
@@ -76807,7 +76807,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44314</v>
+        <v>44279</v>
       </c>
       <c r="E956" t="n">
         <v>4</v>
@@ -76835,25 +76835,25 @@
       </c>
       <c r="K956" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L956" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M956" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N956" t="n">
-        <v>285000</v>
+        <v>205000</v>
       </c>
       <c r="O956" t="n">
-        <v>290000</v>
+        <v>210000</v>
       </c>
       <c r="P956" t="n">
-        <v>287500</v>
+        <v>207500</v>
       </c>
       <c r="Q956" t="inlineStr">
         <is>
@@ -76866,7 +76866,7 @@
         </is>
       </c>
       <c r="S956" t="n">
-        <v>719</v>
+        <v>519</v>
       </c>
       <c r="T956" t="n">
         <v>400</v>
@@ -76887,7 +76887,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E957" t="n">
         <v>4</v>
@@ -76915,25 +76915,25 @@
       </c>
       <c r="K957" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L957" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M957" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N957" t="n">
-        <v>255000</v>
+        <v>240000</v>
       </c>
       <c r="O957" t="n">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="P957" t="n">
-        <v>257500</v>
+        <v>245000</v>
       </c>
       <c r="Q957" t="inlineStr">
         <is>
@@ -76946,7 +76946,7 @@
         </is>
       </c>
       <c r="S957" t="n">
-        <v>644</v>
+        <v>612</v>
       </c>
       <c r="T957" t="n">
         <v>400</v>
@@ -76967,7 +76967,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44448</v>
+        <v>44412</v>
       </c>
       <c r="E958" t="n">
         <v>4</v>
@@ -76995,25 +76995,25 @@
       </c>
       <c r="K958" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L958" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M958" t="n">
         <v>20</v>
       </c>
       <c r="N958" t="n">
-        <v>275000</v>
+        <v>220000</v>
       </c>
       <c r="O958" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="P958" t="n">
-        <v>277500</v>
+        <v>225000</v>
       </c>
       <c r="Q958" t="inlineStr">
         <is>
@@ -77026,7 +77026,7 @@
         </is>
       </c>
       <c r="S958" t="n">
-        <v>694</v>
+        <v>562</v>
       </c>
       <c r="T958" t="n">
         <v>400</v>
@@ -77047,7 +77047,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44448</v>
+        <v>44412</v>
       </c>
       <c r="E959" t="n">
         <v>4</v>
@@ -77075,25 +77075,25 @@
       </c>
       <c r="K959" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L959" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M959" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N959" t="n">
-        <v>245000</v>
+        <v>190000</v>
       </c>
       <c r="O959" t="n">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="P959" t="n">
-        <v>247500</v>
+        <v>195000</v>
       </c>
       <c r="Q959" t="inlineStr">
         <is>
@@ -77106,7 +77106,7 @@
         </is>
       </c>
       <c r="S959" t="n">
-        <v>619</v>
+        <v>488</v>
       </c>
       <c r="T959" t="n">
         <v>400</v>
@@ -77127,7 +77127,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44448</v>
+        <v>44412</v>
       </c>
       <c r="E960" t="n">
         <v>4</v>
@@ -77155,25 +77155,25 @@
       </c>
       <c r="K960" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L960" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M960" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N960" t="n">
-        <v>215000</v>
+        <v>270000</v>
       </c>
       <c r="O960" t="n">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="P960" t="n">
-        <v>217500</v>
+        <v>275000</v>
       </c>
       <c r="Q960" t="inlineStr">
         <is>
@@ -77186,7 +77186,7 @@
         </is>
       </c>
       <c r="S960" t="n">
-        <v>544</v>
+        <v>688</v>
       </c>
       <c r="T960" t="n">
         <v>400</v>
@@ -77207,7 +77207,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44448</v>
+        <v>44412</v>
       </c>
       <c r="E961" t="n">
         <v>4</v>
@@ -77235,25 +77235,25 @@
       </c>
       <c r="K961" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L961" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M961" t="n">
         <v>20</v>
       </c>
       <c r="N961" t="n">
-        <v>255000</v>
+        <v>230000</v>
       </c>
       <c r="O961" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="P961" t="n">
-        <v>257500</v>
+        <v>235000</v>
       </c>
       <c r="Q961" t="inlineStr">
         <is>
@@ -77266,7 +77266,7 @@
         </is>
       </c>
       <c r="S961" t="n">
-        <v>644</v>
+        <v>588</v>
       </c>
       <c r="T961" t="n">
         <v>400</v>
@@ -77287,7 +77287,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E962" t="n">
         <v>4</v>
@@ -77320,20 +77320,20 @@
       </c>
       <c r="L962" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M962" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N962" t="n">
-        <v>225000</v>
+        <v>255000</v>
       </c>
       <c r="O962" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="P962" t="n">
-        <v>227500</v>
+        <v>257500</v>
       </c>
       <c r="Q962" t="inlineStr">
         <is>
@@ -77342,11 +77342,11 @@
       </c>
       <c r="R962" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S962" t="n">
-        <v>569</v>
+        <v>644</v>
       </c>
       <c r="T962" t="n">
         <v>400</v>
@@ -77367,7 +77367,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E963" t="n">
         <v>4</v>
@@ -77400,20 +77400,20 @@
       </c>
       <c r="L963" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M963" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N963" t="n">
-        <v>195000</v>
+        <v>230000</v>
       </c>
       <c r="O963" t="n">
-        <v>200000</v>
+        <v>235000</v>
       </c>
       <c r="P963" t="n">
-        <v>197500</v>
+        <v>232500</v>
       </c>
       <c r="Q963" t="inlineStr">
         <is>
@@ -77422,11 +77422,11 @@
       </c>
       <c r="R963" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S963" t="n">
-        <v>494</v>
+        <v>581</v>
       </c>
       <c r="T963" t="n">
         <v>400</v>
@@ -77447,7 +77447,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E964" t="n">
         <v>4</v>
@@ -77475,25 +77475,25 @@
       </c>
       <c r="K964" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L964" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M964" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N964" t="n">
-        <v>225000</v>
+        <v>195000</v>
       </c>
       <c r="O964" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="P964" t="n">
-        <v>227500</v>
+        <v>197500</v>
       </c>
       <c r="Q964" t="inlineStr">
         <is>
@@ -77506,7 +77506,7 @@
         </is>
       </c>
       <c r="S964" t="n">
-        <v>569</v>
+        <v>494</v>
       </c>
       <c r="T964" t="n">
         <v>400</v>
@@ -77527,7 +77527,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E965" t="n">
         <v>4</v>
@@ -77560,20 +77560,20 @@
       </c>
       <c r="L965" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M965" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N965" t="n">
-        <v>205000</v>
+        <v>285000</v>
       </c>
       <c r="O965" t="n">
-        <v>210000</v>
+        <v>290000</v>
       </c>
       <c r="P965" t="n">
-        <v>207500</v>
+        <v>287500</v>
       </c>
       <c r="Q965" t="inlineStr">
         <is>
@@ -77582,11 +77582,11 @@
       </c>
       <c r="R965" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S965" t="n">
-        <v>519</v>
+        <v>719</v>
       </c>
       <c r="T965" t="n">
         <v>400</v>
@@ -77607,7 +77607,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E966" t="n">
         <v>4</v>
@@ -77640,20 +77640,20 @@
       </c>
       <c r="L966" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M966" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N966" t="n">
-        <v>180000</v>
+        <v>255000</v>
       </c>
       <c r="O966" t="n">
-        <v>185000</v>
+        <v>260000</v>
       </c>
       <c r="P966" t="n">
-        <v>182500</v>
+        <v>257500</v>
       </c>
       <c r="Q966" t="inlineStr">
         <is>
@@ -77662,11 +77662,11 @@
       </c>
       <c r="R966" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S966" t="n">
-        <v>456</v>
+        <v>644</v>
       </c>
       <c r="T966" t="n">
         <v>400</v>
@@ -77687,7 +77687,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E967" t="n">
         <v>4</v>
@@ -77724,16 +77724,16 @@
         </is>
       </c>
       <c r="M967" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N967" t="n">
-        <v>285000</v>
+        <v>275000</v>
       </c>
       <c r="O967" t="n">
-        <v>290000</v>
+        <v>280000</v>
       </c>
       <c r="P967" t="n">
-        <v>287500</v>
+        <v>277500</v>
       </c>
       <c r="Q967" t="inlineStr">
         <is>
@@ -77746,7 +77746,7 @@
         </is>
       </c>
       <c r="S967" t="n">
-        <v>719</v>
+        <v>694</v>
       </c>
       <c r="T967" t="n">
         <v>400</v>
@@ -77767,7 +77767,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E968" t="n">
         <v>4</v>
@@ -77807,13 +77807,13 @@
         <v>20</v>
       </c>
       <c r="N968" t="n">
-        <v>265000</v>
+        <v>245000</v>
       </c>
       <c r="O968" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="P968" t="n">
-        <v>267500</v>
+        <v>247500</v>
       </c>
       <c r="Q968" t="inlineStr">
         <is>
@@ -77826,7 +77826,7 @@
         </is>
       </c>
       <c r="S968" t="n">
-        <v>669</v>
+        <v>619</v>
       </c>
       <c r="T968" t="n">
         <v>400</v>
@@ -77847,7 +77847,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E969" t="n">
         <v>4</v>
@@ -77875,25 +77875,25 @@
       </c>
       <c r="K969" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L969" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M969" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N969" t="n">
-        <v>305000</v>
+        <v>215000</v>
       </c>
       <c r="O969" t="n">
-        <v>310000</v>
+        <v>220000</v>
       </c>
       <c r="P969" t="n">
-        <v>307500</v>
+        <v>217500</v>
       </c>
       <c r="Q969" t="inlineStr">
         <is>
@@ -77906,7 +77906,7 @@
         </is>
       </c>
       <c r="S969" t="n">
-        <v>769</v>
+        <v>544</v>
       </c>
       <c r="T969" t="n">
         <v>400</v>
@@ -77927,7 +77927,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E970" t="n">
         <v>4</v>
@@ -77960,20 +77960,20 @@
       </c>
       <c r="L970" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M970" t="n">
         <v>20</v>
       </c>
       <c r="N970" t="n">
-        <v>285000</v>
+        <v>255000</v>
       </c>
       <c r="O970" t="n">
-        <v>290000</v>
+        <v>260000</v>
       </c>
       <c r="P970" t="n">
-        <v>287500</v>
+        <v>257500</v>
       </c>
       <c r="Q970" t="inlineStr">
         <is>
@@ -77986,7 +77986,7 @@
         </is>
       </c>
       <c r="S970" t="n">
-        <v>719</v>
+        <v>644</v>
       </c>
       <c r="T970" t="n">
         <v>400</v>
@@ -78007,7 +78007,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E971" t="n">
         <v>4</v>
@@ -78040,20 +78040,20 @@
       </c>
       <c r="L971" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M971" t="n">
         <v>20</v>
       </c>
       <c r="N971" t="n">
-        <v>235000</v>
+        <v>225000</v>
       </c>
       <c r="O971" t="n">
-        <v>240000</v>
+        <v>230000</v>
       </c>
       <c r="P971" t="n">
-        <v>237500</v>
+        <v>227500</v>
       </c>
       <c r="Q971" t="inlineStr">
         <is>
@@ -78066,7 +78066,7 @@
         </is>
       </c>
       <c r="S971" t="n">
-        <v>594</v>
+        <v>569</v>
       </c>
       <c r="T971" t="n">
         <v>400</v>
@@ -78087,7 +78087,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E972" t="n">
         <v>4</v>
@@ -78115,25 +78115,25 @@
       </c>
       <c r="K972" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L972" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M972" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N972" t="n">
-        <v>325000</v>
+        <v>195000</v>
       </c>
       <c r="O972" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="P972" t="n">
-        <v>327500</v>
+        <v>197500</v>
       </c>
       <c r="Q972" t="inlineStr">
         <is>
@@ -78146,7 +78146,7 @@
         </is>
       </c>
       <c r="S972" t="n">
-        <v>819</v>
+        <v>494</v>
       </c>
       <c r="T972" t="n">
         <v>400</v>
@@ -78167,7 +78167,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E973" t="n">
         <v>4</v>
@@ -78195,25 +78195,25 @@
       </c>
       <c r="K973" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L973" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M973" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N973" t="n">
-        <v>285000</v>
+        <v>225000</v>
       </c>
       <c r="O973" t="n">
-        <v>290000</v>
+        <v>230000</v>
       </c>
       <c r="P973" t="n">
-        <v>287500</v>
+        <v>227500</v>
       </c>
       <c r="Q973" t="inlineStr">
         <is>
@@ -78222,11 +78222,11 @@
       </c>
       <c r="R973" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S973" t="n">
-        <v>719</v>
+        <v>569</v>
       </c>
       <c r="T973" t="n">
         <v>400</v>
@@ -78247,7 +78247,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E974" t="n">
         <v>4</v>
@@ -78275,25 +78275,25 @@
       </c>
       <c r="K974" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L974" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M974" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N974" t="n">
-        <v>235000</v>
+        <v>205000</v>
       </c>
       <c r="O974" t="n">
-        <v>240000</v>
+        <v>210000</v>
       </c>
       <c r="P974" t="n">
-        <v>237500</v>
+        <v>207500</v>
       </c>
       <c r="Q974" t="inlineStr">
         <is>
@@ -78302,11 +78302,11 @@
       </c>
       <c r="R974" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S974" t="n">
-        <v>594</v>
+        <v>519</v>
       </c>
       <c r="T974" t="n">
         <v>400</v>
@@ -78327,7 +78327,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E975" t="n">
         <v>4</v>
@@ -78355,25 +78355,25 @@
       </c>
       <c r="K975" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L975" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M975" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N975" t="n">
-        <v>215000</v>
+        <v>180000</v>
       </c>
       <c r="O975" t="n">
-        <v>220000</v>
+        <v>185000</v>
       </c>
       <c r="P975" t="n">
-        <v>217500</v>
+        <v>182500</v>
       </c>
       <c r="Q975" t="inlineStr">
         <is>
@@ -78382,11 +78382,11 @@
       </c>
       <c r="R975" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S975" t="n">
-        <v>544</v>
+        <v>456</v>
       </c>
       <c r="T975" t="n">
         <v>400</v>
@@ -78407,7 +78407,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E976" t="n">
         <v>4</v>
@@ -78440,20 +78440,20 @@
       </c>
       <c r="L976" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M976" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N976" t="n">
-        <v>195000</v>
+        <v>285000</v>
       </c>
       <c r="O976" t="n">
-        <v>200000</v>
+        <v>290000</v>
       </c>
       <c r="P976" t="n">
-        <v>197500</v>
+        <v>287500</v>
       </c>
       <c r="Q976" t="inlineStr">
         <is>
@@ -78466,7 +78466,7 @@
         </is>
       </c>
       <c r="S976" t="n">
-        <v>494</v>
+        <v>719</v>
       </c>
       <c r="T976" t="n">
         <v>400</v>
@@ -78487,7 +78487,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E977" t="n">
         <v>4</v>
@@ -78515,7 +78515,7 @@
       </c>
       <c r="K977" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L977" t="inlineStr">
@@ -78527,13 +78527,13 @@
         <v>20</v>
       </c>
       <c r="N977" t="n">
-        <v>205000</v>
+        <v>265000</v>
       </c>
       <c r="O977" t="n">
-        <v>210000</v>
+        <v>270000</v>
       </c>
       <c r="P977" t="n">
-        <v>207500</v>
+        <v>267500</v>
       </c>
       <c r="Q977" t="inlineStr">
         <is>
@@ -78546,7 +78546,7 @@
         </is>
       </c>
       <c r="S977" t="n">
-        <v>519</v>
+        <v>669</v>
       </c>
       <c r="T977" t="n">
         <v>400</v>
@@ -78567,7 +78567,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E978" t="n">
         <v>4</v>
@@ -78600,20 +78600,20 @@
       </c>
       <c r="L978" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M978" t="n">
         <v>20</v>
       </c>
       <c r="N978" t="n">
-        <v>175000</v>
+        <v>305000</v>
       </c>
       <c r="O978" t="n">
-        <v>180000</v>
+        <v>310000</v>
       </c>
       <c r="P978" t="n">
-        <v>177500</v>
+        <v>307500</v>
       </c>
       <c r="Q978" t="inlineStr">
         <is>
@@ -78626,7 +78626,7 @@
         </is>
       </c>
       <c r="S978" t="n">
-        <v>444</v>
+        <v>769</v>
       </c>
       <c r="T978" t="n">
         <v>400</v>
@@ -78647,7 +78647,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E979" t="n">
         <v>4</v>
@@ -78675,7 +78675,7 @@
       </c>
       <c r="K979" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L979" t="inlineStr">
@@ -78684,16 +78684,16 @@
         </is>
       </c>
       <c r="M979" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N979" t="n">
-        <v>175000</v>
+        <v>285000</v>
       </c>
       <c r="O979" t="n">
-        <v>180000</v>
+        <v>290000</v>
       </c>
       <c r="P979" t="n">
-        <v>177500</v>
+        <v>287500</v>
       </c>
       <c r="Q979" t="inlineStr">
         <is>
@@ -78706,7 +78706,7 @@
         </is>
       </c>
       <c r="S979" t="n">
-        <v>444</v>
+        <v>719</v>
       </c>
       <c r="T979" t="n">
         <v>400</v>
@@ -78727,7 +78727,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E980" t="n">
         <v>4</v>
@@ -78755,7 +78755,7 @@
       </c>
       <c r="K980" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L980" t="inlineStr">
@@ -78764,16 +78764,16 @@
         </is>
       </c>
       <c r="M980" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N980" t="n">
-        <v>155000</v>
+        <v>235000</v>
       </c>
       <c r="O980" t="n">
-        <v>160000</v>
+        <v>240000</v>
       </c>
       <c r="P980" t="n">
-        <v>157500</v>
+        <v>237500</v>
       </c>
       <c r="Q980" t="inlineStr">
         <is>
@@ -78786,7 +78786,7 @@
         </is>
       </c>
       <c r="S980" t="n">
-        <v>394</v>
+        <v>594</v>
       </c>
       <c r="T980" t="n">
         <v>400</v>
@@ -78807,7 +78807,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E981" t="n">
         <v>4</v>
@@ -78835,7 +78835,7 @@
       </c>
       <c r="K981" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L981" t="inlineStr">
@@ -78844,16 +78844,16 @@
         </is>
       </c>
       <c r="M981" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N981" t="n">
-        <v>235000</v>
+        <v>325000</v>
       </c>
       <c r="O981" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="P981" t="n">
-        <v>237500</v>
+        <v>327500</v>
       </c>
       <c r="Q981" t="inlineStr">
         <is>
@@ -78866,7 +78866,7 @@
         </is>
       </c>
       <c r="S981" t="n">
-        <v>594</v>
+        <v>819</v>
       </c>
       <c r="T981" t="n">
         <v>400</v>
@@ -78887,7 +78887,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E982" t="n">
         <v>4</v>
@@ -78915,7 +78915,7 @@
       </c>
       <c r="K982" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L982" t="inlineStr">
@@ -78924,16 +78924,16 @@
         </is>
       </c>
       <c r="M982" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N982" t="n">
-        <v>215000</v>
+        <v>285000</v>
       </c>
       <c r="O982" t="n">
-        <v>220000</v>
+        <v>290000</v>
       </c>
       <c r="P982" t="n">
-        <v>217500</v>
+        <v>287500</v>
       </c>
       <c r="Q982" t="inlineStr">
         <is>
@@ -78946,7 +78946,7 @@
         </is>
       </c>
       <c r="S982" t="n">
-        <v>544</v>
+        <v>719</v>
       </c>
       <c r="T982" t="n">
         <v>400</v>
@@ -78967,7 +78967,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E983" t="n">
         <v>4</v>
@@ -79004,16 +79004,16 @@
         </is>
       </c>
       <c r="M983" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N983" t="n">
-        <v>245000</v>
+        <v>235000</v>
       </c>
       <c r="O983" t="n">
-        <v>250000</v>
+        <v>240000</v>
       </c>
       <c r="P983" t="n">
-        <v>247500</v>
+        <v>237500</v>
       </c>
       <c r="Q983" t="inlineStr">
         <is>
@@ -79022,11 +79022,11 @@
       </c>
       <c r="R983" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S983" t="n">
-        <v>619</v>
+        <v>594</v>
       </c>
       <c r="T983" t="n">
         <v>400</v>
@@ -79047,7 +79047,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E984" t="n">
         <v>4</v>
@@ -79087,13 +79087,13 @@
         <v>20</v>
       </c>
       <c r="N984" t="n">
-        <v>225000</v>
+        <v>215000</v>
       </c>
       <c r="O984" t="n">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="P984" t="n">
-        <v>227500</v>
+        <v>217500</v>
       </c>
       <c r="Q984" t="inlineStr">
         <is>
@@ -79102,11 +79102,11 @@
       </c>
       <c r="R984" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S984" t="n">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="T984" t="n">
         <v>400</v>
@@ -79127,7 +79127,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E985" t="n">
         <v>4</v>
@@ -79182,7 +79182,7 @@
       </c>
       <c r="R985" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S985" t="n">
@@ -79207,7 +79207,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E986" t="n">
         <v>4</v>
@@ -79240,20 +79240,20 @@
       </c>
       <c r="L986" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M986" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N986" t="n">
-        <v>235000</v>
+        <v>205000</v>
       </c>
       <c r="O986" t="n">
-        <v>240000</v>
+        <v>210000</v>
       </c>
       <c r="P986" t="n">
-        <v>237500</v>
+        <v>207500</v>
       </c>
       <c r="Q986" t="inlineStr">
         <is>
@@ -79262,11 +79262,11 @@
       </c>
       <c r="R986" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S986" t="n">
-        <v>594</v>
+        <v>519</v>
       </c>
       <c r="T986" t="n">
         <v>400</v>
@@ -79287,7 +79287,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E987" t="n">
         <v>4</v>
@@ -79320,20 +79320,20 @@
       </c>
       <c r="L987" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M987" t="n">
         <v>20</v>
       </c>
       <c r="N987" t="n">
-        <v>205000</v>
+        <v>175000</v>
       </c>
       <c r="O987" t="n">
-        <v>210000</v>
+        <v>180000</v>
       </c>
       <c r="P987" t="n">
-        <v>207500</v>
+        <v>177500</v>
       </c>
       <c r="Q987" t="inlineStr">
         <is>
@@ -79342,11 +79342,11 @@
       </c>
       <c r="R987" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S987" t="n">
-        <v>519</v>
+        <v>444</v>
       </c>
       <c r="T987" t="n">
         <v>400</v>
@@ -79367,7 +79367,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E988" t="n">
         <v>4</v>
@@ -79395,25 +79395,25 @@
       </c>
       <c r="K988" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L988" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M988" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N988" t="n">
-        <v>185000</v>
+        <v>175000</v>
       </c>
       <c r="O988" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="P988" t="n">
-        <v>187500</v>
+        <v>177500</v>
       </c>
       <c r="Q988" t="inlineStr">
         <is>
@@ -79422,11 +79422,11 @@
       </c>
       <c r="R988" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S988" t="n">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="T988" t="n">
         <v>400</v>
@@ -79447,7 +79447,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E989" t="n">
         <v>4</v>
@@ -79480,20 +79480,20 @@
       </c>
       <c r="L989" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M989" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N989" t="n">
-        <v>175000</v>
+        <v>155000</v>
       </c>
       <c r="O989" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
       <c r="P989" t="n">
-        <v>177500</v>
+        <v>157500</v>
       </c>
       <c r="Q989" t="inlineStr">
         <is>
@@ -79506,7 +79506,7 @@
         </is>
       </c>
       <c r="S989" t="n">
-        <v>444</v>
+        <v>394</v>
       </c>
       <c r="T989" t="n">
         <v>400</v>
@@ -79527,7 +79527,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E990" t="n">
         <v>4</v>
@@ -79555,25 +79555,25 @@
       </c>
       <c r="K990" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L990" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M990" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N990" t="n">
-        <v>155000</v>
+        <v>235000</v>
       </c>
       <c r="O990" t="n">
-        <v>160000</v>
+        <v>240000</v>
       </c>
       <c r="P990" t="n">
-        <v>157500</v>
+        <v>237500</v>
       </c>
       <c r="Q990" t="inlineStr">
         <is>
@@ -79586,7 +79586,7 @@
         </is>
       </c>
       <c r="S990" t="n">
-        <v>394</v>
+        <v>594</v>
       </c>
       <c r="T990" t="n">
         <v>400</v>
@@ -79607,7 +79607,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E991" t="n">
         <v>4</v>
@@ -79640,20 +79640,20 @@
       </c>
       <c r="L991" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M991" t="n">
         <v>16</v>
       </c>
       <c r="N991" t="n">
-        <v>235000</v>
+        <v>215000</v>
       </c>
       <c r="O991" t="n">
-        <v>240000</v>
+        <v>220000</v>
       </c>
       <c r="P991" t="n">
-        <v>237500</v>
+        <v>217500</v>
       </c>
       <c r="Q991" t="inlineStr">
         <is>
@@ -79666,7 +79666,7 @@
         </is>
       </c>
       <c r="S991" t="n">
-        <v>594</v>
+        <v>544</v>
       </c>
       <c r="T991" t="n">
         <v>400</v>
@@ -79715,25 +79715,25 @@
       </c>
       <c r="K992" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L992" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M992" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N992" t="n">
-        <v>215000</v>
+        <v>245000</v>
       </c>
       <c r="O992" t="n">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="P992" t="n">
-        <v>217500</v>
+        <v>247500</v>
       </c>
       <c r="Q992" t="inlineStr">
         <is>
@@ -79742,11 +79742,11 @@
       </c>
       <c r="R992" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S992" t="n">
-        <v>544</v>
+        <v>619</v>
       </c>
       <c r="T992" t="n">
         <v>400</v>
@@ -79795,40 +79795,760 @@
       </c>
       <c r="K993" t="inlineStr">
         <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L993" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M993" t="n">
+        <v>20</v>
+      </c>
+      <c r="N993" t="n">
+        <v>225000</v>
+      </c>
+      <c r="O993" t="n">
+        <v>230000</v>
+      </c>
+      <c r="P993" t="n">
+        <v>227500</v>
+      </c>
+      <c r="Q993" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R993" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S993" t="n">
+        <v>569</v>
+      </c>
+      <c r="T993" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="n">
+        <v>8</v>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C994" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D994" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E994" t="n">
+        <v>4</v>
+      </c>
+      <c r="F994" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G994" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H994" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I994" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J994" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K994" t="inlineStr">
+        <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L994" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M994" t="n">
+        <v>20</v>
+      </c>
+      <c r="N994" t="n">
+        <v>195000</v>
+      </c>
+      <c r="O994" t="n">
+        <v>200000</v>
+      </c>
+      <c r="P994" t="n">
+        <v>197500</v>
+      </c>
+      <c r="Q994" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R994" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S994" t="n">
+        <v>494</v>
+      </c>
+      <c r="T994" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="n">
+        <v>8</v>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C995" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D995" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E995" t="n">
+        <v>4</v>
+      </c>
+      <c r="F995" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G995" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H995" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I995" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J995" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K995" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L995" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M995" t="n">
+        <v>16</v>
+      </c>
+      <c r="N995" t="n">
+        <v>235000</v>
+      </c>
+      <c r="O995" t="n">
+        <v>240000</v>
+      </c>
+      <c r="P995" t="n">
+        <v>237500</v>
+      </c>
+      <c r="Q995" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R995" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S995" t="n">
+        <v>594</v>
+      </c>
+      <c r="T995" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="n">
+        <v>8</v>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C996" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D996" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E996" t="n">
+        <v>4</v>
+      </c>
+      <c r="F996" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G996" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H996" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I996" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J996" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K996" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L996" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M996" t="n">
+        <v>20</v>
+      </c>
+      <c r="N996" t="n">
+        <v>205000</v>
+      </c>
+      <c r="O996" t="n">
+        <v>210000</v>
+      </c>
+      <c r="P996" t="n">
+        <v>207500</v>
+      </c>
+      <c r="Q996" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R996" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S996" t="n">
+        <v>519</v>
+      </c>
+      <c r="T996" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="n">
+        <v>8</v>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C997" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D997" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E997" t="n">
+        <v>4</v>
+      </c>
+      <c r="F997" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G997" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H997" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I997" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J997" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K997" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L997" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M997" t="n">
+        <v>12</v>
+      </c>
+      <c r="N997" t="n">
+        <v>185000</v>
+      </c>
+      <c r="O997" t="n">
+        <v>190000</v>
+      </c>
+      <c r="P997" t="n">
+        <v>187500</v>
+      </c>
+      <c r="Q997" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R997" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S997" t="n">
+        <v>469</v>
+      </c>
+      <c r="T997" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="n">
+        <v>8</v>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C998" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D998" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E998" t="n">
+        <v>4</v>
+      </c>
+      <c r="F998" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G998" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H998" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I998" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J998" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K998" t="inlineStr">
+        <is>
+          <t>Pink Lady</t>
+        </is>
+      </c>
+      <c r="L998" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M998" t="n">
+        <v>20</v>
+      </c>
+      <c r="N998" t="n">
+        <v>175000</v>
+      </c>
+      <c r="O998" t="n">
+        <v>180000</v>
+      </c>
+      <c r="P998" t="n">
+        <v>177500</v>
+      </c>
+      <c r="Q998" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R998" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S998" t="n">
+        <v>444</v>
+      </c>
+      <c r="T998" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="n">
+        <v>8</v>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C999" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D999" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E999" t="n">
+        <v>4</v>
+      </c>
+      <c r="F999" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G999" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H999" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I999" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J999" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K999" t="inlineStr">
+        <is>
+          <t>Pink Lady</t>
+        </is>
+      </c>
+      <c r="L999" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M999" t="n">
+        <v>20</v>
+      </c>
+      <c r="N999" t="n">
+        <v>155000</v>
+      </c>
+      <c r="O999" t="n">
+        <v>160000</v>
+      </c>
+      <c r="P999" t="n">
+        <v>157500</v>
+      </c>
+      <c r="Q999" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R999" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S999" t="n">
+        <v>394</v>
+      </c>
+      <c r="T999" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1000" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1000" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1000" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1000" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1000" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1000" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1000" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1000" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1000" t="inlineStr">
+        <is>
           <t>Scarlett</t>
         </is>
       </c>
-      <c r="L993" t="inlineStr">
+      <c r="L1000" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M1000" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1000" t="n">
+        <v>235000</v>
+      </c>
+      <c r="O1000" t="n">
+        <v>240000</v>
+      </c>
+      <c r="P1000" t="n">
+        <v>237500</v>
+      </c>
+      <c r="Q1000" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1000" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1000" t="n">
+        <v>594</v>
+      </c>
+      <c r="T1000" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1001" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1001" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1001" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1001" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1001" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1001" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1001" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1001" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1001" t="inlineStr">
+        <is>
+          <t>Scarlett</t>
+        </is>
+      </c>
+      <c r="L1001" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1001" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1001" t="n">
+        <v>215000</v>
+      </c>
+      <c r="O1001" t="n">
+        <v>220000</v>
+      </c>
+      <c r="P1001" t="n">
+        <v>217500</v>
+      </c>
+      <c r="Q1001" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1001" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1001" t="n">
+        <v>544</v>
+      </c>
+      <c r="T1001" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1002" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1002" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1002" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1002" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1002" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1002" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1002" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1002" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1002" t="inlineStr">
+        <is>
+          <t>Scarlett</t>
+        </is>
+      </c>
+      <c r="L1002" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M993" t="n">
+      <c r="M1002" t="n">
         <v>16</v>
       </c>
-      <c r="N993" t="n">
+      <c r="N1002" t="n">
         <v>195000</v>
       </c>
-      <c r="O993" t="n">
+      <c r="O1002" t="n">
         <v>200000</v>
       </c>
-      <c r="P993" t="n">
+      <c r="P1002" t="n">
         <v>197500</v>
       </c>
-      <c r="Q993" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R993" t="inlineStr">
+      <c r="Q1002" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1002" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S993" t="n">
+      <c r="S1002" t="n">
         <v>494</v>
       </c>
-      <c r="T993" t="n">
+      <c r="T1002" t="n">
         <v>400</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Manzana.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Manzana.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1090"/>
+  <dimension ref="A1:T1093"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77367,7 +77367,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E963" t="n">
         <v>4</v>
@@ -77404,16 +77404,16 @@
         </is>
       </c>
       <c r="M963" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N963" t="n">
-        <v>275000</v>
+        <v>310000</v>
       </c>
       <c r="O963" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="P963" t="n">
-        <v>277500</v>
+        <v>315000</v>
       </c>
       <c r="Q963" t="inlineStr">
         <is>
@@ -77422,11 +77422,11 @@
       </c>
       <c r="R963" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S963" t="n">
-        <v>694</v>
+        <v>788</v>
       </c>
       <c r="T963" t="n">
         <v>400</v>
@@ -77447,7 +77447,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E964" t="n">
         <v>4</v>
@@ -77487,13 +77487,13 @@
         <v>20</v>
       </c>
       <c r="N964" t="n">
-        <v>255000</v>
+        <v>290000</v>
       </c>
       <c r="O964" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="P964" t="n">
-        <v>257500</v>
+        <v>295000</v>
       </c>
       <c r="Q964" t="inlineStr">
         <is>
@@ -77502,11 +77502,11 @@
       </c>
       <c r="R964" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S964" t="n">
-        <v>644</v>
+        <v>738</v>
       </c>
       <c r="T964" t="n">
         <v>400</v>
@@ -77527,7 +77527,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E965" t="n">
         <v>4</v>
@@ -77564,16 +77564,16 @@
         </is>
       </c>
       <c r="M965" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N965" t="n">
-        <v>235000</v>
+        <v>270000</v>
       </c>
       <c r="O965" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="P965" t="n">
-        <v>237500</v>
+        <v>275000</v>
       </c>
       <c r="Q965" t="inlineStr">
         <is>
@@ -77582,11 +77582,11 @@
       </c>
       <c r="R965" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S965" t="n">
-        <v>594</v>
+        <v>688</v>
       </c>
       <c r="T965" t="n">
         <v>400</v>
@@ -77635,7 +77635,7 @@
       </c>
       <c r="K966" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L966" t="inlineStr">
@@ -77647,13 +77647,13 @@
         <v>20</v>
       </c>
       <c r="N966" t="n">
-        <v>255000</v>
+        <v>275000</v>
       </c>
       <c r="O966" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="P966" t="n">
-        <v>257500</v>
+        <v>277500</v>
       </c>
       <c r="Q966" t="inlineStr">
         <is>
@@ -77666,7 +77666,7 @@
         </is>
       </c>
       <c r="S966" t="n">
-        <v>644</v>
+        <v>694</v>
       </c>
       <c r="T966" t="n">
         <v>400</v>
@@ -77715,7 +77715,7 @@
       </c>
       <c r="K967" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L967" t="inlineStr">
@@ -77727,13 +77727,13 @@
         <v>20</v>
       </c>
       <c r="N967" t="n">
-        <v>235000</v>
+        <v>255000</v>
       </c>
       <c r="O967" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="P967" t="n">
-        <v>237500</v>
+        <v>257500</v>
       </c>
       <c r="Q967" t="inlineStr">
         <is>
@@ -77746,7 +77746,7 @@
         </is>
       </c>
       <c r="S967" t="n">
-        <v>594</v>
+        <v>644</v>
       </c>
       <c r="T967" t="n">
         <v>400</v>
@@ -77795,7 +77795,7 @@
       </c>
       <c r="K968" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L968" t="inlineStr">
@@ -77807,13 +77807,13 @@
         <v>16</v>
       </c>
       <c r="N968" t="n">
-        <v>215000</v>
+        <v>235000</v>
       </c>
       <c r="O968" t="n">
-        <v>220000</v>
+        <v>240000</v>
       </c>
       <c r="P968" t="n">
-        <v>217500</v>
+        <v>237500</v>
       </c>
       <c r="Q968" t="inlineStr">
         <is>
@@ -77826,7 +77826,7 @@
         </is>
       </c>
       <c r="S968" t="n">
-        <v>544</v>
+        <v>594</v>
       </c>
       <c r="T968" t="n">
         <v>400</v>
@@ -77875,25 +77875,25 @@
       </c>
       <c r="K969" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L969" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M969" t="n">
         <v>20</v>
       </c>
       <c r="N969" t="n">
-        <v>205000</v>
+        <v>255000</v>
       </c>
       <c r="O969" t="n">
-        <v>210000</v>
+        <v>260000</v>
       </c>
       <c r="P969" t="n">
-        <v>207500</v>
+        <v>257500</v>
       </c>
       <c r="Q969" t="inlineStr">
         <is>
@@ -77902,11 +77902,11 @@
       </c>
       <c r="R969" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S969" t="n">
-        <v>519</v>
+        <v>644</v>
       </c>
       <c r="T969" t="n">
         <v>400</v>
@@ -77955,25 +77955,25 @@
       </c>
       <c r="K970" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L970" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M970" t="n">
         <v>20</v>
       </c>
       <c r="N970" t="n">
-        <v>185000</v>
+        <v>235000</v>
       </c>
       <c r="O970" t="n">
-        <v>190000</v>
+        <v>240000</v>
       </c>
       <c r="P970" t="n">
-        <v>187500</v>
+        <v>237500</v>
       </c>
       <c r="Q970" t="inlineStr">
         <is>
@@ -77982,11 +77982,11 @@
       </c>
       <c r="R970" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S970" t="n">
-        <v>469</v>
+        <v>594</v>
       </c>
       <c r="T970" t="n">
         <v>400</v>
@@ -78035,25 +78035,25 @@
       </c>
       <c r="K971" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L971" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M971" t="n">
         <v>16</v>
       </c>
       <c r="N971" t="n">
-        <v>255000</v>
+        <v>215000</v>
       </c>
       <c r="O971" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="P971" t="n">
-        <v>257500</v>
+        <v>217500</v>
       </c>
       <c r="Q971" t="inlineStr">
         <is>
@@ -78066,7 +78066,7 @@
         </is>
       </c>
       <c r="S971" t="n">
-        <v>644</v>
+        <v>544</v>
       </c>
       <c r="T971" t="n">
         <v>400</v>
@@ -78087,7 +78087,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E972" t="n">
         <v>4</v>
@@ -78115,25 +78115,25 @@
       </c>
       <c r="K972" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L972" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M972" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N972" t="n">
-        <v>230000</v>
+        <v>205000</v>
       </c>
       <c r="O972" t="n">
-        <v>235000</v>
+        <v>210000</v>
       </c>
       <c r="P972" t="n">
-        <v>232500</v>
+        <v>207500</v>
       </c>
       <c r="Q972" t="inlineStr">
         <is>
@@ -78146,7 +78146,7 @@
         </is>
       </c>
       <c r="S972" t="n">
-        <v>581</v>
+        <v>519</v>
       </c>
       <c r="T972" t="n">
         <v>400</v>
@@ -78167,7 +78167,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E973" t="n">
         <v>4</v>
@@ -78195,25 +78195,25 @@
       </c>
       <c r="K973" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L973" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M973" t="n">
         <v>20</v>
       </c>
       <c r="N973" t="n">
-        <v>205000</v>
+        <v>185000</v>
       </c>
       <c r="O973" t="n">
-        <v>210000</v>
+        <v>190000</v>
       </c>
       <c r="P973" t="n">
-        <v>207500</v>
+        <v>187500</v>
       </c>
       <c r="Q973" t="inlineStr">
         <is>
@@ -78226,7 +78226,7 @@
         </is>
       </c>
       <c r="S973" t="n">
-        <v>519</v>
+        <v>469</v>
       </c>
       <c r="T973" t="n">
         <v>400</v>
@@ -78247,7 +78247,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E974" t="n">
         <v>4</v>
@@ -78275,25 +78275,25 @@
       </c>
       <c r="K974" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L974" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M974" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N974" t="n">
-        <v>185000</v>
+        <v>255000</v>
       </c>
       <c r="O974" t="n">
-        <v>190000</v>
+        <v>260000</v>
       </c>
       <c r="P974" t="n">
-        <v>187500</v>
+        <v>257500</v>
       </c>
       <c r="Q974" t="inlineStr">
         <is>
@@ -78302,11 +78302,11 @@
       </c>
       <c r="R974" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S974" t="n">
-        <v>469</v>
+        <v>644</v>
       </c>
       <c r="T974" t="n">
         <v>400</v>
@@ -78355,7 +78355,7 @@
       </c>
       <c r="K975" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L975" t="inlineStr">
@@ -78367,13 +78367,13 @@
         <v>16</v>
       </c>
       <c r="N975" t="n">
-        <v>215000</v>
+        <v>230000</v>
       </c>
       <c r="O975" t="n">
-        <v>220000</v>
+        <v>235000</v>
       </c>
       <c r="P975" t="n">
-        <v>217500</v>
+        <v>232500</v>
       </c>
       <c r="Q975" t="inlineStr">
         <is>
@@ -78382,11 +78382,11 @@
       </c>
       <c r="R975" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S975" t="n">
-        <v>544</v>
+        <v>581</v>
       </c>
       <c r="T975" t="n">
         <v>400</v>
@@ -78435,7 +78435,7 @@
       </c>
       <c r="K976" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L976" t="inlineStr">
@@ -78447,13 +78447,13 @@
         <v>20</v>
       </c>
       <c r="N976" t="n">
-        <v>195000</v>
+        <v>205000</v>
       </c>
       <c r="O976" t="n">
-        <v>200000</v>
+        <v>210000</v>
       </c>
       <c r="P976" t="n">
-        <v>197500</v>
+        <v>207500</v>
       </c>
       <c r="Q976" t="inlineStr">
         <is>
@@ -78462,11 +78462,11 @@
       </c>
       <c r="R976" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S976" t="n">
-        <v>494</v>
+        <v>519</v>
       </c>
       <c r="T976" t="n">
         <v>400</v>
@@ -78515,7 +78515,7 @@
       </c>
       <c r="K977" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L977" t="inlineStr">
@@ -78524,16 +78524,16 @@
         </is>
       </c>
       <c r="M977" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N977" t="n">
-        <v>175000</v>
+        <v>185000</v>
       </c>
       <c r="O977" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="P977" t="n">
-        <v>177500</v>
+        <v>187500</v>
       </c>
       <c r="Q977" t="inlineStr">
         <is>
@@ -78542,11 +78542,11 @@
       </c>
       <c r="R977" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S977" t="n">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="T977" t="n">
         <v>400</v>
@@ -78595,25 +78595,25 @@
       </c>
       <c r="K978" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L978" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M978" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N978" t="n">
-        <v>190000</v>
+        <v>215000</v>
       </c>
       <c r="O978" t="n">
-        <v>195000</v>
+        <v>220000</v>
       </c>
       <c r="P978" t="n">
-        <v>192500</v>
+        <v>217500</v>
       </c>
       <c r="Q978" t="inlineStr">
         <is>
@@ -78622,11 +78622,11 @@
       </c>
       <c r="R978" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S978" t="n">
-        <v>481</v>
+        <v>544</v>
       </c>
       <c r="T978" t="n">
         <v>400</v>
@@ -78675,25 +78675,25 @@
       </c>
       <c r="K979" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L979" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M979" t="n">
         <v>20</v>
       </c>
       <c r="N979" t="n">
-        <v>170000</v>
+        <v>195000</v>
       </c>
       <c r="O979" t="n">
-        <v>175000</v>
+        <v>200000</v>
       </c>
       <c r="P979" t="n">
-        <v>172500</v>
+        <v>197500</v>
       </c>
       <c r="Q979" t="inlineStr">
         <is>
@@ -78702,11 +78702,11 @@
       </c>
       <c r="R979" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S979" t="n">
-        <v>431</v>
+        <v>494</v>
       </c>
       <c r="T979" t="n">
         <v>400</v>
@@ -78755,25 +78755,25 @@
       </c>
       <c r="K980" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L980" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M980" t="n">
         <v>16</v>
       </c>
       <c r="N980" t="n">
-        <v>195000</v>
+        <v>175000</v>
       </c>
       <c r="O980" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P980" t="n">
-        <v>197500</v>
+        <v>177500</v>
       </c>
       <c r="Q980" t="inlineStr">
         <is>
@@ -78782,11 +78782,11 @@
       </c>
       <c r="R980" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S980" t="n">
-        <v>494</v>
+        <v>444</v>
       </c>
       <c r="T980" t="n">
         <v>400</v>
@@ -78835,25 +78835,25 @@
       </c>
       <c r="K981" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L981" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M981" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N981" t="n">
-        <v>175000</v>
+        <v>190000</v>
       </c>
       <c r="O981" t="n">
-        <v>180000</v>
+        <v>195000</v>
       </c>
       <c r="P981" t="n">
-        <v>177500</v>
+        <v>192500</v>
       </c>
       <c r="Q981" t="inlineStr">
         <is>
@@ -78866,7 +78866,7 @@
         </is>
       </c>
       <c r="S981" t="n">
-        <v>444</v>
+        <v>481</v>
       </c>
       <c r="T981" t="n">
         <v>400</v>
@@ -78887,7 +78887,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E982" t="n">
         <v>4</v>
@@ -78915,25 +78915,25 @@
       </c>
       <c r="K982" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L982" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M982" t="n">
         <v>20</v>
       </c>
       <c r="N982" t="n">
-        <v>325000</v>
+        <v>170000</v>
       </c>
       <c r="O982" t="n">
-        <v>330000</v>
+        <v>175000</v>
       </c>
       <c r="P982" t="n">
-        <v>327500</v>
+        <v>172500</v>
       </c>
       <c r="Q982" t="inlineStr">
         <is>
@@ -78942,11 +78942,11 @@
       </c>
       <c r="R982" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S982" t="n">
-        <v>819</v>
+        <v>431</v>
       </c>
       <c r="T982" t="n">
         <v>400</v>
@@ -78967,7 +78967,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E983" t="n">
         <v>4</v>
@@ -78995,7 +78995,7 @@
       </c>
       <c r="K983" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L983" t="inlineStr">
@@ -79004,16 +79004,16 @@
         </is>
       </c>
       <c r="M983" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N983" t="n">
-        <v>295000</v>
+        <v>195000</v>
       </c>
       <c r="O983" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="P983" t="n">
-        <v>297500</v>
+        <v>197500</v>
       </c>
       <c r="Q983" t="inlineStr">
         <is>
@@ -79022,11 +79022,11 @@
       </c>
       <c r="R983" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S983" t="n">
-        <v>744</v>
+        <v>494</v>
       </c>
       <c r="T983" t="n">
         <v>400</v>
@@ -79047,7 +79047,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E984" t="n">
         <v>4</v>
@@ -79075,25 +79075,25 @@
       </c>
       <c r="K984" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L984" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M984" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N984" t="n">
-        <v>295000</v>
+        <v>175000</v>
       </c>
       <c r="O984" t="n">
-        <v>300000</v>
+        <v>180000</v>
       </c>
       <c r="P984" t="n">
-        <v>297500</v>
+        <v>177500</v>
       </c>
       <c r="Q984" t="inlineStr">
         <is>
@@ -79106,7 +79106,7 @@
         </is>
       </c>
       <c r="S984" t="n">
-        <v>744</v>
+        <v>444</v>
       </c>
       <c r="T984" t="n">
         <v>400</v>
@@ -79155,25 +79155,25 @@
       </c>
       <c r="K985" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L985" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M985" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N985" t="n">
-        <v>255000</v>
+        <v>325000</v>
       </c>
       <c r="O985" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="P985" t="n">
-        <v>257500</v>
+        <v>327500</v>
       </c>
       <c r="Q985" t="inlineStr">
         <is>
@@ -79182,11 +79182,11 @@
       </c>
       <c r="R985" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S985" t="n">
-        <v>644</v>
+        <v>819</v>
       </c>
       <c r="T985" t="n">
         <v>400</v>
@@ -79235,25 +79235,25 @@
       </c>
       <c r="K986" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L986" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M986" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N986" t="n">
-        <v>225000</v>
+        <v>295000</v>
       </c>
       <c r="O986" t="n">
-        <v>230000</v>
+        <v>300000</v>
       </c>
       <c r="P986" t="n">
-        <v>227500</v>
+        <v>297500</v>
       </c>
       <c r="Q986" t="inlineStr">
         <is>
@@ -79262,11 +79262,11 @@
       </c>
       <c r="R986" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S986" t="n">
-        <v>569</v>
+        <v>744</v>
       </c>
       <c r="T986" t="n">
         <v>400</v>
@@ -79315,7 +79315,7 @@
       </c>
       <c r="K987" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L987" t="inlineStr">
@@ -79395,7 +79395,7 @@
       </c>
       <c r="K988" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L988" t="inlineStr">
@@ -79407,13 +79407,13 @@
         <v>18</v>
       </c>
       <c r="N988" t="n">
-        <v>265000</v>
+        <v>255000</v>
       </c>
       <c r="O988" t="n">
-        <v>270000</v>
+        <v>260000</v>
       </c>
       <c r="P988" t="n">
-        <v>267500</v>
+        <v>257500</v>
       </c>
       <c r="Q988" t="inlineStr">
         <is>
@@ -79426,7 +79426,7 @@
         </is>
       </c>
       <c r="S988" t="n">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="T988" t="n">
         <v>400</v>
@@ -79475,7 +79475,7 @@
       </c>
       <c r="K989" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L989" t="inlineStr">
@@ -79487,13 +79487,13 @@
         <v>16</v>
       </c>
       <c r="N989" t="n">
-        <v>235000</v>
+        <v>225000</v>
       </c>
       <c r="O989" t="n">
-        <v>240000</v>
+        <v>230000</v>
       </c>
       <c r="P989" t="n">
-        <v>237500</v>
+        <v>227500</v>
       </c>
       <c r="Q989" t="inlineStr">
         <is>
@@ -79506,7 +79506,7 @@
         </is>
       </c>
       <c r="S989" t="n">
-        <v>594</v>
+        <v>569</v>
       </c>
       <c r="T989" t="n">
         <v>400</v>
@@ -79527,7 +79527,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E990" t="n">
         <v>4</v>
@@ -79555,7 +79555,7 @@
       </c>
       <c r="K990" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L990" t="inlineStr">
@@ -79564,16 +79564,16 @@
         </is>
       </c>
       <c r="M990" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N990" t="n">
-        <v>190000</v>
+        <v>295000</v>
       </c>
       <c r="O990" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="P990" t="n">
-        <v>195000</v>
+        <v>297500</v>
       </c>
       <c r="Q990" t="inlineStr">
         <is>
@@ -79586,7 +79586,7 @@
         </is>
       </c>
       <c r="S990" t="n">
-        <v>488</v>
+        <v>744</v>
       </c>
       <c r="T990" t="n">
         <v>400</v>
@@ -79607,7 +79607,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E991" t="n">
         <v>4</v>
@@ -79635,7 +79635,7 @@
       </c>
       <c r="K991" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L991" t="inlineStr">
@@ -79644,16 +79644,16 @@
         </is>
       </c>
       <c r="M991" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N991" t="n">
-        <v>170000</v>
+        <v>265000</v>
       </c>
       <c r="O991" t="n">
-        <v>180000</v>
+        <v>270000</v>
       </c>
       <c r="P991" t="n">
-        <v>175000</v>
+        <v>267500</v>
       </c>
       <c r="Q991" t="inlineStr">
         <is>
@@ -79666,7 +79666,7 @@
         </is>
       </c>
       <c r="S991" t="n">
-        <v>438</v>
+        <v>669</v>
       </c>
       <c r="T991" t="n">
         <v>400</v>
@@ -79687,7 +79687,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E992" t="n">
         <v>4</v>
@@ -79715,7 +79715,7 @@
       </c>
       <c r="K992" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L992" t="inlineStr">
@@ -79724,16 +79724,16 @@
         </is>
       </c>
       <c r="M992" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N992" t="n">
-        <v>150000</v>
+        <v>235000</v>
       </c>
       <c r="O992" t="n">
-        <v>160000</v>
+        <v>240000</v>
       </c>
       <c r="P992" t="n">
-        <v>155000</v>
+        <v>237500</v>
       </c>
       <c r="Q992" t="inlineStr">
         <is>
@@ -79746,7 +79746,7 @@
         </is>
       </c>
       <c r="S992" t="n">
-        <v>388</v>
+        <v>594</v>
       </c>
       <c r="T992" t="n">
         <v>400</v>
@@ -79795,16 +79795,16 @@
       </c>
       <c r="K993" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L993" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M993" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N993" t="n">
         <v>190000</v>
@@ -79875,12 +79875,12 @@
       </c>
       <c r="K994" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L994" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M994" t="n">
@@ -79927,7 +79927,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E995" t="n">
         <v>4</v>
@@ -79955,25 +79955,25 @@
       </c>
       <c r="K995" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L995" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M995" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N995" t="n">
-        <v>285000</v>
+        <v>150000</v>
       </c>
       <c r="O995" t="n">
-        <v>290000</v>
+        <v>160000</v>
       </c>
       <c r="P995" t="n">
-        <v>287500</v>
+        <v>155000</v>
       </c>
       <c r="Q995" t="inlineStr">
         <is>
@@ -79982,11 +79982,11 @@
       </c>
       <c r="R995" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S995" t="n">
-        <v>719</v>
+        <v>388</v>
       </c>
       <c r="T995" t="n">
         <v>400</v>
@@ -80007,7 +80007,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E996" t="n">
         <v>4</v>
@@ -80035,7 +80035,7 @@
       </c>
       <c r="K996" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L996" t="inlineStr">
@@ -80044,16 +80044,16 @@
         </is>
       </c>
       <c r="M996" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N996" t="n">
-        <v>265000</v>
+        <v>190000</v>
       </c>
       <c r="O996" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="P996" t="n">
-        <v>267500</v>
+        <v>195000</v>
       </c>
       <c r="Q996" t="inlineStr">
         <is>
@@ -80062,11 +80062,11 @@
       </c>
       <c r="R996" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S996" t="n">
-        <v>669</v>
+        <v>488</v>
       </c>
       <c r="T996" t="n">
         <v>400</v>
@@ -80087,7 +80087,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E997" t="n">
         <v>4</v>
@@ -80115,7 +80115,7 @@
       </c>
       <c r="K997" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L997" t="inlineStr">
@@ -80124,16 +80124,16 @@
         </is>
       </c>
       <c r="M997" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N997" t="n">
-        <v>245000</v>
+        <v>170000</v>
       </c>
       <c r="O997" t="n">
-        <v>250000</v>
+        <v>180000</v>
       </c>
       <c r="P997" t="n">
-        <v>247500</v>
+        <v>175000</v>
       </c>
       <c r="Q997" t="inlineStr">
         <is>
@@ -80142,11 +80142,11 @@
       </c>
       <c r="R997" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S997" t="n">
-        <v>619</v>
+        <v>438</v>
       </c>
       <c r="T997" t="n">
         <v>400</v>
@@ -80167,7 +80167,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E998" t="n">
         <v>4</v>
@@ -80204,16 +80204,16 @@
         </is>
       </c>
       <c r="M998" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N998" t="n">
-        <v>225000</v>
+        <v>285000</v>
       </c>
       <c r="O998" t="n">
-        <v>230000</v>
+        <v>290000</v>
       </c>
       <c r="P998" t="n">
-        <v>227500</v>
+        <v>287500</v>
       </c>
       <c r="Q998" t="inlineStr">
         <is>
@@ -80222,11 +80222,11 @@
       </c>
       <c r="R998" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S998" t="n">
-        <v>569</v>
+        <v>719</v>
       </c>
       <c r="T998" t="n">
         <v>400</v>
@@ -80247,7 +80247,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E999" t="n">
         <v>4</v>
@@ -80284,16 +80284,16 @@
         </is>
       </c>
       <c r="M999" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N999" t="n">
-        <v>205000</v>
+        <v>265000</v>
       </c>
       <c r="O999" t="n">
-        <v>210000</v>
+        <v>270000</v>
       </c>
       <c r="P999" t="n">
-        <v>207500</v>
+        <v>267500</v>
       </c>
       <c r="Q999" t="inlineStr">
         <is>
@@ -80302,11 +80302,11 @@
       </c>
       <c r="R999" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S999" t="n">
-        <v>519</v>
+        <v>669</v>
       </c>
       <c r="T999" t="n">
         <v>400</v>
@@ -80327,7 +80327,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E1000" t="n">
         <v>4</v>
@@ -80364,16 +80364,16 @@
         </is>
       </c>
       <c r="M1000" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N1000" t="n">
-        <v>185000</v>
+        <v>245000</v>
       </c>
       <c r="O1000" t="n">
-        <v>190000</v>
+        <v>250000</v>
       </c>
       <c r="P1000" t="n">
-        <v>187500</v>
+        <v>247500</v>
       </c>
       <c r="Q1000" t="inlineStr">
         <is>
@@ -80382,11 +80382,11 @@
       </c>
       <c r="R1000" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1000" t="n">
-        <v>469</v>
+        <v>619</v>
       </c>
       <c r="T1000" t="n">
         <v>400</v>
@@ -80435,7 +80435,7 @@
       </c>
       <c r="K1001" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1001" t="inlineStr">
@@ -80447,13 +80447,13 @@
         <v>20</v>
       </c>
       <c r="N1001" t="n">
-        <v>205000</v>
+        <v>225000</v>
       </c>
       <c r="O1001" t="n">
-        <v>210000</v>
+        <v>230000</v>
       </c>
       <c r="P1001" t="n">
-        <v>207500</v>
+        <v>227500</v>
       </c>
       <c r="Q1001" t="inlineStr">
         <is>
@@ -80466,7 +80466,7 @@
         </is>
       </c>
       <c r="S1001" t="n">
-        <v>519</v>
+        <v>569</v>
       </c>
       <c r="T1001" t="n">
         <v>400</v>
@@ -80515,7 +80515,7 @@
       </c>
       <c r="K1002" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1002" t="inlineStr">
@@ -80527,13 +80527,13 @@
         <v>20</v>
       </c>
       <c r="N1002" t="n">
-        <v>185000</v>
+        <v>205000</v>
       </c>
       <c r="O1002" t="n">
-        <v>190000</v>
+        <v>210000</v>
       </c>
       <c r="P1002" t="n">
-        <v>187500</v>
+        <v>207500</v>
       </c>
       <c r="Q1002" t="inlineStr">
         <is>
@@ -80546,7 +80546,7 @@
         </is>
       </c>
       <c r="S1002" t="n">
-        <v>469</v>
+        <v>519</v>
       </c>
       <c r="T1002" t="n">
         <v>400</v>
@@ -80595,7 +80595,7 @@
       </c>
       <c r="K1003" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1003" t="inlineStr">
@@ -80607,13 +80607,13 @@
         <v>20</v>
       </c>
       <c r="N1003" t="n">
-        <v>165000</v>
+        <v>185000</v>
       </c>
       <c r="O1003" t="n">
-        <v>170000</v>
+        <v>190000</v>
       </c>
       <c r="P1003" t="n">
-        <v>167500</v>
+        <v>187500</v>
       </c>
       <c r="Q1003" t="inlineStr">
         <is>
@@ -80626,7 +80626,7 @@
         </is>
       </c>
       <c r="S1003" t="n">
-        <v>419</v>
+        <v>469</v>
       </c>
       <c r="T1003" t="n">
         <v>400</v>
@@ -80675,25 +80675,25 @@
       </c>
       <c r="K1004" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1004" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1004" t="n">
         <v>20</v>
       </c>
       <c r="N1004" t="n">
-        <v>185000</v>
+        <v>205000</v>
       </c>
       <c r="O1004" t="n">
-        <v>190000</v>
+        <v>210000</v>
       </c>
       <c r="P1004" t="n">
-        <v>187500</v>
+        <v>207500</v>
       </c>
       <c r="Q1004" t="inlineStr">
         <is>
@@ -80706,7 +80706,7 @@
         </is>
       </c>
       <c r="S1004" t="n">
-        <v>469</v>
+        <v>519</v>
       </c>
       <c r="T1004" t="n">
         <v>400</v>
@@ -80755,25 +80755,25 @@
       </c>
       <c r="K1005" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1005" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1005" t="n">
         <v>20</v>
       </c>
       <c r="N1005" t="n">
-        <v>170000</v>
+        <v>185000</v>
       </c>
       <c r="O1005" t="n">
-        <v>175000</v>
+        <v>190000</v>
       </c>
       <c r="P1005" t="n">
-        <v>172500</v>
+        <v>187500</v>
       </c>
       <c r="Q1005" t="inlineStr">
         <is>
@@ -80786,7 +80786,7 @@
         </is>
       </c>
       <c r="S1005" t="n">
-        <v>431</v>
+        <v>469</v>
       </c>
       <c r="T1005" t="n">
         <v>400</v>
@@ -80807,7 +80807,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E1006" t="n">
         <v>4</v>
@@ -80835,25 +80835,25 @@
       </c>
       <c r="K1006" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1006" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1006" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1006" t="n">
-        <v>235000</v>
+        <v>165000</v>
       </c>
       <c r="O1006" t="n">
-        <v>240000</v>
+        <v>170000</v>
       </c>
       <c r="P1006" t="n">
-        <v>237500</v>
+        <v>167500</v>
       </c>
       <c r="Q1006" t="inlineStr">
         <is>
@@ -80862,11 +80862,11 @@
       </c>
       <c r="R1006" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1006" t="n">
-        <v>594</v>
+        <v>419</v>
       </c>
       <c r="T1006" t="n">
         <v>400</v>
@@ -80887,7 +80887,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E1007" t="n">
         <v>4</v>
@@ -80915,7 +80915,7 @@
       </c>
       <c r="K1007" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1007" t="inlineStr">
@@ -80927,13 +80927,13 @@
         <v>20</v>
       </c>
       <c r="N1007" t="n">
-        <v>215000</v>
+        <v>185000</v>
       </c>
       <c r="O1007" t="n">
-        <v>220000</v>
+        <v>190000</v>
       </c>
       <c r="P1007" t="n">
-        <v>217500</v>
+        <v>187500</v>
       </c>
       <c r="Q1007" t="inlineStr">
         <is>
@@ -80942,11 +80942,11 @@
       </c>
       <c r="R1007" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1007" t="n">
-        <v>544</v>
+        <v>469</v>
       </c>
       <c r="T1007" t="n">
         <v>400</v>
@@ -80967,7 +80967,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E1008" t="n">
         <v>4</v>
@@ -80995,7 +80995,7 @@
       </c>
       <c r="K1008" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1008" t="inlineStr">
@@ -81007,13 +81007,13 @@
         <v>20</v>
       </c>
       <c r="N1008" t="n">
-        <v>185000</v>
+        <v>170000</v>
       </c>
       <c r="O1008" t="n">
-        <v>190000</v>
+        <v>175000</v>
       </c>
       <c r="P1008" t="n">
-        <v>187500</v>
+        <v>172500</v>
       </c>
       <c r="Q1008" t="inlineStr">
         <is>
@@ -81022,11 +81022,11 @@
       </c>
       <c r="R1008" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1008" t="n">
-        <v>469</v>
+        <v>431</v>
       </c>
       <c r="T1008" t="n">
         <v>400</v>
@@ -81075,7 +81075,7 @@
       </c>
       <c r="K1009" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1009" t="inlineStr">
@@ -81087,13 +81087,13 @@
         <v>16</v>
       </c>
       <c r="N1009" t="n">
-        <v>215000</v>
+        <v>235000</v>
       </c>
       <c r="O1009" t="n">
-        <v>220000</v>
+        <v>240000</v>
       </c>
       <c r="P1009" t="n">
-        <v>217500</v>
+        <v>237500</v>
       </c>
       <c r="Q1009" t="inlineStr">
         <is>
@@ -81106,7 +81106,7 @@
         </is>
       </c>
       <c r="S1009" t="n">
-        <v>544</v>
+        <v>594</v>
       </c>
       <c r="T1009" t="n">
         <v>400</v>
@@ -81155,7 +81155,7 @@
       </c>
       <c r="K1010" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1010" t="inlineStr">
@@ -81167,13 +81167,13 @@
         <v>20</v>
       </c>
       <c r="N1010" t="n">
-        <v>195000</v>
+        <v>215000</v>
       </c>
       <c r="O1010" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="P1010" t="n">
-        <v>197500</v>
+        <v>217500</v>
       </c>
       <c r="Q1010" t="inlineStr">
         <is>
@@ -81186,7 +81186,7 @@
         </is>
       </c>
       <c r="S1010" t="n">
-        <v>494</v>
+        <v>544</v>
       </c>
       <c r="T1010" t="n">
         <v>400</v>
@@ -81235,7 +81235,7 @@
       </c>
       <c r="K1011" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1011" t="inlineStr">
@@ -81247,13 +81247,13 @@
         <v>20</v>
       </c>
       <c r="N1011" t="n">
-        <v>175000</v>
+        <v>185000</v>
       </c>
       <c r="O1011" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="P1011" t="n">
-        <v>177500</v>
+        <v>187500</v>
       </c>
       <c r="Q1011" t="inlineStr">
         <is>
@@ -81266,7 +81266,7 @@
         </is>
       </c>
       <c r="S1011" t="n">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="T1011" t="n">
         <v>400</v>
@@ -81315,7 +81315,7 @@
       </c>
       <c r="K1012" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1012" t="inlineStr">
@@ -81324,7 +81324,7 @@
         </is>
       </c>
       <c r="M1012" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N1012" t="n">
         <v>215000</v>
@@ -81395,7 +81395,7 @@
       </c>
       <c r="K1013" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1013" t="inlineStr">
@@ -81407,13 +81407,13 @@
         <v>20</v>
       </c>
       <c r="N1013" t="n">
-        <v>185000</v>
+        <v>195000</v>
       </c>
       <c r="O1013" t="n">
-        <v>190000</v>
+        <v>200000</v>
       </c>
       <c r="P1013" t="n">
-        <v>187500</v>
+        <v>197500</v>
       </c>
       <c r="Q1013" t="inlineStr">
         <is>
@@ -81426,7 +81426,7 @@
         </is>
       </c>
       <c r="S1013" t="n">
-        <v>469</v>
+        <v>494</v>
       </c>
       <c r="T1013" t="n">
         <v>400</v>
@@ -81475,7 +81475,7 @@
       </c>
       <c r="K1014" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1014" t="inlineStr">
@@ -81484,16 +81484,16 @@
         </is>
       </c>
       <c r="M1014" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1014" t="n">
-        <v>165000</v>
+        <v>175000</v>
       </c>
       <c r="O1014" t="n">
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="P1014" t="n">
-        <v>167500</v>
+        <v>177500</v>
       </c>
       <c r="Q1014" t="inlineStr">
         <is>
@@ -81506,7 +81506,7 @@
         </is>
       </c>
       <c r="S1014" t="n">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="T1014" t="n">
         <v>400</v>
@@ -81527,7 +81527,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E1015" t="n">
         <v>4</v>
@@ -81555,7 +81555,7 @@
       </c>
       <c r="K1015" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1015" t="inlineStr">
@@ -81564,16 +81564,16 @@
         </is>
       </c>
       <c r="M1015" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N1015" t="n">
-        <v>270000</v>
+        <v>215000</v>
       </c>
       <c r="O1015" t="n">
-        <v>280000</v>
+        <v>220000</v>
       </c>
       <c r="P1015" t="n">
-        <v>275000</v>
+        <v>217500</v>
       </c>
       <c r="Q1015" t="inlineStr">
         <is>
@@ -81586,7 +81586,7 @@
         </is>
       </c>
       <c r="S1015" t="n">
-        <v>688</v>
+        <v>544</v>
       </c>
       <c r="T1015" t="n">
         <v>400</v>
@@ -81607,7 +81607,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E1016" t="n">
         <v>4</v>
@@ -81635,7 +81635,7 @@
       </c>
       <c r="K1016" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1016" t="inlineStr">
@@ -81647,13 +81647,13 @@
         <v>20</v>
       </c>
       <c r="N1016" t="n">
-        <v>230000</v>
+        <v>185000</v>
       </c>
       <c r="O1016" t="n">
-        <v>240000</v>
+        <v>190000</v>
       </c>
       <c r="P1016" t="n">
-        <v>235000</v>
+        <v>187500</v>
       </c>
       <c r="Q1016" t="inlineStr">
         <is>
@@ -81666,7 +81666,7 @@
         </is>
       </c>
       <c r="S1016" t="n">
-        <v>588</v>
+        <v>469</v>
       </c>
       <c r="T1016" t="n">
         <v>400</v>
@@ -81687,7 +81687,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E1017" t="n">
         <v>4</v>
@@ -81715,7 +81715,7 @@
       </c>
       <c r="K1017" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1017" t="inlineStr">
@@ -81724,16 +81724,16 @@
         </is>
       </c>
       <c r="M1017" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1017" t="n">
-        <v>200000</v>
+        <v>165000</v>
       </c>
       <c r="O1017" t="n">
-        <v>210000</v>
+        <v>170000</v>
       </c>
       <c r="P1017" t="n">
-        <v>205000</v>
+        <v>167500</v>
       </c>
       <c r="Q1017" t="inlineStr">
         <is>
@@ -81746,7 +81746,7 @@
         </is>
       </c>
       <c r="S1017" t="n">
-        <v>512</v>
+        <v>419</v>
       </c>
       <c r="T1017" t="n">
         <v>400</v>
@@ -81767,7 +81767,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E1018" t="n">
         <v>4</v>
@@ -81800,20 +81800,20 @@
       </c>
       <c r="L1018" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1018" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N1018" t="n">
-        <v>265000</v>
+        <v>270000</v>
       </c>
       <c r="O1018" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="P1018" t="n">
-        <v>267500</v>
+        <v>275000</v>
       </c>
       <c r="Q1018" t="inlineStr">
         <is>
@@ -81822,11 +81822,11 @@
       </c>
       <c r="R1018" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1018" t="n">
-        <v>669</v>
+        <v>688</v>
       </c>
       <c r="T1018" t="n">
         <v>400</v>
@@ -81847,7 +81847,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E1019" t="n">
         <v>4</v>
@@ -81880,20 +81880,20 @@
       </c>
       <c r="L1019" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1019" t="n">
         <v>20</v>
       </c>
       <c r="N1019" t="n">
-        <v>225000</v>
+        <v>230000</v>
       </c>
       <c r="O1019" t="n">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="P1019" t="n">
-        <v>227500</v>
+        <v>235000</v>
       </c>
       <c r="Q1019" t="inlineStr">
         <is>
@@ -81902,11 +81902,11 @@
       </c>
       <c r="R1019" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1019" t="n">
-        <v>569</v>
+        <v>588</v>
       </c>
       <c r="T1019" t="n">
         <v>400</v>
@@ -81927,7 +81927,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E1020" t="n">
         <v>4</v>
@@ -81955,25 +81955,25 @@
       </c>
       <c r="K1020" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1020" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1020" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1020" t="n">
-        <v>255000</v>
+        <v>200000</v>
       </c>
       <c r="O1020" t="n">
-        <v>260000</v>
+        <v>210000</v>
       </c>
       <c r="P1020" t="n">
-        <v>257500</v>
+        <v>205000</v>
       </c>
       <c r="Q1020" t="inlineStr">
         <is>
@@ -81982,11 +81982,11 @@
       </c>
       <c r="R1020" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1020" t="n">
-        <v>644</v>
+        <v>512</v>
       </c>
       <c r="T1020" t="n">
         <v>400</v>
@@ -82035,25 +82035,25 @@
       </c>
       <c r="K1021" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1021" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1021" t="n">
         <v>20</v>
       </c>
       <c r="N1021" t="n">
-        <v>205000</v>
+        <v>265000</v>
       </c>
       <c r="O1021" t="n">
-        <v>210000</v>
+        <v>270000</v>
       </c>
       <c r="P1021" t="n">
-        <v>207500</v>
+        <v>267500</v>
       </c>
       <c r="Q1021" t="inlineStr">
         <is>
@@ -82066,7 +82066,7 @@
         </is>
       </c>
       <c r="S1021" t="n">
-        <v>519</v>
+        <v>669</v>
       </c>
       <c r="T1021" t="n">
         <v>400</v>
@@ -82115,25 +82115,25 @@
       </c>
       <c r="K1022" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1022" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1022" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1022" t="n">
-        <v>205000</v>
+        <v>225000</v>
       </c>
       <c r="O1022" t="n">
-        <v>210000</v>
+        <v>230000</v>
       </c>
       <c r="P1022" t="n">
-        <v>207500</v>
+        <v>227500</v>
       </c>
       <c r="Q1022" t="inlineStr">
         <is>
@@ -82146,7 +82146,7 @@
         </is>
       </c>
       <c r="S1022" t="n">
-        <v>519</v>
+        <v>569</v>
       </c>
       <c r="T1022" t="n">
         <v>400</v>
@@ -82195,25 +82195,25 @@
       </c>
       <c r="K1023" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1023" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1023" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1023" t="n">
-        <v>175000</v>
+        <v>255000</v>
       </c>
       <c r="O1023" t="n">
-        <v>180000</v>
+        <v>260000</v>
       </c>
       <c r="P1023" t="n">
-        <v>177500</v>
+        <v>257500</v>
       </c>
       <c r="Q1023" t="inlineStr">
         <is>
@@ -82226,7 +82226,7 @@
         </is>
       </c>
       <c r="S1023" t="n">
-        <v>444</v>
+        <v>644</v>
       </c>
       <c r="T1023" t="n">
         <v>400</v>
@@ -82247,7 +82247,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E1024" t="n">
         <v>4</v>
@@ -82275,12 +82275,12 @@
       </c>
       <c r="K1024" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1024" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1024" t="n">
@@ -82327,7 +82327,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E1025" t="n">
         <v>4</v>
@@ -82355,25 +82355,25 @@
       </c>
       <c r="K1025" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1025" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1025" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1025" t="n">
-        <v>185000</v>
+        <v>205000</v>
       </c>
       <c r="O1025" t="n">
-        <v>190000</v>
+        <v>210000</v>
       </c>
       <c r="P1025" t="n">
-        <v>187500</v>
+        <v>207500</v>
       </c>
       <c r="Q1025" t="inlineStr">
         <is>
@@ -82386,7 +82386,7 @@
         </is>
       </c>
       <c r="S1025" t="n">
-        <v>469</v>
+        <v>519</v>
       </c>
       <c r="T1025" t="n">
         <v>400</v>
@@ -82407,7 +82407,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E1026" t="n">
         <v>4</v>
@@ -82435,25 +82435,25 @@
       </c>
       <c r="K1026" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1026" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1026" t="n">
         <v>20</v>
       </c>
       <c r="N1026" t="n">
-        <v>185000</v>
+        <v>175000</v>
       </c>
       <c r="O1026" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="P1026" t="n">
-        <v>187500</v>
+        <v>177500</v>
       </c>
       <c r="Q1026" t="inlineStr">
         <is>
@@ -82466,7 +82466,7 @@
         </is>
       </c>
       <c r="S1026" t="n">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="T1026" t="n">
         <v>400</v>
@@ -82515,25 +82515,25 @@
       </c>
       <c r="K1027" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1027" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1027" t="n">
         <v>20</v>
       </c>
       <c r="N1027" t="n">
-        <v>165000</v>
+        <v>205000</v>
       </c>
       <c r="O1027" t="n">
-        <v>170000</v>
+        <v>210000</v>
       </c>
       <c r="P1027" t="n">
-        <v>167500</v>
+        <v>207500</v>
       </c>
       <c r="Q1027" t="inlineStr">
         <is>
@@ -82546,7 +82546,7 @@
         </is>
       </c>
       <c r="S1027" t="n">
-        <v>419</v>
+        <v>519</v>
       </c>
       <c r="T1027" t="n">
         <v>400</v>
@@ -82595,25 +82595,25 @@
       </c>
       <c r="K1028" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1028" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1028" t="n">
         <v>20</v>
       </c>
       <c r="N1028" t="n">
-        <v>195000</v>
+        <v>185000</v>
       </c>
       <c r="O1028" t="n">
-        <v>200000</v>
+        <v>190000</v>
       </c>
       <c r="P1028" t="n">
-        <v>197500</v>
+        <v>187500</v>
       </c>
       <c r="Q1028" t="inlineStr">
         <is>
@@ -82626,7 +82626,7 @@
         </is>
       </c>
       <c r="S1028" t="n">
-        <v>494</v>
+        <v>469</v>
       </c>
       <c r="T1028" t="n">
         <v>400</v>
@@ -82675,25 +82675,25 @@
       </c>
       <c r="K1029" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1029" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1029" t="n">
         <v>20</v>
       </c>
       <c r="N1029" t="n">
-        <v>175000</v>
+        <v>185000</v>
       </c>
       <c r="O1029" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="P1029" t="n">
-        <v>177500</v>
+        <v>187500</v>
       </c>
       <c r="Q1029" t="inlineStr">
         <is>
@@ -82706,7 +82706,7 @@
         </is>
       </c>
       <c r="S1029" t="n">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="T1029" t="n">
         <v>400</v>
@@ -82755,25 +82755,25 @@
       </c>
       <c r="K1030" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1030" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1030" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1030" t="n">
-        <v>175000</v>
+        <v>165000</v>
       </c>
       <c r="O1030" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="P1030" t="n">
-        <v>177500</v>
+        <v>167500</v>
       </c>
       <c r="Q1030" t="inlineStr">
         <is>
@@ -82786,7 +82786,7 @@
         </is>
       </c>
       <c r="S1030" t="n">
-        <v>444</v>
+        <v>419</v>
       </c>
       <c r="T1030" t="n">
         <v>400</v>
@@ -82807,7 +82807,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E1031" t="n">
         <v>4</v>
@@ -82835,7 +82835,7 @@
       </c>
       <c r="K1031" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1031" t="inlineStr">
@@ -82847,13 +82847,13 @@
         <v>20</v>
       </c>
       <c r="N1031" t="n">
-        <v>295000</v>
+        <v>195000</v>
       </c>
       <c r="O1031" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="P1031" t="n">
-        <v>297500</v>
+        <v>197500</v>
       </c>
       <c r="Q1031" t="inlineStr">
         <is>
@@ -82866,7 +82866,7 @@
         </is>
       </c>
       <c r="S1031" t="n">
-        <v>744</v>
+        <v>494</v>
       </c>
       <c r="T1031" t="n">
         <v>400</v>
@@ -82887,7 +82887,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E1032" t="n">
         <v>4</v>
@@ -82915,7 +82915,7 @@
       </c>
       <c r="K1032" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1032" t="inlineStr">
@@ -82927,13 +82927,13 @@
         <v>20</v>
       </c>
       <c r="N1032" t="n">
-        <v>265000</v>
+        <v>175000</v>
       </c>
       <c r="O1032" t="n">
-        <v>270000</v>
+        <v>180000</v>
       </c>
       <c r="P1032" t="n">
-        <v>267500</v>
+        <v>177500</v>
       </c>
       <c r="Q1032" t="inlineStr">
         <is>
@@ -82946,7 +82946,7 @@
         </is>
       </c>
       <c r="S1032" t="n">
-        <v>669</v>
+        <v>444</v>
       </c>
       <c r="T1032" t="n">
         <v>400</v>
@@ -82967,7 +82967,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E1033" t="n">
         <v>4</v>
@@ -82995,7 +82995,7 @@
       </c>
       <c r="K1033" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1033" t="inlineStr">
@@ -83004,16 +83004,16 @@
         </is>
       </c>
       <c r="M1033" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1033" t="n">
-        <v>275000</v>
+        <v>175000</v>
       </c>
       <c r="O1033" t="n">
-        <v>280000</v>
+        <v>180000</v>
       </c>
       <c r="P1033" t="n">
-        <v>277500</v>
+        <v>177500</v>
       </c>
       <c r="Q1033" t="inlineStr">
         <is>
@@ -83026,7 +83026,7 @@
         </is>
       </c>
       <c r="S1033" t="n">
-        <v>694</v>
+        <v>444</v>
       </c>
       <c r="T1033" t="n">
         <v>400</v>
@@ -83075,25 +83075,25 @@
       </c>
       <c r="K1034" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1034" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1034" t="n">
         <v>20</v>
       </c>
       <c r="N1034" t="n">
-        <v>255000</v>
+        <v>295000</v>
       </c>
       <c r="O1034" t="n">
-        <v>260000</v>
+        <v>300000</v>
       </c>
       <c r="P1034" t="n">
-        <v>257500</v>
+        <v>297500</v>
       </c>
       <c r="Q1034" t="inlineStr">
         <is>
@@ -83106,7 +83106,7 @@
         </is>
       </c>
       <c r="S1034" t="n">
-        <v>644</v>
+        <v>744</v>
       </c>
       <c r="T1034" t="n">
         <v>400</v>
@@ -83127,7 +83127,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E1035" t="n">
         <v>4</v>
@@ -83160,20 +83160,20 @@
       </c>
       <c r="L1035" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1035" t="n">
         <v>20</v>
       </c>
       <c r="N1035" t="n">
-        <v>285000</v>
+        <v>265000</v>
       </c>
       <c r="O1035" t="n">
-        <v>290000</v>
+        <v>270000</v>
       </c>
       <c r="P1035" t="n">
-        <v>287500</v>
+        <v>267500</v>
       </c>
       <c r="Q1035" t="inlineStr">
         <is>
@@ -83186,7 +83186,7 @@
         </is>
       </c>
       <c r="S1035" t="n">
-        <v>719</v>
+        <v>669</v>
       </c>
       <c r="T1035" t="n">
         <v>400</v>
@@ -83207,7 +83207,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E1036" t="n">
         <v>4</v>
@@ -83235,7 +83235,7 @@
       </c>
       <c r="K1036" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1036" t="inlineStr">
@@ -83247,13 +83247,13 @@
         <v>20</v>
       </c>
       <c r="N1036" t="n">
-        <v>265000</v>
+        <v>275000</v>
       </c>
       <c r="O1036" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="P1036" t="n">
-        <v>267500</v>
+        <v>277500</v>
       </c>
       <c r="Q1036" t="inlineStr">
         <is>
@@ -83266,7 +83266,7 @@
         </is>
       </c>
       <c r="S1036" t="n">
-        <v>669</v>
+        <v>694</v>
       </c>
       <c r="T1036" t="n">
         <v>400</v>
@@ -83287,7 +83287,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E1037" t="n">
         <v>4</v>
@@ -83320,20 +83320,20 @@
       </c>
       <c r="L1037" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1037" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1037" t="n">
-        <v>265000</v>
+        <v>255000</v>
       </c>
       <c r="O1037" t="n">
-        <v>270000</v>
+        <v>260000</v>
       </c>
       <c r="P1037" t="n">
-        <v>267500</v>
+        <v>257500</v>
       </c>
       <c r="Q1037" t="inlineStr">
         <is>
@@ -83342,11 +83342,11 @@
       </c>
       <c r="R1037" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1037" t="n">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="T1037" t="n">
         <v>400</v>
@@ -83395,25 +83395,25 @@
       </c>
       <c r="K1038" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1038" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1038" t="n">
         <v>20</v>
       </c>
       <c r="N1038" t="n">
-        <v>245000</v>
+        <v>285000</v>
       </c>
       <c r="O1038" t="n">
-        <v>250000</v>
+        <v>290000</v>
       </c>
       <c r="P1038" t="n">
-        <v>247500</v>
+        <v>287500</v>
       </c>
       <c r="Q1038" t="inlineStr">
         <is>
@@ -83422,11 +83422,11 @@
       </c>
       <c r="R1038" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1038" t="n">
-        <v>619</v>
+        <v>719</v>
       </c>
       <c r="T1038" t="n">
         <v>400</v>
@@ -83475,25 +83475,25 @@
       </c>
       <c r="K1039" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1039" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1039" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1039" t="n">
-        <v>215000</v>
+        <v>265000</v>
       </c>
       <c r="O1039" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="P1039" t="n">
-        <v>217500</v>
+        <v>267500</v>
       </c>
       <c r="Q1039" t="inlineStr">
         <is>
@@ -83506,7 +83506,7 @@
         </is>
       </c>
       <c r="S1039" t="n">
-        <v>544</v>
+        <v>669</v>
       </c>
       <c r="T1039" t="n">
         <v>400</v>
@@ -83555,25 +83555,25 @@
       </c>
       <c r="K1040" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1040" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1040" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1040" t="n">
-        <v>190000</v>
+        <v>265000</v>
       </c>
       <c r="O1040" t="n">
-        <v>195000</v>
+        <v>270000</v>
       </c>
       <c r="P1040" t="n">
-        <v>192500</v>
+        <v>267500</v>
       </c>
       <c r="Q1040" t="inlineStr">
         <is>
@@ -83582,11 +83582,11 @@
       </c>
       <c r="R1040" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1040" t="n">
-        <v>481</v>
+        <v>669</v>
       </c>
       <c r="T1040" t="n">
         <v>400</v>
@@ -83607,7 +83607,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E1041" t="n">
         <v>4</v>
@@ -83635,25 +83635,25 @@
       </c>
       <c r="K1041" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1041" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1041" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1041" t="n">
-        <v>275000</v>
+        <v>245000</v>
       </c>
       <c r="O1041" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="P1041" t="n">
-        <v>277500</v>
+        <v>247500</v>
       </c>
       <c r="Q1041" t="inlineStr">
         <is>
@@ -83662,11 +83662,11 @@
       </c>
       <c r="R1041" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1041" t="n">
-        <v>694</v>
+        <v>619</v>
       </c>
       <c r="T1041" t="n">
         <v>400</v>
@@ -83687,7 +83687,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E1042" t="n">
         <v>4</v>
@@ -83715,25 +83715,25 @@
       </c>
       <c r="K1042" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1042" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1042" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1042" t="n">
-        <v>235000</v>
+        <v>215000</v>
       </c>
       <c r="O1042" t="n">
-        <v>240000</v>
+        <v>220000</v>
       </c>
       <c r="P1042" t="n">
-        <v>237500</v>
+        <v>217500</v>
       </c>
       <c r="Q1042" t="inlineStr">
         <is>
@@ -83746,7 +83746,7 @@
         </is>
       </c>
       <c r="S1042" t="n">
-        <v>594</v>
+        <v>544</v>
       </c>
       <c r="T1042" t="n">
         <v>400</v>
@@ -83767,7 +83767,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E1043" t="n">
         <v>4</v>
@@ -83795,25 +83795,25 @@
       </c>
       <c r="K1043" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1043" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1043" t="n">
         <v>20</v>
       </c>
       <c r="N1043" t="n">
-        <v>205000</v>
+        <v>190000</v>
       </c>
       <c r="O1043" t="n">
-        <v>210000</v>
+        <v>195000</v>
       </c>
       <c r="P1043" t="n">
-        <v>207500</v>
+        <v>192500</v>
       </c>
       <c r="Q1043" t="inlineStr">
         <is>
@@ -83826,7 +83826,7 @@
         </is>
       </c>
       <c r="S1043" t="n">
-        <v>519</v>
+        <v>481</v>
       </c>
       <c r="T1043" t="n">
         <v>400</v>
@@ -83875,7 +83875,7 @@
       </c>
       <c r="K1044" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1044" t="inlineStr">
@@ -83887,13 +83887,13 @@
         <v>16</v>
       </c>
       <c r="N1044" t="n">
-        <v>245000</v>
+        <v>275000</v>
       </c>
       <c r="O1044" t="n">
-        <v>250000</v>
+        <v>280000</v>
       </c>
       <c r="P1044" t="n">
-        <v>247500</v>
+        <v>277500</v>
       </c>
       <c r="Q1044" t="inlineStr">
         <is>
@@ -83906,7 +83906,7 @@
         </is>
       </c>
       <c r="S1044" t="n">
-        <v>619</v>
+        <v>694</v>
       </c>
       <c r="T1044" t="n">
         <v>400</v>
@@ -83955,7 +83955,7 @@
       </c>
       <c r="K1045" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1045" t="inlineStr">
@@ -83967,13 +83967,13 @@
         <v>20</v>
       </c>
       <c r="N1045" t="n">
-        <v>225000</v>
+        <v>235000</v>
       </c>
       <c r="O1045" t="n">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="P1045" t="n">
-        <v>227500</v>
+        <v>237500</v>
       </c>
       <c r="Q1045" t="inlineStr">
         <is>
@@ -83986,7 +83986,7 @@
         </is>
       </c>
       <c r="S1045" t="n">
-        <v>569</v>
+        <v>594</v>
       </c>
       <c r="T1045" t="n">
         <v>400</v>
@@ -84035,7 +84035,7 @@
       </c>
       <c r="K1046" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1046" t="inlineStr">
@@ -84047,13 +84047,13 @@
         <v>20</v>
       </c>
       <c r="N1046" t="n">
-        <v>195000</v>
+        <v>205000</v>
       </c>
       <c r="O1046" t="n">
-        <v>200000</v>
+        <v>210000</v>
       </c>
       <c r="P1046" t="n">
-        <v>197500</v>
+        <v>207500</v>
       </c>
       <c r="Q1046" t="inlineStr">
         <is>
@@ -84066,7 +84066,7 @@
         </is>
       </c>
       <c r="S1046" t="n">
-        <v>494</v>
+        <v>519</v>
       </c>
       <c r="T1046" t="n">
         <v>400</v>
@@ -84115,7 +84115,7 @@
       </c>
       <c r="K1047" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1047" t="inlineStr">
@@ -84127,13 +84127,13 @@
         <v>16</v>
       </c>
       <c r="N1047" t="n">
-        <v>235000</v>
+        <v>245000</v>
       </c>
       <c r="O1047" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="P1047" t="n">
-        <v>237500</v>
+        <v>247500</v>
       </c>
       <c r="Q1047" t="inlineStr">
         <is>
@@ -84146,7 +84146,7 @@
         </is>
       </c>
       <c r="S1047" t="n">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="T1047" t="n">
         <v>400</v>
@@ -84195,7 +84195,7 @@
       </c>
       <c r="K1048" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1048" t="inlineStr">
@@ -84207,13 +84207,13 @@
         <v>20</v>
       </c>
       <c r="N1048" t="n">
-        <v>215000</v>
+        <v>225000</v>
       </c>
       <c r="O1048" t="n">
-        <v>220000</v>
+        <v>230000</v>
       </c>
       <c r="P1048" t="n">
-        <v>217500</v>
+        <v>227500</v>
       </c>
       <c r="Q1048" t="inlineStr">
         <is>
@@ -84226,7 +84226,7 @@
         </is>
       </c>
       <c r="S1048" t="n">
-        <v>544</v>
+        <v>569</v>
       </c>
       <c r="T1048" t="n">
         <v>400</v>
@@ -84275,7 +84275,7 @@
       </c>
       <c r="K1049" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1049" t="inlineStr">
@@ -84287,13 +84287,13 @@
         <v>20</v>
       </c>
       <c r="N1049" t="n">
-        <v>185000</v>
+        <v>195000</v>
       </c>
       <c r="O1049" t="n">
-        <v>190000</v>
+        <v>200000</v>
       </c>
       <c r="P1049" t="n">
-        <v>187500</v>
+        <v>197500</v>
       </c>
       <c r="Q1049" t="inlineStr">
         <is>
@@ -84306,7 +84306,7 @@
         </is>
       </c>
       <c r="S1049" t="n">
-        <v>469</v>
+        <v>494</v>
       </c>
       <c r="T1049" t="n">
         <v>400</v>
@@ -84355,7 +84355,7 @@
       </c>
       <c r="K1050" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1050" t="inlineStr">
@@ -84364,16 +84364,16 @@
         </is>
       </c>
       <c r="M1050" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1050" t="n">
-        <v>275000</v>
+        <v>235000</v>
       </c>
       <c r="O1050" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="P1050" t="n">
-        <v>277500</v>
+        <v>237500</v>
       </c>
       <c r="Q1050" t="inlineStr">
         <is>
@@ -84386,7 +84386,7 @@
         </is>
       </c>
       <c r="S1050" t="n">
-        <v>694</v>
+        <v>594</v>
       </c>
       <c r="T1050" t="n">
         <v>400</v>
@@ -84435,7 +84435,7 @@
       </c>
       <c r="K1051" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1051" t="inlineStr">
@@ -84447,13 +84447,13 @@
         <v>20</v>
       </c>
       <c r="N1051" t="n">
-        <v>235000</v>
+        <v>215000</v>
       </c>
       <c r="O1051" t="n">
-        <v>240000</v>
+        <v>220000</v>
       </c>
       <c r="P1051" t="n">
-        <v>237500</v>
+        <v>217500</v>
       </c>
       <c r="Q1051" t="inlineStr">
         <is>
@@ -84466,7 +84466,7 @@
         </is>
       </c>
       <c r="S1051" t="n">
-        <v>594</v>
+        <v>544</v>
       </c>
       <c r="T1051" t="n">
         <v>400</v>
@@ -84487,7 +84487,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1052" t="n">
         <v>4</v>
@@ -84515,25 +84515,25 @@
       </c>
       <c r="K1052" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1052" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1052" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N1052" t="n">
-        <v>270000</v>
+        <v>185000</v>
       </c>
       <c r="O1052" t="n">
-        <v>280000</v>
+        <v>190000</v>
       </c>
       <c r="P1052" t="n">
-        <v>275000</v>
+        <v>187500</v>
       </c>
       <c r="Q1052" t="inlineStr">
         <is>
@@ -84546,7 +84546,7 @@
         </is>
       </c>
       <c r="S1052" t="n">
-        <v>688</v>
+        <v>469</v>
       </c>
       <c r="T1052" t="n">
         <v>400</v>
@@ -84567,7 +84567,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1053" t="n">
         <v>4</v>
@@ -84595,25 +84595,25 @@
       </c>
       <c r="K1053" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1053" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1053" t="n">
         <v>20</v>
       </c>
       <c r="N1053" t="n">
-        <v>230000</v>
+        <v>275000</v>
       </c>
       <c r="O1053" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="P1053" t="n">
-        <v>235000</v>
+        <v>277500</v>
       </c>
       <c r="Q1053" t="inlineStr">
         <is>
@@ -84626,7 +84626,7 @@
         </is>
       </c>
       <c r="S1053" t="n">
-        <v>588</v>
+        <v>694</v>
       </c>
       <c r="T1053" t="n">
         <v>400</v>
@@ -84647,7 +84647,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1054" t="n">
         <v>4</v>
@@ -84675,25 +84675,25 @@
       </c>
       <c r="K1054" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1054" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1054" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1054" t="n">
-        <v>200000</v>
+        <v>235000</v>
       </c>
       <c r="O1054" t="n">
-        <v>210000</v>
+        <v>240000</v>
       </c>
       <c r="P1054" t="n">
-        <v>205000</v>
+        <v>237500</v>
       </c>
       <c r="Q1054" t="inlineStr">
         <is>
@@ -84706,7 +84706,7 @@
         </is>
       </c>
       <c r="S1054" t="n">
-        <v>512</v>
+        <v>594</v>
       </c>
       <c r="T1054" t="n">
         <v>400</v>
@@ -84755,7 +84755,7 @@
       </c>
       <c r="K1055" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1055" t="inlineStr">
@@ -84764,16 +84764,16 @@
         </is>
       </c>
       <c r="M1055" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N1055" t="n">
-        <v>230000</v>
+        <v>270000</v>
       </c>
       <c r="O1055" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="P1055" t="n">
-        <v>235000</v>
+        <v>275000</v>
       </c>
       <c r="Q1055" t="inlineStr">
         <is>
@@ -84786,7 +84786,7 @@
         </is>
       </c>
       <c r="S1055" t="n">
-        <v>588</v>
+        <v>688</v>
       </c>
       <c r="T1055" t="n">
         <v>400</v>
@@ -84835,7 +84835,7 @@
       </c>
       <c r="K1056" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1056" t="inlineStr">
@@ -84847,13 +84847,13 @@
         <v>20</v>
       </c>
       <c r="N1056" t="n">
-        <v>200000</v>
+        <v>230000</v>
       </c>
       <c r="O1056" t="n">
-        <v>210000</v>
+        <v>240000</v>
       </c>
       <c r="P1056" t="n">
-        <v>205000</v>
+        <v>235000</v>
       </c>
       <c r="Q1056" t="inlineStr">
         <is>
@@ -84866,7 +84866,7 @@
         </is>
       </c>
       <c r="S1056" t="n">
-        <v>512</v>
+        <v>588</v>
       </c>
       <c r="T1056" t="n">
         <v>400</v>
@@ -84915,7 +84915,7 @@
       </c>
       <c r="K1057" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1057" t="inlineStr">
@@ -84927,13 +84927,13 @@
         <v>16</v>
       </c>
       <c r="N1057" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="O1057" t="n">
-        <v>190000</v>
+        <v>210000</v>
       </c>
       <c r="P1057" t="n">
-        <v>185000</v>
+        <v>205000</v>
       </c>
       <c r="Q1057" t="inlineStr">
         <is>
@@ -84946,7 +84946,7 @@
         </is>
       </c>
       <c r="S1057" t="n">
-        <v>462</v>
+        <v>512</v>
       </c>
       <c r="T1057" t="n">
         <v>400</v>
@@ -84967,7 +84967,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E1058" t="n">
         <v>4</v>
@@ -84995,7 +84995,7 @@
       </c>
       <c r="K1058" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1058" t="inlineStr">
@@ -85004,16 +85004,16 @@
         </is>
       </c>
       <c r="M1058" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N1058" t="n">
-        <v>255000</v>
+        <v>230000</v>
       </c>
       <c r="O1058" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="P1058" t="n">
-        <v>257500</v>
+        <v>235000</v>
       </c>
       <c r="Q1058" t="inlineStr">
         <is>
@@ -85026,7 +85026,7 @@
         </is>
       </c>
       <c r="S1058" t="n">
-        <v>644</v>
+        <v>588</v>
       </c>
       <c r="T1058" t="n">
         <v>400</v>
@@ -85047,7 +85047,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E1059" t="n">
         <v>4</v>
@@ -85075,7 +85075,7 @@
       </c>
       <c r="K1059" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1059" t="inlineStr">
@@ -85087,13 +85087,13 @@
         <v>20</v>
       </c>
       <c r="N1059" t="n">
-        <v>235000</v>
+        <v>200000</v>
       </c>
       <c r="O1059" t="n">
-        <v>240000</v>
+        <v>210000</v>
       </c>
       <c r="P1059" t="n">
-        <v>237500</v>
+        <v>205000</v>
       </c>
       <c r="Q1059" t="inlineStr">
         <is>
@@ -85106,7 +85106,7 @@
         </is>
       </c>
       <c r="S1059" t="n">
-        <v>594</v>
+        <v>512</v>
       </c>
       <c r="T1059" t="n">
         <v>400</v>
@@ -85127,7 +85127,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44176</v>
+        <v>44411</v>
       </c>
       <c r="E1060" t="n">
         <v>4</v>
@@ -85155,25 +85155,25 @@
       </c>
       <c r="K1060" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1060" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1060" t="n">
         <v>16</v>
       </c>
       <c r="N1060" t="n">
-        <v>265000</v>
+        <v>180000</v>
       </c>
       <c r="O1060" t="n">
-        <v>270000</v>
+        <v>190000</v>
       </c>
       <c r="P1060" t="n">
-        <v>267500</v>
+        <v>185000</v>
       </c>
       <c r="Q1060" t="inlineStr">
         <is>
@@ -85186,7 +85186,7 @@
         </is>
       </c>
       <c r="S1060" t="n">
-        <v>669</v>
+        <v>462</v>
       </c>
       <c r="T1060" t="n">
         <v>400</v>
@@ -85207,7 +85207,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E1061" t="n">
         <v>4</v>
@@ -85235,25 +85235,25 @@
       </c>
       <c r="K1061" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1061" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1061" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N1061" t="n">
-        <v>225000</v>
+        <v>255000</v>
       </c>
       <c r="O1061" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="P1061" t="n">
-        <v>227500</v>
+        <v>257500</v>
       </c>
       <c r="Q1061" t="inlineStr">
         <is>
@@ -85266,7 +85266,7 @@
         </is>
       </c>
       <c r="S1061" t="n">
-        <v>569</v>
+        <v>644</v>
       </c>
       <c r="T1061" t="n">
         <v>400</v>
@@ -85287,7 +85287,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E1062" t="n">
         <v>4</v>
@@ -85315,25 +85315,25 @@
       </c>
       <c r="K1062" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1062" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1062" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1062" t="n">
-        <v>210000</v>
+        <v>235000</v>
       </c>
       <c r="O1062" t="n">
-        <v>215000</v>
+        <v>240000</v>
       </c>
       <c r="P1062" t="n">
-        <v>212500</v>
+        <v>237500</v>
       </c>
       <c r="Q1062" t="inlineStr">
         <is>
@@ -85346,7 +85346,7 @@
         </is>
       </c>
       <c r="S1062" t="n">
-        <v>531</v>
+        <v>594</v>
       </c>
       <c r="T1062" t="n">
         <v>400</v>
@@ -85367,7 +85367,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E1063" t="n">
         <v>4</v>
@@ -85395,25 +85395,25 @@
       </c>
       <c r="K1063" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1063" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1063" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1063" t="n">
-        <v>305000</v>
+        <v>265000</v>
       </c>
       <c r="O1063" t="n">
-        <v>310000</v>
+        <v>270000</v>
       </c>
       <c r="P1063" t="n">
-        <v>307500</v>
+        <v>267500</v>
       </c>
       <c r="Q1063" t="inlineStr">
         <is>
@@ -85422,11 +85422,11 @@
       </c>
       <c r="R1063" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1063" t="n">
-        <v>769</v>
+        <v>669</v>
       </c>
       <c r="T1063" t="n">
         <v>400</v>
@@ -85447,7 +85447,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E1064" t="n">
         <v>4</v>
@@ -85475,25 +85475,25 @@
       </c>
       <c r="K1064" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1064" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1064" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1064" t="n">
-        <v>285000</v>
+        <v>225000</v>
       </c>
       <c r="O1064" t="n">
-        <v>290000</v>
+        <v>230000</v>
       </c>
       <c r="P1064" t="n">
-        <v>287500</v>
+        <v>227500</v>
       </c>
       <c r="Q1064" t="inlineStr">
         <is>
@@ -85502,11 +85502,11 @@
       </c>
       <c r="R1064" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1064" t="n">
-        <v>719</v>
+        <v>569</v>
       </c>
       <c r="T1064" t="n">
         <v>400</v>
@@ -85527,7 +85527,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E1065" t="n">
         <v>4</v>
@@ -85555,25 +85555,25 @@
       </c>
       <c r="K1065" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1065" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1065" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1065" t="n">
-        <v>285000</v>
+        <v>210000</v>
       </c>
       <c r="O1065" t="n">
-        <v>290000</v>
+        <v>215000</v>
       </c>
       <c r="P1065" t="n">
-        <v>287500</v>
+        <v>212500</v>
       </c>
       <c r="Q1065" t="inlineStr">
         <is>
@@ -85586,7 +85586,7 @@
         </is>
       </c>
       <c r="S1065" t="n">
-        <v>719</v>
+        <v>531</v>
       </c>
       <c r="T1065" t="n">
         <v>400</v>
@@ -85607,7 +85607,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1066" t="n">
         <v>4</v>
@@ -85635,25 +85635,25 @@
       </c>
       <c r="K1066" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1066" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1066" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N1066" t="n">
-        <v>200000</v>
+        <v>305000</v>
       </c>
       <c r="O1066" t="n">
-        <v>210000</v>
+        <v>310000</v>
       </c>
       <c r="P1066" t="n">
-        <v>205000</v>
+        <v>307500</v>
       </c>
       <c r="Q1066" t="inlineStr">
         <is>
@@ -85662,11 +85662,11 @@
       </c>
       <c r="R1066" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S1066" t="n">
-        <v>512</v>
+        <v>769</v>
       </c>
       <c r="T1066" t="n">
         <v>400</v>
@@ -85687,7 +85687,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1067" t="n">
         <v>4</v>
@@ -85715,25 +85715,25 @@
       </c>
       <c r="K1067" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1067" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1067" t="n">
         <v>20</v>
       </c>
       <c r="N1067" t="n">
-        <v>180000</v>
+        <v>285000</v>
       </c>
       <c r="O1067" t="n">
-        <v>190000</v>
+        <v>290000</v>
       </c>
       <c r="P1067" t="n">
-        <v>185000</v>
+        <v>287500</v>
       </c>
       <c r="Q1067" t="inlineStr">
         <is>
@@ -85742,11 +85742,11 @@
       </c>
       <c r="R1067" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S1067" t="n">
-        <v>462</v>
+        <v>719</v>
       </c>
       <c r="T1067" t="n">
         <v>400</v>
@@ -85767,7 +85767,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E1068" t="n">
         <v>4</v>
@@ -85795,25 +85795,25 @@
       </c>
       <c r="K1068" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1068" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1068" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N1068" t="n">
-        <v>325000</v>
+        <v>285000</v>
       </c>
       <c r="O1068" t="n">
-        <v>330000</v>
+        <v>290000</v>
       </c>
       <c r="P1068" t="n">
-        <v>327500</v>
+        <v>287500</v>
       </c>
       <c r="Q1068" t="inlineStr">
         <is>
@@ -85822,11 +85822,11 @@
       </c>
       <c r="R1068" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1068" t="n">
-        <v>819</v>
+        <v>719</v>
       </c>
       <c r="T1068" t="n">
         <v>400</v>
@@ -85847,7 +85847,7 @@
         </is>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1069" t="n">
         <v>4</v>
@@ -85884,16 +85884,16 @@
         </is>
       </c>
       <c r="M1069" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N1069" t="n">
-        <v>295000</v>
+        <v>200000</v>
       </c>
       <c r="O1069" t="n">
-        <v>300000</v>
+        <v>210000</v>
       </c>
       <c r="P1069" t="n">
-        <v>297500</v>
+        <v>205000</v>
       </c>
       <c r="Q1069" t="inlineStr">
         <is>
@@ -85902,11 +85902,11 @@
       </c>
       <c r="R1069" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1069" t="n">
-        <v>744</v>
+        <v>512</v>
       </c>
       <c r="T1069" t="n">
         <v>400</v>
@@ -85927,7 +85927,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E1070" t="n">
         <v>4</v>
@@ -85960,20 +85960,20 @@
       </c>
       <c r="L1070" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1070" t="n">
         <v>20</v>
       </c>
       <c r="N1070" t="n">
-        <v>210000</v>
+        <v>180000</v>
       </c>
       <c r="O1070" t="n">
-        <v>215000</v>
+        <v>190000</v>
       </c>
       <c r="P1070" t="n">
-        <v>212500</v>
+        <v>185000</v>
       </c>
       <c r="Q1070" t="inlineStr">
         <is>
@@ -85986,7 +85986,7 @@
         </is>
       </c>
       <c r="S1070" t="n">
-        <v>531</v>
+        <v>462</v>
       </c>
       <c r="T1070" t="n">
         <v>400</v>
@@ -86007,7 +86007,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1071" t="n">
         <v>4</v>
@@ -86040,20 +86040,20 @@
       </c>
       <c r="L1071" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1071" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N1071" t="n">
-        <v>185000</v>
+        <v>325000</v>
       </c>
       <c r="O1071" t="n">
-        <v>190000</v>
+        <v>330000</v>
       </c>
       <c r="P1071" t="n">
-        <v>187500</v>
+        <v>327500</v>
       </c>
       <c r="Q1071" t="inlineStr">
         <is>
@@ -86062,11 +86062,11 @@
       </c>
       <c r="R1071" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1071" t="n">
-        <v>469</v>
+        <v>819</v>
       </c>
       <c r="T1071" t="n">
         <v>400</v>
@@ -86087,7 +86087,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1072" t="n">
         <v>4</v>
@@ -86115,7 +86115,7 @@
       </c>
       <c r="K1072" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1072" t="inlineStr">
@@ -86127,13 +86127,13 @@
         <v>20</v>
       </c>
       <c r="N1072" t="n">
-        <v>185000</v>
+        <v>295000</v>
       </c>
       <c r="O1072" t="n">
-        <v>190000</v>
+        <v>300000</v>
       </c>
       <c r="P1072" t="n">
-        <v>187500</v>
+        <v>297500</v>
       </c>
       <c r="Q1072" t="inlineStr">
         <is>
@@ -86142,11 +86142,11 @@
       </c>
       <c r="R1072" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1072" t="n">
-        <v>469</v>
+        <v>744</v>
       </c>
       <c r="T1072" t="n">
         <v>400</v>
@@ -86195,25 +86195,25 @@
       </c>
       <c r="K1073" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1073" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1073" t="n">
         <v>20</v>
       </c>
       <c r="N1073" t="n">
-        <v>165000</v>
+        <v>210000</v>
       </c>
       <c r="O1073" t="n">
-        <v>170000</v>
+        <v>215000</v>
       </c>
       <c r="P1073" t="n">
-        <v>167500</v>
+        <v>212500</v>
       </c>
       <c r="Q1073" t="inlineStr">
         <is>
@@ -86226,7 +86226,7 @@
         </is>
       </c>
       <c r="S1073" t="n">
-        <v>419</v>
+        <v>531</v>
       </c>
       <c r="T1073" t="n">
         <v>400</v>
@@ -86275,25 +86275,25 @@
       </c>
       <c r="K1074" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1074" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1074" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1074" t="n">
-        <v>195000</v>
+        <v>185000</v>
       </c>
       <c r="O1074" t="n">
-        <v>200000</v>
+        <v>190000</v>
       </c>
       <c r="P1074" t="n">
-        <v>197500</v>
+        <v>187500</v>
       </c>
       <c r="Q1074" t="inlineStr">
         <is>
@@ -86306,7 +86306,7 @@
         </is>
       </c>
       <c r="S1074" t="n">
-        <v>494</v>
+        <v>469</v>
       </c>
       <c r="T1074" t="n">
         <v>400</v>
@@ -86355,25 +86355,25 @@
       </c>
       <c r="K1075" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1075" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1075" t="n">
         <v>20</v>
       </c>
       <c r="N1075" t="n">
-        <v>175000</v>
+        <v>185000</v>
       </c>
       <c r="O1075" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="P1075" t="n">
-        <v>177500</v>
+        <v>187500</v>
       </c>
       <c r="Q1075" t="inlineStr">
         <is>
@@ -86386,7 +86386,7 @@
         </is>
       </c>
       <c r="S1075" t="n">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="T1075" t="n">
         <v>400</v>
@@ -86407,7 +86407,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1076" t="n">
         <v>4</v>
@@ -86435,25 +86435,25 @@
       </c>
       <c r="K1076" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1076" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1076" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N1076" t="n">
-        <v>255000</v>
+        <v>165000</v>
       </c>
       <c r="O1076" t="n">
-        <v>260000</v>
+        <v>170000</v>
       </c>
       <c r="P1076" t="n">
-        <v>257500</v>
+        <v>167500</v>
       </c>
       <c r="Q1076" t="inlineStr">
         <is>
@@ -86466,7 +86466,7 @@
         </is>
       </c>
       <c r="S1076" t="n">
-        <v>644</v>
+        <v>419</v>
       </c>
       <c r="T1076" t="n">
         <v>400</v>
@@ -86487,7 +86487,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E1077" t="n">
         <v>4</v>
@@ -86515,25 +86515,25 @@
       </c>
       <c r="K1077" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1077" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1077" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N1077" t="n">
-        <v>260000</v>
+        <v>195000</v>
       </c>
       <c r="O1077" t="n">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="P1077" t="n">
-        <v>265000</v>
+        <v>197500</v>
       </c>
       <c r="Q1077" t="inlineStr">
         <is>
@@ -86542,11 +86542,11 @@
       </c>
       <c r="R1077" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1077" t="n">
-        <v>662</v>
+        <v>494</v>
       </c>
       <c r="T1077" t="n">
         <v>400</v>
@@ -86567,7 +86567,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E1078" t="n">
         <v>4</v>
@@ -86595,25 +86595,25 @@
       </c>
       <c r="K1078" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1078" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1078" t="n">
         <v>20</v>
       </c>
       <c r="N1078" t="n">
-        <v>230000</v>
+        <v>175000</v>
       </c>
       <c r="O1078" t="n">
-        <v>240000</v>
+        <v>180000</v>
       </c>
       <c r="P1078" t="n">
-        <v>235000</v>
+        <v>177500</v>
       </c>
       <c r="Q1078" t="inlineStr">
         <is>
@@ -86622,11 +86622,11 @@
       </c>
       <c r="R1078" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1078" t="n">
-        <v>588</v>
+        <v>444</v>
       </c>
       <c r="T1078" t="n">
         <v>400</v>
@@ -86647,7 +86647,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E1079" t="n">
         <v>4</v>
@@ -86680,20 +86680,20 @@
       </c>
       <c r="L1079" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1079" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N1079" t="n">
-        <v>200000</v>
+        <v>255000</v>
       </c>
       <c r="O1079" t="n">
-        <v>210000</v>
+        <v>260000</v>
       </c>
       <c r="P1079" t="n">
-        <v>205000</v>
+        <v>257500</v>
       </c>
       <c r="Q1079" t="inlineStr">
         <is>
@@ -86702,11 +86702,11 @@
       </c>
       <c r="R1079" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1079" t="n">
-        <v>512</v>
+        <v>644</v>
       </c>
       <c r="T1079" t="n">
         <v>400</v>
@@ -86755,25 +86755,25 @@
       </c>
       <c r="K1080" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1080" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1080" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N1080" t="n">
-        <v>200000</v>
+        <v>260000</v>
       </c>
       <c r="O1080" t="n">
-        <v>210000</v>
+        <v>270000</v>
       </c>
       <c r="P1080" t="n">
-        <v>205000</v>
+        <v>265000</v>
       </c>
       <c r="Q1080" t="inlineStr">
         <is>
@@ -86786,7 +86786,7 @@
         </is>
       </c>
       <c r="S1080" t="n">
-        <v>512</v>
+        <v>662</v>
       </c>
       <c r="T1080" t="n">
         <v>400</v>
@@ -86835,25 +86835,25 @@
       </c>
       <c r="K1081" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1081" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1081" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N1081" t="n">
-        <v>180000</v>
+        <v>230000</v>
       </c>
       <c r="O1081" t="n">
-        <v>190000</v>
+        <v>240000</v>
       </c>
       <c r="P1081" t="n">
-        <v>185000</v>
+        <v>235000</v>
       </c>
       <c r="Q1081" t="inlineStr">
         <is>
@@ -86866,7 +86866,7 @@
         </is>
       </c>
       <c r="S1081" t="n">
-        <v>462</v>
+        <v>588</v>
       </c>
       <c r="T1081" t="n">
         <v>400</v>
@@ -86887,7 +86887,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1082" t="n">
         <v>4</v>
@@ -86920,20 +86920,20 @@
       </c>
       <c r="L1082" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1082" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N1082" t="n">
-        <v>245000</v>
+        <v>200000</v>
       </c>
       <c r="O1082" t="n">
-        <v>250000</v>
+        <v>210000</v>
       </c>
       <c r="P1082" t="n">
-        <v>247500</v>
+        <v>205000</v>
       </c>
       <c r="Q1082" t="inlineStr">
         <is>
@@ -86946,7 +86946,7 @@
         </is>
       </c>
       <c r="S1082" t="n">
-        <v>619</v>
+        <v>512</v>
       </c>
       <c r="T1082" t="n">
         <v>400</v>
@@ -86967,7 +86967,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1083" t="n">
         <v>4</v>
@@ -86995,7 +86995,7 @@
       </c>
       <c r="K1083" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1083" t="inlineStr">
@@ -87004,16 +87004,16 @@
         </is>
       </c>
       <c r="M1083" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N1083" t="n">
-        <v>215000</v>
+        <v>200000</v>
       </c>
       <c r="O1083" t="n">
-        <v>220000</v>
+        <v>210000</v>
       </c>
       <c r="P1083" t="n">
-        <v>217500</v>
+        <v>205000</v>
       </c>
       <c r="Q1083" t="inlineStr">
         <is>
@@ -87026,7 +87026,7 @@
         </is>
       </c>
       <c r="S1083" t="n">
-        <v>544</v>
+        <v>512</v>
       </c>
       <c r="T1083" t="n">
         <v>400</v>
@@ -87047,7 +87047,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1084" t="n">
         <v>4</v>
@@ -87075,7 +87075,7 @@
       </c>
       <c r="K1084" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1084" t="inlineStr">
@@ -87084,16 +87084,16 @@
         </is>
       </c>
       <c r="M1084" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N1084" t="n">
-        <v>195000</v>
+        <v>180000</v>
       </c>
       <c r="O1084" t="n">
-        <v>200000</v>
+        <v>190000</v>
       </c>
       <c r="P1084" t="n">
-        <v>197500</v>
+        <v>185000</v>
       </c>
       <c r="Q1084" t="inlineStr">
         <is>
@@ -87106,7 +87106,7 @@
         </is>
       </c>
       <c r="S1084" t="n">
-        <v>494</v>
+        <v>462</v>
       </c>
       <c r="T1084" t="n">
         <v>400</v>
@@ -87155,7 +87155,7 @@
       </c>
       <c r="K1085" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1085" t="inlineStr">
@@ -87164,16 +87164,16 @@
         </is>
       </c>
       <c r="M1085" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1085" t="n">
-        <v>230000</v>
+        <v>245000</v>
       </c>
       <c r="O1085" t="n">
-        <v>235000</v>
+        <v>250000</v>
       </c>
       <c r="P1085" t="n">
-        <v>232500</v>
+        <v>247500</v>
       </c>
       <c r="Q1085" t="inlineStr">
         <is>
@@ -87182,11 +87182,11 @@
       </c>
       <c r="R1085" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1085" t="n">
-        <v>581</v>
+        <v>619</v>
       </c>
       <c r="T1085" t="n">
         <v>400</v>
@@ -87235,7 +87235,7 @@
       </c>
       <c r="K1086" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1086" t="inlineStr">
@@ -87247,13 +87247,13 @@
         <v>20</v>
       </c>
       <c r="N1086" t="n">
-        <v>205000</v>
+        <v>215000</v>
       </c>
       <c r="O1086" t="n">
-        <v>210000</v>
+        <v>220000</v>
       </c>
       <c r="P1086" t="n">
-        <v>207500</v>
+        <v>217500</v>
       </c>
       <c r="Q1086" t="inlineStr">
         <is>
@@ -87262,11 +87262,11 @@
       </c>
       <c r="R1086" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1086" t="n">
-        <v>519</v>
+        <v>544</v>
       </c>
       <c r="T1086" t="n">
         <v>400</v>
@@ -87315,7 +87315,7 @@
       </c>
       <c r="K1087" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1087" t="inlineStr">
@@ -87327,13 +87327,13 @@
         <v>20</v>
       </c>
       <c r="N1087" t="n">
-        <v>185000</v>
+        <v>195000</v>
       </c>
       <c r="O1087" t="n">
-        <v>190000</v>
+        <v>200000</v>
       </c>
       <c r="P1087" t="n">
-        <v>187500</v>
+        <v>197500</v>
       </c>
       <c r="Q1087" t="inlineStr">
         <is>
@@ -87342,11 +87342,11 @@
       </c>
       <c r="R1087" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1087" t="n">
-        <v>469</v>
+        <v>494</v>
       </c>
       <c r="T1087" t="n">
         <v>400</v>
@@ -87395,7 +87395,7 @@
       </c>
       <c r="K1088" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1088" t="inlineStr">
@@ -87407,13 +87407,13 @@
         <v>20</v>
       </c>
       <c r="N1088" t="n">
+        <v>230000</v>
+      </c>
+      <c r="O1088" t="n">
         <v>235000</v>
       </c>
-      <c r="O1088" t="n">
-        <v>240000</v>
-      </c>
       <c r="P1088" t="n">
-        <v>237500</v>
+        <v>232500</v>
       </c>
       <c r="Q1088" t="inlineStr">
         <is>
@@ -87426,7 +87426,7 @@
         </is>
       </c>
       <c r="S1088" t="n">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="T1088" t="n">
         <v>400</v>
@@ -87475,7 +87475,7 @@
       </c>
       <c r="K1089" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1089" t="inlineStr">
@@ -87487,13 +87487,13 @@
         <v>20</v>
       </c>
       <c r="N1089" t="n">
+        <v>205000</v>
+      </c>
+      <c r="O1089" t="n">
         <v>210000</v>
       </c>
-      <c r="O1089" t="n">
-        <v>215000</v>
-      </c>
       <c r="P1089" t="n">
-        <v>212500</v>
+        <v>207500</v>
       </c>
       <c r="Q1089" t="inlineStr">
         <is>
@@ -87506,7 +87506,7 @@
         </is>
       </c>
       <c r="S1089" t="n">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="T1089" t="n">
         <v>400</v>
@@ -87555,7 +87555,7 @@
       </c>
       <c r="K1090" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1090" t="inlineStr">
@@ -87567,28 +87567,268 @@
         <v>20</v>
       </c>
       <c r="N1090" t="n">
+        <v>185000</v>
+      </c>
+      <c r="O1090" t="n">
         <v>190000</v>
       </c>
-      <c r="O1090" t="n">
+      <c r="P1090" t="n">
+        <v>187500</v>
+      </c>
+      <c r="Q1090" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1090" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1090" t="n">
+        <v>469</v>
+      </c>
+      <c r="T1090" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1091" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1091" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1091" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1091" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1091" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1091" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1091" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1091" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1091" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1091" t="inlineStr">
+        <is>
+          <t>Pink Lady</t>
+        </is>
+      </c>
+      <c r="L1091" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M1091" t="n">
+        <v>20</v>
+      </c>
+      <c r="N1091" t="n">
+        <v>235000</v>
+      </c>
+      <c r="O1091" t="n">
+        <v>240000</v>
+      </c>
+      <c r="P1091" t="n">
+        <v>237500</v>
+      </c>
+      <c r="Q1091" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1091" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1091" t="n">
+        <v>594</v>
+      </c>
+      <c r="T1091" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1092" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1092" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1092" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1092" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1092" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1092" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1092" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1092" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1092" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1092" t="inlineStr">
+        <is>
+          <t>Pink Lady</t>
+        </is>
+      </c>
+      <c r="L1092" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1092" t="n">
+        <v>20</v>
+      </c>
+      <c r="N1092" t="n">
+        <v>210000</v>
+      </c>
+      <c r="O1092" t="n">
+        <v>215000</v>
+      </c>
+      <c r="P1092" t="n">
+        <v>212500</v>
+      </c>
+      <c r="Q1092" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1092" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1092" t="n">
+        <v>531</v>
+      </c>
+      <c r="T1092" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1093" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1093" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1093" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1093" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1093" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1093" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1093" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1093" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1093" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1093" t="inlineStr">
+        <is>
+          <t>Pink Lady</t>
+        </is>
+      </c>
+      <c r="L1093" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1093" t="n">
+        <v>20</v>
+      </c>
+      <c r="N1093" t="n">
+        <v>190000</v>
+      </c>
+      <c r="O1093" t="n">
         <v>195000</v>
       </c>
-      <c r="P1090" t="n">
+      <c r="P1093" t="n">
         <v>192500</v>
       </c>
-      <c r="Q1090" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R1090" t="inlineStr">
+      <c r="Q1093" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1093" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S1090" t="n">
+      <c r="S1093" t="n">
         <v>481</v>
       </c>
-      <c r="T1090" t="n">
+      <c r="T1093" t="n">
         <v>400</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Manzana.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Manzana.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1096"/>
+  <dimension ref="A1:T1104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72487,7 +72487,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E902" t="n">
         <v>4</v>
@@ -72515,7 +72515,7 @@
       </c>
       <c r="K902" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L902" t="inlineStr">
@@ -72524,16 +72524,16 @@
         </is>
       </c>
       <c r="M902" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N902" t="n">
-        <v>270000</v>
+        <v>315000</v>
       </c>
       <c r="O902" t="n">
-        <v>280000</v>
+        <v>320000</v>
       </c>
       <c r="P902" t="n">
-        <v>275000</v>
+        <v>317500</v>
       </c>
       <c r="Q902" t="inlineStr">
         <is>
@@ -72542,11 +72542,11 @@
       </c>
       <c r="R902" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S902" t="n">
-        <v>688</v>
+        <v>794</v>
       </c>
       <c r="T902" t="n">
         <v>400</v>
@@ -72567,7 +72567,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E903" t="n">
         <v>4</v>
@@ -72595,7 +72595,7 @@
       </c>
       <c r="K903" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L903" t="inlineStr">
@@ -72607,13 +72607,13 @@
         <v>20</v>
       </c>
       <c r="N903" t="n">
-        <v>240000</v>
+        <v>295000</v>
       </c>
       <c r="O903" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="P903" t="n">
-        <v>245000</v>
+        <v>297500</v>
       </c>
       <c r="Q903" t="inlineStr">
         <is>
@@ -72622,11 +72622,11 @@
       </c>
       <c r="R903" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S903" t="n">
-        <v>612</v>
+        <v>744</v>
       </c>
       <c r="T903" t="n">
         <v>400</v>
@@ -72647,7 +72647,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E904" t="n">
         <v>4</v>
@@ -72675,7 +72675,7 @@
       </c>
       <c r="K904" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L904" t="inlineStr">
@@ -72684,16 +72684,16 @@
         </is>
       </c>
       <c r="M904" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N904" t="n">
-        <v>210000</v>
+        <v>275000</v>
       </c>
       <c r="O904" t="n">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="P904" t="n">
-        <v>215000</v>
+        <v>277500</v>
       </c>
       <c r="Q904" t="inlineStr">
         <is>
@@ -72702,11 +72702,11 @@
       </c>
       <c r="R904" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S904" t="n">
-        <v>538</v>
+        <v>694</v>
       </c>
       <c r="T904" t="n">
         <v>400</v>
@@ -72727,7 +72727,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E905" t="n">
         <v>4</v>
@@ -72755,7 +72755,7 @@
       </c>
       <c r="K905" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L905" t="inlineStr">
@@ -72767,13 +72767,13 @@
         <v>20</v>
       </c>
       <c r="N905" t="n">
-        <v>235000</v>
+        <v>295000</v>
       </c>
       <c r="O905" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="P905" t="n">
-        <v>237500</v>
+        <v>297500</v>
       </c>
       <c r="Q905" t="inlineStr">
         <is>
@@ -72782,11 +72782,11 @@
       </c>
       <c r="R905" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S905" t="n">
-        <v>594</v>
+        <v>744</v>
       </c>
       <c r="T905" t="n">
         <v>400</v>
@@ -72807,7 +72807,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E906" t="n">
         <v>4</v>
@@ -72835,7 +72835,7 @@
       </c>
       <c r="K906" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L906" t="inlineStr">
@@ -72847,13 +72847,13 @@
         <v>20</v>
       </c>
       <c r="N906" t="n">
-        <v>215000</v>
+        <v>265000</v>
       </c>
       <c r="O906" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="P906" t="n">
-        <v>217500</v>
+        <v>267500</v>
       </c>
       <c r="Q906" t="inlineStr">
         <is>
@@ -72862,11 +72862,11 @@
       </c>
       <c r="R906" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S906" t="n">
-        <v>544</v>
+        <v>669</v>
       </c>
       <c r="T906" t="n">
         <v>400</v>
@@ -72887,7 +72887,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E907" t="n">
         <v>4</v>
@@ -72915,7 +72915,7 @@
       </c>
       <c r="K907" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L907" t="inlineStr">
@@ -72927,13 +72927,13 @@
         <v>20</v>
       </c>
       <c r="N907" t="n">
-        <v>195000</v>
+        <v>235000</v>
       </c>
       <c r="O907" t="n">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="P907" t="n">
-        <v>197500</v>
+        <v>237500</v>
       </c>
       <c r="Q907" t="inlineStr">
         <is>
@@ -72942,11 +72942,11 @@
       </c>
       <c r="R907" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S907" t="n">
-        <v>494</v>
+        <v>594</v>
       </c>
       <c r="T907" t="n">
         <v>400</v>
@@ -72967,7 +72967,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E908" t="n">
         <v>4</v>
@@ -72995,25 +72995,25 @@
       </c>
       <c r="K908" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L908" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M908" t="n">
         <v>10</v>
       </c>
       <c r="N908" t="n">
-        <v>225000</v>
+        <v>205000</v>
       </c>
       <c r="O908" t="n">
-        <v>230000</v>
+        <v>210000</v>
       </c>
       <c r="P908" t="n">
-        <v>227500</v>
+        <v>207500</v>
       </c>
       <c r="Q908" t="inlineStr">
         <is>
@@ -73026,7 +73026,7 @@
         </is>
       </c>
       <c r="S908" t="n">
-        <v>569</v>
+        <v>519</v>
       </c>
       <c r="T908" t="n">
         <v>400</v>
@@ -73047,7 +73047,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E909" t="n">
         <v>4</v>
@@ -73075,25 +73075,25 @@
       </c>
       <c r="K909" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L909" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M909" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N909" t="n">
-        <v>205000</v>
+        <v>185000</v>
       </c>
       <c r="O909" t="n">
-        <v>210000</v>
+        <v>190000</v>
       </c>
       <c r="P909" t="n">
-        <v>207500</v>
+        <v>187500</v>
       </c>
       <c r="Q909" t="inlineStr">
         <is>
@@ -73106,7 +73106,7 @@
         </is>
       </c>
       <c r="S909" t="n">
-        <v>519</v>
+        <v>469</v>
       </c>
       <c r="T909" t="n">
         <v>400</v>
@@ -73127,7 +73127,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E910" t="n">
         <v>4</v>
@@ -73160,20 +73160,20 @@
       </c>
       <c r="L910" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M910" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N910" t="n">
-        <v>185000</v>
+        <v>270000</v>
       </c>
       <c r="O910" t="n">
-        <v>190000</v>
+        <v>280000</v>
       </c>
       <c r="P910" t="n">
-        <v>187500</v>
+        <v>275000</v>
       </c>
       <c r="Q910" t="inlineStr">
         <is>
@@ -73182,11 +73182,11 @@
       </c>
       <c r="R910" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S910" t="n">
-        <v>469</v>
+        <v>688</v>
       </c>
       <c r="T910" t="n">
         <v>400</v>
@@ -73207,7 +73207,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E911" t="n">
         <v>4</v>
@@ -73235,25 +73235,25 @@
       </c>
       <c r="K911" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L911" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M911" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N911" t="n">
-        <v>195000</v>
+        <v>240000</v>
       </c>
       <c r="O911" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="P911" t="n">
-        <v>197500</v>
+        <v>245000</v>
       </c>
       <c r="Q911" t="inlineStr">
         <is>
@@ -73262,11 +73262,11 @@
       </c>
       <c r="R911" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S911" t="n">
-        <v>494</v>
+        <v>612</v>
       </c>
       <c r="T911" t="n">
         <v>400</v>
@@ -73287,7 +73287,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E912" t="n">
         <v>4</v>
@@ -73315,25 +73315,25 @@
       </c>
       <c r="K912" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L912" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M912" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N912" t="n">
-        <v>175000</v>
+        <v>210000</v>
       </c>
       <c r="O912" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="P912" t="n">
-        <v>177500</v>
+        <v>215000</v>
       </c>
       <c r="Q912" t="inlineStr">
         <is>
@@ -73342,11 +73342,11 @@
       </c>
       <c r="R912" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S912" t="n">
-        <v>444</v>
+        <v>538</v>
       </c>
       <c r="T912" t="n">
         <v>400</v>
@@ -73395,25 +73395,25 @@
       </c>
       <c r="K913" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L913" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M913" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N913" t="n">
-        <v>150000</v>
+        <v>235000</v>
       </c>
       <c r="O913" t="n">
-        <v>155000</v>
+        <v>240000</v>
       </c>
       <c r="P913" t="n">
-        <v>152500</v>
+        <v>237500</v>
       </c>
       <c r="Q913" t="inlineStr">
         <is>
@@ -73426,7 +73426,7 @@
         </is>
       </c>
       <c r="S913" t="n">
-        <v>381</v>
+        <v>594</v>
       </c>
       <c r="T913" t="n">
         <v>400</v>
@@ -73475,7 +73475,7 @@
       </c>
       <c r="K914" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L914" t="inlineStr">
@@ -73484,16 +73484,16 @@
         </is>
       </c>
       <c r="M914" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N914" t="n">
-        <v>185000</v>
+        <v>215000</v>
       </c>
       <c r="O914" t="n">
-        <v>190000</v>
+        <v>220000</v>
       </c>
       <c r="P914" t="n">
-        <v>187500</v>
+        <v>217500</v>
       </c>
       <c r="Q914" t="inlineStr">
         <is>
@@ -73502,11 +73502,11 @@
       </c>
       <c r="R914" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S914" t="n">
-        <v>469</v>
+        <v>544</v>
       </c>
       <c r="T914" t="n">
         <v>400</v>
@@ -73555,7 +73555,7 @@
       </c>
       <c r="K915" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L915" t="inlineStr">
@@ -73564,16 +73564,16 @@
         </is>
       </c>
       <c r="M915" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N915" t="n">
-        <v>155000</v>
+        <v>195000</v>
       </c>
       <c r="O915" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="P915" t="n">
-        <v>157500</v>
+        <v>197500</v>
       </c>
       <c r="Q915" t="inlineStr">
         <is>
@@ -73582,11 +73582,11 @@
       </c>
       <c r="R915" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S915" t="n">
-        <v>394</v>
+        <v>494</v>
       </c>
       <c r="T915" t="n">
         <v>400</v>
@@ -73607,7 +73607,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E916" t="n">
         <v>4</v>
@@ -73644,16 +73644,16 @@
         </is>
       </c>
       <c r="M916" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="N916" t="n">
-        <v>220000</v>
+        <v>225000</v>
       </c>
       <c r="O916" t="n">
         <v>230000</v>
       </c>
       <c r="P916" t="n">
-        <v>225000</v>
+        <v>227500</v>
       </c>
       <c r="Q916" t="inlineStr">
         <is>
@@ -73666,7 +73666,7 @@
         </is>
       </c>
       <c r="S916" t="n">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="T916" t="n">
         <v>400</v>
@@ -73687,7 +73687,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E917" t="n">
         <v>4</v>
@@ -73727,13 +73727,13 @@
         <v>20</v>
       </c>
       <c r="N917" t="n">
-        <v>200000</v>
+        <v>205000</v>
       </c>
       <c r="O917" t="n">
         <v>210000</v>
       </c>
       <c r="P917" t="n">
-        <v>205000</v>
+        <v>207500</v>
       </c>
       <c r="Q917" t="inlineStr">
         <is>
@@ -73746,7 +73746,7 @@
         </is>
       </c>
       <c r="S917" t="n">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="T917" t="n">
         <v>400</v>
@@ -73767,7 +73767,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E918" t="n">
         <v>4</v>
@@ -73804,16 +73804,16 @@
         </is>
       </c>
       <c r="M918" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N918" t="n">
-        <v>180000</v>
+        <v>185000</v>
       </c>
       <c r="O918" t="n">
         <v>190000</v>
       </c>
       <c r="P918" t="n">
-        <v>185000</v>
+        <v>187500</v>
       </c>
       <c r="Q918" t="inlineStr">
         <is>
@@ -73826,7 +73826,7 @@
         </is>
       </c>
       <c r="S918" t="n">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="T918" t="n">
         <v>400</v>
@@ -73847,7 +73847,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E919" t="n">
         <v>4</v>
@@ -73884,16 +73884,16 @@
         </is>
       </c>
       <c r="M919" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N919" t="n">
-        <v>190000</v>
+        <v>195000</v>
       </c>
       <c r="O919" t="n">
         <v>200000</v>
       </c>
       <c r="P919" t="n">
-        <v>195000</v>
+        <v>197500</v>
       </c>
       <c r="Q919" t="inlineStr">
         <is>
@@ -73902,11 +73902,11 @@
       </c>
       <c r="R919" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S919" t="n">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="T919" t="n">
         <v>400</v>
@@ -73927,7 +73927,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E920" t="n">
         <v>4</v>
@@ -73967,13 +73967,13 @@
         <v>20</v>
       </c>
       <c r="N920" t="n">
-        <v>170000</v>
+        <v>175000</v>
       </c>
       <c r="O920" t="n">
         <v>180000</v>
       </c>
       <c r="P920" t="n">
-        <v>175000</v>
+        <v>177500</v>
       </c>
       <c r="Q920" t="inlineStr">
         <is>
@@ -73982,11 +73982,11 @@
       </c>
       <c r="R920" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S920" t="n">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="T920" t="n">
         <v>400</v>
@@ -74007,7 +74007,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E921" t="n">
         <v>4</v>
@@ -74044,16 +74044,16 @@
         </is>
       </c>
       <c r="M921" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N921" t="n">
         <v>150000</v>
       </c>
       <c r="O921" t="n">
-        <v>160000</v>
+        <v>155000</v>
       </c>
       <c r="P921" t="n">
-        <v>155000</v>
+        <v>152500</v>
       </c>
       <c r="Q921" t="inlineStr">
         <is>
@@ -74062,11 +74062,11 @@
       </c>
       <c r="R921" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S921" t="n">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="T921" t="n">
         <v>400</v>
@@ -74087,7 +74087,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E922" t="n">
         <v>4</v>
@@ -74115,25 +74115,25 @@
       </c>
       <c r="K922" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L922" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M922" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N922" t="n">
-        <v>355000</v>
+        <v>185000</v>
       </c>
       <c r="O922" t="n">
-        <v>360000</v>
+        <v>190000</v>
       </c>
       <c r="P922" t="n">
-        <v>357500</v>
+        <v>187500</v>
       </c>
       <c r="Q922" t="inlineStr">
         <is>
@@ -74146,7 +74146,7 @@
         </is>
       </c>
       <c r="S922" t="n">
-        <v>894</v>
+        <v>469</v>
       </c>
       <c r="T922" t="n">
         <v>400</v>
@@ -74167,7 +74167,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E923" t="n">
         <v>4</v>
@@ -74195,25 +74195,25 @@
       </c>
       <c r="K923" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L923" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M923" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N923" t="n">
-        <v>315000</v>
+        <v>155000</v>
       </c>
       <c r="O923" t="n">
-        <v>320000</v>
+        <v>160000</v>
       </c>
       <c r="P923" t="n">
-        <v>317500</v>
+        <v>157500</v>
       </c>
       <c r="Q923" t="inlineStr">
         <is>
@@ -74226,7 +74226,7 @@
         </is>
       </c>
       <c r="S923" t="n">
-        <v>794</v>
+        <v>394</v>
       </c>
       <c r="T923" t="n">
         <v>400</v>
@@ -74247,7 +74247,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E924" t="n">
         <v>4</v>
@@ -74275,25 +74275,25 @@
       </c>
       <c r="K924" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L924" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M924" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N924" t="n">
-        <v>275000</v>
+        <v>220000</v>
       </c>
       <c r="O924" t="n">
-        <v>280000</v>
+        <v>230000</v>
       </c>
       <c r="P924" t="n">
-        <v>277500</v>
+        <v>225000</v>
       </c>
       <c r="Q924" t="inlineStr">
         <is>
@@ -74302,11 +74302,11 @@
       </c>
       <c r="R924" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S924" t="n">
-        <v>694</v>
+        <v>562</v>
       </c>
       <c r="T924" t="n">
         <v>400</v>
@@ -74327,7 +74327,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E925" t="n">
         <v>4</v>
@@ -74360,20 +74360,20 @@
       </c>
       <c r="L925" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M925" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N925" t="n">
-        <v>255000</v>
+        <v>200000</v>
       </c>
       <c r="O925" t="n">
-        <v>260000</v>
+        <v>210000</v>
       </c>
       <c r="P925" t="n">
-        <v>257500</v>
+        <v>205000</v>
       </c>
       <c r="Q925" t="inlineStr">
         <is>
@@ -74382,11 +74382,11 @@
       </c>
       <c r="R925" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S925" t="n">
-        <v>644</v>
+        <v>512</v>
       </c>
       <c r="T925" t="n">
         <v>400</v>
@@ -74407,7 +74407,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E926" t="n">
         <v>4</v>
@@ -74440,20 +74440,20 @@
       </c>
       <c r="L926" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M926" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N926" t="n">
-        <v>235000</v>
+        <v>180000</v>
       </c>
       <c r="O926" t="n">
-        <v>240000</v>
+        <v>190000</v>
       </c>
       <c r="P926" t="n">
-        <v>237500</v>
+        <v>185000</v>
       </c>
       <c r="Q926" t="inlineStr">
         <is>
@@ -74462,11 +74462,11 @@
       </c>
       <c r="R926" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S926" t="n">
-        <v>594</v>
+        <v>462</v>
       </c>
       <c r="T926" t="n">
         <v>400</v>
@@ -74487,7 +74487,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E927" t="n">
         <v>4</v>
@@ -74515,25 +74515,25 @@
       </c>
       <c r="K927" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L927" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M927" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N927" t="n">
-        <v>195000</v>
+        <v>190000</v>
       </c>
       <c r="O927" t="n">
         <v>200000</v>
       </c>
       <c r="P927" t="n">
-        <v>197500</v>
+        <v>195000</v>
       </c>
       <c r="Q927" t="inlineStr">
         <is>
@@ -74546,7 +74546,7 @@
         </is>
       </c>
       <c r="S927" t="n">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="T927" t="n">
         <v>400</v>
@@ -74567,7 +74567,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E928" t="n">
         <v>4</v>
@@ -74595,7 +74595,7 @@
       </c>
       <c r="K928" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L928" t="inlineStr">
@@ -74604,16 +74604,16 @@
         </is>
       </c>
       <c r="M928" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N928" t="n">
-        <v>235000</v>
+        <v>170000</v>
       </c>
       <c r="O928" t="n">
-        <v>240000</v>
+        <v>180000</v>
       </c>
       <c r="P928" t="n">
-        <v>237500</v>
+        <v>175000</v>
       </c>
       <c r="Q928" t="inlineStr">
         <is>
@@ -74622,11 +74622,11 @@
       </c>
       <c r="R928" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S928" t="n">
-        <v>594</v>
+        <v>438</v>
       </c>
       <c r="T928" t="n">
         <v>400</v>
@@ -74647,7 +74647,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E929" t="n">
         <v>4</v>
@@ -74675,7 +74675,7 @@
       </c>
       <c r="K929" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L929" t="inlineStr">
@@ -74684,16 +74684,16 @@
         </is>
       </c>
       <c r="M929" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N929" t="n">
-        <v>195000</v>
+        <v>150000</v>
       </c>
       <c r="O929" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
       <c r="P929" t="n">
-        <v>197500</v>
+        <v>155000</v>
       </c>
       <c r="Q929" t="inlineStr">
         <is>
@@ -74702,11 +74702,11 @@
       </c>
       <c r="R929" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S929" t="n">
-        <v>494</v>
+        <v>388</v>
       </c>
       <c r="T929" t="n">
         <v>400</v>
@@ -74727,7 +74727,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E930" t="n">
         <v>4</v>
@@ -74755,25 +74755,25 @@
       </c>
       <c r="K930" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L930" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M930" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="N930" t="n">
-        <v>190000</v>
+        <v>355000</v>
       </c>
       <c r="O930" t="n">
-        <v>200000</v>
+        <v>360000</v>
       </c>
       <c r="P930" t="n">
-        <v>195000</v>
+        <v>357500</v>
       </c>
       <c r="Q930" t="inlineStr">
         <is>
@@ -74786,7 +74786,7 @@
         </is>
       </c>
       <c r="S930" t="n">
-        <v>488</v>
+        <v>894</v>
       </c>
       <c r="T930" t="n">
         <v>400</v>
@@ -74807,7 +74807,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E931" t="n">
         <v>4</v>
@@ -74835,25 +74835,25 @@
       </c>
       <c r="K931" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L931" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M931" t="n">
         <v>20</v>
       </c>
       <c r="N931" t="n">
-        <v>170000</v>
+        <v>315000</v>
       </c>
       <c r="O931" t="n">
-        <v>180000</v>
+        <v>320000</v>
       </c>
       <c r="P931" t="n">
-        <v>175000</v>
+        <v>317500</v>
       </c>
       <c r="Q931" t="inlineStr">
         <is>
@@ -74866,7 +74866,7 @@
         </is>
       </c>
       <c r="S931" t="n">
-        <v>438</v>
+        <v>794</v>
       </c>
       <c r="T931" t="n">
         <v>400</v>
@@ -74887,7 +74887,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E932" t="n">
         <v>4</v>
@@ -74915,25 +74915,25 @@
       </c>
       <c r="K932" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L932" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M932" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N932" t="n">
-        <v>180000</v>
+        <v>275000</v>
       </c>
       <c r="O932" t="n">
-        <v>190000</v>
+        <v>280000</v>
       </c>
       <c r="P932" t="n">
-        <v>185000</v>
+        <v>277500</v>
       </c>
       <c r="Q932" t="inlineStr">
         <is>
@@ -74942,11 +74942,11 @@
       </c>
       <c r="R932" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S932" t="n">
-        <v>462</v>
+        <v>694</v>
       </c>
       <c r="T932" t="n">
         <v>400</v>
@@ -74967,7 +74967,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E933" t="n">
         <v>4</v>
@@ -74995,25 +74995,25 @@
       </c>
       <c r="K933" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L933" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M933" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N933" t="n">
-        <v>160000</v>
+        <v>255000</v>
       </c>
       <c r="O933" t="n">
-        <v>170000</v>
+        <v>260000</v>
       </c>
       <c r="P933" t="n">
-        <v>165000</v>
+        <v>257500</v>
       </c>
       <c r="Q933" t="inlineStr">
         <is>
@@ -75022,11 +75022,11 @@
       </c>
       <c r="R933" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S933" t="n">
-        <v>412</v>
+        <v>644</v>
       </c>
       <c r="T933" t="n">
         <v>400</v>
@@ -75047,7 +75047,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E934" t="n">
         <v>4</v>
@@ -75075,25 +75075,25 @@
       </c>
       <c r="K934" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L934" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M934" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N934" t="n">
-        <v>270000</v>
+        <v>235000</v>
       </c>
       <c r="O934" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="P934" t="n">
-        <v>275000</v>
+        <v>237500</v>
       </c>
       <c r="Q934" t="inlineStr">
         <is>
@@ -75102,11 +75102,11 @@
       </c>
       <c r="R934" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S934" t="n">
-        <v>688</v>
+        <v>594</v>
       </c>
       <c r="T934" t="n">
         <v>400</v>
@@ -75127,7 +75127,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E935" t="n">
         <v>4</v>
@@ -75155,25 +75155,25 @@
       </c>
       <c r="K935" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L935" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M935" t="n">
         <v>20</v>
       </c>
       <c r="N935" t="n">
-        <v>230000</v>
+        <v>195000</v>
       </c>
       <c r="O935" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="P935" t="n">
-        <v>235000</v>
+        <v>197500</v>
       </c>
       <c r="Q935" t="inlineStr">
         <is>
@@ -75182,11 +75182,11 @@
       </c>
       <c r="R935" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S935" t="n">
-        <v>588</v>
+        <v>494</v>
       </c>
       <c r="T935" t="n">
         <v>400</v>
@@ -75207,7 +75207,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E936" t="n">
         <v>4</v>
@@ -75235,25 +75235,25 @@
       </c>
       <c r="K936" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L936" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M936" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N936" t="n">
-        <v>200000</v>
+        <v>235000</v>
       </c>
       <c r="O936" t="n">
-        <v>210000</v>
+        <v>240000</v>
       </c>
       <c r="P936" t="n">
-        <v>205000</v>
+        <v>237500</v>
       </c>
       <c r="Q936" t="inlineStr">
         <is>
@@ -75266,7 +75266,7 @@
         </is>
       </c>
       <c r="S936" t="n">
-        <v>512</v>
+        <v>594</v>
       </c>
       <c r="T936" t="n">
         <v>400</v>
@@ -75287,7 +75287,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44369</v>
+        <v>44263</v>
       </c>
       <c r="E937" t="n">
         <v>4</v>
@@ -75315,25 +75315,25 @@
       </c>
       <c r="K937" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L937" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M937" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N937" t="n">
+        <v>195000</v>
+      </c>
+      <c r="O937" t="n">
         <v>200000</v>
       </c>
-      <c r="O937" t="n">
-        <v>210000</v>
-      </c>
       <c r="P937" t="n">
-        <v>205000</v>
+        <v>197500</v>
       </c>
       <c r="Q937" t="inlineStr">
         <is>
@@ -75346,7 +75346,7 @@
         </is>
       </c>
       <c r="S937" t="n">
-        <v>512</v>
+        <v>494</v>
       </c>
       <c r="T937" t="n">
         <v>400</v>
@@ -75367,7 +75367,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E938" t="n">
         <v>4</v>
@@ -75395,25 +75395,25 @@
       </c>
       <c r="K938" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L938" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M938" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N938" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="O938" t="n">
-        <v>190000</v>
+        <v>200000</v>
       </c>
       <c r="P938" t="n">
-        <v>185000</v>
+        <v>195000</v>
       </c>
       <c r="Q938" t="inlineStr">
         <is>
@@ -75422,11 +75422,11 @@
       </c>
       <c r="R938" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S938" t="n">
-        <v>462</v>
+        <v>488</v>
       </c>
       <c r="T938" t="n">
         <v>400</v>
@@ -75447,7 +75447,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44172</v>
+        <v>44363</v>
       </c>
       <c r="E939" t="n">
         <v>4</v>
@@ -75475,25 +75475,25 @@
       </c>
       <c r="K939" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L939" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M939" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N939" t="n">
-        <v>285000</v>
+        <v>170000</v>
       </c>
       <c r="O939" t="n">
-        <v>290000</v>
+        <v>180000</v>
       </c>
       <c r="P939" t="n">
-        <v>287500</v>
+        <v>175000</v>
       </c>
       <c r="Q939" t="inlineStr">
         <is>
@@ -75506,7 +75506,7 @@
         </is>
       </c>
       <c r="S939" t="n">
-        <v>719</v>
+        <v>438</v>
       </c>
       <c r="T939" t="n">
         <v>400</v>
@@ -75527,7 +75527,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44172</v>
+        <v>44363</v>
       </c>
       <c r="E940" t="n">
         <v>4</v>
@@ -75555,7 +75555,7 @@
       </c>
       <c r="K940" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L940" t="inlineStr">
@@ -75564,16 +75564,16 @@
         </is>
       </c>
       <c r="M940" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N940" t="n">
-        <v>265000</v>
+        <v>180000</v>
       </c>
       <c r="O940" t="n">
-        <v>270000</v>
+        <v>190000</v>
       </c>
       <c r="P940" t="n">
-        <v>267500</v>
+        <v>185000</v>
       </c>
       <c r="Q940" t="inlineStr">
         <is>
@@ -75582,11 +75582,11 @@
       </c>
       <c r="R940" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S940" t="n">
-        <v>669</v>
+        <v>462</v>
       </c>
       <c r="T940" t="n">
         <v>400</v>
@@ -75607,7 +75607,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44172</v>
+        <v>44363</v>
       </c>
       <c r="E941" t="n">
         <v>4</v>
@@ -75635,7 +75635,7 @@
       </c>
       <c r="K941" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L941" t="inlineStr">
@@ -75647,13 +75647,13 @@
         <v>20</v>
       </c>
       <c r="N941" t="n">
-        <v>235000</v>
+        <v>160000</v>
       </c>
       <c r="O941" t="n">
-        <v>240000</v>
+        <v>170000</v>
       </c>
       <c r="P941" t="n">
-        <v>237500</v>
+        <v>165000</v>
       </c>
       <c r="Q941" t="inlineStr">
         <is>
@@ -75662,11 +75662,11 @@
       </c>
       <c r="R941" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S941" t="n">
-        <v>594</v>
+        <v>412</v>
       </c>
       <c r="T941" t="n">
         <v>400</v>
@@ -75687,7 +75687,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44172</v>
+        <v>44306</v>
       </c>
       <c r="E942" t="n">
         <v>4</v>
@@ -75715,25 +75715,25 @@
       </c>
       <c r="K942" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L942" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M942" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N942" t="n">
-        <v>215000</v>
+        <v>270000</v>
       </c>
       <c r="O942" t="n">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="P942" t="n">
-        <v>217500</v>
+        <v>275000</v>
       </c>
       <c r="Q942" t="inlineStr">
         <is>
@@ -75742,11 +75742,11 @@
       </c>
       <c r="R942" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S942" t="n">
-        <v>544</v>
+        <v>688</v>
       </c>
       <c r="T942" t="n">
         <v>400</v>
@@ -75767,7 +75767,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44172</v>
+        <v>44306</v>
       </c>
       <c r="E943" t="n">
         <v>4</v>
@@ -75795,25 +75795,25 @@
       </c>
       <c r="K943" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L943" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M943" t="n">
         <v>20</v>
       </c>
       <c r="N943" t="n">
-        <v>185000</v>
+        <v>230000</v>
       </c>
       <c r="O943" t="n">
-        <v>190000</v>
+        <v>240000</v>
       </c>
       <c r="P943" t="n">
-        <v>187500</v>
+        <v>235000</v>
       </c>
       <c r="Q943" t="inlineStr">
         <is>
@@ -75822,11 +75822,11 @@
       </c>
       <c r="R943" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S943" t="n">
-        <v>469</v>
+        <v>588</v>
       </c>
       <c r="T943" t="n">
         <v>400</v>
@@ -75847,7 +75847,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44301</v>
+        <v>44306</v>
       </c>
       <c r="E944" t="n">
         <v>4</v>
@@ -75880,20 +75880,20 @@
       </c>
       <c r="L944" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M944" t="n">
         <v>20</v>
       </c>
       <c r="N944" t="n">
-        <v>275000</v>
+        <v>200000</v>
       </c>
       <c r="O944" t="n">
-        <v>280000</v>
+        <v>210000</v>
       </c>
       <c r="P944" t="n">
-        <v>277500</v>
+        <v>205000</v>
       </c>
       <c r="Q944" t="inlineStr">
         <is>
@@ -75902,11 +75902,11 @@
       </c>
       <c r="R944" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S944" t="n">
-        <v>694</v>
+        <v>512</v>
       </c>
       <c r="T944" t="n">
         <v>400</v>
@@ -75927,7 +75927,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E945" t="n">
         <v>4</v>
@@ -75964,16 +75964,16 @@
         </is>
       </c>
       <c r="M945" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N945" t="n">
-        <v>245000</v>
+        <v>200000</v>
       </c>
       <c r="O945" t="n">
-        <v>250000</v>
+        <v>210000</v>
       </c>
       <c r="P945" t="n">
-        <v>247500</v>
+        <v>205000</v>
       </c>
       <c r="Q945" t="inlineStr">
         <is>
@@ -75982,11 +75982,11 @@
       </c>
       <c r="R945" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S945" t="n">
-        <v>619</v>
+        <v>512</v>
       </c>
       <c r="T945" t="n">
         <v>400</v>
@@ -76007,7 +76007,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E946" t="n">
         <v>4</v>
@@ -76047,13 +76047,13 @@
         <v>20</v>
       </c>
       <c r="N946" t="n">
-        <v>205000</v>
+        <v>180000</v>
       </c>
       <c r="O946" t="n">
-        <v>210000</v>
+        <v>190000</v>
       </c>
       <c r="P946" t="n">
-        <v>207500</v>
+        <v>185000</v>
       </c>
       <c r="Q946" t="inlineStr">
         <is>
@@ -76062,11 +76062,11 @@
       </c>
       <c r="R946" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S946" t="n">
-        <v>519</v>
+        <v>462</v>
       </c>
       <c r="T946" t="n">
         <v>400</v>
@@ -76087,7 +76087,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E947" t="n">
         <v>4</v>
@@ -76115,7 +76115,7 @@
       </c>
       <c r="K947" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L947" t="inlineStr">
@@ -76124,16 +76124,16 @@
         </is>
       </c>
       <c r="M947" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N947" t="n">
-        <v>255000</v>
+        <v>285000</v>
       </c>
       <c r="O947" t="n">
-        <v>260000</v>
+        <v>290000</v>
       </c>
       <c r="P947" t="n">
-        <v>257500</v>
+        <v>287500</v>
       </c>
       <c r="Q947" t="inlineStr">
         <is>
@@ -76142,11 +76142,11 @@
       </c>
       <c r="R947" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S947" t="n">
-        <v>644</v>
+        <v>719</v>
       </c>
       <c r="T947" t="n">
         <v>400</v>
@@ -76167,7 +76167,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E948" t="n">
         <v>4</v>
@@ -76195,7 +76195,7 @@
       </c>
       <c r="K948" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L948" t="inlineStr">
@@ -76207,13 +76207,13 @@
         <v>20</v>
       </c>
       <c r="N948" t="n">
-        <v>225000</v>
+        <v>265000</v>
       </c>
       <c r="O948" t="n">
-        <v>230000</v>
+        <v>270000</v>
       </c>
       <c r="P948" t="n">
-        <v>227500</v>
+        <v>267500</v>
       </c>
       <c r="Q948" t="inlineStr">
         <is>
@@ -76222,11 +76222,11 @@
       </c>
       <c r="R948" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S948" t="n">
-        <v>569</v>
+        <v>669</v>
       </c>
       <c r="T948" t="n">
         <v>400</v>
@@ -76247,7 +76247,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E949" t="n">
         <v>4</v>
@@ -76275,7 +76275,7 @@
       </c>
       <c r="K949" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L949" t="inlineStr">
@@ -76287,13 +76287,13 @@
         <v>20</v>
       </c>
       <c r="N949" t="n">
-        <v>205000</v>
+        <v>235000</v>
       </c>
       <c r="O949" t="n">
-        <v>210000</v>
+        <v>240000</v>
       </c>
       <c r="P949" t="n">
-        <v>207500</v>
+        <v>237500</v>
       </c>
       <c r="Q949" t="inlineStr">
         <is>
@@ -76302,11 +76302,11 @@
       </c>
       <c r="R949" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S949" t="n">
-        <v>519</v>
+        <v>594</v>
       </c>
       <c r="T949" t="n">
         <v>400</v>
@@ -76327,7 +76327,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E950" t="n">
         <v>4</v>
@@ -76367,13 +76367,13 @@
         <v>20</v>
       </c>
       <c r="N950" t="n">
-        <v>285000</v>
+        <v>215000</v>
       </c>
       <c r="O950" t="n">
-        <v>290000</v>
+        <v>220000</v>
       </c>
       <c r="P950" t="n">
-        <v>287500</v>
+        <v>217500</v>
       </c>
       <c r="Q950" t="inlineStr">
         <is>
@@ -76382,11 +76382,11 @@
       </c>
       <c r="R950" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S950" t="n">
-        <v>719</v>
+        <v>544</v>
       </c>
       <c r="T950" t="n">
         <v>400</v>
@@ -76407,7 +76407,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E951" t="n">
         <v>4</v>
@@ -76447,13 +76447,13 @@
         <v>20</v>
       </c>
       <c r="N951" t="n">
-        <v>245000</v>
+        <v>185000</v>
       </c>
       <c r="O951" t="n">
-        <v>250000</v>
+        <v>190000</v>
       </c>
       <c r="P951" t="n">
-        <v>247500</v>
+        <v>187500</v>
       </c>
       <c r="Q951" t="inlineStr">
         <is>
@@ -76462,11 +76462,11 @@
       </c>
       <c r="R951" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S951" t="n">
-        <v>619</v>
+        <v>469</v>
       </c>
       <c r="T951" t="n">
         <v>400</v>
@@ -76487,7 +76487,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E952" t="n">
         <v>4</v>
@@ -76520,20 +76520,20 @@
       </c>
       <c r="L952" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M952" t="n">
         <v>20</v>
       </c>
       <c r="N952" t="n">
-        <v>205000</v>
+        <v>275000</v>
       </c>
       <c r="O952" t="n">
-        <v>210000</v>
+        <v>280000</v>
       </c>
       <c r="P952" t="n">
-        <v>207500</v>
+        <v>277500</v>
       </c>
       <c r="Q952" t="inlineStr">
         <is>
@@ -76546,7 +76546,7 @@
         </is>
       </c>
       <c r="S952" t="n">
-        <v>519</v>
+        <v>694</v>
       </c>
       <c r="T952" t="n">
         <v>400</v>
@@ -76567,7 +76567,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E953" t="n">
         <v>4</v>
@@ -76600,20 +76600,20 @@
       </c>
       <c r="L953" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M953" t="n">
         <v>20</v>
       </c>
       <c r="N953" t="n">
-        <v>185000</v>
+        <v>245000</v>
       </c>
       <c r="O953" t="n">
-        <v>190000</v>
+        <v>250000</v>
       </c>
       <c r="P953" t="n">
-        <v>187500</v>
+        <v>247500</v>
       </c>
       <c r="Q953" t="inlineStr">
         <is>
@@ -76626,7 +76626,7 @@
         </is>
       </c>
       <c r="S953" t="n">
-        <v>469</v>
+        <v>619</v>
       </c>
       <c r="T953" t="n">
         <v>400</v>
@@ -76647,7 +76647,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E954" t="n">
         <v>4</v>
@@ -76675,25 +76675,25 @@
       </c>
       <c r="K954" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L954" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M954" t="n">
         <v>20</v>
       </c>
       <c r="N954" t="n">
-        <v>185000</v>
+        <v>205000</v>
       </c>
       <c r="O954" t="n">
-        <v>190000</v>
+        <v>210000</v>
       </c>
       <c r="P954" t="n">
-        <v>187500</v>
+        <v>207500</v>
       </c>
       <c r="Q954" t="inlineStr">
         <is>
@@ -76706,7 +76706,7 @@
         </is>
       </c>
       <c r="S954" t="n">
-        <v>469</v>
+        <v>519</v>
       </c>
       <c r="T954" t="n">
         <v>400</v>
@@ -76727,7 +76727,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E955" t="n">
         <v>4</v>
@@ -76760,20 +76760,20 @@
       </c>
       <c r="L955" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M955" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N955" t="n">
-        <v>165000</v>
+        <v>255000</v>
       </c>
       <c r="O955" t="n">
-        <v>170000</v>
+        <v>260000</v>
       </c>
       <c r="P955" t="n">
-        <v>167500</v>
+        <v>257500</v>
       </c>
       <c r="Q955" t="inlineStr">
         <is>
@@ -76782,11 +76782,11 @@
       </c>
       <c r="R955" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S955" t="n">
-        <v>419</v>
+        <v>644</v>
       </c>
       <c r="T955" t="n">
         <v>400</v>
@@ -76807,7 +76807,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E956" t="n">
         <v>4</v>
@@ -76835,7 +76835,7 @@
       </c>
       <c r="K956" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L956" t="inlineStr">
@@ -76847,13 +76847,13 @@
         <v>20</v>
       </c>
       <c r="N956" t="n">
-        <v>195000</v>
+        <v>225000</v>
       </c>
       <c r="O956" t="n">
-        <v>200000</v>
+        <v>230000</v>
       </c>
       <c r="P956" t="n">
-        <v>197500</v>
+        <v>227500</v>
       </c>
       <c r="Q956" t="inlineStr">
         <is>
@@ -76862,11 +76862,11 @@
       </c>
       <c r="R956" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S956" t="n">
-        <v>494</v>
+        <v>569</v>
       </c>
       <c r="T956" t="n">
         <v>400</v>
@@ -76887,7 +76887,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E957" t="n">
         <v>4</v>
@@ -76915,7 +76915,7 @@
       </c>
       <c r="K957" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L957" t="inlineStr">
@@ -76927,13 +76927,13 @@
         <v>20</v>
       </c>
       <c r="N957" t="n">
-        <v>175000</v>
+        <v>205000</v>
       </c>
       <c r="O957" t="n">
-        <v>180000</v>
+        <v>210000</v>
       </c>
       <c r="P957" t="n">
-        <v>177500</v>
+        <v>207500</v>
       </c>
       <c r="Q957" t="inlineStr">
         <is>
@@ -76942,11 +76942,11 @@
       </c>
       <c r="R957" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S957" t="n">
-        <v>444</v>
+        <v>519</v>
       </c>
       <c r="T957" t="n">
         <v>400</v>
@@ -76967,7 +76967,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E958" t="n">
         <v>4</v>
@@ -76995,7 +76995,7 @@
       </c>
       <c r="K958" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L958" t="inlineStr">
@@ -77004,16 +77004,16 @@
         </is>
       </c>
       <c r="M958" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N958" t="n">
-        <v>175000</v>
+        <v>285000</v>
       </c>
       <c r="O958" t="n">
-        <v>180000</v>
+        <v>290000</v>
       </c>
       <c r="P958" t="n">
-        <v>177500</v>
+        <v>287500</v>
       </c>
       <c r="Q958" t="inlineStr">
         <is>
@@ -77022,11 +77022,11 @@
       </c>
       <c r="R958" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S958" t="n">
-        <v>444</v>
+        <v>719</v>
       </c>
       <c r="T958" t="n">
         <v>400</v>
@@ -77047,7 +77047,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E959" t="n">
         <v>4</v>
@@ -77075,25 +77075,25 @@
       </c>
       <c r="K959" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L959" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M959" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N959" t="n">
-        <v>225000</v>
+        <v>245000</v>
       </c>
       <c r="O959" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="P959" t="n">
-        <v>227500</v>
+        <v>247500</v>
       </c>
       <c r="Q959" t="inlineStr">
         <is>
@@ -77102,11 +77102,11 @@
       </c>
       <c r="R959" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S959" t="n">
-        <v>569</v>
+        <v>619</v>
       </c>
       <c r="T959" t="n">
         <v>400</v>
@@ -77127,7 +77127,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E960" t="n">
         <v>4</v>
@@ -77155,7 +77155,7 @@
       </c>
       <c r="K960" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L960" t="inlineStr">
@@ -77207,7 +77207,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E961" t="n">
         <v>4</v>
@@ -77235,7 +77235,7 @@
       </c>
       <c r="K961" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L961" t="inlineStr">
@@ -77244,7 +77244,7 @@
         </is>
       </c>
       <c r="M961" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N961" t="n">
         <v>185000</v>
@@ -77287,7 +77287,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E962" t="n">
         <v>4</v>
@@ -77315,25 +77315,25 @@
       </c>
       <c r="K962" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L962" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M962" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N962" t="n">
-        <v>215000</v>
+        <v>185000</v>
       </c>
       <c r="O962" t="n">
-        <v>220000</v>
+        <v>190000</v>
       </c>
       <c r="P962" t="n">
-        <v>217500</v>
+        <v>187500</v>
       </c>
       <c r="Q962" t="inlineStr">
         <is>
@@ -77346,7 +77346,7 @@
         </is>
       </c>
       <c r="S962" t="n">
-        <v>544</v>
+        <v>469</v>
       </c>
       <c r="T962" t="n">
         <v>400</v>
@@ -77367,7 +77367,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E963" t="n">
         <v>4</v>
@@ -77395,25 +77395,25 @@
       </c>
       <c r="K963" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L963" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M963" t="n">
         <v>20</v>
       </c>
       <c r="N963" t="n">
-        <v>195000</v>
+        <v>165000</v>
       </c>
       <c r="O963" t="n">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="P963" t="n">
-        <v>197500</v>
+        <v>167500</v>
       </c>
       <c r="Q963" t="inlineStr">
         <is>
@@ -77426,7 +77426,7 @@
         </is>
       </c>
       <c r="S963" t="n">
-        <v>494</v>
+        <v>419</v>
       </c>
       <c r="T963" t="n">
         <v>400</v>
@@ -77447,7 +77447,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E964" t="n">
         <v>4</v>
@@ -77475,25 +77475,25 @@
       </c>
       <c r="K964" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L964" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M964" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N964" t="n">
-        <v>235000</v>
+        <v>195000</v>
       </c>
       <c r="O964" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="P964" t="n">
-        <v>237500</v>
+        <v>197500</v>
       </c>
       <c r="Q964" t="inlineStr">
         <is>
@@ -77506,7 +77506,7 @@
         </is>
       </c>
       <c r="S964" t="n">
-        <v>594</v>
+        <v>494</v>
       </c>
       <c r="T964" t="n">
         <v>400</v>
@@ -77527,7 +77527,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E965" t="n">
         <v>4</v>
@@ -77555,25 +77555,25 @@
       </c>
       <c r="K965" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L965" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M965" t="n">
         <v>20</v>
       </c>
       <c r="N965" t="n">
-        <v>215000</v>
+        <v>175000</v>
       </c>
       <c r="O965" t="n">
-        <v>220000</v>
+        <v>180000</v>
       </c>
       <c r="P965" t="n">
-        <v>217500</v>
+        <v>177500</v>
       </c>
       <c r="Q965" t="inlineStr">
         <is>
@@ -77586,7 +77586,7 @@
         </is>
       </c>
       <c r="S965" t="n">
-        <v>544</v>
+        <v>444</v>
       </c>
       <c r="T965" t="n">
         <v>400</v>
@@ -77607,7 +77607,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E966" t="n">
         <v>4</v>
@@ -77635,25 +77635,25 @@
       </c>
       <c r="K966" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L966" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M966" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N966" t="n">
-        <v>195000</v>
+        <v>175000</v>
       </c>
       <c r="O966" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P966" t="n">
-        <v>197500</v>
+        <v>177500</v>
       </c>
       <c r="Q966" t="inlineStr">
         <is>
@@ -77666,7 +77666,7 @@
         </is>
       </c>
       <c r="S966" t="n">
-        <v>494</v>
+        <v>444</v>
       </c>
       <c r="T966" t="n">
         <v>400</v>
@@ -77687,7 +77687,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E967" t="n">
         <v>4</v>
@@ -77715,7 +77715,7 @@
       </c>
       <c r="K967" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L967" t="inlineStr">
@@ -77727,13 +77727,13 @@
         <v>26</v>
       </c>
       <c r="N967" t="n">
-        <v>255000</v>
+        <v>225000</v>
       </c>
       <c r="O967" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="P967" t="n">
-        <v>257500</v>
+        <v>227500</v>
       </c>
       <c r="Q967" t="inlineStr">
         <is>
@@ -77746,7 +77746,7 @@
         </is>
       </c>
       <c r="S967" t="n">
-        <v>644</v>
+        <v>569</v>
       </c>
       <c r="T967" t="n">
         <v>400</v>
@@ -77767,7 +77767,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E968" t="n">
         <v>4</v>
@@ -77795,7 +77795,7 @@
       </c>
       <c r="K968" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L968" t="inlineStr">
@@ -77807,13 +77807,13 @@
         <v>20</v>
       </c>
       <c r="N968" t="n">
-        <v>225000</v>
+        <v>205000</v>
       </c>
       <c r="O968" t="n">
-        <v>230000</v>
+        <v>210000</v>
       </c>
       <c r="P968" t="n">
-        <v>227500</v>
+        <v>207500</v>
       </c>
       <c r="Q968" t="inlineStr">
         <is>
@@ -77826,7 +77826,7 @@
         </is>
       </c>
       <c r="S968" t="n">
-        <v>569</v>
+        <v>519</v>
       </c>
       <c r="T968" t="n">
         <v>400</v>
@@ -77847,7 +77847,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E969" t="n">
         <v>4</v>
@@ -77875,7 +77875,7 @@
       </c>
       <c r="K969" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L969" t="inlineStr">
@@ -77887,13 +77887,13 @@
         <v>18</v>
       </c>
       <c r="N969" t="n">
-        <v>205000</v>
+        <v>185000</v>
       </c>
       <c r="O969" t="n">
-        <v>210000</v>
+        <v>190000</v>
       </c>
       <c r="P969" t="n">
-        <v>207500</v>
+        <v>187500</v>
       </c>
       <c r="Q969" t="inlineStr">
         <is>
@@ -77906,7 +77906,7 @@
         </is>
       </c>
       <c r="S969" t="n">
-        <v>519</v>
+        <v>469</v>
       </c>
       <c r="T969" t="n">
         <v>400</v>
@@ -77927,7 +77927,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44298</v>
+        <v>44328</v>
       </c>
       <c r="E970" t="n">
         <v>4</v>
@@ -77955,7 +77955,7 @@
       </c>
       <c r="K970" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L970" t="inlineStr">
@@ -77964,16 +77964,16 @@
         </is>
       </c>
       <c r="M970" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="N970" t="n">
-        <v>285000</v>
+        <v>215000</v>
       </c>
       <c r="O970" t="n">
-        <v>290000</v>
+        <v>220000</v>
       </c>
       <c r="P970" t="n">
-        <v>287500</v>
+        <v>217500</v>
       </c>
       <c r="Q970" t="inlineStr">
         <is>
@@ -77982,11 +77982,11 @@
       </c>
       <c r="R970" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S970" t="n">
-        <v>719</v>
+        <v>544</v>
       </c>
       <c r="T970" t="n">
         <v>400</v>
@@ -78007,7 +78007,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44298</v>
+        <v>44328</v>
       </c>
       <c r="E971" t="n">
         <v>4</v>
@@ -78035,7 +78035,7 @@
       </c>
       <c r="K971" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L971" t="inlineStr">
@@ -78047,13 +78047,13 @@
         <v>20</v>
       </c>
       <c r="N971" t="n">
-        <v>255000</v>
+        <v>195000</v>
       </c>
       <c r="O971" t="n">
-        <v>260000</v>
+        <v>200000</v>
       </c>
       <c r="P971" t="n">
-        <v>257500</v>
+        <v>197500</v>
       </c>
       <c r="Q971" t="inlineStr">
         <is>
@@ -78062,11 +78062,11 @@
       </c>
       <c r="R971" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S971" t="n">
-        <v>644</v>
+        <v>494</v>
       </c>
       <c r="T971" t="n">
         <v>400</v>
@@ -78087,7 +78087,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E972" t="n">
         <v>4</v>
@@ -78115,25 +78115,25 @@
       </c>
       <c r="K972" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L972" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M972" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N972" t="n">
-        <v>215000</v>
+        <v>235000</v>
       </c>
       <c r="O972" t="n">
-        <v>220000</v>
+        <v>240000</v>
       </c>
       <c r="P972" t="n">
-        <v>217500</v>
+        <v>237500</v>
       </c>
       <c r="Q972" t="inlineStr">
         <is>
@@ -78142,11 +78142,11 @@
       </c>
       <c r="R972" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S972" t="n">
-        <v>544</v>
+        <v>594</v>
       </c>
       <c r="T972" t="n">
         <v>400</v>
@@ -78167,7 +78167,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E973" t="n">
         <v>4</v>
@@ -78200,20 +78200,20 @@
       </c>
       <c r="L973" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M973" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N973" t="n">
-        <v>255000</v>
+        <v>215000</v>
       </c>
       <c r="O973" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="P973" t="n">
-        <v>257500</v>
+        <v>217500</v>
       </c>
       <c r="Q973" t="inlineStr">
         <is>
@@ -78222,11 +78222,11 @@
       </c>
       <c r="R973" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S973" t="n">
-        <v>644</v>
+        <v>544</v>
       </c>
       <c r="T973" t="n">
         <v>400</v>
@@ -78247,7 +78247,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E974" t="n">
         <v>4</v>
@@ -78280,20 +78280,20 @@
       </c>
       <c r="L974" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M974" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N974" t="n">
-        <v>225000</v>
+        <v>195000</v>
       </c>
       <c r="O974" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="P974" t="n">
-        <v>227500</v>
+        <v>197500</v>
       </c>
       <c r="Q974" t="inlineStr">
         <is>
@@ -78302,11 +78302,11 @@
       </c>
       <c r="R974" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S974" t="n">
-        <v>569</v>
+        <v>494</v>
       </c>
       <c r="T974" t="n">
         <v>400</v>
@@ -78327,7 +78327,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E975" t="n">
         <v>4</v>
@@ -78355,25 +78355,25 @@
       </c>
       <c r="K975" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L975" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M975" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N975" t="n">
-        <v>205000</v>
+        <v>255000</v>
       </c>
       <c r="O975" t="n">
-        <v>210000</v>
+        <v>260000</v>
       </c>
       <c r="P975" t="n">
-        <v>207500</v>
+        <v>257500</v>
       </c>
       <c r="Q975" t="inlineStr">
         <is>
@@ -78382,11 +78382,11 @@
       </c>
       <c r="R975" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S975" t="n">
-        <v>519</v>
+        <v>644</v>
       </c>
       <c r="T975" t="n">
         <v>400</v>
@@ -78407,7 +78407,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E976" t="n">
         <v>4</v>
@@ -78447,13 +78447,13 @@
         <v>20</v>
       </c>
       <c r="N976" t="n">
-        <v>295000</v>
+        <v>225000</v>
       </c>
       <c r="O976" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="P976" t="n">
-        <v>297500</v>
+        <v>227500</v>
       </c>
       <c r="Q976" t="inlineStr">
         <is>
@@ -78466,7 +78466,7 @@
         </is>
       </c>
       <c r="S976" t="n">
-        <v>744</v>
+        <v>569</v>
       </c>
       <c r="T976" t="n">
         <v>400</v>
@@ -78487,7 +78487,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E977" t="n">
         <v>4</v>
@@ -78515,25 +78515,25 @@
       </c>
       <c r="K977" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L977" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M977" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N977" t="n">
-        <v>230000</v>
+        <v>205000</v>
       </c>
       <c r="O977" t="n">
-        <v>240000</v>
+        <v>210000</v>
       </c>
       <c r="P977" t="n">
-        <v>235000</v>
+        <v>207500</v>
       </c>
       <c r="Q977" t="inlineStr">
         <is>
@@ -78546,7 +78546,7 @@
         </is>
       </c>
       <c r="S977" t="n">
-        <v>588</v>
+        <v>519</v>
       </c>
       <c r="T977" t="n">
         <v>400</v>
@@ -78567,7 +78567,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E978" t="n">
         <v>4</v>
@@ -78600,20 +78600,20 @@
       </c>
       <c r="L978" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M978" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N978" t="n">
-        <v>200000</v>
+        <v>285000</v>
       </c>
       <c r="O978" t="n">
-        <v>210000</v>
+        <v>290000</v>
       </c>
       <c r="P978" t="n">
-        <v>205000</v>
+        <v>287500</v>
       </c>
       <c r="Q978" t="inlineStr">
         <is>
@@ -78622,11 +78622,11 @@
       </c>
       <c r="R978" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S978" t="n">
-        <v>512</v>
+        <v>719</v>
       </c>
       <c r="T978" t="n">
         <v>400</v>
@@ -78647,7 +78647,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E979" t="n">
         <v>4</v>
@@ -78680,20 +78680,20 @@
       </c>
       <c r="L979" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M979" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N979" t="n">
-        <v>180000</v>
+        <v>255000</v>
       </c>
       <c r="O979" t="n">
-        <v>190000</v>
+        <v>260000</v>
       </c>
       <c r="P979" t="n">
-        <v>185000</v>
+        <v>257500</v>
       </c>
       <c r="Q979" t="inlineStr">
         <is>
@@ -78702,11 +78702,11 @@
       </c>
       <c r="R979" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S979" t="n">
-        <v>462</v>
+        <v>644</v>
       </c>
       <c r="T979" t="n">
         <v>400</v>
@@ -78727,7 +78727,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E980" t="n">
         <v>4</v>
@@ -78755,25 +78755,25 @@
       </c>
       <c r="K980" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L980" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M980" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N980" t="n">
-        <v>200000</v>
+        <v>215000</v>
       </c>
       <c r="O980" t="n">
-        <v>210000</v>
+        <v>220000</v>
       </c>
       <c r="P980" t="n">
-        <v>205000</v>
+        <v>217500</v>
       </c>
       <c r="Q980" t="inlineStr">
         <is>
@@ -78782,11 +78782,11 @@
       </c>
       <c r="R980" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S980" t="n">
-        <v>512</v>
+        <v>544</v>
       </c>
       <c r="T980" t="n">
         <v>400</v>
@@ -78807,7 +78807,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E981" t="n">
         <v>4</v>
@@ -78835,25 +78835,25 @@
       </c>
       <c r="K981" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L981" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M981" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N981" t="n">
-        <v>180000</v>
+        <v>255000</v>
       </c>
       <c r="O981" t="n">
-        <v>190000</v>
+        <v>260000</v>
       </c>
       <c r="P981" t="n">
-        <v>185000</v>
+        <v>257500</v>
       </c>
       <c r="Q981" t="inlineStr">
         <is>
@@ -78862,11 +78862,11 @@
       </c>
       <c r="R981" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S981" t="n">
-        <v>462</v>
+        <v>644</v>
       </c>
       <c r="T981" t="n">
         <v>400</v>
@@ -78887,7 +78887,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E982" t="n">
         <v>4</v>
@@ -78915,25 +78915,25 @@
       </c>
       <c r="K982" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L982" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M982" t="n">
         <v>20</v>
       </c>
       <c r="N982" t="n">
-        <v>265000</v>
+        <v>225000</v>
       </c>
       <c r="O982" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="P982" t="n">
-        <v>267500</v>
+        <v>227500</v>
       </c>
       <c r="Q982" t="inlineStr">
         <is>
@@ -78946,7 +78946,7 @@
         </is>
       </c>
       <c r="S982" t="n">
-        <v>669</v>
+        <v>569</v>
       </c>
       <c r="T982" t="n">
         <v>400</v>
@@ -78967,7 +78967,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E983" t="n">
         <v>4</v>
@@ -78995,25 +78995,25 @@
       </c>
       <c r="K983" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L983" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M983" t="n">
         <v>20</v>
       </c>
       <c r="N983" t="n">
-        <v>235000</v>
+        <v>205000</v>
       </c>
       <c r="O983" t="n">
-        <v>240000</v>
+        <v>210000</v>
       </c>
       <c r="P983" t="n">
-        <v>237500</v>
+        <v>207500</v>
       </c>
       <c r="Q983" t="inlineStr">
         <is>
@@ -79026,7 +79026,7 @@
         </is>
       </c>
       <c r="S983" t="n">
-        <v>594</v>
+        <v>519</v>
       </c>
       <c r="T983" t="n">
         <v>400</v>
@@ -79047,7 +79047,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E984" t="n">
         <v>4</v>
@@ -79075,25 +79075,25 @@
       </c>
       <c r="K984" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L984" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M984" t="n">
         <v>20</v>
       </c>
       <c r="N984" t="n">
-        <v>205000</v>
+        <v>295000</v>
       </c>
       <c r="O984" t="n">
-        <v>210000</v>
+        <v>300000</v>
       </c>
       <c r="P984" t="n">
-        <v>207500</v>
+        <v>297500</v>
       </c>
       <c r="Q984" t="inlineStr">
         <is>
@@ -79102,11 +79102,11 @@
       </c>
       <c r="R984" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S984" t="n">
-        <v>519</v>
+        <v>744</v>
       </c>
       <c r="T984" t="n">
         <v>400</v>
@@ -79127,7 +79127,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E985" t="n">
         <v>4</v>
@@ -79155,7 +79155,7 @@
       </c>
       <c r="K985" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L985" t="inlineStr">
@@ -79164,16 +79164,16 @@
         </is>
       </c>
       <c r="M985" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N985" t="n">
-        <v>245000</v>
+        <v>230000</v>
       </c>
       <c r="O985" t="n">
-        <v>250000</v>
+        <v>240000</v>
       </c>
       <c r="P985" t="n">
-        <v>247500</v>
+        <v>235000</v>
       </c>
       <c r="Q985" t="inlineStr">
         <is>
@@ -79182,11 +79182,11 @@
       </c>
       <c r="R985" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S985" t="n">
-        <v>619</v>
+        <v>588</v>
       </c>
       <c r="T985" t="n">
         <v>400</v>
@@ -79207,7 +79207,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E986" t="n">
         <v>4</v>
@@ -79235,7 +79235,7 @@
       </c>
       <c r="K986" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L986" t="inlineStr">
@@ -79247,13 +79247,13 @@
         <v>20</v>
       </c>
       <c r="N986" t="n">
-        <v>225000</v>
+        <v>200000</v>
       </c>
       <c r="O986" t="n">
-        <v>230000</v>
+        <v>210000</v>
       </c>
       <c r="P986" t="n">
-        <v>227500</v>
+        <v>205000</v>
       </c>
       <c r="Q986" t="inlineStr">
         <is>
@@ -79262,11 +79262,11 @@
       </c>
       <c r="R986" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S986" t="n">
-        <v>569</v>
+        <v>512</v>
       </c>
       <c r="T986" t="n">
         <v>400</v>
@@ -79287,7 +79287,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E987" t="n">
         <v>4</v>
@@ -79315,7 +79315,7 @@
       </c>
       <c r="K987" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L987" t="inlineStr">
@@ -79324,16 +79324,16 @@
         </is>
       </c>
       <c r="M987" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N987" t="n">
-        <v>195000</v>
+        <v>180000</v>
       </c>
       <c r="O987" t="n">
-        <v>200000</v>
+        <v>190000</v>
       </c>
       <c r="P987" t="n">
-        <v>197500</v>
+        <v>185000</v>
       </c>
       <c r="Q987" t="inlineStr">
         <is>
@@ -79342,11 +79342,11 @@
       </c>
       <c r="R987" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S987" t="n">
-        <v>494</v>
+        <v>462</v>
       </c>
       <c r="T987" t="n">
         <v>400</v>
@@ -79367,7 +79367,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E988" t="n">
         <v>4</v>
@@ -79395,25 +79395,25 @@
       </c>
       <c r="K988" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L988" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M988" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N988" t="n">
-        <v>225000</v>
+        <v>200000</v>
       </c>
       <c r="O988" t="n">
-        <v>230000</v>
+        <v>210000</v>
       </c>
       <c r="P988" t="n">
-        <v>227500</v>
+        <v>205000</v>
       </c>
       <c r="Q988" t="inlineStr">
         <is>
@@ -79422,11 +79422,11 @@
       </c>
       <c r="R988" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S988" t="n">
-        <v>569</v>
+        <v>512</v>
       </c>
       <c r="T988" t="n">
         <v>400</v>
@@ -79447,7 +79447,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E989" t="n">
         <v>4</v>
@@ -79475,25 +79475,25 @@
       </c>
       <c r="K989" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L989" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M989" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N989" t="n">
-        <v>205000</v>
+        <v>180000</v>
       </c>
       <c r="O989" t="n">
-        <v>210000</v>
+        <v>190000</v>
       </c>
       <c r="P989" t="n">
-        <v>207500</v>
+        <v>185000</v>
       </c>
       <c r="Q989" t="inlineStr">
         <is>
@@ -79502,11 +79502,11 @@
       </c>
       <c r="R989" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S989" t="n">
-        <v>519</v>
+        <v>462</v>
       </c>
       <c r="T989" t="n">
         <v>400</v>
@@ -79555,25 +79555,25 @@
       </c>
       <c r="K990" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L990" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M990" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N990" t="n">
-        <v>185000</v>
+        <v>265000</v>
       </c>
       <c r="O990" t="n">
-        <v>190000</v>
+        <v>270000</v>
       </c>
       <c r="P990" t="n">
-        <v>187500</v>
+        <v>267500</v>
       </c>
       <c r="Q990" t="inlineStr">
         <is>
@@ -79586,7 +79586,7 @@
         </is>
       </c>
       <c r="S990" t="n">
-        <v>469</v>
+        <v>669</v>
       </c>
       <c r="T990" t="n">
         <v>400</v>
@@ -79607,7 +79607,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E991" t="n">
         <v>4</v>
@@ -79640,20 +79640,20 @@
       </c>
       <c r="L991" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M991" t="n">
         <v>20</v>
       </c>
       <c r="N991" t="n">
-        <v>245000</v>
+        <v>235000</v>
       </c>
       <c r="O991" t="n">
-        <v>250000</v>
+        <v>240000</v>
       </c>
       <c r="P991" t="n">
-        <v>247500</v>
+        <v>237500</v>
       </c>
       <c r="Q991" t="inlineStr">
         <is>
@@ -79662,11 +79662,11 @@
       </c>
       <c r="R991" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S991" t="n">
-        <v>619</v>
+        <v>594</v>
       </c>
       <c r="T991" t="n">
         <v>400</v>
@@ -79687,7 +79687,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E992" t="n">
         <v>4</v>
@@ -79720,20 +79720,20 @@
       </c>
       <c r="L992" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M992" t="n">
         <v>20</v>
       </c>
       <c r="N992" t="n">
-        <v>225000</v>
+        <v>205000</v>
       </c>
       <c r="O992" t="n">
-        <v>230000</v>
+        <v>210000</v>
       </c>
       <c r="P992" t="n">
-        <v>227500</v>
+        <v>207500</v>
       </c>
       <c r="Q992" t="inlineStr">
         <is>
@@ -79742,11 +79742,11 @@
       </c>
       <c r="R992" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S992" t="n">
-        <v>569</v>
+        <v>519</v>
       </c>
       <c r="T992" t="n">
         <v>400</v>
@@ -79767,7 +79767,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E993" t="n">
         <v>4</v>
@@ -79795,25 +79795,25 @@
       </c>
       <c r="K993" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L993" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M993" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N993" t="n">
-        <v>195000</v>
+        <v>245000</v>
       </c>
       <c r="O993" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="P993" t="n">
-        <v>197500</v>
+        <v>247500</v>
       </c>
       <c r="Q993" t="inlineStr">
         <is>
@@ -79822,11 +79822,11 @@
       </c>
       <c r="R993" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S993" t="n">
-        <v>494</v>
+        <v>619</v>
       </c>
       <c r="T993" t="n">
         <v>400</v>
@@ -79847,7 +79847,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E994" t="n">
         <v>4</v>
@@ -79880,11 +79880,11 @@
       </c>
       <c r="L994" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M994" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N994" t="n">
         <v>225000</v>
@@ -79927,7 +79927,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E995" t="n">
         <v>4</v>
@@ -79960,20 +79960,20 @@
       </c>
       <c r="L995" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M995" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N995" t="n">
-        <v>205000</v>
+        <v>195000</v>
       </c>
       <c r="O995" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="P995" t="n">
-        <v>207500</v>
+        <v>197500</v>
       </c>
       <c r="Q995" t="inlineStr">
         <is>
@@ -79986,7 +79986,7 @@
         </is>
       </c>
       <c r="S995" t="n">
-        <v>519</v>
+        <v>494</v>
       </c>
       <c r="T995" t="n">
         <v>400</v>
@@ -80007,7 +80007,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E996" t="n">
         <v>4</v>
@@ -80035,25 +80035,25 @@
       </c>
       <c r="K996" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L996" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M996" t="n">
         <v>16</v>
       </c>
       <c r="N996" t="n">
-        <v>175000</v>
+        <v>225000</v>
       </c>
       <c r="O996" t="n">
-        <v>180000</v>
+        <v>230000</v>
       </c>
       <c r="P996" t="n">
-        <v>177500</v>
+        <v>227500</v>
       </c>
       <c r="Q996" t="inlineStr">
         <is>
@@ -80066,7 +80066,7 @@
         </is>
       </c>
       <c r="S996" t="n">
-        <v>444</v>
+        <v>569</v>
       </c>
       <c r="T996" t="n">
         <v>400</v>
@@ -80087,7 +80087,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E997" t="n">
         <v>4</v>
@@ -80120,20 +80120,20 @@
       </c>
       <c r="L997" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M997" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N997" t="n">
-        <v>235000</v>
+        <v>205000</v>
       </c>
       <c r="O997" t="n">
-        <v>240000</v>
+        <v>210000</v>
       </c>
       <c r="P997" t="n">
-        <v>237500</v>
+        <v>207500</v>
       </c>
       <c r="Q997" t="inlineStr">
         <is>
@@ -80146,7 +80146,7 @@
         </is>
       </c>
       <c r="S997" t="n">
-        <v>594</v>
+        <v>519</v>
       </c>
       <c r="T997" t="n">
         <v>400</v>
@@ -80167,7 +80167,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E998" t="n">
         <v>4</v>
@@ -80200,20 +80200,20 @@
       </c>
       <c r="L998" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M998" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N998" t="n">
-        <v>215000</v>
+        <v>185000</v>
       </c>
       <c r="O998" t="n">
-        <v>220000</v>
+        <v>190000</v>
       </c>
       <c r="P998" t="n">
-        <v>217500</v>
+        <v>187500</v>
       </c>
       <c r="Q998" t="inlineStr">
         <is>
@@ -80226,7 +80226,7 @@
         </is>
       </c>
       <c r="S998" t="n">
-        <v>544</v>
+        <v>469</v>
       </c>
       <c r="T998" t="n">
         <v>400</v>
@@ -80275,25 +80275,25 @@
       </c>
       <c r="K999" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L999" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M999" t="n">
         <v>20</v>
       </c>
       <c r="N999" t="n">
-        <v>195000</v>
+        <v>245000</v>
       </c>
       <c r="O999" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="P999" t="n">
-        <v>197500</v>
+        <v>247500</v>
       </c>
       <c r="Q999" t="inlineStr">
         <is>
@@ -80302,11 +80302,11 @@
       </c>
       <c r="R999" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S999" t="n">
-        <v>494</v>
+        <v>619</v>
       </c>
       <c r="T999" t="n">
         <v>400</v>
@@ -80327,7 +80327,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1000" t="n">
         <v>4</v>
@@ -80355,25 +80355,25 @@
       </c>
       <c r="K1000" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1000" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1000" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N1000" t="n">
-        <v>255000</v>
+        <v>225000</v>
       </c>
       <c r="O1000" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="P1000" t="n">
-        <v>257500</v>
+        <v>227500</v>
       </c>
       <c r="Q1000" t="inlineStr">
         <is>
@@ -80382,11 +80382,11 @@
       </c>
       <c r="R1000" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1000" t="n">
-        <v>644</v>
+        <v>569</v>
       </c>
       <c r="T1000" t="n">
         <v>400</v>
@@ -80407,7 +80407,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1001" t="n">
         <v>4</v>
@@ -80435,25 +80435,25 @@
       </c>
       <c r="K1001" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1001" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1001" t="n">
         <v>20</v>
       </c>
       <c r="N1001" t="n">
-        <v>230000</v>
+        <v>195000</v>
       </c>
       <c r="O1001" t="n">
-        <v>235000</v>
+        <v>200000</v>
       </c>
       <c r="P1001" t="n">
-        <v>232500</v>
+        <v>197500</v>
       </c>
       <c r="Q1001" t="inlineStr">
         <is>
@@ -80462,11 +80462,11 @@
       </c>
       <c r="R1001" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1001" t="n">
-        <v>581</v>
+        <v>494</v>
       </c>
       <c r="T1001" t="n">
         <v>400</v>
@@ -80487,7 +80487,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1002" t="n">
         <v>4</v>
@@ -80520,20 +80520,20 @@
       </c>
       <c r="L1002" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1002" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N1002" t="n">
-        <v>195000</v>
+        <v>225000</v>
       </c>
       <c r="O1002" t="n">
-        <v>200000</v>
+        <v>230000</v>
       </c>
       <c r="P1002" t="n">
-        <v>197500</v>
+        <v>227500</v>
       </c>
       <c r="Q1002" t="inlineStr">
         <is>
@@ -80546,7 +80546,7 @@
         </is>
       </c>
       <c r="S1002" t="n">
-        <v>494</v>
+        <v>569</v>
       </c>
       <c r="T1002" t="n">
         <v>400</v>
@@ -80567,7 +80567,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1003" t="n">
         <v>4</v>
@@ -80595,25 +80595,25 @@
       </c>
       <c r="K1003" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1003" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1003" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N1003" t="n">
-        <v>285000</v>
+        <v>205000</v>
       </c>
       <c r="O1003" t="n">
-        <v>290000</v>
+        <v>210000</v>
       </c>
       <c r="P1003" t="n">
-        <v>287500</v>
+        <v>207500</v>
       </c>
       <c r="Q1003" t="inlineStr">
         <is>
@@ -80622,11 +80622,11 @@
       </c>
       <c r="R1003" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1003" t="n">
-        <v>719</v>
+        <v>519</v>
       </c>
       <c r="T1003" t="n">
         <v>400</v>
@@ -80647,7 +80647,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1004" t="n">
         <v>4</v>
@@ -80675,25 +80675,25 @@
       </c>
       <c r="K1004" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1004" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1004" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1004" t="n">
-        <v>255000</v>
+        <v>175000</v>
       </c>
       <c r="O1004" t="n">
-        <v>260000</v>
+        <v>180000</v>
       </c>
       <c r="P1004" t="n">
-        <v>257500</v>
+        <v>177500</v>
       </c>
       <c r="Q1004" t="inlineStr">
         <is>
@@ -80702,11 +80702,11 @@
       </c>
       <c r="R1004" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1004" t="n">
-        <v>644</v>
+        <v>444</v>
       </c>
       <c r="T1004" t="n">
         <v>400</v>
@@ -80727,7 +80727,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E1005" t="n">
         <v>4</v>
@@ -80755,7 +80755,7 @@
       </c>
       <c r="K1005" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1005" t="inlineStr">
@@ -80764,7 +80764,7 @@
         </is>
       </c>
       <c r="M1005" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1005" t="n">
         <v>235000</v>
@@ -80782,7 +80782,7 @@
       </c>
       <c r="R1005" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1005" t="n">
@@ -80807,7 +80807,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E1006" t="n">
         <v>4</v>
@@ -80835,7 +80835,7 @@
       </c>
       <c r="K1006" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1006" t="inlineStr">
@@ -80847,13 +80847,13 @@
         <v>20</v>
       </c>
       <c r="N1006" t="n">
-        <v>210000</v>
+        <v>215000</v>
       </c>
       <c r="O1006" t="n">
-        <v>215000</v>
+        <v>220000</v>
       </c>
       <c r="P1006" t="n">
-        <v>212500</v>
+        <v>217500</v>
       </c>
       <c r="Q1006" t="inlineStr">
         <is>
@@ -80862,11 +80862,11 @@
       </c>
       <c r="R1006" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1006" t="n">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="T1006" t="n">
         <v>400</v>
@@ -80887,7 +80887,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E1007" t="n">
         <v>4</v>
@@ -80915,7 +80915,7 @@
       </c>
       <c r="K1007" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1007" t="inlineStr">
@@ -80924,16 +80924,16 @@
         </is>
       </c>
       <c r="M1007" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N1007" t="n">
-        <v>180000</v>
+        <v>195000</v>
       </c>
       <c r="O1007" t="n">
-        <v>185000</v>
+        <v>200000</v>
       </c>
       <c r="P1007" t="n">
-        <v>181786</v>
+        <v>197500</v>
       </c>
       <c r="Q1007" t="inlineStr">
         <is>
@@ -80942,11 +80942,11 @@
       </c>
       <c r="R1007" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1007" t="n">
-        <v>454</v>
+        <v>494</v>
       </c>
       <c r="T1007" t="n">
         <v>400</v>
@@ -80967,7 +80967,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1008" t="n">
         <v>4</v>
@@ -81004,16 +81004,16 @@
         </is>
       </c>
       <c r="M1008" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N1008" t="n">
-        <v>225000</v>
+        <v>255000</v>
       </c>
       <c r="O1008" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="P1008" t="n">
-        <v>226786</v>
+        <v>257500</v>
       </c>
       <c r="Q1008" t="inlineStr">
         <is>
@@ -81022,11 +81022,11 @@
       </c>
       <c r="R1008" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1008" t="n">
-        <v>567</v>
+        <v>644</v>
       </c>
       <c r="T1008" t="n">
         <v>400</v>
@@ -81047,7 +81047,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1009" t="n">
         <v>4</v>
@@ -81087,13 +81087,13 @@
         <v>20</v>
       </c>
       <c r="N1009" t="n">
-        <v>205000</v>
+        <v>230000</v>
       </c>
       <c r="O1009" t="n">
-        <v>210000</v>
+        <v>235000</v>
       </c>
       <c r="P1009" t="n">
-        <v>207500</v>
+        <v>232500</v>
       </c>
       <c r="Q1009" t="inlineStr">
         <is>
@@ -81102,11 +81102,11 @@
       </c>
       <c r="R1009" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1009" t="n">
-        <v>519</v>
+        <v>581</v>
       </c>
       <c r="T1009" t="n">
         <v>400</v>
@@ -81127,7 +81127,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1010" t="n">
         <v>4</v>
@@ -81164,16 +81164,16 @@
         </is>
       </c>
       <c r="M1010" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N1010" t="n">
-        <v>175000</v>
+        <v>195000</v>
       </c>
       <c r="O1010" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P1010" t="n">
-        <v>177500</v>
+        <v>197500</v>
       </c>
       <c r="Q1010" t="inlineStr">
         <is>
@@ -81182,11 +81182,11 @@
       </c>
       <c r="R1010" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1010" t="n">
-        <v>444</v>
+        <v>494</v>
       </c>
       <c r="T1010" t="n">
         <v>400</v>
@@ -81207,7 +81207,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1011" t="n">
         <v>4</v>
@@ -81244,16 +81244,16 @@
         </is>
       </c>
       <c r="M1011" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N1011" t="n">
-        <v>205000</v>
+        <v>285000</v>
       </c>
       <c r="O1011" t="n">
-        <v>210000</v>
+        <v>290000</v>
       </c>
       <c r="P1011" t="n">
-        <v>207500</v>
+        <v>287500</v>
       </c>
       <c r="Q1011" t="inlineStr">
         <is>
@@ -81266,7 +81266,7 @@
         </is>
       </c>
       <c r="S1011" t="n">
-        <v>519</v>
+        <v>719</v>
       </c>
       <c r="T1011" t="n">
         <v>400</v>
@@ -81287,7 +81287,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1012" t="n">
         <v>4</v>
@@ -81327,13 +81327,13 @@
         <v>20</v>
       </c>
       <c r="N1012" t="n">
-        <v>185000</v>
+        <v>255000</v>
       </c>
       <c r="O1012" t="n">
-        <v>190000</v>
+        <v>260000</v>
       </c>
       <c r="P1012" t="n">
-        <v>187500</v>
+        <v>257500</v>
       </c>
       <c r="Q1012" t="inlineStr">
         <is>
@@ -81346,7 +81346,7 @@
         </is>
       </c>
       <c r="S1012" t="n">
-        <v>469</v>
+        <v>644</v>
       </c>
       <c r="T1012" t="n">
         <v>400</v>
@@ -81395,25 +81395,25 @@
       </c>
       <c r="K1013" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1013" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1013" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1013" t="n">
-        <v>155000</v>
+        <v>235000</v>
       </c>
       <c r="O1013" t="n">
-        <v>160000</v>
+        <v>240000</v>
       </c>
       <c r="P1013" t="n">
-        <v>157500</v>
+        <v>237500</v>
       </c>
       <c r="Q1013" t="inlineStr">
         <is>
@@ -81426,7 +81426,7 @@
         </is>
       </c>
       <c r="S1013" t="n">
-        <v>394</v>
+        <v>594</v>
       </c>
       <c r="T1013" t="n">
         <v>400</v>
@@ -81475,25 +81475,25 @@
       </c>
       <c r="K1014" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1014" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1014" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1014" t="n">
-        <v>235000</v>
+        <v>210000</v>
       </c>
       <c r="O1014" t="n">
-        <v>240000</v>
+        <v>215000</v>
       </c>
       <c r="P1014" t="n">
-        <v>237500</v>
+        <v>212500</v>
       </c>
       <c r="Q1014" t="inlineStr">
         <is>
@@ -81506,7 +81506,7 @@
         </is>
       </c>
       <c r="S1014" t="n">
-        <v>594</v>
+        <v>531</v>
       </c>
       <c r="T1014" t="n">
         <v>400</v>
@@ -81555,25 +81555,25 @@
       </c>
       <c r="K1015" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1015" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1015" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N1015" t="n">
-        <v>215000</v>
+        <v>180000</v>
       </c>
       <c r="O1015" t="n">
-        <v>220000</v>
+        <v>185000</v>
       </c>
       <c r="P1015" t="n">
-        <v>217500</v>
+        <v>181786</v>
       </c>
       <c r="Q1015" t="inlineStr">
         <is>
@@ -81586,7 +81586,7 @@
         </is>
       </c>
       <c r="S1015" t="n">
-        <v>544</v>
+        <v>454</v>
       </c>
       <c r="T1015" t="n">
         <v>400</v>
@@ -81635,25 +81635,25 @@
       </c>
       <c r="K1016" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1016" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1016" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N1016" t="n">
-        <v>195000</v>
+        <v>225000</v>
       </c>
       <c r="O1016" t="n">
-        <v>200000</v>
+        <v>230000</v>
       </c>
       <c r="P1016" t="n">
-        <v>197500</v>
+        <v>226786</v>
       </c>
       <c r="Q1016" t="inlineStr">
         <is>
@@ -81666,7 +81666,7 @@
         </is>
       </c>
       <c r="S1016" t="n">
-        <v>494</v>
+        <v>567</v>
       </c>
       <c r="T1016" t="n">
         <v>400</v>
@@ -81687,7 +81687,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1017" t="n">
         <v>4</v>
@@ -81715,25 +81715,25 @@
       </c>
       <c r="K1017" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1017" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1017" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N1017" t="n">
-        <v>260000</v>
+        <v>205000</v>
       </c>
       <c r="O1017" t="n">
-        <v>270000</v>
+        <v>210000</v>
       </c>
       <c r="P1017" t="n">
-        <v>265000</v>
+        <v>207500</v>
       </c>
       <c r="Q1017" t="inlineStr">
         <is>
@@ -81742,11 +81742,11 @@
       </c>
       <c r="R1017" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1017" t="n">
-        <v>662</v>
+        <v>519</v>
       </c>
       <c r="T1017" t="n">
         <v>400</v>
@@ -81767,7 +81767,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1018" t="n">
         <v>4</v>
@@ -81795,25 +81795,25 @@
       </c>
       <c r="K1018" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1018" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1018" t="n">
         <v>20</v>
       </c>
       <c r="N1018" t="n">
-        <v>230000</v>
+        <v>175000</v>
       </c>
       <c r="O1018" t="n">
-        <v>240000</v>
+        <v>180000</v>
       </c>
       <c r="P1018" t="n">
-        <v>235000</v>
+        <v>177500</v>
       </c>
       <c r="Q1018" t="inlineStr">
         <is>
@@ -81822,11 +81822,11 @@
       </c>
       <c r="R1018" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1018" t="n">
-        <v>588</v>
+        <v>444</v>
       </c>
       <c r="T1018" t="n">
         <v>400</v>
@@ -81847,7 +81847,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1019" t="n">
         <v>4</v>
@@ -81875,25 +81875,25 @@
       </c>
       <c r="K1019" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1019" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1019" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N1019" t="n">
-        <v>200000</v>
+        <v>205000</v>
       </c>
       <c r="O1019" t="n">
         <v>210000</v>
       </c>
       <c r="P1019" t="n">
-        <v>205000</v>
+        <v>207500</v>
       </c>
       <c r="Q1019" t="inlineStr">
         <is>
@@ -81902,11 +81902,11 @@
       </c>
       <c r="R1019" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1019" t="n">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="T1019" t="n">
         <v>400</v>
@@ -81927,7 +81927,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1020" t="n">
         <v>4</v>
@@ -81964,16 +81964,16 @@
         </is>
       </c>
       <c r="M1020" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N1020" t="n">
-        <v>200000</v>
+        <v>185000</v>
       </c>
       <c r="O1020" t="n">
-        <v>210000</v>
+        <v>190000</v>
       </c>
       <c r="P1020" t="n">
-        <v>205000</v>
+        <v>187500</v>
       </c>
       <c r="Q1020" t="inlineStr">
         <is>
@@ -81982,11 +81982,11 @@
       </c>
       <c r="R1020" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1020" t="n">
-        <v>512</v>
+        <v>469</v>
       </c>
       <c r="T1020" t="n">
         <v>400</v>
@@ -82007,7 +82007,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1021" t="n">
         <v>4</v>
@@ -82044,16 +82044,16 @@
         </is>
       </c>
       <c r="M1021" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N1021" t="n">
-        <v>180000</v>
+        <v>155000</v>
       </c>
       <c r="O1021" t="n">
-        <v>190000</v>
+        <v>160000</v>
       </c>
       <c r="P1021" t="n">
-        <v>185000</v>
+        <v>157500</v>
       </c>
       <c r="Q1021" t="inlineStr">
         <is>
@@ -82062,11 +82062,11 @@
       </c>
       <c r="R1021" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1021" t="n">
-        <v>462</v>
+        <v>394</v>
       </c>
       <c r="T1021" t="n">
         <v>400</v>
@@ -82087,7 +82087,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E1022" t="n">
         <v>4</v>
@@ -82115,7 +82115,7 @@
       </c>
       <c r="K1022" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1022" t="inlineStr">
@@ -82124,7 +82124,7 @@
         </is>
       </c>
       <c r="M1022" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N1022" t="n">
         <v>235000</v>
@@ -82167,7 +82167,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E1023" t="n">
         <v>4</v>
@@ -82195,7 +82195,7 @@
       </c>
       <c r="K1023" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1023" t="inlineStr">
@@ -82207,13 +82207,13 @@
         <v>20</v>
       </c>
       <c r="N1023" t="n">
-        <v>205000</v>
+        <v>215000</v>
       </c>
       <c r="O1023" t="n">
-        <v>210000</v>
+        <v>220000</v>
       </c>
       <c r="P1023" t="n">
-        <v>207500</v>
+        <v>217500</v>
       </c>
       <c r="Q1023" t="inlineStr">
         <is>
@@ -82226,7 +82226,7 @@
         </is>
       </c>
       <c r="S1023" t="n">
-        <v>519</v>
+        <v>544</v>
       </c>
       <c r="T1023" t="n">
         <v>400</v>
@@ -82247,7 +82247,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E1024" t="n">
         <v>4</v>
@@ -82275,7 +82275,7 @@
       </c>
       <c r="K1024" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1024" t="inlineStr">
@@ -82284,16 +82284,16 @@
         </is>
       </c>
       <c r="M1024" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N1024" t="n">
-        <v>175000</v>
+        <v>195000</v>
       </c>
       <c r="O1024" t="n">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="P1024" t="n">
-        <v>177500</v>
+        <v>197500</v>
       </c>
       <c r="Q1024" t="inlineStr">
         <is>
@@ -82306,7 +82306,7 @@
         </is>
       </c>
       <c r="S1024" t="n">
-        <v>444</v>
+        <v>494</v>
       </c>
       <c r="T1024" t="n">
         <v>400</v>
@@ -82327,7 +82327,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E1025" t="n">
         <v>4</v>
@@ -82355,25 +82355,25 @@
       </c>
       <c r="K1025" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1025" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1025" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N1025" t="n">
-        <v>255000</v>
+        <v>260000</v>
       </c>
       <c r="O1025" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="P1025" t="n">
-        <v>257500</v>
+        <v>265000</v>
       </c>
       <c r="Q1025" t="inlineStr">
         <is>
@@ -82382,11 +82382,11 @@
       </c>
       <c r="R1025" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1025" t="n">
-        <v>644</v>
+        <v>662</v>
       </c>
       <c r="T1025" t="n">
         <v>400</v>
@@ -82407,7 +82407,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E1026" t="n">
         <v>4</v>
@@ -82435,25 +82435,25 @@
       </c>
       <c r="K1026" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1026" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1026" t="n">
         <v>20</v>
       </c>
       <c r="N1026" t="n">
-        <v>205000</v>
+        <v>230000</v>
       </c>
       <c r="O1026" t="n">
-        <v>210000</v>
+        <v>240000</v>
       </c>
       <c r="P1026" t="n">
-        <v>207500</v>
+        <v>235000</v>
       </c>
       <c r="Q1026" t="inlineStr">
         <is>
@@ -82462,11 +82462,11 @@
       </c>
       <c r="R1026" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1026" t="n">
-        <v>519</v>
+        <v>588</v>
       </c>
       <c r="T1026" t="n">
         <v>400</v>
@@ -82487,7 +82487,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44466</v>
+        <v>44425</v>
       </c>
       <c r="E1027" t="n">
         <v>4</v>
@@ -82520,20 +82520,20 @@
       </c>
       <c r="L1027" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1027" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N1027" t="n">
-        <v>275000</v>
+        <v>200000</v>
       </c>
       <c r="O1027" t="n">
-        <v>280000</v>
+        <v>210000</v>
       </c>
       <c r="P1027" t="n">
-        <v>277500</v>
+        <v>205000</v>
       </c>
       <c r="Q1027" t="inlineStr">
         <is>
@@ -82542,11 +82542,11 @@
       </c>
       <c r="R1027" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1027" t="n">
-        <v>694</v>
+        <v>512</v>
       </c>
       <c r="T1027" t="n">
         <v>400</v>
@@ -82567,7 +82567,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44466</v>
+        <v>44425</v>
       </c>
       <c r="E1028" t="n">
         <v>4</v>
@@ -82595,7 +82595,7 @@
       </c>
       <c r="K1028" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1028" t="inlineStr">
@@ -82604,16 +82604,16 @@
         </is>
       </c>
       <c r="M1028" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N1028" t="n">
-        <v>255000</v>
+        <v>200000</v>
       </c>
       <c r="O1028" t="n">
-        <v>260000</v>
+        <v>210000</v>
       </c>
       <c r="P1028" t="n">
-        <v>257500</v>
+        <v>205000</v>
       </c>
       <c r="Q1028" t="inlineStr">
         <is>
@@ -82622,11 +82622,11 @@
       </c>
       <c r="R1028" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1028" t="n">
-        <v>644</v>
+        <v>512</v>
       </c>
       <c r="T1028" t="n">
         <v>400</v>
@@ -82647,7 +82647,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44466</v>
+        <v>44425</v>
       </c>
       <c r="E1029" t="n">
         <v>4</v>
@@ -82675,7 +82675,7 @@
       </c>
       <c r="K1029" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1029" t="inlineStr">
@@ -82684,16 +82684,16 @@
         </is>
       </c>
       <c r="M1029" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N1029" t="n">
-        <v>225000</v>
+        <v>180000</v>
       </c>
       <c r="O1029" t="n">
-        <v>230000</v>
+        <v>190000</v>
       </c>
       <c r="P1029" t="n">
-        <v>227500</v>
+        <v>185000</v>
       </c>
       <c r="Q1029" t="inlineStr">
         <is>
@@ -82702,11 +82702,11 @@
       </c>
       <c r="R1029" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1029" t="n">
-        <v>569</v>
+        <v>462</v>
       </c>
       <c r="T1029" t="n">
         <v>400</v>
@@ -82727,7 +82727,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E1030" t="n">
         <v>4</v>
@@ -82755,7 +82755,7 @@
       </c>
       <c r="K1030" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1030" t="inlineStr">
@@ -82764,16 +82764,16 @@
         </is>
       </c>
       <c r="M1030" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="N1030" t="n">
-        <v>275000</v>
+        <v>235000</v>
       </c>
       <c r="O1030" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="P1030" t="n">
-        <v>277500</v>
+        <v>237500</v>
       </c>
       <c r="Q1030" t="inlineStr">
         <is>
@@ -82786,7 +82786,7 @@
         </is>
       </c>
       <c r="S1030" t="n">
-        <v>694</v>
+        <v>594</v>
       </c>
       <c r="T1030" t="n">
         <v>400</v>
@@ -82807,7 +82807,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E1031" t="n">
         <v>4</v>
@@ -82835,7 +82835,7 @@
       </c>
       <c r="K1031" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1031" t="inlineStr">
@@ -82847,13 +82847,13 @@
         <v>20</v>
       </c>
       <c r="N1031" t="n">
-        <v>245000</v>
+        <v>205000</v>
       </c>
       <c r="O1031" t="n">
-        <v>250000</v>
+        <v>210000</v>
       </c>
       <c r="P1031" t="n">
-        <v>247500</v>
+        <v>207500</v>
       </c>
       <c r="Q1031" t="inlineStr">
         <is>
@@ -82866,7 +82866,7 @@
         </is>
       </c>
       <c r="S1031" t="n">
-        <v>619</v>
+        <v>519</v>
       </c>
       <c r="T1031" t="n">
         <v>400</v>
@@ -82887,7 +82887,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E1032" t="n">
         <v>4</v>
@@ -82915,7 +82915,7 @@
       </c>
       <c r="K1032" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1032" t="inlineStr">
@@ -82924,16 +82924,16 @@
         </is>
       </c>
       <c r="M1032" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N1032" t="n">
-        <v>215000</v>
+        <v>175000</v>
       </c>
       <c r="O1032" t="n">
-        <v>220000</v>
+        <v>180000</v>
       </c>
       <c r="P1032" t="n">
-        <v>217500</v>
+        <v>177500</v>
       </c>
       <c r="Q1032" t="inlineStr">
         <is>
@@ -82946,7 +82946,7 @@
         </is>
       </c>
       <c r="S1032" t="n">
-        <v>544</v>
+        <v>444</v>
       </c>
       <c r="T1032" t="n">
         <v>400</v>
@@ -82967,7 +82967,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E1033" t="n">
         <v>4</v>
@@ -82995,25 +82995,25 @@
       </c>
       <c r="K1033" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1033" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1033" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N1033" t="n">
-        <v>325000</v>
+        <v>255000</v>
       </c>
       <c r="O1033" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="P1033" t="n">
-        <v>327500</v>
+        <v>257500</v>
       </c>
       <c r="Q1033" t="inlineStr">
         <is>
@@ -83026,7 +83026,7 @@
         </is>
       </c>
       <c r="S1033" t="n">
-        <v>819</v>
+        <v>644</v>
       </c>
       <c r="T1033" t="n">
         <v>400</v>
@@ -83047,7 +83047,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E1034" t="n">
         <v>4</v>
@@ -83075,25 +83075,25 @@
       </c>
       <c r="K1034" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1034" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1034" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N1034" t="n">
-        <v>295000</v>
+        <v>205000</v>
       </c>
       <c r="O1034" t="n">
-        <v>300000</v>
+        <v>210000</v>
       </c>
       <c r="P1034" t="n">
-        <v>297500</v>
+        <v>207500</v>
       </c>
       <c r="Q1034" t="inlineStr">
         <is>
@@ -83106,7 +83106,7 @@
         </is>
       </c>
       <c r="S1034" t="n">
-        <v>744</v>
+        <v>519</v>
       </c>
       <c r="T1034" t="n">
         <v>400</v>
@@ -83127,7 +83127,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1035" t="n">
         <v>4</v>
@@ -83155,7 +83155,7 @@
       </c>
       <c r="K1035" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1035" t="inlineStr">
@@ -83167,13 +83167,13 @@
         <v>20</v>
       </c>
       <c r="N1035" t="n">
-        <v>265000</v>
+        <v>275000</v>
       </c>
       <c r="O1035" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="P1035" t="n">
-        <v>267500</v>
+        <v>277500</v>
       </c>
       <c r="Q1035" t="inlineStr">
         <is>
@@ -83186,7 +83186,7 @@
         </is>
       </c>
       <c r="S1035" t="n">
-        <v>669</v>
+        <v>694</v>
       </c>
       <c r="T1035" t="n">
         <v>400</v>
@@ -83207,7 +83207,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1036" t="n">
         <v>4</v>
@@ -83235,7 +83235,7 @@
       </c>
       <c r="K1036" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1036" t="inlineStr">
@@ -83244,16 +83244,16 @@
         </is>
       </c>
       <c r="M1036" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1036" t="n">
-        <v>235000</v>
+        <v>255000</v>
       </c>
       <c r="O1036" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="P1036" t="n">
-        <v>237500</v>
+        <v>257500</v>
       </c>
       <c r="Q1036" t="inlineStr">
         <is>
@@ -83266,7 +83266,7 @@
         </is>
       </c>
       <c r="S1036" t="n">
-        <v>594</v>
+        <v>644</v>
       </c>
       <c r="T1036" t="n">
         <v>400</v>
@@ -83287,7 +83287,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1037" t="n">
         <v>4</v>
@@ -83315,7 +83315,7 @@
       </c>
       <c r="K1037" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1037" t="inlineStr">
@@ -83324,16 +83324,16 @@
         </is>
       </c>
       <c r="M1037" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N1037" t="n">
-        <v>205000</v>
+        <v>225000</v>
       </c>
       <c r="O1037" t="n">
-        <v>210000</v>
+        <v>230000</v>
       </c>
       <c r="P1037" t="n">
-        <v>207500</v>
+        <v>227500</v>
       </c>
       <c r="Q1037" t="inlineStr">
         <is>
@@ -83346,7 +83346,7 @@
         </is>
       </c>
       <c r="S1037" t="n">
-        <v>519</v>
+        <v>569</v>
       </c>
       <c r="T1037" t="n">
         <v>400</v>
@@ -83367,7 +83367,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E1038" t="n">
         <v>4</v>
@@ -83404,16 +83404,16 @@
         </is>
       </c>
       <c r="M1038" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N1038" t="n">
-        <v>305000</v>
+        <v>275000</v>
       </c>
       <c r="O1038" t="n">
-        <v>310000</v>
+        <v>280000</v>
       </c>
       <c r="P1038" t="n">
-        <v>307500</v>
+        <v>277500</v>
       </c>
       <c r="Q1038" t="inlineStr">
         <is>
@@ -83426,7 +83426,7 @@
         </is>
       </c>
       <c r="S1038" t="n">
-        <v>769</v>
+        <v>694</v>
       </c>
       <c r="T1038" t="n">
         <v>400</v>
@@ -83447,7 +83447,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E1039" t="n">
         <v>4</v>
@@ -83487,13 +83487,13 @@
         <v>20</v>
       </c>
       <c r="N1039" t="n">
-        <v>285000</v>
+        <v>245000</v>
       </c>
       <c r="O1039" t="n">
-        <v>290000</v>
+        <v>250000</v>
       </c>
       <c r="P1039" t="n">
-        <v>287500</v>
+        <v>247500</v>
       </c>
       <c r="Q1039" t="inlineStr">
         <is>
@@ -83506,7 +83506,7 @@
         </is>
       </c>
       <c r="S1039" t="n">
-        <v>719</v>
+        <v>619</v>
       </c>
       <c r="T1039" t="n">
         <v>400</v>
@@ -83527,7 +83527,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E1040" t="n">
         <v>4</v>
@@ -83555,25 +83555,25 @@
       </c>
       <c r="K1040" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1040" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1040" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N1040" t="n">
-        <v>285000</v>
+        <v>215000</v>
       </c>
       <c r="O1040" t="n">
-        <v>290000</v>
+        <v>220000</v>
       </c>
       <c r="P1040" t="n">
-        <v>287500</v>
+        <v>217500</v>
       </c>
       <c r="Q1040" t="inlineStr">
         <is>
@@ -83586,7 +83586,7 @@
         </is>
       </c>
       <c r="S1040" t="n">
-        <v>719</v>
+        <v>544</v>
       </c>
       <c r="T1040" t="n">
         <v>400</v>
@@ -83607,7 +83607,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1041" t="n">
         <v>4</v>
@@ -83635,25 +83635,25 @@
       </c>
       <c r="K1041" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1041" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1041" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N1041" t="n">
-        <v>255000</v>
+        <v>325000</v>
       </c>
       <c r="O1041" t="n">
-        <v>260000</v>
+        <v>330000</v>
       </c>
       <c r="P1041" t="n">
-        <v>257500</v>
+        <v>327500</v>
       </c>
       <c r="Q1041" t="inlineStr">
         <is>
@@ -83666,7 +83666,7 @@
         </is>
       </c>
       <c r="S1041" t="n">
-        <v>644</v>
+        <v>819</v>
       </c>
       <c r="T1041" t="n">
         <v>400</v>
@@ -83687,7 +83687,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E1042" t="n">
         <v>4</v>
@@ -83720,20 +83720,20 @@
       </c>
       <c r="L1042" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1042" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N1042" t="n">
-        <v>275000</v>
+        <v>295000</v>
       </c>
       <c r="O1042" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="P1042" t="n">
-        <v>277500</v>
+        <v>297500</v>
       </c>
       <c r="Q1042" t="inlineStr">
         <is>
@@ -83742,11 +83742,11 @@
       </c>
       <c r="R1042" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1042" t="n">
-        <v>694</v>
+        <v>744</v>
       </c>
       <c r="T1042" t="n">
         <v>400</v>
@@ -83767,7 +83767,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E1043" t="n">
         <v>4</v>
@@ -83795,25 +83795,25 @@
       </c>
       <c r="K1043" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1043" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1043" t="n">
         <v>20</v>
       </c>
       <c r="N1043" t="n">
-        <v>255000</v>
+        <v>265000</v>
       </c>
       <c r="O1043" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="P1043" t="n">
-        <v>257500</v>
+        <v>267500</v>
       </c>
       <c r="Q1043" t="inlineStr">
         <is>
@@ -83822,11 +83822,11 @@
       </c>
       <c r="R1043" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1043" t="n">
-        <v>644</v>
+        <v>669</v>
       </c>
       <c r="T1043" t="n">
         <v>400</v>
@@ -83847,7 +83847,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E1044" t="n">
         <v>4</v>
@@ -83875,12 +83875,12 @@
       </c>
       <c r="K1044" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1044" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1044" t="n">
@@ -83902,7 +83902,7 @@
       </c>
       <c r="R1044" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1044" t="n">
@@ -83927,7 +83927,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E1045" t="n">
         <v>4</v>
@@ -83960,20 +83960,20 @@
       </c>
       <c r="L1045" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1045" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N1045" t="n">
-        <v>255000</v>
+        <v>205000</v>
       </c>
       <c r="O1045" t="n">
-        <v>260000</v>
+        <v>210000</v>
       </c>
       <c r="P1045" t="n">
-        <v>257500</v>
+        <v>207500</v>
       </c>
       <c r="Q1045" t="inlineStr">
         <is>
@@ -83982,11 +83982,11 @@
       </c>
       <c r="R1045" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1045" t="n">
-        <v>644</v>
+        <v>519</v>
       </c>
       <c r="T1045" t="n">
         <v>400</v>
@@ -84007,7 +84007,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1046" t="n">
         <v>4</v>
@@ -84040,20 +84040,20 @@
       </c>
       <c r="L1046" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1046" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N1046" t="n">
-        <v>235000</v>
+        <v>305000</v>
       </c>
       <c r="O1046" t="n">
-        <v>240000</v>
+        <v>310000</v>
       </c>
       <c r="P1046" t="n">
-        <v>237500</v>
+        <v>307500</v>
       </c>
       <c r="Q1046" t="inlineStr">
         <is>
@@ -84062,11 +84062,11 @@
       </c>
       <c r="R1046" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1046" t="n">
-        <v>594</v>
+        <v>769</v>
       </c>
       <c r="T1046" t="n">
         <v>400</v>
@@ -84087,7 +84087,7 @@
         </is>
       </c>
       <c r="D1047" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1047" t="n">
         <v>4</v>
@@ -84120,20 +84120,20 @@
       </c>
       <c r="L1047" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1047" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1047" t="n">
-        <v>215000</v>
+        <v>285000</v>
       </c>
       <c r="O1047" t="n">
-        <v>220000</v>
+        <v>290000</v>
       </c>
       <c r="P1047" t="n">
-        <v>217500</v>
+        <v>287500</v>
       </c>
       <c r="Q1047" t="inlineStr">
         <is>
@@ -84142,11 +84142,11 @@
       </c>
       <c r="R1047" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1047" t="n">
-        <v>544</v>
+        <v>719</v>
       </c>
       <c r="T1047" t="n">
         <v>400</v>
@@ -84167,7 +84167,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1048" t="n">
         <v>4</v>
@@ -84195,7 +84195,7 @@
       </c>
       <c r="K1048" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1048" t="inlineStr">
@@ -84204,16 +84204,16 @@
         </is>
       </c>
       <c r="M1048" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N1048" t="n">
-        <v>205000</v>
+        <v>285000</v>
       </c>
       <c r="O1048" t="n">
-        <v>210000</v>
+        <v>290000</v>
       </c>
       <c r="P1048" t="n">
-        <v>207500</v>
+        <v>287500</v>
       </c>
       <c r="Q1048" t="inlineStr">
         <is>
@@ -84226,7 +84226,7 @@
         </is>
       </c>
       <c r="S1048" t="n">
-        <v>519</v>
+        <v>719</v>
       </c>
       <c r="T1048" t="n">
         <v>400</v>
@@ -84247,7 +84247,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1049" t="n">
         <v>4</v>
@@ -84275,7 +84275,7 @@
       </c>
       <c r="K1049" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1049" t="inlineStr">
@@ -84287,13 +84287,13 @@
         <v>20</v>
       </c>
       <c r="N1049" t="n">
-        <v>185000</v>
+        <v>255000</v>
       </c>
       <c r="O1049" t="n">
-        <v>190000</v>
+        <v>260000</v>
       </c>
       <c r="P1049" t="n">
-        <v>187500</v>
+        <v>257500</v>
       </c>
       <c r="Q1049" t="inlineStr">
         <is>
@@ -84306,7 +84306,7 @@
         </is>
       </c>
       <c r="S1049" t="n">
-        <v>469</v>
+        <v>644</v>
       </c>
       <c r="T1049" t="n">
         <v>400</v>
@@ -84355,25 +84355,25 @@
       </c>
       <c r="K1050" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1050" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1050" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1050" t="n">
-        <v>255000</v>
+        <v>275000</v>
       </c>
       <c r="O1050" t="n">
-        <v>260000</v>
+        <v>280000</v>
       </c>
       <c r="P1050" t="n">
-        <v>257500</v>
+        <v>277500</v>
       </c>
       <c r="Q1050" t="inlineStr">
         <is>
@@ -84386,7 +84386,7 @@
         </is>
       </c>
       <c r="S1050" t="n">
-        <v>644</v>
+        <v>694</v>
       </c>
       <c r="T1050" t="n">
         <v>400</v>
@@ -84407,7 +84407,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E1051" t="n">
         <v>4</v>
@@ -84440,20 +84440,20 @@
       </c>
       <c r="L1051" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1051" t="n">
         <v>20</v>
       </c>
       <c r="N1051" t="n">
-        <v>325000</v>
+        <v>255000</v>
       </c>
       <c r="O1051" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="P1051" t="n">
-        <v>327500</v>
+        <v>257500</v>
       </c>
       <c r="Q1051" t="inlineStr">
         <is>
@@ -84466,7 +84466,7 @@
         </is>
       </c>
       <c r="S1051" t="n">
-        <v>819</v>
+        <v>644</v>
       </c>
       <c r="T1051" t="n">
         <v>400</v>
@@ -84487,7 +84487,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E1052" t="n">
         <v>4</v>
@@ -84520,20 +84520,20 @@
       </c>
       <c r="L1052" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1052" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N1052" t="n">
-        <v>295000</v>
+        <v>235000</v>
       </c>
       <c r="O1052" t="n">
-        <v>300000</v>
+        <v>240000</v>
       </c>
       <c r="P1052" t="n">
-        <v>297500</v>
+        <v>237500</v>
       </c>
       <c r="Q1052" t="inlineStr">
         <is>
@@ -84546,7 +84546,7 @@
         </is>
       </c>
       <c r="S1052" t="n">
-        <v>744</v>
+        <v>594</v>
       </c>
       <c r="T1052" t="n">
         <v>400</v>
@@ -84567,7 +84567,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E1053" t="n">
         <v>4</v>
@@ -84604,16 +84604,16 @@
         </is>
       </c>
       <c r="M1053" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N1053" t="n">
-        <v>295000</v>
+        <v>255000</v>
       </c>
       <c r="O1053" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="P1053" t="n">
-        <v>297500</v>
+        <v>257500</v>
       </c>
       <c r="Q1053" t="inlineStr">
         <is>
@@ -84622,11 +84622,11 @@
       </c>
       <c r="R1053" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1053" t="n">
-        <v>744</v>
+        <v>644</v>
       </c>
       <c r="T1053" t="n">
         <v>400</v>
@@ -84647,7 +84647,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E1054" t="n">
         <v>4</v>
@@ -84684,16 +84684,16 @@
         </is>
       </c>
       <c r="M1054" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N1054" t="n">
-        <v>255000</v>
+        <v>235000</v>
       </c>
       <c r="O1054" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="P1054" t="n">
-        <v>257500</v>
+        <v>237500</v>
       </c>
       <c r="Q1054" t="inlineStr">
         <is>
@@ -84702,11 +84702,11 @@
       </c>
       <c r="R1054" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1054" t="n">
-        <v>644</v>
+        <v>594</v>
       </c>
       <c r="T1054" t="n">
         <v>400</v>
@@ -84727,7 +84727,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E1055" t="n">
         <v>4</v>
@@ -84767,13 +84767,13 @@
         <v>16</v>
       </c>
       <c r="N1055" t="n">
-        <v>225000</v>
+        <v>215000</v>
       </c>
       <c r="O1055" t="n">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="P1055" t="n">
-        <v>227500</v>
+        <v>217500</v>
       </c>
       <c r="Q1055" t="inlineStr">
         <is>
@@ -84782,11 +84782,11 @@
       </c>
       <c r="R1055" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1055" t="n">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="T1055" t="n">
         <v>400</v>
@@ -84807,7 +84807,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E1056" t="n">
         <v>4</v>
@@ -84835,25 +84835,25 @@
       </c>
       <c r="K1056" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1056" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1056" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N1056" t="n">
-        <v>295000</v>
+        <v>205000</v>
       </c>
       <c r="O1056" t="n">
-        <v>300000</v>
+        <v>210000</v>
       </c>
       <c r="P1056" t="n">
-        <v>297500</v>
+        <v>207500</v>
       </c>
       <c r="Q1056" t="inlineStr">
         <is>
@@ -84866,7 +84866,7 @@
         </is>
       </c>
       <c r="S1056" t="n">
-        <v>744</v>
+        <v>519</v>
       </c>
       <c r="T1056" t="n">
         <v>400</v>
@@ -84887,7 +84887,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E1057" t="n">
         <v>4</v>
@@ -84915,25 +84915,25 @@
       </c>
       <c r="K1057" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1057" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1057" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N1057" t="n">
-        <v>265000</v>
+        <v>185000</v>
       </c>
       <c r="O1057" t="n">
-        <v>270000</v>
+        <v>190000</v>
       </c>
       <c r="P1057" t="n">
-        <v>267500</v>
+        <v>187500</v>
       </c>
       <c r="Q1057" t="inlineStr">
         <is>
@@ -84946,7 +84946,7 @@
         </is>
       </c>
       <c r="S1057" t="n">
-        <v>669</v>
+        <v>469</v>
       </c>
       <c r="T1057" t="n">
         <v>400</v>
@@ -84967,7 +84967,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E1058" t="n">
         <v>4</v>
@@ -84995,25 +84995,25 @@
       </c>
       <c r="K1058" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1058" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1058" t="n">
         <v>16</v>
       </c>
       <c r="N1058" t="n">
-        <v>235000</v>
+        <v>255000</v>
       </c>
       <c r="O1058" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="P1058" t="n">
-        <v>237500</v>
+        <v>257500</v>
       </c>
       <c r="Q1058" t="inlineStr">
         <is>
@@ -85022,11 +85022,11 @@
       </c>
       <c r="R1058" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1058" t="n">
-        <v>594</v>
+        <v>644</v>
       </c>
       <c r="T1058" t="n">
         <v>400</v>
@@ -85047,7 +85047,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1059" t="n">
         <v>4</v>
@@ -85087,13 +85087,13 @@
         <v>20</v>
       </c>
       <c r="N1059" t="n">
-        <v>235000</v>
+        <v>325000</v>
       </c>
       <c r="O1059" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="P1059" t="n">
-        <v>237500</v>
+        <v>327500</v>
       </c>
       <c r="Q1059" t="inlineStr">
         <is>
@@ -85102,11 +85102,11 @@
       </c>
       <c r="R1059" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1059" t="n">
-        <v>594</v>
+        <v>819</v>
       </c>
       <c r="T1059" t="n">
         <v>400</v>
@@ -85127,7 +85127,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1060" t="n">
         <v>4</v>
@@ -85164,16 +85164,16 @@
         </is>
       </c>
       <c r="M1060" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N1060" t="n">
-        <v>205000</v>
+        <v>295000</v>
       </c>
       <c r="O1060" t="n">
-        <v>210000</v>
+        <v>300000</v>
       </c>
       <c r="P1060" t="n">
-        <v>207500</v>
+        <v>297500</v>
       </c>
       <c r="Q1060" t="inlineStr">
         <is>
@@ -85182,11 +85182,11 @@
       </c>
       <c r="R1060" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1060" t="n">
-        <v>519</v>
+        <v>744</v>
       </c>
       <c r="T1060" t="n">
         <v>400</v>
@@ -85207,7 +85207,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1061" t="n">
         <v>4</v>
@@ -85235,25 +85235,25 @@
       </c>
       <c r="K1061" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1061" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1061" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N1061" t="n">
-        <v>175000</v>
+        <v>295000</v>
       </c>
       <c r="O1061" t="n">
-        <v>180000</v>
+        <v>300000</v>
       </c>
       <c r="P1061" t="n">
-        <v>177500</v>
+        <v>297500</v>
       </c>
       <c r="Q1061" t="inlineStr">
         <is>
@@ -85266,7 +85266,7 @@
         </is>
       </c>
       <c r="S1061" t="n">
-        <v>444</v>
+        <v>744</v>
       </c>
       <c r="T1061" t="n">
         <v>400</v>
@@ -85287,7 +85287,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1062" t="n">
         <v>4</v>
@@ -85320,20 +85320,20 @@
       </c>
       <c r="L1062" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1062" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N1062" t="n">
-        <v>225000</v>
+        <v>255000</v>
       </c>
       <c r="O1062" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="P1062" t="n">
-        <v>227500</v>
+        <v>257500</v>
       </c>
       <c r="Q1062" t="inlineStr">
         <is>
@@ -85346,7 +85346,7 @@
         </is>
       </c>
       <c r="S1062" t="n">
-        <v>569</v>
+        <v>644</v>
       </c>
       <c r="T1062" t="n">
         <v>400</v>
@@ -85367,7 +85367,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1063" t="n">
         <v>4</v>
@@ -85400,20 +85400,20 @@
       </c>
       <c r="L1063" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1063" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1063" t="n">
-        <v>205000</v>
+        <v>225000</v>
       </c>
       <c r="O1063" t="n">
-        <v>210000</v>
+        <v>230000</v>
       </c>
       <c r="P1063" t="n">
-        <v>207500</v>
+        <v>227500</v>
       </c>
       <c r="Q1063" t="inlineStr">
         <is>
@@ -85426,7 +85426,7 @@
         </is>
       </c>
       <c r="S1063" t="n">
-        <v>519</v>
+        <v>569</v>
       </c>
       <c r="T1063" t="n">
         <v>400</v>
@@ -85447,7 +85447,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1064" t="n">
         <v>4</v>
@@ -85475,25 +85475,25 @@
       </c>
       <c r="K1064" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1064" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1064" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N1064" t="n">
-        <v>175000</v>
+        <v>295000</v>
       </c>
       <c r="O1064" t="n">
-        <v>180000</v>
+        <v>300000</v>
       </c>
       <c r="P1064" t="n">
-        <v>177500</v>
+        <v>297500</v>
       </c>
       <c r="Q1064" t="inlineStr">
         <is>
@@ -85506,7 +85506,7 @@
         </is>
       </c>
       <c r="S1064" t="n">
-        <v>444</v>
+        <v>744</v>
       </c>
       <c r="T1064" t="n">
         <v>400</v>
@@ -85527,7 +85527,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1065" t="n">
         <v>4</v>
@@ -85555,25 +85555,25 @@
       </c>
       <c r="K1065" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1065" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1065" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N1065" t="n">
-        <v>205000</v>
+        <v>265000</v>
       </c>
       <c r="O1065" t="n">
-        <v>210000</v>
+        <v>270000</v>
       </c>
       <c r="P1065" t="n">
-        <v>207500</v>
+        <v>267500</v>
       </c>
       <c r="Q1065" t="inlineStr">
         <is>
@@ -85586,7 +85586,7 @@
         </is>
       </c>
       <c r="S1065" t="n">
-        <v>519</v>
+        <v>669</v>
       </c>
       <c r="T1065" t="n">
         <v>400</v>
@@ -85607,7 +85607,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1066" t="n">
         <v>4</v>
@@ -85635,25 +85635,25 @@
       </c>
       <c r="K1066" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1066" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1066" t="n">
         <v>16</v>
       </c>
       <c r="N1066" t="n">
-        <v>185000</v>
+        <v>235000</v>
       </c>
       <c r="O1066" t="n">
-        <v>190000</v>
+        <v>240000</v>
       </c>
       <c r="P1066" t="n">
-        <v>187500</v>
+        <v>237500</v>
       </c>
       <c r="Q1066" t="inlineStr">
         <is>
@@ -85666,7 +85666,7 @@
         </is>
       </c>
       <c r="S1066" t="n">
-        <v>469</v>
+        <v>594</v>
       </c>
       <c r="T1066" t="n">
         <v>400</v>
@@ -85715,25 +85715,25 @@
       </c>
       <c r="K1067" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1067" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1067" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N1067" t="n">
-        <v>155000</v>
+        <v>235000</v>
       </c>
       <c r="O1067" t="n">
-        <v>160000</v>
+        <v>240000</v>
       </c>
       <c r="P1067" t="n">
-        <v>157500</v>
+        <v>237500</v>
       </c>
       <c r="Q1067" t="inlineStr">
         <is>
@@ -85746,7 +85746,7 @@
         </is>
       </c>
       <c r="S1067" t="n">
-        <v>394</v>
+        <v>594</v>
       </c>
       <c r="T1067" t="n">
         <v>400</v>
@@ -85795,25 +85795,25 @@
       </c>
       <c r="K1068" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1068" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1068" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1068" t="n">
-        <v>235000</v>
+        <v>205000</v>
       </c>
       <c r="O1068" t="n">
-        <v>240000</v>
+        <v>210000</v>
       </c>
       <c r="P1068" t="n">
-        <v>237500</v>
+        <v>207500</v>
       </c>
       <c r="Q1068" t="inlineStr">
         <is>
@@ -85826,7 +85826,7 @@
         </is>
       </c>
       <c r="S1068" t="n">
-        <v>594</v>
+        <v>519</v>
       </c>
       <c r="T1068" t="n">
         <v>400</v>
@@ -85875,25 +85875,25 @@
       </c>
       <c r="K1069" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1069" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1069" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N1069" t="n">
-        <v>215000</v>
+        <v>175000</v>
       </c>
       <c r="O1069" t="n">
-        <v>220000</v>
+        <v>180000</v>
       </c>
       <c r="P1069" t="n">
-        <v>217500</v>
+        <v>177500</v>
       </c>
       <c r="Q1069" t="inlineStr">
         <is>
@@ -85906,7 +85906,7 @@
         </is>
       </c>
       <c r="S1069" t="n">
-        <v>544</v>
+        <v>444</v>
       </c>
       <c r="T1069" t="n">
         <v>400</v>
@@ -85927,7 +85927,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1070" t="n">
         <v>4</v>
@@ -85955,7 +85955,7 @@
       </c>
       <c r="K1070" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1070" t="inlineStr">
@@ -85964,16 +85964,16 @@
         </is>
       </c>
       <c r="M1070" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1070" t="n">
-        <v>285000</v>
+        <v>225000</v>
       </c>
       <c r="O1070" t="n">
-        <v>290000</v>
+        <v>230000</v>
       </c>
       <c r="P1070" t="n">
-        <v>287500</v>
+        <v>227500</v>
       </c>
       <c r="Q1070" t="inlineStr">
         <is>
@@ -85982,11 +85982,11 @@
       </c>
       <c r="R1070" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1070" t="n">
-        <v>719</v>
+        <v>569</v>
       </c>
       <c r="T1070" t="n">
         <v>400</v>
@@ -86007,7 +86007,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1071" t="n">
         <v>4</v>
@@ -86035,7 +86035,7 @@
       </c>
       <c r="K1071" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1071" t="inlineStr">
@@ -86047,13 +86047,13 @@
         <v>20</v>
       </c>
       <c r="N1071" t="n">
-        <v>245000</v>
+        <v>205000</v>
       </c>
       <c r="O1071" t="n">
-        <v>250000</v>
+        <v>210000</v>
       </c>
       <c r="P1071" t="n">
-        <v>247500</v>
+        <v>207500</v>
       </c>
       <c r="Q1071" t="inlineStr">
         <is>
@@ -86062,11 +86062,11 @@
       </c>
       <c r="R1071" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1071" t="n">
-        <v>619</v>
+        <v>519</v>
       </c>
       <c r="T1071" t="n">
         <v>400</v>
@@ -86087,7 +86087,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1072" t="n">
         <v>4</v>
@@ -86120,20 +86120,20 @@
       </c>
       <c r="L1072" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1072" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1072" t="n">
-        <v>255000</v>
+        <v>175000</v>
       </c>
       <c r="O1072" t="n">
-        <v>260000</v>
+        <v>180000</v>
       </c>
       <c r="P1072" t="n">
-        <v>257500</v>
+        <v>177500</v>
       </c>
       <c r="Q1072" t="inlineStr">
         <is>
@@ -86142,11 +86142,11 @@
       </c>
       <c r="R1072" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1072" t="n">
-        <v>644</v>
+        <v>444</v>
       </c>
       <c r="T1072" t="n">
         <v>400</v>
@@ -86167,7 +86167,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1073" t="n">
         <v>4</v>
@@ -86195,25 +86195,25 @@
       </c>
       <c r="K1073" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1073" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1073" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1073" t="n">
-        <v>235000</v>
+        <v>205000</v>
       </c>
       <c r="O1073" t="n">
-        <v>240000</v>
+        <v>210000</v>
       </c>
       <c r="P1073" t="n">
-        <v>237500</v>
+        <v>207500</v>
       </c>
       <c r="Q1073" t="inlineStr">
         <is>
@@ -86222,11 +86222,11 @@
       </c>
       <c r="R1073" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1073" t="n">
-        <v>594</v>
+        <v>519</v>
       </c>
       <c r="T1073" t="n">
         <v>400</v>
@@ -86247,7 +86247,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1074" t="n">
         <v>4</v>
@@ -86275,25 +86275,25 @@
       </c>
       <c r="K1074" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1074" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1074" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1074" t="n">
-        <v>195000</v>
+        <v>185000</v>
       </c>
       <c r="O1074" t="n">
-        <v>200000</v>
+        <v>190000</v>
       </c>
       <c r="P1074" t="n">
-        <v>197500</v>
+        <v>187500</v>
       </c>
       <c r="Q1074" t="inlineStr">
         <is>
@@ -86302,11 +86302,11 @@
       </c>
       <c r="R1074" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1074" t="n">
-        <v>494</v>
+        <v>469</v>
       </c>
       <c r="T1074" t="n">
         <v>400</v>
@@ -86327,7 +86327,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1075" t="n">
         <v>4</v>
@@ -86360,20 +86360,20 @@
       </c>
       <c r="L1075" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1075" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N1075" t="n">
-        <v>285000</v>
+        <v>155000</v>
       </c>
       <c r="O1075" t="n">
-        <v>290000</v>
+        <v>160000</v>
       </c>
       <c r="P1075" t="n">
-        <v>287500</v>
+        <v>157500</v>
       </c>
       <c r="Q1075" t="inlineStr">
         <is>
@@ -86386,7 +86386,7 @@
         </is>
       </c>
       <c r="S1075" t="n">
-        <v>719</v>
+        <v>394</v>
       </c>
       <c r="T1075" t="n">
         <v>400</v>
@@ -86407,7 +86407,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1076" t="n">
         <v>4</v>
@@ -86435,25 +86435,25 @@
       </c>
       <c r="K1076" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1076" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1076" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1076" t="n">
-        <v>255000</v>
+        <v>235000</v>
       </c>
       <c r="O1076" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="P1076" t="n">
-        <v>257500</v>
+        <v>237500</v>
       </c>
       <c r="Q1076" t="inlineStr">
         <is>
@@ -86466,7 +86466,7 @@
         </is>
       </c>
       <c r="S1076" t="n">
-        <v>644</v>
+        <v>594</v>
       </c>
       <c r="T1076" t="n">
         <v>400</v>
@@ -86487,7 +86487,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1077" t="n">
         <v>4</v>
@@ -86515,25 +86515,25 @@
       </c>
       <c r="K1077" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1077" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1077" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N1077" t="n">
-        <v>225000</v>
+        <v>215000</v>
       </c>
       <c r="O1077" t="n">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="P1077" t="n">
-        <v>227500</v>
+        <v>217500</v>
       </c>
       <c r="Q1077" t="inlineStr">
         <is>
@@ -86546,7 +86546,7 @@
         </is>
       </c>
       <c r="S1077" t="n">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="T1077" t="n">
         <v>400</v>
@@ -86595,25 +86595,25 @@
       </c>
       <c r="K1078" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1078" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1078" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1078" t="n">
-        <v>225000</v>
+        <v>285000</v>
       </c>
       <c r="O1078" t="n">
-        <v>230000</v>
+        <v>290000</v>
       </c>
       <c r="P1078" t="n">
-        <v>227500</v>
+        <v>287500</v>
       </c>
       <c r="Q1078" t="inlineStr">
         <is>
@@ -86622,11 +86622,11 @@
       </c>
       <c r="R1078" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1078" t="n">
-        <v>569</v>
+        <v>719</v>
       </c>
       <c r="T1078" t="n">
         <v>400</v>
@@ -86675,25 +86675,25 @@
       </c>
       <c r="K1079" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1079" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1079" t="n">
         <v>20</v>
       </c>
       <c r="N1079" t="n">
-        <v>205000</v>
+        <v>245000</v>
       </c>
       <c r="O1079" t="n">
-        <v>210000</v>
+        <v>250000</v>
       </c>
       <c r="P1079" t="n">
-        <v>207500</v>
+        <v>247500</v>
       </c>
       <c r="Q1079" t="inlineStr">
         <is>
@@ -86702,11 +86702,11 @@
       </c>
       <c r="R1079" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1079" t="n">
-        <v>519</v>
+        <v>619</v>
       </c>
       <c r="T1079" t="n">
         <v>400</v>
@@ -86727,7 +86727,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1080" t="n">
         <v>4</v>
@@ -86755,7 +86755,7 @@
       </c>
       <c r="K1080" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1080" t="inlineStr">
@@ -86764,16 +86764,16 @@
         </is>
       </c>
       <c r="M1080" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1080" t="n">
-        <v>235000</v>
+        <v>255000</v>
       </c>
       <c r="O1080" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="P1080" t="n">
-        <v>237500</v>
+        <v>257500</v>
       </c>
       <c r="Q1080" t="inlineStr">
         <is>
@@ -86782,11 +86782,11 @@
       </c>
       <c r="R1080" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1080" t="n">
-        <v>594</v>
+        <v>644</v>
       </c>
       <c r="T1080" t="n">
         <v>400</v>
@@ -86807,7 +86807,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1081" t="n">
         <v>4</v>
@@ -86835,7 +86835,7 @@
       </c>
       <c r="K1081" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1081" t="inlineStr">
@@ -86847,13 +86847,13 @@
         <v>20</v>
       </c>
       <c r="N1081" t="n">
-        <v>215000</v>
+        <v>235000</v>
       </c>
       <c r="O1081" t="n">
-        <v>220000</v>
+        <v>240000</v>
       </c>
       <c r="P1081" t="n">
-        <v>217500</v>
+        <v>237500</v>
       </c>
       <c r="Q1081" t="inlineStr">
         <is>
@@ -86862,11 +86862,11 @@
       </c>
       <c r="R1081" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1081" t="n">
-        <v>544</v>
+        <v>594</v>
       </c>
       <c r="T1081" t="n">
         <v>400</v>
@@ -86887,7 +86887,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1082" t="n">
         <v>4</v>
@@ -86920,20 +86920,20 @@
       </c>
       <c r="L1082" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1082" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1082" t="n">
-        <v>225000</v>
+        <v>195000</v>
       </c>
       <c r="O1082" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="P1082" t="n">
-        <v>227500</v>
+        <v>197500</v>
       </c>
       <c r="Q1082" t="inlineStr">
         <is>
@@ -86942,11 +86942,11 @@
       </c>
       <c r="R1082" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1082" t="n">
-        <v>569</v>
+        <v>494</v>
       </c>
       <c r="T1082" t="n">
         <v>400</v>
@@ -86967,7 +86967,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1083" t="n">
         <v>4</v>
@@ -86995,25 +86995,25 @@
       </c>
       <c r="K1083" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1083" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1083" t="n">
         <v>20</v>
       </c>
       <c r="N1083" t="n">
-        <v>205000</v>
+        <v>285000</v>
       </c>
       <c r="O1083" t="n">
-        <v>210000</v>
+        <v>290000</v>
       </c>
       <c r="P1083" t="n">
-        <v>207500</v>
+        <v>287500</v>
       </c>
       <c r="Q1083" t="inlineStr">
         <is>
@@ -87026,7 +87026,7 @@
         </is>
       </c>
       <c r="S1083" t="n">
-        <v>519</v>
+        <v>719</v>
       </c>
       <c r="T1083" t="n">
         <v>400</v>
@@ -87047,7 +87047,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1084" t="n">
         <v>4</v>
@@ -87075,25 +87075,25 @@
       </c>
       <c r="K1084" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1084" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1084" t="n">
         <v>20</v>
       </c>
       <c r="N1084" t="n">
-        <v>185000</v>
+        <v>255000</v>
       </c>
       <c r="O1084" t="n">
-        <v>190000</v>
+        <v>260000</v>
       </c>
       <c r="P1084" t="n">
-        <v>187500</v>
+        <v>257500</v>
       </c>
       <c r="Q1084" t="inlineStr">
         <is>
@@ -87106,7 +87106,7 @@
         </is>
       </c>
       <c r="S1084" t="n">
-        <v>469</v>
+        <v>644</v>
       </c>
       <c r="T1084" t="n">
         <v>400</v>
@@ -87127,7 +87127,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1085" t="n">
         <v>4</v>
@@ -87160,20 +87160,20 @@
       </c>
       <c r="L1085" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1085" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1085" t="n">
-        <v>215000</v>
+        <v>225000</v>
       </c>
       <c r="O1085" t="n">
-        <v>220000</v>
+        <v>230000</v>
       </c>
       <c r="P1085" t="n">
-        <v>217500</v>
+        <v>227500</v>
       </c>
       <c r="Q1085" t="inlineStr">
         <is>
@@ -87186,7 +87186,7 @@
         </is>
       </c>
       <c r="S1085" t="n">
-        <v>544</v>
+        <v>569</v>
       </c>
       <c r="T1085" t="n">
         <v>400</v>
@@ -87207,7 +87207,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1086" t="n">
         <v>4</v>
@@ -87235,7 +87235,7 @@
       </c>
       <c r="K1086" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1086" t="inlineStr">
@@ -87244,16 +87244,16 @@
         </is>
       </c>
       <c r="M1086" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1086" t="n">
-        <v>195000</v>
+        <v>225000</v>
       </c>
       <c r="O1086" t="n">
-        <v>200000</v>
+        <v>230000</v>
       </c>
       <c r="P1086" t="n">
-        <v>197500</v>
+        <v>227500</v>
       </c>
       <c r="Q1086" t="inlineStr">
         <is>
@@ -87266,7 +87266,7 @@
         </is>
       </c>
       <c r="S1086" t="n">
-        <v>494</v>
+        <v>569</v>
       </c>
       <c r="T1086" t="n">
         <v>400</v>
@@ -87287,7 +87287,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44432</v>
+        <v>44312</v>
       </c>
       <c r="E1087" t="n">
         <v>4</v>
@@ -87315,25 +87315,25 @@
       </c>
       <c r="K1087" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1087" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1087" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1087" t="n">
-        <v>265000</v>
+        <v>205000</v>
       </c>
       <c r="O1087" t="n">
-        <v>270000</v>
+        <v>210000</v>
       </c>
       <c r="P1087" t="n">
-        <v>267500</v>
+        <v>207500</v>
       </c>
       <c r="Q1087" t="inlineStr">
         <is>
@@ -87346,7 +87346,7 @@
         </is>
       </c>
       <c r="S1087" t="n">
-        <v>669</v>
+        <v>519</v>
       </c>
       <c r="T1087" t="n">
         <v>400</v>
@@ -87367,7 +87367,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1088" t="n">
         <v>4</v>
@@ -87400,11 +87400,11 @@
       </c>
       <c r="L1088" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1088" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1088" t="n">
         <v>235000</v>
@@ -87447,7 +87447,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1089" t="n">
         <v>4</v>
@@ -87480,7 +87480,7 @@
       </c>
       <c r="L1089" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1089" t="n">
@@ -87527,7 +87527,7 @@
         </is>
       </c>
       <c r="D1090" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1090" t="n">
         <v>4</v>
@@ -87567,13 +87567,13 @@
         <v>16</v>
       </c>
       <c r="N1090" t="n">
-        <v>250000</v>
+        <v>225000</v>
       </c>
       <c r="O1090" t="n">
-        <v>255000</v>
+        <v>230000</v>
       </c>
       <c r="P1090" t="n">
-        <v>252500</v>
+        <v>227500</v>
       </c>
       <c r="Q1090" t="inlineStr">
         <is>
@@ -87586,7 +87586,7 @@
         </is>
       </c>
       <c r="S1090" t="n">
-        <v>631</v>
+        <v>569</v>
       </c>
       <c r="T1090" t="n">
         <v>400</v>
@@ -87607,7 +87607,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1091" t="n">
         <v>4</v>
@@ -87647,13 +87647,13 @@
         <v>20</v>
       </c>
       <c r="N1091" t="n">
-        <v>230000</v>
+        <v>205000</v>
       </c>
       <c r="O1091" t="n">
-        <v>235000</v>
+        <v>210000</v>
       </c>
       <c r="P1091" t="n">
-        <v>232500</v>
+        <v>207500</v>
       </c>
       <c r="Q1091" t="inlineStr">
         <is>
@@ -87666,7 +87666,7 @@
         </is>
       </c>
       <c r="S1091" t="n">
-        <v>581</v>
+        <v>519</v>
       </c>
       <c r="T1091" t="n">
         <v>400</v>
@@ -87687,7 +87687,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1092" t="n">
         <v>4</v>
@@ -87724,16 +87724,16 @@
         </is>
       </c>
       <c r="M1092" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1092" t="n">
-        <v>210000</v>
+        <v>185000</v>
       </c>
       <c r="O1092" t="n">
-        <v>215000</v>
+        <v>190000</v>
       </c>
       <c r="P1092" t="n">
-        <v>212500</v>
+        <v>187500</v>
       </c>
       <c r="Q1092" t="inlineStr">
         <is>
@@ -87746,7 +87746,7 @@
         </is>
       </c>
       <c r="S1092" t="n">
-        <v>531</v>
+        <v>469</v>
       </c>
       <c r="T1092" t="n">
         <v>400</v>
@@ -87767,7 +87767,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1093" t="n">
         <v>4</v>
@@ -87800,20 +87800,20 @@
       </c>
       <c r="L1093" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1093" t="n">
         <v>16</v>
       </c>
       <c r="N1093" t="n">
-        <v>200000</v>
+        <v>215000</v>
       </c>
       <c r="O1093" t="n">
-        <v>205000</v>
+        <v>220000</v>
       </c>
       <c r="P1093" t="n">
-        <v>202500</v>
+        <v>217500</v>
       </c>
       <c r="Q1093" t="inlineStr">
         <is>
@@ -87826,7 +87826,7 @@
         </is>
       </c>
       <c r="S1093" t="n">
-        <v>506</v>
+        <v>544</v>
       </c>
       <c r="T1093" t="n">
         <v>400</v>
@@ -87847,7 +87847,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1094" t="n">
         <v>4</v>
@@ -87880,20 +87880,20 @@
       </c>
       <c r="L1094" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1094" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1094" t="n">
-        <v>180000</v>
+        <v>195000</v>
       </c>
       <c r="O1094" t="n">
-        <v>185000</v>
+        <v>200000</v>
       </c>
       <c r="P1094" t="n">
-        <v>182500</v>
+        <v>197500</v>
       </c>
       <c r="Q1094" t="inlineStr">
         <is>
@@ -87906,7 +87906,7 @@
         </is>
       </c>
       <c r="S1094" t="n">
-        <v>456</v>
+        <v>494</v>
       </c>
       <c r="T1094" t="n">
         <v>400</v>
@@ -87955,7 +87955,7 @@
       </c>
       <c r="K1095" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1095" t="inlineStr">
@@ -87964,16 +87964,16 @@
         </is>
       </c>
       <c r="M1095" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N1095" t="n">
-        <v>295000</v>
+        <v>265000</v>
       </c>
       <c r="O1095" t="n">
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="P1095" t="n">
-        <v>297500</v>
+        <v>267500</v>
       </c>
       <c r="Q1095" t="inlineStr">
         <is>
@@ -87982,11 +87982,11 @@
       </c>
       <c r="R1095" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1095" t="n">
-        <v>744</v>
+        <v>669</v>
       </c>
       <c r="T1095" t="n">
         <v>400</v>
@@ -88035,40 +88035,680 @@
       </c>
       <c r="K1096" t="inlineStr">
         <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L1096" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1096" t="n">
+        <v>20</v>
+      </c>
+      <c r="N1096" t="n">
+        <v>235000</v>
+      </c>
+      <c r="O1096" t="n">
+        <v>240000</v>
+      </c>
+      <c r="P1096" t="n">
+        <v>237500</v>
+      </c>
+      <c r="Q1096" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1096" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1096" t="n">
+        <v>594</v>
+      </c>
+      <c r="T1096" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1097" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1097" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1097" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1097" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1097" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1097" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1097" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1097" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1097" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1097" t="inlineStr">
+        <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L1097" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1097" t="n">
+        <v>20</v>
+      </c>
+      <c r="N1097" t="n">
+        <v>215000</v>
+      </c>
+      <c r="O1097" t="n">
+        <v>220000</v>
+      </c>
+      <c r="P1097" t="n">
+        <v>217500</v>
+      </c>
+      <c r="Q1097" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1097" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1097" t="n">
+        <v>544</v>
+      </c>
+      <c r="T1097" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1098" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1098" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1098" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1098" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1098" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1098" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1098" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1098" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1098" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1098" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L1098" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M1098" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1098" t="n">
+        <v>250000</v>
+      </c>
+      <c r="O1098" t="n">
+        <v>255000</v>
+      </c>
+      <c r="P1098" t="n">
+        <v>252500</v>
+      </c>
+      <c r="Q1098" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1098" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1098" t="n">
+        <v>631</v>
+      </c>
+      <c r="T1098" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1099" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1099" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1099" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1099" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1099" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1099" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1099" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1099" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1099" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1099" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L1099" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1099" t="n">
+        <v>20</v>
+      </c>
+      <c r="N1099" t="n">
+        <v>230000</v>
+      </c>
+      <c r="O1099" t="n">
+        <v>235000</v>
+      </c>
+      <c r="P1099" t="n">
+        <v>232500</v>
+      </c>
+      <c r="Q1099" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1099" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1099" t="n">
+        <v>581</v>
+      </c>
+      <c r="T1099" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1100" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1100" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1100" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1100" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1100" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1100" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1100" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1100" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1100" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1100" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L1100" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1100" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1100" t="n">
+        <v>210000</v>
+      </c>
+      <c r="O1100" t="n">
+        <v>215000</v>
+      </c>
+      <c r="P1100" t="n">
+        <v>212500</v>
+      </c>
+      <c r="Q1100" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1100" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1100" t="n">
+        <v>531</v>
+      </c>
+      <c r="T1100" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1101" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1101" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1101" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1101" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1101" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1101" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1101" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1101" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1101" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1101" t="inlineStr">
+        <is>
+          <t>Pink Lady</t>
+        </is>
+      </c>
+      <c r="L1101" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1101" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1101" t="n">
+        <v>200000</v>
+      </c>
+      <c r="O1101" t="n">
+        <v>205000</v>
+      </c>
+      <c r="P1101" t="n">
+        <v>202500</v>
+      </c>
+      <c r="Q1101" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1101" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1101" t="n">
+        <v>506</v>
+      </c>
+      <c r="T1101" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1102" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1102" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1102" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1102" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1102" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1102" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1102" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1102" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1102" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1102" t="inlineStr">
+        <is>
+          <t>Pink Lady</t>
+        </is>
+      </c>
+      <c r="L1102" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1102" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1102" t="n">
+        <v>180000</v>
+      </c>
+      <c r="O1102" t="n">
+        <v>185000</v>
+      </c>
+      <c r="P1102" t="n">
+        <v>182500</v>
+      </c>
+      <c r="Q1102" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1102" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1102" t="n">
+        <v>456</v>
+      </c>
+      <c r="T1102" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1103" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1103" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1103" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1103" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1103" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1103" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1103" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1103" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1103" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1103" t="inlineStr">
+        <is>
           <t>Scarlett</t>
         </is>
       </c>
-      <c r="L1096" t="inlineStr">
+      <c r="L1103" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M1103" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1103" t="n">
+        <v>295000</v>
+      </c>
+      <c r="O1103" t="n">
+        <v>300000</v>
+      </c>
+      <c r="P1103" t="n">
+        <v>297500</v>
+      </c>
+      <c r="Q1103" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1103" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1103" t="n">
+        <v>744</v>
+      </c>
+      <c r="T1103" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1104" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1104" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1104" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1104" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1104" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1104" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1104" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1104" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1104" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1104" t="inlineStr">
+        <is>
+          <t>Scarlett</t>
+        </is>
+      </c>
+      <c r="L1104" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M1096" t="n">
+      <c r="M1104" t="n">
         <v>10</v>
       </c>
-      <c r="N1096" t="n">
+      <c r="N1104" t="n">
         <v>255000</v>
       </c>
-      <c r="O1096" t="n">
+      <c r="O1104" t="n">
         <v>260000</v>
       </c>
-      <c r="P1096" t="n">
+      <c r="P1104" t="n">
         <v>257500</v>
       </c>
-      <c r="Q1096" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R1096" t="inlineStr">
+      <c r="Q1104" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1104" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S1096" t="n">
+      <c r="S1104" t="n">
         <v>644</v>
       </c>
-      <c r="T1096" t="n">
+      <c r="T1104" t="n">
         <v>400</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Manzana.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Manzana.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1161"/>
+  <dimension ref="A1:T1167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80647,7 +80647,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E1004" t="n">
         <v>4</v>
@@ -80687,13 +80687,13 @@
         <v>10</v>
       </c>
       <c r="N1004" t="n">
-        <v>285000</v>
+        <v>315000</v>
       </c>
       <c r="O1004" t="n">
-        <v>290000</v>
+        <v>320000</v>
       </c>
       <c r="P1004" t="n">
-        <v>287500</v>
+        <v>317500</v>
       </c>
       <c r="Q1004" t="inlineStr">
         <is>
@@ -80702,11 +80702,11 @@
       </c>
       <c r="R1004" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1004" t="n">
-        <v>719</v>
+        <v>794</v>
       </c>
       <c r="T1004" t="n">
         <v>400</v>
@@ -80727,7 +80727,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E1005" t="n">
         <v>4</v>
@@ -80764,16 +80764,16 @@
         </is>
       </c>
       <c r="M1005" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1005" t="n">
-        <v>265000</v>
+        <v>295000</v>
       </c>
       <c r="O1005" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="P1005" t="n">
-        <v>267500</v>
+        <v>297500</v>
       </c>
       <c r="Q1005" t="inlineStr">
         <is>
@@ -80782,11 +80782,11 @@
       </c>
       <c r="R1005" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1005" t="n">
-        <v>669</v>
+        <v>744</v>
       </c>
       <c r="T1005" t="n">
         <v>400</v>
@@ -80807,7 +80807,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E1006" t="n">
         <v>4</v>
@@ -80847,13 +80847,13 @@
         <v>20</v>
       </c>
       <c r="N1006" t="n">
-        <v>235000</v>
+        <v>265000</v>
       </c>
       <c r="O1006" t="n">
-        <v>240000</v>
+        <v>270000</v>
       </c>
       <c r="P1006" t="n">
-        <v>237500</v>
+        <v>267500</v>
       </c>
       <c r="Q1006" t="inlineStr">
         <is>
@@ -80862,11 +80862,11 @@
       </c>
       <c r="R1006" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1006" t="n">
-        <v>594</v>
+        <v>669</v>
       </c>
       <c r="T1006" t="n">
         <v>400</v>
@@ -80887,7 +80887,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E1007" t="n">
         <v>4</v>
@@ -80915,25 +80915,25 @@
       </c>
       <c r="K1007" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1007" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1007" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1007" t="n">
-        <v>215000</v>
+        <v>310000</v>
       </c>
       <c r="O1007" t="n">
-        <v>220000</v>
+        <v>315000</v>
       </c>
       <c r="P1007" t="n">
-        <v>217500</v>
+        <v>312500</v>
       </c>
       <c r="Q1007" t="inlineStr">
         <is>
@@ -80942,11 +80942,11 @@
       </c>
       <c r="R1007" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1007" t="n">
-        <v>544</v>
+        <v>781</v>
       </c>
       <c r="T1007" t="n">
         <v>400</v>
@@ -80967,7 +80967,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E1008" t="n">
         <v>4</v>
@@ -80995,25 +80995,25 @@
       </c>
       <c r="K1008" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1008" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1008" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1008" t="n">
-        <v>185000</v>
+        <v>280000</v>
       </c>
       <c r="O1008" t="n">
-        <v>190000</v>
+        <v>285000</v>
       </c>
       <c r="P1008" t="n">
-        <v>187500</v>
+        <v>282500</v>
       </c>
       <c r="Q1008" t="inlineStr">
         <is>
@@ -81022,11 +81022,11 @@
       </c>
       <c r="R1008" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1008" t="n">
-        <v>469</v>
+        <v>706</v>
       </c>
       <c r="T1008" t="n">
         <v>400</v>
@@ -81047,7 +81047,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E1009" t="n">
         <v>4</v>
@@ -81075,25 +81075,25 @@
       </c>
       <c r="K1009" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1009" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1009" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1009" t="n">
-        <v>275000</v>
+        <v>250000</v>
       </c>
       <c r="O1009" t="n">
-        <v>280000</v>
+        <v>255000</v>
       </c>
       <c r="P1009" t="n">
-        <v>277500</v>
+        <v>252500</v>
       </c>
       <c r="Q1009" t="inlineStr">
         <is>
@@ -81102,11 +81102,11 @@
       </c>
       <c r="R1009" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1009" t="n">
-        <v>694</v>
+        <v>631</v>
       </c>
       <c r="T1009" t="n">
         <v>400</v>
@@ -81127,7 +81127,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E1010" t="n">
         <v>4</v>
@@ -81160,20 +81160,20 @@
       </c>
       <c r="L1010" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1010" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N1010" t="n">
-        <v>245000</v>
+        <v>285000</v>
       </c>
       <c r="O1010" t="n">
-        <v>250000</v>
+        <v>290000</v>
       </c>
       <c r="P1010" t="n">
-        <v>247500</v>
+        <v>287500</v>
       </c>
       <c r="Q1010" t="inlineStr">
         <is>
@@ -81186,7 +81186,7 @@
         </is>
       </c>
       <c r="S1010" t="n">
-        <v>619</v>
+        <v>719</v>
       </c>
       <c r="T1010" t="n">
         <v>400</v>
@@ -81207,7 +81207,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E1011" t="n">
         <v>4</v>
@@ -81240,20 +81240,20 @@
       </c>
       <c r="L1011" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1011" t="n">
         <v>20</v>
       </c>
       <c r="N1011" t="n">
-        <v>205000</v>
+        <v>265000</v>
       </c>
       <c r="O1011" t="n">
-        <v>210000</v>
+        <v>270000</v>
       </c>
       <c r="P1011" t="n">
-        <v>207500</v>
+        <v>267500</v>
       </c>
       <c r="Q1011" t="inlineStr">
         <is>
@@ -81266,7 +81266,7 @@
         </is>
       </c>
       <c r="S1011" t="n">
-        <v>519</v>
+        <v>669</v>
       </c>
       <c r="T1011" t="n">
         <v>400</v>
@@ -81287,7 +81287,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E1012" t="n">
         <v>4</v>
@@ -81315,25 +81315,25 @@
       </c>
       <c r="K1012" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1012" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1012" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1012" t="n">
-        <v>255000</v>
+        <v>235000</v>
       </c>
       <c r="O1012" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="P1012" t="n">
-        <v>257500</v>
+        <v>237500</v>
       </c>
       <c r="Q1012" t="inlineStr">
         <is>
@@ -81342,11 +81342,11 @@
       </c>
       <c r="R1012" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1012" t="n">
-        <v>644</v>
+        <v>594</v>
       </c>
       <c r="T1012" t="n">
         <v>400</v>
@@ -81367,7 +81367,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E1013" t="n">
         <v>4</v>
@@ -81395,7 +81395,7 @@
       </c>
       <c r="K1013" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1013" t="inlineStr">
@@ -81407,13 +81407,13 @@
         <v>20</v>
       </c>
       <c r="N1013" t="n">
-        <v>225000</v>
+        <v>215000</v>
       </c>
       <c r="O1013" t="n">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="P1013" t="n">
-        <v>227500</v>
+        <v>217500</v>
       </c>
       <c r="Q1013" t="inlineStr">
         <is>
@@ -81422,11 +81422,11 @@
       </c>
       <c r="R1013" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1013" t="n">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="T1013" t="n">
         <v>400</v>
@@ -81447,7 +81447,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E1014" t="n">
         <v>4</v>
@@ -81475,7 +81475,7 @@
       </c>
       <c r="K1014" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1014" t="inlineStr">
@@ -81487,13 +81487,13 @@
         <v>20</v>
       </c>
       <c r="N1014" t="n">
-        <v>205000</v>
+        <v>185000</v>
       </c>
       <c r="O1014" t="n">
-        <v>210000</v>
+        <v>190000</v>
       </c>
       <c r="P1014" t="n">
-        <v>207500</v>
+        <v>187500</v>
       </c>
       <c r="Q1014" t="inlineStr">
         <is>
@@ -81502,11 +81502,11 @@
       </c>
       <c r="R1014" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1014" t="n">
-        <v>519</v>
+        <v>469</v>
       </c>
       <c r="T1014" t="n">
         <v>400</v>
@@ -81555,25 +81555,25 @@
       </c>
       <c r="K1015" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1015" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1015" t="n">
         <v>20</v>
       </c>
       <c r="N1015" t="n">
-        <v>285000</v>
+        <v>275000</v>
       </c>
       <c r="O1015" t="n">
-        <v>290000</v>
+        <v>280000</v>
       </c>
       <c r="P1015" t="n">
-        <v>287500</v>
+        <v>277500</v>
       </c>
       <c r="Q1015" t="inlineStr">
         <is>
@@ -81582,11 +81582,11 @@
       </c>
       <c r="R1015" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1015" t="n">
-        <v>719</v>
+        <v>694</v>
       </c>
       <c r="T1015" t="n">
         <v>400</v>
@@ -81635,12 +81635,12 @@
       </c>
       <c r="K1016" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1016" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1016" t="n">
@@ -81662,7 +81662,7 @@
       </c>
       <c r="R1016" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1016" t="n">
@@ -81687,7 +81687,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E1017" t="n">
         <v>4</v>
@@ -81720,7 +81720,7 @@
       </c>
       <c r="L1017" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1017" t="n">
@@ -81767,7 +81767,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E1018" t="n">
         <v>4</v>
@@ -81795,25 +81795,25 @@
       </c>
       <c r="K1018" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1018" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1018" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1018" t="n">
-        <v>185000</v>
+        <v>255000</v>
       </c>
       <c r="O1018" t="n">
-        <v>190000</v>
+        <v>260000</v>
       </c>
       <c r="P1018" t="n">
-        <v>187500</v>
+        <v>257500</v>
       </c>
       <c r="Q1018" t="inlineStr">
         <is>
@@ -81822,11 +81822,11 @@
       </c>
       <c r="R1018" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1018" t="n">
-        <v>469</v>
+        <v>644</v>
       </c>
       <c r="T1018" t="n">
         <v>400</v>
@@ -81847,7 +81847,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E1019" t="n">
         <v>4</v>
@@ -81887,13 +81887,13 @@
         <v>20</v>
       </c>
       <c r="N1019" t="n">
-        <v>185000</v>
+        <v>225000</v>
       </c>
       <c r="O1019" t="n">
-        <v>190000</v>
+        <v>230000</v>
       </c>
       <c r="P1019" t="n">
-        <v>187500</v>
+        <v>227500</v>
       </c>
       <c r="Q1019" t="inlineStr">
         <is>
@@ -81902,11 +81902,11 @@
       </c>
       <c r="R1019" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1019" t="n">
-        <v>469</v>
+        <v>569</v>
       </c>
       <c r="T1019" t="n">
         <v>400</v>
@@ -81927,7 +81927,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E1020" t="n">
         <v>4</v>
@@ -81967,13 +81967,13 @@
         <v>20</v>
       </c>
       <c r="N1020" t="n">
-        <v>165000</v>
+        <v>205000</v>
       </c>
       <c r="O1020" t="n">
-        <v>170000</v>
+        <v>210000</v>
       </c>
       <c r="P1020" t="n">
-        <v>167500</v>
+        <v>207500</v>
       </c>
       <c r="Q1020" t="inlineStr">
         <is>
@@ -81982,11 +81982,11 @@
       </c>
       <c r="R1020" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1020" t="n">
-        <v>419</v>
+        <v>519</v>
       </c>
       <c r="T1020" t="n">
         <v>400</v>
@@ -82007,7 +82007,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E1021" t="n">
         <v>4</v>
@@ -82047,13 +82047,13 @@
         <v>20</v>
       </c>
       <c r="N1021" t="n">
-        <v>195000</v>
+        <v>285000</v>
       </c>
       <c r="O1021" t="n">
-        <v>200000</v>
+        <v>290000</v>
       </c>
       <c r="P1021" t="n">
-        <v>197500</v>
+        <v>287500</v>
       </c>
       <c r="Q1021" t="inlineStr">
         <is>
@@ -82062,11 +82062,11 @@
       </c>
       <c r="R1021" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1021" t="n">
-        <v>494</v>
+        <v>719</v>
       </c>
       <c r="T1021" t="n">
         <v>400</v>
@@ -82087,7 +82087,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E1022" t="n">
         <v>4</v>
@@ -82127,13 +82127,13 @@
         <v>20</v>
       </c>
       <c r="N1022" t="n">
-        <v>175000</v>
+        <v>245000</v>
       </c>
       <c r="O1022" t="n">
-        <v>180000</v>
+        <v>250000</v>
       </c>
       <c r="P1022" t="n">
-        <v>177500</v>
+        <v>247500</v>
       </c>
       <c r="Q1022" t="inlineStr">
         <is>
@@ -82142,11 +82142,11 @@
       </c>
       <c r="R1022" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1022" t="n">
-        <v>444</v>
+        <v>619</v>
       </c>
       <c r="T1022" t="n">
         <v>400</v>
@@ -82195,7 +82195,7 @@
       </c>
       <c r="K1023" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1023" t="inlineStr">
@@ -82204,16 +82204,16 @@
         </is>
       </c>
       <c r="M1023" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1023" t="n">
-        <v>175000</v>
+        <v>205000</v>
       </c>
       <c r="O1023" t="n">
-        <v>180000</v>
+        <v>210000</v>
       </c>
       <c r="P1023" t="n">
-        <v>177500</v>
+        <v>207500</v>
       </c>
       <c r="Q1023" t="inlineStr">
         <is>
@@ -82226,7 +82226,7 @@
         </is>
       </c>
       <c r="S1023" t="n">
-        <v>444</v>
+        <v>519</v>
       </c>
       <c r="T1023" t="n">
         <v>400</v>
@@ -82247,7 +82247,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E1024" t="n">
         <v>4</v>
@@ -82275,25 +82275,25 @@
       </c>
       <c r="K1024" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1024" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1024" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N1024" t="n">
-        <v>225000</v>
+        <v>185000</v>
       </c>
       <c r="O1024" t="n">
-        <v>230000</v>
+        <v>190000</v>
       </c>
       <c r="P1024" t="n">
-        <v>227500</v>
+        <v>187500</v>
       </c>
       <c r="Q1024" t="inlineStr">
         <is>
@@ -82306,7 +82306,7 @@
         </is>
       </c>
       <c r="S1024" t="n">
-        <v>569</v>
+        <v>469</v>
       </c>
       <c r="T1024" t="n">
         <v>400</v>
@@ -82327,7 +82327,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E1025" t="n">
         <v>4</v>
@@ -82367,13 +82367,13 @@
         <v>20</v>
       </c>
       <c r="N1025" t="n">
-        <v>205000</v>
+        <v>185000</v>
       </c>
       <c r="O1025" t="n">
-        <v>210000</v>
+        <v>190000</v>
       </c>
       <c r="P1025" t="n">
-        <v>207500</v>
+        <v>187500</v>
       </c>
       <c r="Q1025" t="inlineStr">
         <is>
@@ -82386,7 +82386,7 @@
         </is>
       </c>
       <c r="S1025" t="n">
-        <v>519</v>
+        <v>469</v>
       </c>
       <c r="T1025" t="n">
         <v>400</v>
@@ -82407,7 +82407,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E1026" t="n">
         <v>4</v>
@@ -82444,16 +82444,16 @@
         </is>
       </c>
       <c r="M1026" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N1026" t="n">
-        <v>185000</v>
+        <v>165000</v>
       </c>
       <c r="O1026" t="n">
-        <v>190000</v>
+        <v>170000</v>
       </c>
       <c r="P1026" t="n">
-        <v>187500</v>
+        <v>167500</v>
       </c>
       <c r="Q1026" t="inlineStr">
         <is>
@@ -82466,7 +82466,7 @@
         </is>
       </c>
       <c r="S1026" t="n">
-        <v>469</v>
+        <v>419</v>
       </c>
       <c r="T1026" t="n">
         <v>400</v>
@@ -82487,7 +82487,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E1027" t="n">
         <v>4</v>
@@ -82520,20 +82520,20 @@
       </c>
       <c r="L1027" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1027" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N1027" t="n">
-        <v>215000</v>
+        <v>195000</v>
       </c>
       <c r="O1027" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="P1027" t="n">
-        <v>217500</v>
+        <v>197500</v>
       </c>
       <c r="Q1027" t="inlineStr">
         <is>
@@ -82546,7 +82546,7 @@
         </is>
       </c>
       <c r="S1027" t="n">
-        <v>544</v>
+        <v>494</v>
       </c>
       <c r="T1027" t="n">
         <v>400</v>
@@ -82567,7 +82567,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E1028" t="n">
         <v>4</v>
@@ -82600,20 +82600,20 @@
       </c>
       <c r="L1028" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1028" t="n">
         <v>20</v>
       </c>
       <c r="N1028" t="n">
-        <v>195000</v>
+        <v>175000</v>
       </c>
       <c r="O1028" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P1028" t="n">
-        <v>197500</v>
+        <v>177500</v>
       </c>
       <c r="Q1028" t="inlineStr">
         <is>
@@ -82626,7 +82626,7 @@
         </is>
       </c>
       <c r="S1028" t="n">
-        <v>494</v>
+        <v>444</v>
       </c>
       <c r="T1028" t="n">
         <v>400</v>
@@ -82647,7 +82647,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E1029" t="n">
         <v>4</v>
@@ -82675,25 +82675,25 @@
       </c>
       <c r="K1029" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1029" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1029" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N1029" t="n">
-        <v>235000</v>
+        <v>175000</v>
       </c>
       <c r="O1029" t="n">
-        <v>240000</v>
+        <v>180000</v>
       </c>
       <c r="P1029" t="n">
-        <v>237500</v>
+        <v>177500</v>
       </c>
       <c r="Q1029" t="inlineStr">
         <is>
@@ -82706,7 +82706,7 @@
         </is>
       </c>
       <c r="S1029" t="n">
-        <v>594</v>
+        <v>444</v>
       </c>
       <c r="T1029" t="n">
         <v>400</v>
@@ -82727,7 +82727,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E1030" t="n">
         <v>4</v>
@@ -82760,20 +82760,20 @@
       </c>
       <c r="L1030" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1030" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N1030" t="n">
-        <v>215000</v>
+        <v>225000</v>
       </c>
       <c r="O1030" t="n">
-        <v>220000</v>
+        <v>230000</v>
       </c>
       <c r="P1030" t="n">
-        <v>217500</v>
+        <v>227500</v>
       </c>
       <c r="Q1030" t="inlineStr">
         <is>
@@ -82786,7 +82786,7 @@
         </is>
       </c>
       <c r="S1030" t="n">
-        <v>544</v>
+        <v>569</v>
       </c>
       <c r="T1030" t="n">
         <v>400</v>
@@ -82807,7 +82807,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E1031" t="n">
         <v>4</v>
@@ -82840,20 +82840,20 @@
       </c>
       <c r="L1031" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1031" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N1031" t="n">
-        <v>195000</v>
+        <v>205000</v>
       </c>
       <c r="O1031" t="n">
-        <v>200000</v>
+        <v>210000</v>
       </c>
       <c r="P1031" t="n">
-        <v>197500</v>
+        <v>207500</v>
       </c>
       <c r="Q1031" t="inlineStr">
         <is>
@@ -82866,7 +82866,7 @@
         </is>
       </c>
       <c r="S1031" t="n">
-        <v>494</v>
+        <v>519</v>
       </c>
       <c r="T1031" t="n">
         <v>400</v>
@@ -82887,7 +82887,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E1032" t="n">
         <v>4</v>
@@ -82915,25 +82915,25 @@
       </c>
       <c r="K1032" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1032" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1032" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N1032" t="n">
-        <v>255000</v>
+        <v>185000</v>
       </c>
       <c r="O1032" t="n">
-        <v>260000</v>
+        <v>190000</v>
       </c>
       <c r="P1032" t="n">
-        <v>257500</v>
+        <v>187500</v>
       </c>
       <c r="Q1032" t="inlineStr">
         <is>
@@ -82946,7 +82946,7 @@
         </is>
       </c>
       <c r="S1032" t="n">
-        <v>644</v>
+        <v>469</v>
       </c>
       <c r="T1032" t="n">
         <v>400</v>
@@ -82967,7 +82967,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E1033" t="n">
         <v>4</v>
@@ -83000,20 +83000,20 @@
       </c>
       <c r="L1033" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1033" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N1033" t="n">
-        <v>225000</v>
+        <v>215000</v>
       </c>
       <c r="O1033" t="n">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="P1033" t="n">
-        <v>227500</v>
+        <v>217500</v>
       </c>
       <c r="Q1033" t="inlineStr">
         <is>
@@ -83026,7 +83026,7 @@
         </is>
       </c>
       <c r="S1033" t="n">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="T1033" t="n">
         <v>400</v>
@@ -83047,7 +83047,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E1034" t="n">
         <v>4</v>
@@ -83080,20 +83080,20 @@
       </c>
       <c r="L1034" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1034" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N1034" t="n">
-        <v>205000</v>
+        <v>195000</v>
       </c>
       <c r="O1034" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="P1034" t="n">
-        <v>207500</v>
+        <v>197500</v>
       </c>
       <c r="Q1034" t="inlineStr">
         <is>
@@ -83106,7 +83106,7 @@
         </is>
       </c>
       <c r="S1034" t="n">
-        <v>519</v>
+        <v>494</v>
       </c>
       <c r="T1034" t="n">
         <v>400</v>
@@ -83127,7 +83127,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E1035" t="n">
         <v>4</v>
@@ -83155,7 +83155,7 @@
       </c>
       <c r="K1035" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1035" t="inlineStr">
@@ -83164,16 +83164,16 @@
         </is>
       </c>
       <c r="M1035" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="N1035" t="n">
-        <v>285000</v>
+        <v>235000</v>
       </c>
       <c r="O1035" t="n">
-        <v>290000</v>
+        <v>240000</v>
       </c>
       <c r="P1035" t="n">
-        <v>287500</v>
+        <v>237500</v>
       </c>
       <c r="Q1035" t="inlineStr">
         <is>
@@ -83182,11 +83182,11 @@
       </c>
       <c r="R1035" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1035" t="n">
-        <v>719</v>
+        <v>594</v>
       </c>
       <c r="T1035" t="n">
         <v>400</v>
@@ -83207,7 +83207,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E1036" t="n">
         <v>4</v>
@@ -83235,7 +83235,7 @@
       </c>
       <c r="K1036" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1036" t="inlineStr">
@@ -83247,13 +83247,13 @@
         <v>20</v>
       </c>
       <c r="N1036" t="n">
-        <v>255000</v>
+        <v>215000</v>
       </c>
       <c r="O1036" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="P1036" t="n">
-        <v>257500</v>
+        <v>217500</v>
       </c>
       <c r="Q1036" t="inlineStr">
         <is>
@@ -83262,11 +83262,11 @@
       </c>
       <c r="R1036" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1036" t="n">
-        <v>644</v>
+        <v>544</v>
       </c>
       <c r="T1036" t="n">
         <v>400</v>
@@ -83287,7 +83287,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E1037" t="n">
         <v>4</v>
@@ -83315,7 +83315,7 @@
       </c>
       <c r="K1037" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1037" t="inlineStr">
@@ -83324,16 +83324,16 @@
         </is>
       </c>
       <c r="M1037" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N1037" t="n">
-        <v>215000</v>
+        <v>195000</v>
       </c>
       <c r="O1037" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="P1037" t="n">
-        <v>217500</v>
+        <v>197500</v>
       </c>
       <c r="Q1037" t="inlineStr">
         <is>
@@ -83342,11 +83342,11 @@
       </c>
       <c r="R1037" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1037" t="n">
-        <v>544</v>
+        <v>494</v>
       </c>
       <c r="T1037" t="n">
         <v>400</v>
@@ -83367,7 +83367,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E1038" t="n">
         <v>4</v>
@@ -83395,7 +83395,7 @@
       </c>
       <c r="K1038" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1038" t="inlineStr">
@@ -83404,7 +83404,7 @@
         </is>
       </c>
       <c r="M1038" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="N1038" t="n">
         <v>255000</v>
@@ -83422,7 +83422,7 @@
       </c>
       <c r="R1038" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1038" t="n">
@@ -83447,7 +83447,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E1039" t="n">
         <v>4</v>
@@ -83475,7 +83475,7 @@
       </c>
       <c r="K1039" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1039" t="inlineStr">
@@ -83502,7 +83502,7 @@
       </c>
       <c r="R1039" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1039" t="n">
@@ -83527,7 +83527,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E1040" t="n">
         <v>4</v>
@@ -83555,7 +83555,7 @@
       </c>
       <c r="K1040" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1040" t="inlineStr">
@@ -83564,7 +83564,7 @@
         </is>
       </c>
       <c r="M1040" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N1040" t="n">
         <v>205000</v>
@@ -83582,7 +83582,7 @@
       </c>
       <c r="R1040" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1040" t="n">
@@ -83635,25 +83635,25 @@
       </c>
       <c r="K1041" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1041" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1041" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N1041" t="n">
-        <v>295000</v>
+        <v>285000</v>
       </c>
       <c r="O1041" t="n">
-        <v>300000</v>
+        <v>290000</v>
       </c>
       <c r="P1041" t="n">
-        <v>297500</v>
+        <v>287500</v>
       </c>
       <c r="Q1041" t="inlineStr">
         <is>
@@ -83662,11 +83662,11 @@
       </c>
       <c r="R1041" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1041" t="n">
-        <v>744</v>
+        <v>719</v>
       </c>
       <c r="T1041" t="n">
         <v>400</v>
@@ -83687,7 +83687,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E1042" t="n">
         <v>4</v>
@@ -83720,20 +83720,20 @@
       </c>
       <c r="L1042" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1042" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N1042" t="n">
-        <v>230000</v>
+        <v>255000</v>
       </c>
       <c r="O1042" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="P1042" t="n">
-        <v>235000</v>
+        <v>257500</v>
       </c>
       <c r="Q1042" t="inlineStr">
         <is>
@@ -83742,11 +83742,11 @@
       </c>
       <c r="R1042" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1042" t="n">
-        <v>588</v>
+        <v>644</v>
       </c>
       <c r="T1042" t="n">
         <v>400</v>
@@ -83767,7 +83767,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E1043" t="n">
         <v>4</v>
@@ -83800,20 +83800,20 @@
       </c>
       <c r="L1043" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1043" t="n">
         <v>20</v>
       </c>
       <c r="N1043" t="n">
-        <v>200000</v>
+        <v>215000</v>
       </c>
       <c r="O1043" t="n">
-        <v>210000</v>
+        <v>220000</v>
       </c>
       <c r="P1043" t="n">
-        <v>205000</v>
+        <v>217500</v>
       </c>
       <c r="Q1043" t="inlineStr">
         <is>
@@ -83822,11 +83822,11 @@
       </c>
       <c r="R1043" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1043" t="n">
-        <v>512</v>
+        <v>544</v>
       </c>
       <c r="T1043" t="n">
         <v>400</v>
@@ -83847,7 +83847,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E1044" t="n">
         <v>4</v>
@@ -83875,25 +83875,25 @@
       </c>
       <c r="K1044" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1044" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1044" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N1044" t="n">
-        <v>180000</v>
+        <v>255000</v>
       </c>
       <c r="O1044" t="n">
-        <v>190000</v>
+        <v>260000</v>
       </c>
       <c r="P1044" t="n">
-        <v>185000</v>
+        <v>257500</v>
       </c>
       <c r="Q1044" t="inlineStr">
         <is>
@@ -83902,11 +83902,11 @@
       </c>
       <c r="R1044" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1044" t="n">
-        <v>462</v>
+        <v>644</v>
       </c>
       <c r="T1044" t="n">
         <v>400</v>
@@ -83927,7 +83927,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E1045" t="n">
         <v>4</v>
@@ -83955,7 +83955,7 @@
       </c>
       <c r="K1045" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1045" t="inlineStr">
@@ -83964,16 +83964,16 @@
         </is>
       </c>
       <c r="M1045" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N1045" t="n">
-        <v>200000</v>
+        <v>225000</v>
       </c>
       <c r="O1045" t="n">
-        <v>210000</v>
+        <v>230000</v>
       </c>
       <c r="P1045" t="n">
-        <v>205000</v>
+        <v>227500</v>
       </c>
       <c r="Q1045" t="inlineStr">
         <is>
@@ -83982,11 +83982,11 @@
       </c>
       <c r="R1045" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1045" t="n">
-        <v>512</v>
+        <v>569</v>
       </c>
       <c r="T1045" t="n">
         <v>400</v>
@@ -84007,7 +84007,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E1046" t="n">
         <v>4</v>
@@ -84035,7 +84035,7 @@
       </c>
       <c r="K1046" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1046" t="inlineStr">
@@ -84044,16 +84044,16 @@
         </is>
       </c>
       <c r="M1046" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N1046" t="n">
-        <v>180000</v>
+        <v>205000</v>
       </c>
       <c r="O1046" t="n">
-        <v>190000</v>
+        <v>210000</v>
       </c>
       <c r="P1046" t="n">
-        <v>185000</v>
+        <v>207500</v>
       </c>
       <c r="Q1046" t="inlineStr">
         <is>
@@ -84062,11 +84062,11 @@
       </c>
       <c r="R1046" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1046" t="n">
-        <v>462</v>
+        <v>519</v>
       </c>
       <c r="T1046" t="n">
         <v>400</v>
@@ -84087,7 +84087,7 @@
         </is>
       </c>
       <c r="D1047" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E1047" t="n">
         <v>4</v>
@@ -84115,25 +84115,25 @@
       </c>
       <c r="K1047" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1047" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1047" t="n">
         <v>20</v>
       </c>
       <c r="N1047" t="n">
-        <v>265000</v>
+        <v>295000</v>
       </c>
       <c r="O1047" t="n">
-        <v>270000</v>
+        <v>300000</v>
       </c>
       <c r="P1047" t="n">
-        <v>267500</v>
+        <v>297500</v>
       </c>
       <c r="Q1047" t="inlineStr">
         <is>
@@ -84142,11 +84142,11 @@
       </c>
       <c r="R1047" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1047" t="n">
-        <v>669</v>
+        <v>744</v>
       </c>
       <c r="T1047" t="n">
         <v>400</v>
@@ -84167,7 +84167,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E1048" t="n">
         <v>4</v>
@@ -84200,20 +84200,20 @@
       </c>
       <c r="L1048" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1048" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N1048" t="n">
-        <v>235000</v>
+        <v>230000</v>
       </c>
       <c r="O1048" t="n">
         <v>240000</v>
       </c>
       <c r="P1048" t="n">
-        <v>237500</v>
+        <v>235000</v>
       </c>
       <c r="Q1048" t="inlineStr">
         <is>
@@ -84222,11 +84222,11 @@
       </c>
       <c r="R1048" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1048" t="n">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="T1048" t="n">
         <v>400</v>
@@ -84247,7 +84247,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E1049" t="n">
         <v>4</v>
@@ -84280,20 +84280,20 @@
       </c>
       <c r="L1049" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1049" t="n">
         <v>20</v>
       </c>
       <c r="N1049" t="n">
-        <v>205000</v>
+        <v>200000</v>
       </c>
       <c r="O1049" t="n">
         <v>210000</v>
       </c>
       <c r="P1049" t="n">
-        <v>207500</v>
+        <v>205000</v>
       </c>
       <c r="Q1049" t="inlineStr">
         <is>
@@ -84302,11 +84302,11 @@
       </c>
       <c r="R1049" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1049" t="n">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="T1049" t="n">
         <v>400</v>
@@ -84327,7 +84327,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E1050" t="n">
         <v>4</v>
@@ -84355,25 +84355,25 @@
       </c>
       <c r="K1050" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1050" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1050" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N1050" t="n">
-        <v>245000</v>
+        <v>180000</v>
       </c>
       <c r="O1050" t="n">
-        <v>250000</v>
+        <v>190000</v>
       </c>
       <c r="P1050" t="n">
-        <v>247500</v>
+        <v>185000</v>
       </c>
       <c r="Q1050" t="inlineStr">
         <is>
@@ -84382,11 +84382,11 @@
       </c>
       <c r="R1050" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1050" t="n">
-        <v>619</v>
+        <v>462</v>
       </c>
       <c r="T1050" t="n">
         <v>400</v>
@@ -84407,7 +84407,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E1051" t="n">
         <v>4</v>
@@ -84435,7 +84435,7 @@
       </c>
       <c r="K1051" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1051" t="inlineStr">
@@ -84444,16 +84444,16 @@
         </is>
       </c>
       <c r="M1051" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N1051" t="n">
-        <v>225000</v>
+        <v>200000</v>
       </c>
       <c r="O1051" t="n">
-        <v>230000</v>
+        <v>210000</v>
       </c>
       <c r="P1051" t="n">
-        <v>227500</v>
+        <v>205000</v>
       </c>
       <c r="Q1051" t="inlineStr">
         <is>
@@ -84462,11 +84462,11 @@
       </c>
       <c r="R1051" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1051" t="n">
-        <v>569</v>
+        <v>512</v>
       </c>
       <c r="T1051" t="n">
         <v>400</v>
@@ -84487,7 +84487,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E1052" t="n">
         <v>4</v>
@@ -84515,7 +84515,7 @@
       </c>
       <c r="K1052" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1052" t="inlineStr">
@@ -84524,16 +84524,16 @@
         </is>
       </c>
       <c r="M1052" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N1052" t="n">
-        <v>195000</v>
+        <v>180000</v>
       </c>
       <c r="O1052" t="n">
-        <v>200000</v>
+        <v>190000</v>
       </c>
       <c r="P1052" t="n">
-        <v>197500</v>
+        <v>185000</v>
       </c>
       <c r="Q1052" t="inlineStr">
         <is>
@@ -84542,11 +84542,11 @@
       </c>
       <c r="R1052" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1052" t="n">
-        <v>494</v>
+        <v>462</v>
       </c>
       <c r="T1052" t="n">
         <v>400</v>
@@ -84595,7 +84595,7 @@
       </c>
       <c r="K1053" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1053" t="inlineStr">
@@ -84604,16 +84604,16 @@
         </is>
       </c>
       <c r="M1053" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1053" t="n">
-        <v>225000</v>
+        <v>265000</v>
       </c>
       <c r="O1053" t="n">
-        <v>230000</v>
+        <v>270000</v>
       </c>
       <c r="P1053" t="n">
-        <v>227500</v>
+        <v>267500</v>
       </c>
       <c r="Q1053" t="inlineStr">
         <is>
@@ -84626,7 +84626,7 @@
         </is>
       </c>
       <c r="S1053" t="n">
-        <v>569</v>
+        <v>669</v>
       </c>
       <c r="T1053" t="n">
         <v>400</v>
@@ -84675,7 +84675,7 @@
       </c>
       <c r="K1054" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1054" t="inlineStr">
@@ -84687,13 +84687,13 @@
         <v>20</v>
       </c>
       <c r="N1054" t="n">
-        <v>205000</v>
+        <v>235000</v>
       </c>
       <c r="O1054" t="n">
-        <v>210000</v>
+        <v>240000</v>
       </c>
       <c r="P1054" t="n">
-        <v>207500</v>
+        <v>237500</v>
       </c>
       <c r="Q1054" t="inlineStr">
         <is>
@@ -84706,7 +84706,7 @@
         </is>
       </c>
       <c r="S1054" t="n">
-        <v>519</v>
+        <v>594</v>
       </c>
       <c r="T1054" t="n">
         <v>400</v>
@@ -84755,7 +84755,7 @@
       </c>
       <c r="K1055" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1055" t="inlineStr">
@@ -84764,16 +84764,16 @@
         </is>
       </c>
       <c r="M1055" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1055" t="n">
-        <v>185000</v>
+        <v>205000</v>
       </c>
       <c r="O1055" t="n">
-        <v>190000</v>
+        <v>210000</v>
       </c>
       <c r="P1055" t="n">
-        <v>187500</v>
+        <v>207500</v>
       </c>
       <c r="Q1055" t="inlineStr">
         <is>
@@ -84786,7 +84786,7 @@
         </is>
       </c>
       <c r="S1055" t="n">
-        <v>469</v>
+        <v>519</v>
       </c>
       <c r="T1055" t="n">
         <v>400</v>
@@ -84807,7 +84807,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1056" t="n">
         <v>4</v>
@@ -84835,7 +84835,7 @@
       </c>
       <c r="K1056" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1056" t="inlineStr">
@@ -84844,7 +84844,7 @@
         </is>
       </c>
       <c r="M1056" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1056" t="n">
         <v>245000</v>
@@ -84862,7 +84862,7 @@
       </c>
       <c r="R1056" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1056" t="n">
@@ -84887,7 +84887,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1057" t="n">
         <v>4</v>
@@ -84915,7 +84915,7 @@
       </c>
       <c r="K1057" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1057" t="inlineStr">
@@ -84942,7 +84942,7 @@
       </c>
       <c r="R1057" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1057" t="n">
@@ -84967,7 +84967,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1058" t="n">
         <v>4</v>
@@ -84995,7 +84995,7 @@
       </c>
       <c r="K1058" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1058" t="inlineStr">
@@ -85004,7 +85004,7 @@
         </is>
       </c>
       <c r="M1058" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1058" t="n">
         <v>195000</v>
@@ -85022,7 +85022,7 @@
       </c>
       <c r="R1058" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1058" t="n">
@@ -85047,7 +85047,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1059" t="n">
         <v>4</v>
@@ -85075,7 +85075,7 @@
       </c>
       <c r="K1059" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1059" t="inlineStr">
@@ -85127,7 +85127,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1060" t="n">
         <v>4</v>
@@ -85155,7 +85155,7 @@
       </c>
       <c r="K1060" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1060" t="inlineStr">
@@ -85207,7 +85207,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1061" t="n">
         <v>4</v>
@@ -85235,7 +85235,7 @@
       </c>
       <c r="K1061" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1061" t="inlineStr">
@@ -85247,13 +85247,13 @@
         <v>16</v>
       </c>
       <c r="N1061" t="n">
-        <v>175000</v>
+        <v>185000</v>
       </c>
       <c r="O1061" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="P1061" t="n">
-        <v>177500</v>
+        <v>187500</v>
       </c>
       <c r="Q1061" t="inlineStr">
         <is>
@@ -85266,7 +85266,7 @@
         </is>
       </c>
       <c r="S1061" t="n">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="T1061" t="n">
         <v>400</v>
@@ -85315,7 +85315,7 @@
       </c>
       <c r="K1062" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1062" t="inlineStr">
@@ -85324,16 +85324,16 @@
         </is>
       </c>
       <c r="M1062" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1062" t="n">
-        <v>235000</v>
+        <v>245000</v>
       </c>
       <c r="O1062" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="P1062" t="n">
-        <v>237500</v>
+        <v>247500</v>
       </c>
       <c r="Q1062" t="inlineStr">
         <is>
@@ -85342,11 +85342,11 @@
       </c>
       <c r="R1062" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1062" t="n">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="T1062" t="n">
         <v>400</v>
@@ -85395,7 +85395,7 @@
       </c>
       <c r="K1063" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1063" t="inlineStr">
@@ -85407,13 +85407,13 @@
         <v>20</v>
       </c>
       <c r="N1063" t="n">
-        <v>215000</v>
+        <v>225000</v>
       </c>
       <c r="O1063" t="n">
-        <v>220000</v>
+        <v>230000</v>
       </c>
       <c r="P1063" t="n">
-        <v>217500</v>
+        <v>227500</v>
       </c>
       <c r="Q1063" t="inlineStr">
         <is>
@@ -85422,11 +85422,11 @@
       </c>
       <c r="R1063" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1063" t="n">
-        <v>544</v>
+        <v>569</v>
       </c>
       <c r="T1063" t="n">
         <v>400</v>
@@ -85475,7 +85475,7 @@
       </c>
       <c r="K1064" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1064" t="inlineStr">
@@ -85502,7 +85502,7 @@
       </c>
       <c r="R1064" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1064" t="n">
@@ -85527,7 +85527,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1065" t="n">
         <v>4</v>
@@ -85564,16 +85564,16 @@
         </is>
       </c>
       <c r="M1065" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N1065" t="n">
-        <v>255000</v>
+        <v>225000</v>
       </c>
       <c r="O1065" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="P1065" t="n">
-        <v>257500</v>
+        <v>227500</v>
       </c>
       <c r="Q1065" t="inlineStr">
         <is>
@@ -85586,7 +85586,7 @@
         </is>
       </c>
       <c r="S1065" t="n">
-        <v>644</v>
+        <v>569</v>
       </c>
       <c r="T1065" t="n">
         <v>400</v>
@@ -85607,7 +85607,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1066" t="n">
         <v>4</v>
@@ -85647,13 +85647,13 @@
         <v>20</v>
       </c>
       <c r="N1066" t="n">
-        <v>230000</v>
+        <v>205000</v>
       </c>
       <c r="O1066" t="n">
-        <v>235000</v>
+        <v>210000</v>
       </c>
       <c r="P1066" t="n">
-        <v>232500</v>
+        <v>207500</v>
       </c>
       <c r="Q1066" t="inlineStr">
         <is>
@@ -85666,7 +85666,7 @@
         </is>
       </c>
       <c r="S1066" t="n">
-        <v>581</v>
+        <v>519</v>
       </c>
       <c r="T1066" t="n">
         <v>400</v>
@@ -85687,7 +85687,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1067" t="n">
         <v>4</v>
@@ -85724,16 +85724,16 @@
         </is>
       </c>
       <c r="M1067" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N1067" t="n">
-        <v>195000</v>
+        <v>175000</v>
       </c>
       <c r="O1067" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P1067" t="n">
-        <v>197500</v>
+        <v>177500</v>
       </c>
       <c r="Q1067" t="inlineStr">
         <is>
@@ -85746,7 +85746,7 @@
         </is>
       </c>
       <c r="S1067" t="n">
-        <v>494</v>
+        <v>444</v>
       </c>
       <c r="T1067" t="n">
         <v>400</v>
@@ -85767,7 +85767,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1068" t="n">
         <v>4</v>
@@ -85804,16 +85804,16 @@
         </is>
       </c>
       <c r="M1068" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N1068" t="n">
-        <v>285000</v>
+        <v>235000</v>
       </c>
       <c r="O1068" t="n">
-        <v>290000</v>
+        <v>240000</v>
       </c>
       <c r="P1068" t="n">
-        <v>287500</v>
+        <v>237500</v>
       </c>
       <c r="Q1068" t="inlineStr">
         <is>
@@ -85822,11 +85822,11 @@
       </c>
       <c r="R1068" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1068" t="n">
-        <v>719</v>
+        <v>594</v>
       </c>
       <c r="T1068" t="n">
         <v>400</v>
@@ -85847,7 +85847,7 @@
         </is>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1069" t="n">
         <v>4</v>
@@ -85887,13 +85887,13 @@
         <v>20</v>
       </c>
       <c r="N1069" t="n">
-        <v>255000</v>
+        <v>215000</v>
       </c>
       <c r="O1069" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="P1069" t="n">
-        <v>257500</v>
+        <v>217500</v>
       </c>
       <c r="Q1069" t="inlineStr">
         <is>
@@ -85902,11 +85902,11 @@
       </c>
       <c r="R1069" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1069" t="n">
-        <v>644</v>
+        <v>544</v>
       </c>
       <c r="T1069" t="n">
         <v>400</v>
@@ -85927,7 +85927,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E1070" t="n">
         <v>4</v>
@@ -85955,25 +85955,25 @@
       </c>
       <c r="K1070" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1070" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1070" t="n">
         <v>20</v>
       </c>
       <c r="N1070" t="n">
-        <v>235000</v>
+        <v>195000</v>
       </c>
       <c r="O1070" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="P1070" t="n">
-        <v>237500</v>
+        <v>197500</v>
       </c>
       <c r="Q1070" t="inlineStr">
         <is>
@@ -85982,11 +85982,11 @@
       </c>
       <c r="R1070" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1070" t="n">
-        <v>594</v>
+        <v>494</v>
       </c>
       <c r="T1070" t="n">
         <v>400</v>
@@ -86007,7 +86007,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1071" t="n">
         <v>4</v>
@@ -86035,25 +86035,25 @@
       </c>
       <c r="K1071" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1071" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1071" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N1071" t="n">
-        <v>210000</v>
+        <v>255000</v>
       </c>
       <c r="O1071" t="n">
-        <v>215000</v>
+        <v>260000</v>
       </c>
       <c r="P1071" t="n">
-        <v>212500</v>
+        <v>257500</v>
       </c>
       <c r="Q1071" t="inlineStr">
         <is>
@@ -86062,11 +86062,11 @@
       </c>
       <c r="R1071" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1071" t="n">
-        <v>531</v>
+        <v>644</v>
       </c>
       <c r="T1071" t="n">
         <v>400</v>
@@ -86087,7 +86087,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1072" t="n">
         <v>4</v>
@@ -86115,25 +86115,25 @@
       </c>
       <c r="K1072" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1072" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1072" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N1072" t="n">
-        <v>180000</v>
+        <v>230000</v>
       </c>
       <c r="O1072" t="n">
-        <v>185000</v>
+        <v>235000</v>
       </c>
       <c r="P1072" t="n">
-        <v>181786</v>
+        <v>232500</v>
       </c>
       <c r="Q1072" t="inlineStr">
         <is>
@@ -86142,11 +86142,11 @@
       </c>
       <c r="R1072" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1072" t="n">
-        <v>454</v>
+        <v>581</v>
       </c>
       <c r="T1072" t="n">
         <v>400</v>
@@ -86167,7 +86167,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1073" t="n">
         <v>4</v>
@@ -86200,20 +86200,20 @@
       </c>
       <c r="L1073" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1073" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="N1073" t="n">
-        <v>225000</v>
+        <v>195000</v>
       </c>
       <c r="O1073" t="n">
-        <v>230000</v>
+        <v>200000</v>
       </c>
       <c r="P1073" t="n">
-        <v>226786</v>
+        <v>197500</v>
       </c>
       <c r="Q1073" t="inlineStr">
         <is>
@@ -86222,11 +86222,11 @@
       </c>
       <c r="R1073" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1073" t="n">
-        <v>567</v>
+        <v>494</v>
       </c>
       <c r="T1073" t="n">
         <v>400</v>
@@ -86247,7 +86247,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1074" t="n">
         <v>4</v>
@@ -86275,25 +86275,25 @@
       </c>
       <c r="K1074" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1074" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1074" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N1074" t="n">
-        <v>205000</v>
+        <v>285000</v>
       </c>
       <c r="O1074" t="n">
-        <v>210000</v>
+        <v>290000</v>
       </c>
       <c r="P1074" t="n">
-        <v>207500</v>
+        <v>287500</v>
       </c>
       <c r="Q1074" t="inlineStr">
         <is>
@@ -86306,7 +86306,7 @@
         </is>
       </c>
       <c r="S1074" t="n">
-        <v>519</v>
+        <v>719</v>
       </c>
       <c r="T1074" t="n">
         <v>400</v>
@@ -86327,7 +86327,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1075" t="n">
         <v>4</v>
@@ -86355,25 +86355,25 @@
       </c>
       <c r="K1075" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1075" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1075" t="n">
         <v>20</v>
       </c>
       <c r="N1075" t="n">
-        <v>175000</v>
+        <v>255000</v>
       </c>
       <c r="O1075" t="n">
-        <v>180000</v>
+        <v>260000</v>
       </c>
       <c r="P1075" t="n">
-        <v>177500</v>
+        <v>257500</v>
       </c>
       <c r="Q1075" t="inlineStr">
         <is>
@@ -86386,7 +86386,7 @@
         </is>
       </c>
       <c r="S1075" t="n">
-        <v>444</v>
+        <v>644</v>
       </c>
       <c r="T1075" t="n">
         <v>400</v>
@@ -86435,7 +86435,7 @@
       </c>
       <c r="K1076" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1076" t="inlineStr">
@@ -86444,16 +86444,16 @@
         </is>
       </c>
       <c r="M1076" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1076" t="n">
-        <v>205000</v>
+        <v>235000</v>
       </c>
       <c r="O1076" t="n">
-        <v>210000</v>
+        <v>240000</v>
       </c>
       <c r="P1076" t="n">
-        <v>207500</v>
+        <v>237500</v>
       </c>
       <c r="Q1076" t="inlineStr">
         <is>
@@ -86466,7 +86466,7 @@
         </is>
       </c>
       <c r="S1076" t="n">
-        <v>519</v>
+        <v>594</v>
       </c>
       <c r="T1076" t="n">
         <v>400</v>
@@ -86515,7 +86515,7 @@
       </c>
       <c r="K1077" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1077" t="inlineStr">
@@ -86527,13 +86527,13 @@
         <v>20</v>
       </c>
       <c r="N1077" t="n">
-        <v>185000</v>
+        <v>210000</v>
       </c>
       <c r="O1077" t="n">
-        <v>190000</v>
+        <v>215000</v>
       </c>
       <c r="P1077" t="n">
-        <v>187500</v>
+        <v>212500</v>
       </c>
       <c r="Q1077" t="inlineStr">
         <is>
@@ -86546,7 +86546,7 @@
         </is>
       </c>
       <c r="S1077" t="n">
-        <v>469</v>
+        <v>531</v>
       </c>
       <c r="T1077" t="n">
         <v>400</v>
@@ -86595,7 +86595,7 @@
       </c>
       <c r="K1078" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1078" t="inlineStr">
@@ -86604,16 +86604,16 @@
         </is>
       </c>
       <c r="M1078" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N1078" t="n">
-        <v>155000</v>
+        <v>180000</v>
       </c>
       <c r="O1078" t="n">
-        <v>160000</v>
+        <v>185000</v>
       </c>
       <c r="P1078" t="n">
-        <v>157500</v>
+        <v>181786</v>
       </c>
       <c r="Q1078" t="inlineStr">
         <is>
@@ -86626,7 +86626,7 @@
         </is>
       </c>
       <c r="S1078" t="n">
-        <v>394</v>
+        <v>454</v>
       </c>
       <c r="T1078" t="n">
         <v>400</v>
@@ -86675,7 +86675,7 @@
       </c>
       <c r="K1079" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1079" t="inlineStr">
@@ -86684,16 +86684,16 @@
         </is>
       </c>
       <c r="M1079" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N1079" t="n">
-        <v>235000</v>
+        <v>225000</v>
       </c>
       <c r="O1079" t="n">
-        <v>240000</v>
+        <v>230000</v>
       </c>
       <c r="P1079" t="n">
-        <v>237500</v>
+        <v>226786</v>
       </c>
       <c r="Q1079" t="inlineStr">
         <is>
@@ -86706,7 +86706,7 @@
         </is>
       </c>
       <c r="S1079" t="n">
-        <v>594</v>
+        <v>567</v>
       </c>
       <c r="T1079" t="n">
         <v>400</v>
@@ -86755,7 +86755,7 @@
       </c>
       <c r="K1080" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1080" t="inlineStr">
@@ -86767,13 +86767,13 @@
         <v>20</v>
       </c>
       <c r="N1080" t="n">
-        <v>215000</v>
+        <v>205000</v>
       </c>
       <c r="O1080" t="n">
-        <v>220000</v>
+        <v>210000</v>
       </c>
       <c r="P1080" t="n">
-        <v>217500</v>
+        <v>207500</v>
       </c>
       <c r="Q1080" t="inlineStr">
         <is>
@@ -86786,7 +86786,7 @@
         </is>
       </c>
       <c r="S1080" t="n">
-        <v>544</v>
+        <v>519</v>
       </c>
       <c r="T1080" t="n">
         <v>400</v>
@@ -86835,7 +86835,7 @@
       </c>
       <c r="K1081" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1081" t="inlineStr">
@@ -86844,16 +86844,16 @@
         </is>
       </c>
       <c r="M1081" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1081" t="n">
-        <v>195000</v>
+        <v>175000</v>
       </c>
       <c r="O1081" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="P1081" t="n">
-        <v>197500</v>
+        <v>177500</v>
       </c>
       <c r="Q1081" t="inlineStr">
         <is>
@@ -86866,7 +86866,7 @@
         </is>
       </c>
       <c r="S1081" t="n">
-        <v>494</v>
+        <v>444</v>
       </c>
       <c r="T1081" t="n">
         <v>400</v>
@@ -86887,7 +86887,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1082" t="n">
         <v>4</v>
@@ -86915,7 +86915,7 @@
       </c>
       <c r="K1082" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1082" t="inlineStr">
@@ -86924,16 +86924,16 @@
         </is>
       </c>
       <c r="M1082" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N1082" t="n">
-        <v>260000</v>
+        <v>205000</v>
       </c>
       <c r="O1082" t="n">
-        <v>270000</v>
+        <v>210000</v>
       </c>
       <c r="P1082" t="n">
-        <v>265000</v>
+        <v>207500</v>
       </c>
       <c r="Q1082" t="inlineStr">
         <is>
@@ -86942,11 +86942,11 @@
       </c>
       <c r="R1082" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1082" t="n">
-        <v>662</v>
+        <v>519</v>
       </c>
       <c r="T1082" t="n">
         <v>400</v>
@@ -86967,7 +86967,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1083" t="n">
         <v>4</v>
@@ -86995,7 +86995,7 @@
       </c>
       <c r="K1083" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1083" t="inlineStr">
@@ -87007,13 +87007,13 @@
         <v>20</v>
       </c>
       <c r="N1083" t="n">
-        <v>230000</v>
+        <v>185000</v>
       </c>
       <c r="O1083" t="n">
-        <v>240000</v>
+        <v>190000</v>
       </c>
       <c r="P1083" t="n">
-        <v>235000</v>
+        <v>187500</v>
       </c>
       <c r="Q1083" t="inlineStr">
         <is>
@@ -87022,11 +87022,11 @@
       </c>
       <c r="R1083" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1083" t="n">
-        <v>588</v>
+        <v>469</v>
       </c>
       <c r="T1083" t="n">
         <v>400</v>
@@ -87047,7 +87047,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1084" t="n">
         <v>4</v>
@@ -87075,7 +87075,7 @@
       </c>
       <c r="K1084" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1084" t="inlineStr">
@@ -87084,16 +87084,16 @@
         </is>
       </c>
       <c r="M1084" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N1084" t="n">
-        <v>200000</v>
+        <v>155000</v>
       </c>
       <c r="O1084" t="n">
-        <v>210000</v>
+        <v>160000</v>
       </c>
       <c r="P1084" t="n">
-        <v>205000</v>
+        <v>157500</v>
       </c>
       <c r="Q1084" t="inlineStr">
         <is>
@@ -87102,11 +87102,11 @@
       </c>
       <c r="R1084" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1084" t="n">
-        <v>512</v>
+        <v>394</v>
       </c>
       <c r="T1084" t="n">
         <v>400</v>
@@ -87127,7 +87127,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1085" t="n">
         <v>4</v>
@@ -87155,25 +87155,25 @@
       </c>
       <c r="K1085" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1085" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1085" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N1085" t="n">
-        <v>200000</v>
+        <v>235000</v>
       </c>
       <c r="O1085" t="n">
-        <v>210000</v>
+        <v>240000</v>
       </c>
       <c r="P1085" t="n">
-        <v>205000</v>
+        <v>237500</v>
       </c>
       <c r="Q1085" t="inlineStr">
         <is>
@@ -87182,11 +87182,11 @@
       </c>
       <c r="R1085" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1085" t="n">
-        <v>512</v>
+        <v>594</v>
       </c>
       <c r="T1085" t="n">
         <v>400</v>
@@ -87207,7 +87207,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1086" t="n">
         <v>4</v>
@@ -87235,25 +87235,25 @@
       </c>
       <c r="K1086" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1086" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1086" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N1086" t="n">
-        <v>180000</v>
+        <v>215000</v>
       </c>
       <c r="O1086" t="n">
-        <v>190000</v>
+        <v>220000</v>
       </c>
       <c r="P1086" t="n">
-        <v>185000</v>
+        <v>217500</v>
       </c>
       <c r="Q1086" t="inlineStr">
         <is>
@@ -87262,11 +87262,11 @@
       </c>
       <c r="R1086" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1086" t="n">
-        <v>462</v>
+        <v>544</v>
       </c>
       <c r="T1086" t="n">
         <v>400</v>
@@ -87287,7 +87287,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E1087" t="n">
         <v>4</v>
@@ -87315,25 +87315,25 @@
       </c>
       <c r="K1087" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1087" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1087" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N1087" t="n">
-        <v>235000</v>
+        <v>195000</v>
       </c>
       <c r="O1087" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="P1087" t="n">
-        <v>237500</v>
+        <v>197500</v>
       </c>
       <c r="Q1087" t="inlineStr">
         <is>
@@ -87346,7 +87346,7 @@
         </is>
       </c>
       <c r="S1087" t="n">
-        <v>594</v>
+        <v>494</v>
       </c>
       <c r="T1087" t="n">
         <v>400</v>
@@ -87367,7 +87367,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E1088" t="n">
         <v>4</v>
@@ -87400,20 +87400,20 @@
       </c>
       <c r="L1088" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1088" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N1088" t="n">
-        <v>205000</v>
+        <v>260000</v>
       </c>
       <c r="O1088" t="n">
-        <v>210000</v>
+        <v>270000</v>
       </c>
       <c r="P1088" t="n">
-        <v>207500</v>
+        <v>265000</v>
       </c>
       <c r="Q1088" t="inlineStr">
         <is>
@@ -87422,11 +87422,11 @@
       </c>
       <c r="R1088" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1088" t="n">
-        <v>519</v>
+        <v>662</v>
       </c>
       <c r="T1088" t="n">
         <v>400</v>
@@ -87447,7 +87447,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E1089" t="n">
         <v>4</v>
@@ -87480,20 +87480,20 @@
       </c>
       <c r="L1089" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1089" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N1089" t="n">
-        <v>175000</v>
+        <v>230000</v>
       </c>
       <c r="O1089" t="n">
-        <v>180000</v>
+        <v>240000</v>
       </c>
       <c r="P1089" t="n">
-        <v>177500</v>
+        <v>235000</v>
       </c>
       <c r="Q1089" t="inlineStr">
         <is>
@@ -87502,11 +87502,11 @@
       </c>
       <c r="R1089" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1089" t="n">
-        <v>444</v>
+        <v>588</v>
       </c>
       <c r="T1089" t="n">
         <v>400</v>
@@ -87527,7 +87527,7 @@
         </is>
       </c>
       <c r="D1090" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E1090" t="n">
         <v>4</v>
@@ -87555,25 +87555,25 @@
       </c>
       <c r="K1090" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1090" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1090" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N1090" t="n">
-        <v>255000</v>
+        <v>200000</v>
       </c>
       <c r="O1090" t="n">
-        <v>260000</v>
+        <v>210000</v>
       </c>
       <c r="P1090" t="n">
-        <v>257500</v>
+        <v>205000</v>
       </c>
       <c r="Q1090" t="inlineStr">
         <is>
@@ -87582,11 +87582,11 @@
       </c>
       <c r="R1090" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1090" t="n">
-        <v>644</v>
+        <v>512</v>
       </c>
       <c r="T1090" t="n">
         <v>400</v>
@@ -87607,7 +87607,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E1091" t="n">
         <v>4</v>
@@ -87635,25 +87635,25 @@
       </c>
       <c r="K1091" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1091" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1091" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N1091" t="n">
-        <v>205000</v>
+        <v>200000</v>
       </c>
       <c r="O1091" t="n">
         <v>210000</v>
       </c>
       <c r="P1091" t="n">
-        <v>207500</v>
+        <v>205000</v>
       </c>
       <c r="Q1091" t="inlineStr">
         <is>
@@ -87662,11 +87662,11 @@
       </c>
       <c r="R1091" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1091" t="n">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="T1091" t="n">
         <v>400</v>
@@ -87687,7 +87687,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44466</v>
+        <v>44425</v>
       </c>
       <c r="E1092" t="n">
         <v>4</v>
@@ -87715,25 +87715,25 @@
       </c>
       <c r="K1092" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1092" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1092" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N1092" t="n">
-        <v>275000</v>
+        <v>180000</v>
       </c>
       <c r="O1092" t="n">
-        <v>280000</v>
+        <v>190000</v>
       </c>
       <c r="P1092" t="n">
-        <v>277500</v>
+        <v>185000</v>
       </c>
       <c r="Q1092" t="inlineStr">
         <is>
@@ -87742,11 +87742,11 @@
       </c>
       <c r="R1092" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1092" t="n">
-        <v>694</v>
+        <v>462</v>
       </c>
       <c r="T1092" t="n">
         <v>400</v>
@@ -87767,7 +87767,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E1093" t="n">
         <v>4</v>
@@ -87800,20 +87800,20 @@
       </c>
       <c r="L1093" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1093" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N1093" t="n">
-        <v>255000</v>
+        <v>235000</v>
       </c>
       <c r="O1093" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="P1093" t="n">
-        <v>257500</v>
+        <v>237500</v>
       </c>
       <c r="Q1093" t="inlineStr">
         <is>
@@ -87826,7 +87826,7 @@
         </is>
       </c>
       <c r="S1093" t="n">
-        <v>644</v>
+        <v>594</v>
       </c>
       <c r="T1093" t="n">
         <v>400</v>
@@ -87847,7 +87847,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E1094" t="n">
         <v>4</v>
@@ -87880,20 +87880,20 @@
       </c>
       <c r="L1094" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1094" t="n">
         <v>20</v>
       </c>
       <c r="N1094" t="n">
-        <v>225000</v>
+        <v>205000</v>
       </c>
       <c r="O1094" t="n">
-        <v>230000</v>
+        <v>210000</v>
       </c>
       <c r="P1094" t="n">
-        <v>227500</v>
+        <v>207500</v>
       </c>
       <c r="Q1094" t="inlineStr">
         <is>
@@ -87906,7 +87906,7 @@
         </is>
       </c>
       <c r="S1094" t="n">
-        <v>569</v>
+        <v>519</v>
       </c>
       <c r="T1094" t="n">
         <v>400</v>
@@ -87927,7 +87927,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E1095" t="n">
         <v>4</v>
@@ -87955,25 +87955,25 @@
       </c>
       <c r="K1095" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1095" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1095" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N1095" t="n">
-        <v>275000</v>
+        <v>175000</v>
       </c>
       <c r="O1095" t="n">
-        <v>280000</v>
+        <v>180000</v>
       </c>
       <c r="P1095" t="n">
-        <v>277500</v>
+        <v>177500</v>
       </c>
       <c r="Q1095" t="inlineStr">
         <is>
@@ -87986,7 +87986,7 @@
         </is>
       </c>
       <c r="S1095" t="n">
-        <v>694</v>
+        <v>444</v>
       </c>
       <c r="T1095" t="n">
         <v>400</v>
@@ -88007,7 +88007,7 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E1096" t="n">
         <v>4</v>
@@ -88044,16 +88044,16 @@
         </is>
       </c>
       <c r="M1096" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N1096" t="n">
-        <v>245000</v>
+        <v>255000</v>
       </c>
       <c r="O1096" t="n">
-        <v>250000</v>
+        <v>260000</v>
       </c>
       <c r="P1096" t="n">
-        <v>247500</v>
+        <v>257500</v>
       </c>
       <c r="Q1096" t="inlineStr">
         <is>
@@ -88066,7 +88066,7 @@
         </is>
       </c>
       <c r="S1096" t="n">
-        <v>619</v>
+        <v>644</v>
       </c>
       <c r="T1096" t="n">
         <v>400</v>
@@ -88087,7 +88087,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E1097" t="n">
         <v>4</v>
@@ -88124,16 +88124,16 @@
         </is>
       </c>
       <c r="M1097" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1097" t="n">
-        <v>215000</v>
+        <v>205000</v>
       </c>
       <c r="O1097" t="n">
-        <v>220000</v>
+        <v>210000</v>
       </c>
       <c r="P1097" t="n">
-        <v>217500</v>
+        <v>207500</v>
       </c>
       <c r="Q1097" t="inlineStr">
         <is>
@@ -88146,7 +88146,7 @@
         </is>
       </c>
       <c r="S1097" t="n">
-        <v>544</v>
+        <v>519</v>
       </c>
       <c r="T1097" t="n">
         <v>400</v>
@@ -88167,7 +88167,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1098" t="n">
         <v>4</v>
@@ -88204,16 +88204,16 @@
         </is>
       </c>
       <c r="M1098" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N1098" t="n">
-        <v>325000</v>
+        <v>275000</v>
       </c>
       <c r="O1098" t="n">
-        <v>330000</v>
+        <v>280000</v>
       </c>
       <c r="P1098" t="n">
-        <v>327500</v>
+        <v>277500</v>
       </c>
       <c r="Q1098" t="inlineStr">
         <is>
@@ -88226,7 +88226,7 @@
         </is>
       </c>
       <c r="S1098" t="n">
-        <v>819</v>
+        <v>694</v>
       </c>
       <c r="T1098" t="n">
         <v>400</v>
@@ -88247,7 +88247,7 @@
         </is>
       </c>
       <c r="D1099" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1099" t="n">
         <v>4</v>
@@ -88284,16 +88284,16 @@
         </is>
       </c>
       <c r="M1099" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N1099" t="n">
-        <v>295000</v>
+        <v>255000</v>
       </c>
       <c r="O1099" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="P1099" t="n">
-        <v>297500</v>
+        <v>257500</v>
       </c>
       <c r="Q1099" t="inlineStr">
         <is>
@@ -88306,7 +88306,7 @@
         </is>
       </c>
       <c r="S1099" t="n">
-        <v>744</v>
+        <v>644</v>
       </c>
       <c r="T1099" t="n">
         <v>400</v>
@@ -88327,7 +88327,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1100" t="n">
         <v>4</v>
@@ -88355,25 +88355,25 @@
       </c>
       <c r="K1100" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1100" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1100" t="n">
         <v>20</v>
       </c>
       <c r="N1100" t="n">
-        <v>265000</v>
+        <v>225000</v>
       </c>
       <c r="O1100" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="P1100" t="n">
-        <v>267500</v>
+        <v>227500</v>
       </c>
       <c r="Q1100" t="inlineStr">
         <is>
@@ -88386,7 +88386,7 @@
         </is>
       </c>
       <c r="S1100" t="n">
-        <v>669</v>
+        <v>569</v>
       </c>
       <c r="T1100" t="n">
         <v>400</v>
@@ -88407,7 +88407,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1101" t="n">
         <v>4</v>
@@ -88440,20 +88440,20 @@
       </c>
       <c r="L1101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1101" t="n">
         <v>16</v>
       </c>
       <c r="N1101" t="n">
-        <v>235000</v>
+        <v>275000</v>
       </c>
       <c r="O1101" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="P1101" t="n">
-        <v>237500</v>
+        <v>277500</v>
       </c>
       <c r="Q1101" t="inlineStr">
         <is>
@@ -88466,7 +88466,7 @@
         </is>
       </c>
       <c r="S1101" t="n">
-        <v>594</v>
+        <v>694</v>
       </c>
       <c r="T1101" t="n">
         <v>400</v>
@@ -88487,7 +88487,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1102" t="n">
         <v>4</v>
@@ -88520,20 +88520,20 @@
       </c>
       <c r="L1102" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1102" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N1102" t="n">
-        <v>205000</v>
+        <v>245000</v>
       </c>
       <c r="O1102" t="n">
-        <v>210000</v>
+        <v>250000</v>
       </c>
       <c r="P1102" t="n">
-        <v>207500</v>
+        <v>247500</v>
       </c>
       <c r="Q1102" t="inlineStr">
         <is>
@@ -88546,7 +88546,7 @@
         </is>
       </c>
       <c r="S1102" t="n">
-        <v>519</v>
+        <v>619</v>
       </c>
       <c r="T1102" t="n">
         <v>400</v>
@@ -88567,7 +88567,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E1103" t="n">
         <v>4</v>
@@ -88600,20 +88600,20 @@
       </c>
       <c r="L1103" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1103" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N1103" t="n">
-        <v>305000</v>
+        <v>215000</v>
       </c>
       <c r="O1103" t="n">
-        <v>310000</v>
+        <v>220000</v>
       </c>
       <c r="P1103" t="n">
-        <v>307500</v>
+        <v>217500</v>
       </c>
       <c r="Q1103" t="inlineStr">
         <is>
@@ -88626,7 +88626,7 @@
         </is>
       </c>
       <c r="S1103" t="n">
-        <v>769</v>
+        <v>544</v>
       </c>
       <c r="T1103" t="n">
         <v>400</v>
@@ -88647,7 +88647,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1104" t="n">
         <v>4</v>
@@ -88675,25 +88675,25 @@
       </c>
       <c r="K1104" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1104" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N1104" t="n">
-        <v>285000</v>
+        <v>325000</v>
       </c>
       <c r="O1104" t="n">
-        <v>290000</v>
+        <v>330000</v>
       </c>
       <c r="P1104" t="n">
-        <v>287500</v>
+        <v>327500</v>
       </c>
       <c r="Q1104" t="inlineStr">
         <is>
@@ -88706,7 +88706,7 @@
         </is>
       </c>
       <c r="S1104" t="n">
-        <v>719</v>
+        <v>819</v>
       </c>
       <c r="T1104" t="n">
         <v>400</v>
@@ -88727,7 +88727,7 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1105" t="n">
         <v>4</v>
@@ -88755,7 +88755,7 @@
       </c>
       <c r="K1105" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1105" t="inlineStr">
@@ -88764,16 +88764,16 @@
         </is>
       </c>
       <c r="M1105" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="N1105" t="n">
-        <v>285000</v>
+        <v>295000</v>
       </c>
       <c r="O1105" t="n">
-        <v>290000</v>
+        <v>300000</v>
       </c>
       <c r="P1105" t="n">
-        <v>287500</v>
+        <v>297500</v>
       </c>
       <c r="Q1105" t="inlineStr">
         <is>
@@ -88786,7 +88786,7 @@
         </is>
       </c>
       <c r="S1105" t="n">
-        <v>719</v>
+        <v>744</v>
       </c>
       <c r="T1105" t="n">
         <v>400</v>
@@ -88807,7 +88807,7 @@
         </is>
       </c>
       <c r="D1106" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1106" t="n">
         <v>4</v>
@@ -88835,25 +88835,25 @@
       </c>
       <c r="K1106" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1106" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1106" t="n">
         <v>20</v>
       </c>
       <c r="N1106" t="n">
-        <v>255000</v>
+        <v>265000</v>
       </c>
       <c r="O1106" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="P1106" t="n">
-        <v>257500</v>
+        <v>267500</v>
       </c>
       <c r="Q1106" t="inlineStr">
         <is>
@@ -88866,7 +88866,7 @@
         </is>
       </c>
       <c r="S1106" t="n">
-        <v>644</v>
+        <v>669</v>
       </c>
       <c r="T1106" t="n">
         <v>400</v>
@@ -88887,7 +88887,7 @@
         </is>
       </c>
       <c r="D1107" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E1107" t="n">
         <v>4</v>
@@ -88915,25 +88915,25 @@
       </c>
       <c r="K1107" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1107" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1107" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1107" t="n">
-        <v>275000</v>
+        <v>235000</v>
       </c>
       <c r="O1107" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="P1107" t="n">
-        <v>277500</v>
+        <v>237500</v>
       </c>
       <c r="Q1107" t="inlineStr">
         <is>
@@ -88942,11 +88942,11 @@
       </c>
       <c r="R1107" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1107" t="n">
-        <v>694</v>
+        <v>594</v>
       </c>
       <c r="T1107" t="n">
         <v>400</v>
@@ -88967,7 +88967,7 @@
         </is>
       </c>
       <c r="D1108" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E1108" t="n">
         <v>4</v>
@@ -88995,25 +88995,25 @@
       </c>
       <c r="K1108" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1108" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N1108" t="n">
-        <v>255000</v>
+        <v>205000</v>
       </c>
       <c r="O1108" t="n">
-        <v>260000</v>
+        <v>210000</v>
       </c>
       <c r="P1108" t="n">
-        <v>257500</v>
+        <v>207500</v>
       </c>
       <c r="Q1108" t="inlineStr">
         <is>
@@ -89022,11 +89022,11 @@
       </c>
       <c r="R1108" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1108" t="n">
-        <v>644</v>
+        <v>519</v>
       </c>
       <c r="T1108" t="n">
         <v>400</v>
@@ -89047,7 +89047,7 @@
         </is>
       </c>
       <c r="D1109" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1109" t="n">
         <v>4</v>
@@ -89075,25 +89075,25 @@
       </c>
       <c r="K1109" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1109" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1109" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N1109" t="n">
-        <v>235000</v>
+        <v>305000</v>
       </c>
       <c r="O1109" t="n">
-        <v>240000</v>
+        <v>310000</v>
       </c>
       <c r="P1109" t="n">
-        <v>237500</v>
+        <v>307500</v>
       </c>
       <c r="Q1109" t="inlineStr">
         <is>
@@ -89102,11 +89102,11 @@
       </c>
       <c r="R1109" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1109" t="n">
-        <v>594</v>
+        <v>769</v>
       </c>
       <c r="T1109" t="n">
         <v>400</v>
@@ -89127,7 +89127,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1110" t="n">
         <v>4</v>
@@ -89160,20 +89160,20 @@
       </c>
       <c r="L1110" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1110" t="n">
         <v>20</v>
       </c>
       <c r="N1110" t="n">
-        <v>255000</v>
+        <v>285000</v>
       </c>
       <c r="O1110" t="n">
-        <v>260000</v>
+        <v>290000</v>
       </c>
       <c r="P1110" t="n">
-        <v>257500</v>
+        <v>287500</v>
       </c>
       <c r="Q1110" t="inlineStr">
         <is>
@@ -89182,11 +89182,11 @@
       </c>
       <c r="R1110" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1110" t="n">
-        <v>644</v>
+        <v>719</v>
       </c>
       <c r="T1110" t="n">
         <v>400</v>
@@ -89207,7 +89207,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1111" t="n">
         <v>4</v>
@@ -89235,7 +89235,7 @@
       </c>
       <c r="K1111" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1111" t="inlineStr">
@@ -89244,16 +89244,16 @@
         </is>
       </c>
       <c r="M1111" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N1111" t="n">
-        <v>235000</v>
+        <v>285000</v>
       </c>
       <c r="O1111" t="n">
-        <v>240000</v>
+        <v>290000</v>
       </c>
       <c r="P1111" t="n">
-        <v>237500</v>
+        <v>287500</v>
       </c>
       <c r="Q1111" t="inlineStr">
         <is>
@@ -89262,11 +89262,11 @@
       </c>
       <c r="R1111" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1111" t="n">
-        <v>594</v>
+        <v>719</v>
       </c>
       <c r="T1111" t="n">
         <v>400</v>
@@ -89287,7 +89287,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1112" t="n">
         <v>4</v>
@@ -89315,7 +89315,7 @@
       </c>
       <c r="K1112" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1112" t="inlineStr">
@@ -89324,16 +89324,16 @@
         </is>
       </c>
       <c r="M1112" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1112" t="n">
-        <v>215000</v>
+        <v>255000</v>
       </c>
       <c r="O1112" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="P1112" t="n">
-        <v>217500</v>
+        <v>257500</v>
       </c>
       <c r="Q1112" t="inlineStr">
         <is>
@@ -89342,11 +89342,11 @@
       </c>
       <c r="R1112" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1112" t="n">
-        <v>544</v>
+        <v>644</v>
       </c>
       <c r="T1112" t="n">
         <v>400</v>
@@ -89395,25 +89395,25 @@
       </c>
       <c r="K1113" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1113" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1113" t="n">
         <v>20</v>
       </c>
       <c r="N1113" t="n">
-        <v>205000</v>
+        <v>275000</v>
       </c>
       <c r="O1113" t="n">
-        <v>210000</v>
+        <v>280000</v>
       </c>
       <c r="P1113" t="n">
-        <v>207500</v>
+        <v>277500</v>
       </c>
       <c r="Q1113" t="inlineStr">
         <is>
@@ -89422,11 +89422,11 @@
       </c>
       <c r="R1113" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1113" t="n">
-        <v>519</v>
+        <v>694</v>
       </c>
       <c r="T1113" t="n">
         <v>400</v>
@@ -89475,25 +89475,25 @@
       </c>
       <c r="K1114" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1114" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1114" t="n">
         <v>20</v>
       </c>
       <c r="N1114" t="n">
-        <v>185000</v>
+        <v>255000</v>
       </c>
       <c r="O1114" t="n">
-        <v>190000</v>
+        <v>260000</v>
       </c>
       <c r="P1114" t="n">
-        <v>187500</v>
+        <v>257500</v>
       </c>
       <c r="Q1114" t="inlineStr">
         <is>
@@ -89502,11 +89502,11 @@
       </c>
       <c r="R1114" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1114" t="n">
-        <v>469</v>
+        <v>644</v>
       </c>
       <c r="T1114" t="n">
         <v>400</v>
@@ -89555,25 +89555,25 @@
       </c>
       <c r="K1115" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1115" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1115" t="n">
         <v>16</v>
       </c>
       <c r="N1115" t="n">
-        <v>255000</v>
+        <v>235000</v>
       </c>
       <c r="O1115" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="P1115" t="n">
-        <v>257500</v>
+        <v>237500</v>
       </c>
       <c r="Q1115" t="inlineStr">
         <is>
@@ -89586,7 +89586,7 @@
         </is>
       </c>
       <c r="S1115" t="n">
-        <v>644</v>
+        <v>594</v>
       </c>
       <c r="T1115" t="n">
         <v>400</v>
@@ -89607,7 +89607,7 @@
         </is>
       </c>
       <c r="D1116" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E1116" t="n">
         <v>4</v>
@@ -89635,7 +89635,7 @@
       </c>
       <c r="K1116" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1116" t="inlineStr">
@@ -89647,13 +89647,13 @@
         <v>20</v>
       </c>
       <c r="N1116" t="n">
-        <v>325000</v>
+        <v>255000</v>
       </c>
       <c r="O1116" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="P1116" t="n">
-        <v>327500</v>
+        <v>257500</v>
       </c>
       <c r="Q1116" t="inlineStr">
         <is>
@@ -89666,7 +89666,7 @@
         </is>
       </c>
       <c r="S1116" t="n">
-        <v>819</v>
+        <v>644</v>
       </c>
       <c r="T1116" t="n">
         <v>400</v>
@@ -89687,7 +89687,7 @@
         </is>
       </c>
       <c r="D1117" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E1117" t="n">
         <v>4</v>
@@ -89715,7 +89715,7 @@
       </c>
       <c r="K1117" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1117" t="inlineStr">
@@ -89724,16 +89724,16 @@
         </is>
       </c>
       <c r="M1117" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N1117" t="n">
-        <v>295000</v>
+        <v>235000</v>
       </c>
       <c r="O1117" t="n">
-        <v>300000</v>
+        <v>240000</v>
       </c>
       <c r="P1117" t="n">
-        <v>297500</v>
+        <v>237500</v>
       </c>
       <c r="Q1117" t="inlineStr">
         <is>
@@ -89746,7 +89746,7 @@
         </is>
       </c>
       <c r="S1117" t="n">
-        <v>744</v>
+        <v>594</v>
       </c>
       <c r="T1117" t="n">
         <v>400</v>
@@ -89767,7 +89767,7 @@
         </is>
       </c>
       <c r="D1118" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E1118" t="n">
         <v>4</v>
@@ -89800,20 +89800,20 @@
       </c>
       <c r="L1118" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1118" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N1118" t="n">
-        <v>295000</v>
+        <v>215000</v>
       </c>
       <c r="O1118" t="n">
-        <v>300000</v>
+        <v>220000</v>
       </c>
       <c r="P1118" t="n">
-        <v>297500</v>
+        <v>217500</v>
       </c>
       <c r="Q1118" t="inlineStr">
         <is>
@@ -89822,11 +89822,11 @@
       </c>
       <c r="R1118" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1118" t="n">
-        <v>744</v>
+        <v>544</v>
       </c>
       <c r="T1118" t="n">
         <v>400</v>
@@ -89847,7 +89847,7 @@
         </is>
       </c>
       <c r="D1119" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E1119" t="n">
         <v>4</v>
@@ -89875,7 +89875,7 @@
       </c>
       <c r="K1119" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1119" t="inlineStr">
@@ -89884,16 +89884,16 @@
         </is>
       </c>
       <c r="M1119" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N1119" t="n">
-        <v>255000</v>
+        <v>205000</v>
       </c>
       <c r="O1119" t="n">
-        <v>260000</v>
+        <v>210000</v>
       </c>
       <c r="P1119" t="n">
-        <v>257500</v>
+        <v>207500</v>
       </c>
       <c r="Q1119" t="inlineStr">
         <is>
@@ -89906,7 +89906,7 @@
         </is>
       </c>
       <c r="S1119" t="n">
-        <v>644</v>
+        <v>519</v>
       </c>
       <c r="T1119" t="n">
         <v>400</v>
@@ -89927,7 +89927,7 @@
         </is>
       </c>
       <c r="D1120" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E1120" t="n">
         <v>4</v>
@@ -89955,7 +89955,7 @@
       </c>
       <c r="K1120" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1120" t="inlineStr">
@@ -89964,16 +89964,16 @@
         </is>
       </c>
       <c r="M1120" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1120" t="n">
-        <v>225000</v>
+        <v>185000</v>
       </c>
       <c r="O1120" t="n">
-        <v>230000</v>
+        <v>190000</v>
       </c>
       <c r="P1120" t="n">
-        <v>227500</v>
+        <v>187500</v>
       </c>
       <c r="Q1120" t="inlineStr">
         <is>
@@ -89986,7 +89986,7 @@
         </is>
       </c>
       <c r="S1120" t="n">
-        <v>569</v>
+        <v>469</v>
       </c>
       <c r="T1120" t="n">
         <v>400</v>
@@ -90007,7 +90007,7 @@
         </is>
       </c>
       <c r="D1121" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E1121" t="n">
         <v>4</v>
@@ -90035,25 +90035,25 @@
       </c>
       <c r="K1121" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1121" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1121" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N1121" t="n">
-        <v>295000</v>
+        <v>255000</v>
       </c>
       <c r="O1121" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
       <c r="P1121" t="n">
-        <v>297500</v>
+        <v>257500</v>
       </c>
       <c r="Q1121" t="inlineStr">
         <is>
@@ -90062,11 +90062,11 @@
       </c>
       <c r="R1121" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1121" t="n">
-        <v>744</v>
+        <v>644</v>
       </c>
       <c r="T1121" t="n">
         <v>400</v>
@@ -90115,25 +90115,25 @@
       </c>
       <c r="K1122" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1122" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N1122" t="n">
-        <v>265000</v>
+        <v>325000</v>
       </c>
       <c r="O1122" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="P1122" t="n">
-        <v>267500</v>
+        <v>327500</v>
       </c>
       <c r="Q1122" t="inlineStr">
         <is>
@@ -90142,11 +90142,11 @@
       </c>
       <c r="R1122" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1122" t="n">
-        <v>669</v>
+        <v>819</v>
       </c>
       <c r="T1122" t="n">
         <v>400</v>
@@ -90195,25 +90195,25 @@
       </c>
       <c r="K1123" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1123" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1123" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N1123" t="n">
-        <v>235000</v>
+        <v>295000</v>
       </c>
       <c r="O1123" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="P1123" t="n">
-        <v>237500</v>
+        <v>297500</v>
       </c>
       <c r="Q1123" t="inlineStr">
         <is>
@@ -90222,11 +90222,11 @@
       </c>
       <c r="R1123" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1123" t="n">
-        <v>594</v>
+        <v>744</v>
       </c>
       <c r="T1123" t="n">
         <v>400</v>
@@ -90247,7 +90247,7 @@
         </is>
       </c>
       <c r="D1124" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1124" t="n">
         <v>4</v>
@@ -90275,7 +90275,7 @@
       </c>
       <c r="K1124" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1124" t="inlineStr">
@@ -90284,16 +90284,16 @@
         </is>
       </c>
       <c r="M1124" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N1124" t="n">
-        <v>235000</v>
+        <v>295000</v>
       </c>
       <c r="O1124" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="P1124" t="n">
-        <v>237500</v>
+        <v>297500</v>
       </c>
       <c r="Q1124" t="inlineStr">
         <is>
@@ -90306,7 +90306,7 @@
         </is>
       </c>
       <c r="S1124" t="n">
-        <v>594</v>
+        <v>744</v>
       </c>
       <c r="T1124" t="n">
         <v>400</v>
@@ -90327,7 +90327,7 @@
         </is>
       </c>
       <c r="D1125" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1125" t="n">
         <v>4</v>
@@ -90355,7 +90355,7 @@
       </c>
       <c r="K1125" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1125" t="inlineStr">
@@ -90364,16 +90364,16 @@
         </is>
       </c>
       <c r="M1125" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N1125" t="n">
-        <v>205000</v>
+        <v>255000</v>
       </c>
       <c r="O1125" t="n">
-        <v>210000</v>
+        <v>260000</v>
       </c>
       <c r="P1125" t="n">
-        <v>207500</v>
+        <v>257500</v>
       </c>
       <c r="Q1125" t="inlineStr">
         <is>
@@ -90386,7 +90386,7 @@
         </is>
       </c>
       <c r="S1125" t="n">
-        <v>519</v>
+        <v>644</v>
       </c>
       <c r="T1125" t="n">
         <v>400</v>
@@ -90407,7 +90407,7 @@
         </is>
       </c>
       <c r="D1126" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1126" t="n">
         <v>4</v>
@@ -90435,7 +90435,7 @@
       </c>
       <c r="K1126" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1126" t="inlineStr">
@@ -90444,16 +90444,16 @@
         </is>
       </c>
       <c r="M1126" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1126" t="n">
-        <v>175000</v>
+        <v>225000</v>
       </c>
       <c r="O1126" t="n">
-        <v>180000</v>
+        <v>230000</v>
       </c>
       <c r="P1126" t="n">
-        <v>177500</v>
+        <v>227500</v>
       </c>
       <c r="Q1126" t="inlineStr">
         <is>
@@ -90466,7 +90466,7 @@
         </is>
       </c>
       <c r="S1126" t="n">
-        <v>444</v>
+        <v>569</v>
       </c>
       <c r="T1126" t="n">
         <v>400</v>
@@ -90487,7 +90487,7 @@
         </is>
       </c>
       <c r="D1127" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1127" t="n">
         <v>4</v>
@@ -90515,7 +90515,7 @@
       </c>
       <c r="K1127" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1127" t="inlineStr">
@@ -90524,16 +90524,16 @@
         </is>
       </c>
       <c r="M1127" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N1127" t="n">
-        <v>225000</v>
+        <v>295000</v>
       </c>
       <c r="O1127" t="n">
-        <v>230000</v>
+        <v>300000</v>
       </c>
       <c r="P1127" t="n">
-        <v>227500</v>
+        <v>297500</v>
       </c>
       <c r="Q1127" t="inlineStr">
         <is>
@@ -90546,7 +90546,7 @@
         </is>
       </c>
       <c r="S1127" t="n">
-        <v>569</v>
+        <v>744</v>
       </c>
       <c r="T1127" t="n">
         <v>400</v>
@@ -90567,7 +90567,7 @@
         </is>
       </c>
       <c r="D1128" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1128" t="n">
         <v>4</v>
@@ -90595,7 +90595,7 @@
       </c>
       <c r="K1128" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1128" t="inlineStr">
@@ -90604,16 +90604,16 @@
         </is>
       </c>
       <c r="M1128" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N1128" t="n">
-        <v>205000</v>
+        <v>265000</v>
       </c>
       <c r="O1128" t="n">
-        <v>210000</v>
+        <v>270000</v>
       </c>
       <c r="P1128" t="n">
-        <v>207500</v>
+        <v>267500</v>
       </c>
       <c r="Q1128" t="inlineStr">
         <is>
@@ -90626,7 +90626,7 @@
         </is>
       </c>
       <c r="S1128" t="n">
-        <v>519</v>
+        <v>669</v>
       </c>
       <c r="T1128" t="n">
         <v>400</v>
@@ -90647,7 +90647,7 @@
         </is>
       </c>
       <c r="D1129" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1129" t="n">
         <v>4</v>
@@ -90675,7 +90675,7 @@
       </c>
       <c r="K1129" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1129" t="inlineStr">
@@ -90687,13 +90687,13 @@
         <v>16</v>
       </c>
       <c r="N1129" t="n">
-        <v>175000</v>
+        <v>235000</v>
       </c>
       <c r="O1129" t="n">
-        <v>180000</v>
+        <v>240000</v>
       </c>
       <c r="P1129" t="n">
-        <v>177500</v>
+        <v>237500</v>
       </c>
       <c r="Q1129" t="inlineStr">
         <is>
@@ -90706,7 +90706,7 @@
         </is>
       </c>
       <c r="S1129" t="n">
-        <v>444</v>
+        <v>594</v>
       </c>
       <c r="T1129" t="n">
         <v>400</v>
@@ -90755,7 +90755,7 @@
       </c>
       <c r="K1130" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1130" t="inlineStr">
@@ -90764,16 +90764,16 @@
         </is>
       </c>
       <c r="M1130" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1130" t="n">
-        <v>205000</v>
+        <v>235000</v>
       </c>
       <c r="O1130" t="n">
-        <v>210000</v>
+        <v>240000</v>
       </c>
       <c r="P1130" t="n">
-        <v>207500</v>
+        <v>237500</v>
       </c>
       <c r="Q1130" t="inlineStr">
         <is>
@@ -90786,7 +90786,7 @@
         </is>
       </c>
       <c r="S1130" t="n">
-        <v>519</v>
+        <v>594</v>
       </c>
       <c r="T1130" t="n">
         <v>400</v>
@@ -90835,7 +90835,7 @@
       </c>
       <c r="K1131" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1131" t="inlineStr">
@@ -90844,16 +90844,16 @@
         </is>
       </c>
       <c r="M1131" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1131" t="n">
-        <v>185000</v>
+        <v>205000</v>
       </c>
       <c r="O1131" t="n">
-        <v>190000</v>
+        <v>210000</v>
       </c>
       <c r="P1131" t="n">
-        <v>187500</v>
+        <v>207500</v>
       </c>
       <c r="Q1131" t="inlineStr">
         <is>
@@ -90866,7 +90866,7 @@
         </is>
       </c>
       <c r="S1131" t="n">
-        <v>469</v>
+        <v>519</v>
       </c>
       <c r="T1131" t="n">
         <v>400</v>
@@ -90915,7 +90915,7 @@
       </c>
       <c r="K1132" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1132" t="inlineStr">
@@ -90924,16 +90924,16 @@
         </is>
       </c>
       <c r="M1132" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N1132" t="n">
-        <v>155000</v>
+        <v>175000</v>
       </c>
       <c r="O1132" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P1132" t="n">
-        <v>157500</v>
+        <v>177500</v>
       </c>
       <c r="Q1132" t="inlineStr">
         <is>
@@ -90946,7 +90946,7 @@
         </is>
       </c>
       <c r="S1132" t="n">
-        <v>394</v>
+        <v>444</v>
       </c>
       <c r="T1132" t="n">
         <v>400</v>
@@ -90995,7 +90995,7 @@
       </c>
       <c r="K1133" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1133" t="inlineStr">
@@ -91007,13 +91007,13 @@
         <v>16</v>
       </c>
       <c r="N1133" t="n">
-        <v>235000</v>
+        <v>225000</v>
       </c>
       <c r="O1133" t="n">
-        <v>240000</v>
+        <v>230000</v>
       </c>
       <c r="P1133" t="n">
-        <v>237500</v>
+        <v>227500</v>
       </c>
       <c r="Q1133" t="inlineStr">
         <is>
@@ -91026,7 +91026,7 @@
         </is>
       </c>
       <c r="S1133" t="n">
-        <v>594</v>
+        <v>569</v>
       </c>
       <c r="T1133" t="n">
         <v>400</v>
@@ -91075,7 +91075,7 @@
       </c>
       <c r="K1134" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1134" t="inlineStr">
@@ -91084,16 +91084,16 @@
         </is>
       </c>
       <c r="M1134" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N1134" t="n">
-        <v>215000</v>
+        <v>205000</v>
       </c>
       <c r="O1134" t="n">
-        <v>220000</v>
+        <v>210000</v>
       </c>
       <c r="P1134" t="n">
-        <v>217500</v>
+        <v>207500</v>
       </c>
       <c r="Q1134" t="inlineStr">
         <is>
@@ -91106,7 +91106,7 @@
         </is>
       </c>
       <c r="S1134" t="n">
-        <v>544</v>
+        <v>519</v>
       </c>
       <c r="T1134" t="n">
         <v>400</v>
@@ -91127,7 +91127,7 @@
         </is>
       </c>
       <c r="D1135" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1135" t="n">
         <v>4</v>
@@ -91155,25 +91155,25 @@
       </c>
       <c r="K1135" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1135" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1135" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1135" t="n">
-        <v>285000</v>
+        <v>175000</v>
       </c>
       <c r="O1135" t="n">
-        <v>290000</v>
+        <v>180000</v>
       </c>
       <c r="P1135" t="n">
-        <v>287500</v>
+        <v>177500</v>
       </c>
       <c r="Q1135" t="inlineStr">
         <is>
@@ -91182,11 +91182,11 @@
       </c>
       <c r="R1135" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1135" t="n">
-        <v>719</v>
+        <v>444</v>
       </c>
       <c r="T1135" t="n">
         <v>400</v>
@@ -91207,7 +91207,7 @@
         </is>
       </c>
       <c r="D1136" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1136" t="n">
         <v>4</v>
@@ -91235,25 +91235,25 @@
       </c>
       <c r="K1136" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1136" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1136" t="n">
-        <v>245000</v>
+        <v>205000</v>
       </c>
       <c r="O1136" t="n">
-        <v>250000</v>
+        <v>210000</v>
       </c>
       <c r="P1136" t="n">
-        <v>247500</v>
+        <v>207500</v>
       </c>
       <c r="Q1136" t="inlineStr">
         <is>
@@ -91262,11 +91262,11 @@
       </c>
       <c r="R1136" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1136" t="n">
-        <v>619</v>
+        <v>519</v>
       </c>
       <c r="T1136" t="n">
         <v>400</v>
@@ -91287,7 +91287,7 @@
         </is>
       </c>
       <c r="D1137" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1137" t="n">
         <v>4</v>
@@ -91315,25 +91315,25 @@
       </c>
       <c r="K1137" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1137" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1137" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1137" t="n">
-        <v>255000</v>
+        <v>185000</v>
       </c>
       <c r="O1137" t="n">
-        <v>260000</v>
+        <v>190000</v>
       </c>
       <c r="P1137" t="n">
-        <v>257500</v>
+        <v>187500</v>
       </c>
       <c r="Q1137" t="inlineStr">
         <is>
@@ -91342,11 +91342,11 @@
       </c>
       <c r="R1137" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1137" t="n">
-        <v>644</v>
+        <v>469</v>
       </c>
       <c r="T1137" t="n">
         <v>400</v>
@@ -91367,7 +91367,7 @@
         </is>
       </c>
       <c r="D1138" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1138" t="n">
         <v>4</v>
@@ -91395,25 +91395,25 @@
       </c>
       <c r="K1138" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1138" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1138" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N1138" t="n">
-        <v>235000</v>
+        <v>155000</v>
       </c>
       <c r="O1138" t="n">
-        <v>240000</v>
+        <v>160000</v>
       </c>
       <c r="P1138" t="n">
-        <v>237500</v>
+        <v>157500</v>
       </c>
       <c r="Q1138" t="inlineStr">
         <is>
@@ -91422,11 +91422,11 @@
       </c>
       <c r="R1138" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1138" t="n">
-        <v>594</v>
+        <v>394</v>
       </c>
       <c r="T1138" t="n">
         <v>400</v>
@@ -91447,7 +91447,7 @@
         </is>
       </c>
       <c r="D1139" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1139" t="n">
         <v>4</v>
@@ -91475,25 +91475,25 @@
       </c>
       <c r="K1139" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1139" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1139" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1139" t="n">
-        <v>195000</v>
+        <v>235000</v>
       </c>
       <c r="O1139" t="n">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="P1139" t="n">
-        <v>197500</v>
+        <v>237500</v>
       </c>
       <c r="Q1139" t="inlineStr">
         <is>
@@ -91502,11 +91502,11 @@
       </c>
       <c r="R1139" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1139" t="n">
-        <v>494</v>
+        <v>594</v>
       </c>
       <c r="T1139" t="n">
         <v>400</v>
@@ -91527,7 +91527,7 @@
         </is>
       </c>
       <c r="D1140" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1140" t="n">
         <v>4</v>
@@ -91555,25 +91555,25 @@
       </c>
       <c r="K1140" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1140" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1140" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N1140" t="n">
-        <v>285000</v>
+        <v>215000</v>
       </c>
       <c r="O1140" t="n">
-        <v>290000</v>
+        <v>220000</v>
       </c>
       <c r="P1140" t="n">
-        <v>287500</v>
+        <v>217500</v>
       </c>
       <c r="Q1140" t="inlineStr">
         <is>
@@ -91586,7 +91586,7 @@
         </is>
       </c>
       <c r="S1140" t="n">
-        <v>719</v>
+        <v>544</v>
       </c>
       <c r="T1140" t="n">
         <v>400</v>
@@ -91635,25 +91635,25 @@
       </c>
       <c r="K1141" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1141" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1141" t="n">
         <v>20</v>
       </c>
       <c r="N1141" t="n">
-        <v>255000</v>
+        <v>285000</v>
       </c>
       <c r="O1141" t="n">
-        <v>260000</v>
+        <v>290000</v>
       </c>
       <c r="P1141" t="n">
-        <v>257500</v>
+        <v>287500</v>
       </c>
       <c r="Q1141" t="inlineStr">
         <is>
@@ -91662,11 +91662,11 @@
       </c>
       <c r="R1141" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1141" t="n">
-        <v>644</v>
+        <v>719</v>
       </c>
       <c r="T1141" t="n">
         <v>400</v>
@@ -91715,25 +91715,25 @@
       </c>
       <c r="K1142" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1142" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1142" t="n">
         <v>20</v>
       </c>
       <c r="N1142" t="n">
-        <v>225000</v>
+        <v>245000</v>
       </c>
       <c r="O1142" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="P1142" t="n">
-        <v>227500</v>
+        <v>247500</v>
       </c>
       <c r="Q1142" t="inlineStr">
         <is>
@@ -91742,11 +91742,11 @@
       </c>
       <c r="R1142" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1142" t="n">
-        <v>569</v>
+        <v>619</v>
       </c>
       <c r="T1142" t="n">
         <v>400</v>
@@ -91795,25 +91795,25 @@
       </c>
       <c r="K1143" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1143" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1143" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1143" t="n">
-        <v>225000</v>
+        <v>255000</v>
       </c>
       <c r="O1143" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="P1143" t="n">
-        <v>227500</v>
+        <v>257500</v>
       </c>
       <c r="Q1143" t="inlineStr">
         <is>
@@ -91822,11 +91822,11 @@
       </c>
       <c r="R1143" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1143" t="n">
-        <v>569</v>
+        <v>644</v>
       </c>
       <c r="T1143" t="n">
         <v>400</v>
@@ -91875,25 +91875,25 @@
       </c>
       <c r="K1144" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1144" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1144" t="n">
         <v>20</v>
       </c>
       <c r="N1144" t="n">
-        <v>205000</v>
+        <v>235000</v>
       </c>
       <c r="O1144" t="n">
-        <v>210000</v>
+        <v>240000</v>
       </c>
       <c r="P1144" t="n">
-        <v>207500</v>
+        <v>237500</v>
       </c>
       <c r="Q1144" t="inlineStr">
         <is>
@@ -91902,11 +91902,11 @@
       </c>
       <c r="R1144" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1144" t="n">
-        <v>519</v>
+        <v>594</v>
       </c>
       <c r="T1144" t="n">
         <v>400</v>
@@ -91927,7 +91927,7 @@
         </is>
       </c>
       <c r="D1145" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1145" t="n">
         <v>4</v>
@@ -91955,25 +91955,25 @@
       </c>
       <c r="K1145" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1145" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1145" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1145" t="n">
-        <v>235000</v>
+        <v>195000</v>
       </c>
       <c r="O1145" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="P1145" t="n">
-        <v>237500</v>
+        <v>197500</v>
       </c>
       <c r="Q1145" t="inlineStr">
         <is>
@@ -91982,11 +91982,11 @@
       </c>
       <c r="R1145" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1145" t="n">
-        <v>594</v>
+        <v>494</v>
       </c>
       <c r="T1145" t="n">
         <v>400</v>
@@ -92007,7 +92007,7 @@
         </is>
       </c>
       <c r="D1146" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1146" t="n">
         <v>4</v>
@@ -92035,25 +92035,25 @@
       </c>
       <c r="K1146" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1146" t="n">
         <v>20</v>
       </c>
       <c r="N1146" t="n">
-        <v>215000</v>
+        <v>285000</v>
       </c>
       <c r="O1146" t="n">
-        <v>220000</v>
+        <v>290000</v>
       </c>
       <c r="P1146" t="n">
-        <v>217500</v>
+        <v>287500</v>
       </c>
       <c r="Q1146" t="inlineStr">
         <is>
@@ -92066,7 +92066,7 @@
         </is>
       </c>
       <c r="S1146" t="n">
-        <v>544</v>
+        <v>719</v>
       </c>
       <c r="T1146" t="n">
         <v>400</v>
@@ -92087,7 +92087,7 @@
         </is>
       </c>
       <c r="D1147" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1147" t="n">
         <v>4</v>
@@ -92115,25 +92115,25 @@
       </c>
       <c r="K1147" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1147" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1147" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1147" t="n">
-        <v>225000</v>
+        <v>255000</v>
       </c>
       <c r="O1147" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="P1147" t="n">
-        <v>227500</v>
+        <v>257500</v>
       </c>
       <c r="Q1147" t="inlineStr">
         <is>
@@ -92146,7 +92146,7 @@
         </is>
       </c>
       <c r="S1147" t="n">
-        <v>569</v>
+        <v>644</v>
       </c>
       <c r="T1147" t="n">
         <v>400</v>
@@ -92167,7 +92167,7 @@
         </is>
       </c>
       <c r="D1148" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1148" t="n">
         <v>4</v>
@@ -92195,25 +92195,25 @@
       </c>
       <c r="K1148" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1148" t="n">
         <v>20</v>
       </c>
       <c r="N1148" t="n">
-        <v>205000</v>
+        <v>225000</v>
       </c>
       <c r="O1148" t="n">
-        <v>210000</v>
+        <v>230000</v>
       </c>
       <c r="P1148" t="n">
-        <v>207500</v>
+        <v>227500</v>
       </c>
       <c r="Q1148" t="inlineStr">
         <is>
@@ -92226,7 +92226,7 @@
         </is>
       </c>
       <c r="S1148" t="n">
-        <v>519</v>
+        <v>569</v>
       </c>
       <c r="T1148" t="n">
         <v>400</v>
@@ -92247,7 +92247,7 @@
         </is>
       </c>
       <c r="D1149" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1149" t="n">
         <v>4</v>
@@ -92275,25 +92275,25 @@
       </c>
       <c r="K1149" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1149" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1149" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1149" t="n">
-        <v>185000</v>
+        <v>225000</v>
       </c>
       <c r="O1149" t="n">
-        <v>190000</v>
+        <v>230000</v>
       </c>
       <c r="P1149" t="n">
-        <v>187500</v>
+        <v>227500</v>
       </c>
       <c r="Q1149" t="inlineStr">
         <is>
@@ -92306,7 +92306,7 @@
         </is>
       </c>
       <c r="S1149" t="n">
-        <v>469</v>
+        <v>569</v>
       </c>
       <c r="T1149" t="n">
         <v>400</v>
@@ -92327,7 +92327,7 @@
         </is>
       </c>
       <c r="D1150" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1150" t="n">
         <v>4</v>
@@ -92355,25 +92355,25 @@
       </c>
       <c r="K1150" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1150" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1150" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1150" t="n">
-        <v>215000</v>
+        <v>205000</v>
       </c>
       <c r="O1150" t="n">
-        <v>220000</v>
+        <v>210000</v>
       </c>
       <c r="P1150" t="n">
-        <v>217500</v>
+        <v>207500</v>
       </c>
       <c r="Q1150" t="inlineStr">
         <is>
@@ -92386,7 +92386,7 @@
         </is>
       </c>
       <c r="S1150" t="n">
-        <v>544</v>
+        <v>519</v>
       </c>
       <c r="T1150" t="n">
         <v>400</v>
@@ -92435,25 +92435,25 @@
       </c>
       <c r="K1151" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1151" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1151" t="n">
-        <v>195000</v>
+        <v>235000</v>
       </c>
       <c r="O1151" t="n">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="P1151" t="n">
-        <v>197500</v>
+        <v>237500</v>
       </c>
       <c r="Q1151" t="inlineStr">
         <is>
@@ -92466,7 +92466,7 @@
         </is>
       </c>
       <c r="S1151" t="n">
-        <v>494</v>
+        <v>594</v>
       </c>
       <c r="T1151" t="n">
         <v>400</v>
@@ -92487,7 +92487,7 @@
         </is>
       </c>
       <c r="D1152" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1152" t="n">
         <v>4</v>
@@ -92520,20 +92520,20 @@
       </c>
       <c r="L1152" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1152" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1152" t="n">
-        <v>265000</v>
+        <v>215000</v>
       </c>
       <c r="O1152" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="P1152" t="n">
-        <v>267500</v>
+        <v>217500</v>
       </c>
       <c r="Q1152" t="inlineStr">
         <is>
@@ -92546,7 +92546,7 @@
         </is>
       </c>
       <c r="S1152" t="n">
-        <v>669</v>
+        <v>544</v>
       </c>
       <c r="T1152" t="n">
         <v>400</v>
@@ -92567,7 +92567,7 @@
         </is>
       </c>
       <c r="D1153" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1153" t="n">
         <v>4</v>
@@ -92595,25 +92595,25 @@
       </c>
       <c r="K1153" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1153" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1153" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1153" t="n">
-        <v>235000</v>
+        <v>225000</v>
       </c>
       <c r="O1153" t="n">
-        <v>240000</v>
+        <v>230000</v>
       </c>
       <c r="P1153" t="n">
-        <v>237500</v>
+        <v>227500</v>
       </c>
       <c r="Q1153" t="inlineStr">
         <is>
@@ -92626,7 +92626,7 @@
         </is>
       </c>
       <c r="S1153" t="n">
-        <v>594</v>
+        <v>569</v>
       </c>
       <c r="T1153" t="n">
         <v>400</v>
@@ -92647,7 +92647,7 @@
         </is>
       </c>
       <c r="D1154" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1154" t="n">
         <v>4</v>
@@ -92675,25 +92675,25 @@
       </c>
       <c r="K1154" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1154" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1154" t="n">
         <v>20</v>
       </c>
       <c r="N1154" t="n">
-        <v>215000</v>
+        <v>205000</v>
       </c>
       <c r="O1154" t="n">
-        <v>220000</v>
+        <v>210000</v>
       </c>
       <c r="P1154" t="n">
-        <v>217500</v>
+        <v>207500</v>
       </c>
       <c r="Q1154" t="inlineStr">
         <is>
@@ -92706,7 +92706,7 @@
         </is>
       </c>
       <c r="S1154" t="n">
-        <v>544</v>
+        <v>519</v>
       </c>
       <c r="T1154" t="n">
         <v>400</v>
@@ -92727,7 +92727,7 @@
         </is>
       </c>
       <c r="D1155" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1155" t="n">
         <v>4</v>
@@ -92760,20 +92760,20 @@
       </c>
       <c r="L1155" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1155" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1155" t="n">
-        <v>250000</v>
+        <v>185000</v>
       </c>
       <c r="O1155" t="n">
-        <v>255000</v>
+        <v>190000</v>
       </c>
       <c r="P1155" t="n">
-        <v>252500</v>
+        <v>187500</v>
       </c>
       <c r="Q1155" t="inlineStr">
         <is>
@@ -92786,7 +92786,7 @@
         </is>
       </c>
       <c r="S1155" t="n">
-        <v>631</v>
+        <v>469</v>
       </c>
       <c r="T1155" t="n">
         <v>400</v>
@@ -92807,7 +92807,7 @@
         </is>
       </c>
       <c r="D1156" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1156" t="n">
         <v>4</v>
@@ -92835,25 +92835,25 @@
       </c>
       <c r="K1156" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1156" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1156" t="n">
-        <v>230000</v>
+        <v>215000</v>
       </c>
       <c r="O1156" t="n">
-        <v>235000</v>
+        <v>220000</v>
       </c>
       <c r="P1156" t="n">
-        <v>232500</v>
+        <v>217500</v>
       </c>
       <c r="Q1156" t="inlineStr">
         <is>
@@ -92866,7 +92866,7 @@
         </is>
       </c>
       <c r="S1156" t="n">
-        <v>581</v>
+        <v>544</v>
       </c>
       <c r="T1156" t="n">
         <v>400</v>
@@ -92887,7 +92887,7 @@
         </is>
       </c>
       <c r="D1157" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1157" t="n">
         <v>4</v>
@@ -92915,25 +92915,25 @@
       </c>
       <c r="K1157" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1157" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1157" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1157" t="n">
-        <v>210000</v>
+        <v>195000</v>
       </c>
       <c r="O1157" t="n">
-        <v>215000</v>
+        <v>200000</v>
       </c>
       <c r="P1157" t="n">
-        <v>212500</v>
+        <v>197500</v>
       </c>
       <c r="Q1157" t="inlineStr">
         <is>
@@ -92946,7 +92946,7 @@
         </is>
       </c>
       <c r="S1157" t="n">
-        <v>531</v>
+        <v>494</v>
       </c>
       <c r="T1157" t="n">
         <v>400</v>
@@ -92995,25 +92995,25 @@
       </c>
       <c r="K1158" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1158" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1158" t="n">
         <v>16</v>
       </c>
       <c r="N1158" t="n">
-        <v>200000</v>
+        <v>265000</v>
       </c>
       <c r="O1158" t="n">
-        <v>205000</v>
+        <v>270000</v>
       </c>
       <c r="P1158" t="n">
-        <v>202500</v>
+        <v>267500</v>
       </c>
       <c r="Q1158" t="inlineStr">
         <is>
@@ -93026,7 +93026,7 @@
         </is>
       </c>
       <c r="S1158" t="n">
-        <v>506</v>
+        <v>669</v>
       </c>
       <c r="T1158" t="n">
         <v>400</v>
@@ -93075,25 +93075,25 @@
       </c>
       <c r="K1159" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1159" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1159" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1159" t="n">
-        <v>180000</v>
+        <v>235000</v>
       </c>
       <c r="O1159" t="n">
-        <v>185000</v>
+        <v>240000</v>
       </c>
       <c r="P1159" t="n">
-        <v>182500</v>
+        <v>237500</v>
       </c>
       <c r="Q1159" t="inlineStr">
         <is>
@@ -93106,7 +93106,7 @@
         </is>
       </c>
       <c r="S1159" t="n">
-        <v>456</v>
+        <v>594</v>
       </c>
       <c r="T1159" t="n">
         <v>400</v>
@@ -93155,25 +93155,25 @@
       </c>
       <c r="K1160" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1160" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1160" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N1160" t="n">
-        <v>295000</v>
+        <v>215000</v>
       </c>
       <c r="O1160" t="n">
-        <v>300000</v>
+        <v>220000</v>
       </c>
       <c r="P1160" t="n">
-        <v>297500</v>
+        <v>217500</v>
       </c>
       <c r="Q1160" t="inlineStr">
         <is>
@@ -93182,11 +93182,11 @@
       </c>
       <c r="R1160" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1160" t="n">
-        <v>744</v>
+        <v>544</v>
       </c>
       <c r="T1160" t="n">
         <v>400</v>
@@ -93235,40 +93235,520 @@
       </c>
       <c r="K1161" t="inlineStr">
         <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L1161" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M1161" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1161" t="n">
+        <v>250000</v>
+      </c>
+      <c r="O1161" t="n">
+        <v>255000</v>
+      </c>
+      <c r="P1161" t="n">
+        <v>252500</v>
+      </c>
+      <c r="Q1161" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1161" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1161" t="n">
+        <v>631</v>
+      </c>
+      <c r="T1161" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1162" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1162" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1162" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1162" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1162" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1162" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1162" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1162" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L1162" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1162" t="n">
+        <v>20</v>
+      </c>
+      <c r="N1162" t="n">
+        <v>230000</v>
+      </c>
+      <c r="O1162" t="n">
+        <v>235000</v>
+      </c>
+      <c r="P1162" t="n">
+        <v>232500</v>
+      </c>
+      <c r="Q1162" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1162" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1162" t="n">
+        <v>581</v>
+      </c>
+      <c r="T1162" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1163" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1163" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1163" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1163" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1163" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1163" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1163" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1163" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1163" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L1163" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1163" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1163" t="n">
+        <v>210000</v>
+      </c>
+      <c r="O1163" t="n">
+        <v>215000</v>
+      </c>
+      <c r="P1163" t="n">
+        <v>212500</v>
+      </c>
+      <c r="Q1163" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1163" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1163" t="n">
+        <v>531</v>
+      </c>
+      <c r="T1163" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1164" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1164" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1164" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1164" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1164" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1164" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1164" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1164" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1164" t="inlineStr">
+        <is>
+          <t>Pink Lady</t>
+        </is>
+      </c>
+      <c r="L1164" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1164" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1164" t="n">
+        <v>200000</v>
+      </c>
+      <c r="O1164" t="n">
+        <v>205000</v>
+      </c>
+      <c r="P1164" t="n">
+        <v>202500</v>
+      </c>
+      <c r="Q1164" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1164" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1164" t="n">
+        <v>506</v>
+      </c>
+      <c r="T1164" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1165" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1165" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1165" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1165" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1165" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1165" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1165" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1165" t="inlineStr">
+        <is>
+          <t>Pink Lady</t>
+        </is>
+      </c>
+      <c r="L1165" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1165" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1165" t="n">
+        <v>180000</v>
+      </c>
+      <c r="O1165" t="n">
+        <v>185000</v>
+      </c>
+      <c r="P1165" t="n">
+        <v>182500</v>
+      </c>
+      <c r="Q1165" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1165" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1165" t="n">
+        <v>456</v>
+      </c>
+      <c r="T1165" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1166" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1166" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1166" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1166" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1166" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1166" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1166" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1166" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1166" t="inlineStr">
+        <is>
           <t>Scarlett</t>
         </is>
       </c>
-      <c r="L1161" t="inlineStr">
+      <c r="L1166" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M1166" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1166" t="n">
+        <v>295000</v>
+      </c>
+      <c r="O1166" t="n">
+        <v>300000</v>
+      </c>
+      <c r="P1166" t="n">
+        <v>297500</v>
+      </c>
+      <c r="Q1166" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1166" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1166" t="n">
+        <v>744</v>
+      </c>
+      <c r="T1166" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1167" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1167" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1167" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1167" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1167" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1167" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1167" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1167" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1167" t="inlineStr">
+        <is>
+          <t>Scarlett</t>
+        </is>
+      </c>
+      <c r="L1167" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M1161" t="n">
+      <c r="M1167" t="n">
         <v>10</v>
       </c>
-      <c r="N1161" t="n">
+      <c r="N1167" t="n">
         <v>255000</v>
       </c>
-      <c r="O1161" t="n">
+      <c r="O1167" t="n">
         <v>260000</v>
       </c>
-      <c r="P1161" t="n">
+      <c r="P1167" t="n">
         <v>257500</v>
       </c>
-      <c r="Q1161" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R1161" t="inlineStr">
+      <c r="Q1167" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1167" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S1161" t="n">
+      <c r="S1167" t="n">
         <v>644</v>
       </c>
-      <c r="T1161" t="n">
+      <c r="T1167" t="n">
         <v>400</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Manzana.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Manzana.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1211"/>
+  <dimension ref="A1:T1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81287,7 +81287,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E1012" t="n">
         <v>4</v>
@@ -81324,7 +81324,7 @@
         </is>
       </c>
       <c r="M1012" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1012" t="n">
         <v>315000</v>
@@ -81342,7 +81342,7 @@
       </c>
       <c r="R1012" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1012" t="n">
@@ -81367,7 +81367,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E1013" t="n">
         <v>4</v>
@@ -81407,13 +81407,13 @@
         <v>20</v>
       </c>
       <c r="N1013" t="n">
-        <v>295000</v>
+        <v>285000</v>
       </c>
       <c r="O1013" t="n">
-        <v>300000</v>
+        <v>290000</v>
       </c>
       <c r="P1013" t="n">
-        <v>297500</v>
+        <v>287500</v>
       </c>
       <c r="Q1013" t="inlineStr">
         <is>
@@ -81422,11 +81422,11 @@
       </c>
       <c r="R1013" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1013" t="n">
-        <v>744</v>
+        <v>719</v>
       </c>
       <c r="T1013" t="n">
         <v>400</v>
@@ -81447,7 +81447,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E1014" t="n">
         <v>4</v>
@@ -81502,7 +81502,7 @@
       </c>
       <c r="R1014" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1014" t="n">
@@ -81527,7 +81527,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E1015" t="n">
         <v>4</v>
@@ -81567,13 +81567,13 @@
         <v>10</v>
       </c>
       <c r="N1015" t="n">
-        <v>315000</v>
+        <v>295000</v>
       </c>
       <c r="O1015" t="n">
-        <v>320000</v>
+        <v>300000</v>
       </c>
       <c r="P1015" t="n">
-        <v>317500</v>
+        <v>297500</v>
       </c>
       <c r="Q1015" t="inlineStr">
         <is>
@@ -81586,7 +81586,7 @@
         </is>
       </c>
       <c r="S1015" t="n">
-        <v>794</v>
+        <v>744</v>
       </c>
       <c r="T1015" t="n">
         <v>400</v>
@@ -81607,7 +81607,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E1016" t="n">
         <v>4</v>
@@ -81647,13 +81647,13 @@
         <v>10</v>
       </c>
       <c r="N1016" t="n">
-        <v>285000</v>
+        <v>275000</v>
       </c>
       <c r="O1016" t="n">
-        <v>290000</v>
+        <v>280000</v>
       </c>
       <c r="P1016" t="n">
-        <v>287500</v>
+        <v>277500</v>
       </c>
       <c r="Q1016" t="inlineStr">
         <is>
@@ -81666,7 +81666,7 @@
         </is>
       </c>
       <c r="S1016" t="n">
-        <v>719</v>
+        <v>694</v>
       </c>
       <c r="T1016" t="n">
         <v>400</v>
@@ -81687,7 +81687,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E1017" t="n">
         <v>4</v>
@@ -81727,13 +81727,13 @@
         <v>10</v>
       </c>
       <c r="N1017" t="n">
-        <v>255000</v>
+        <v>235000</v>
       </c>
       <c r="O1017" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="P1017" t="n">
-        <v>257500</v>
+        <v>237500</v>
       </c>
       <c r="Q1017" t="inlineStr">
         <is>
@@ -81746,7 +81746,7 @@
         </is>
       </c>
       <c r="S1017" t="n">
-        <v>644</v>
+        <v>594</v>
       </c>
       <c r="T1017" t="n">
         <v>400</v>
@@ -81767,7 +81767,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E1018" t="n">
         <v>4</v>
@@ -81807,13 +81807,13 @@
         <v>10</v>
       </c>
       <c r="N1018" t="n">
-        <v>235000</v>
+        <v>225000</v>
       </c>
       <c r="O1018" t="n">
-        <v>240000</v>
+        <v>230000</v>
       </c>
       <c r="P1018" t="n">
-        <v>237500</v>
+        <v>227500</v>
       </c>
       <c r="Q1018" t="inlineStr">
         <is>
@@ -81826,7 +81826,7 @@
         </is>
       </c>
       <c r="S1018" t="n">
-        <v>594</v>
+        <v>569</v>
       </c>
       <c r="T1018" t="n">
         <v>400</v>
@@ -81847,7 +81847,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E1019" t="n">
         <v>4</v>
@@ -81887,13 +81887,13 @@
         <v>10</v>
       </c>
       <c r="N1019" t="n">
-        <v>215000</v>
+        <v>205000</v>
       </c>
       <c r="O1019" t="n">
-        <v>220000</v>
+        <v>210000</v>
       </c>
       <c r="P1019" t="n">
-        <v>217500</v>
+        <v>207500</v>
       </c>
       <c r="Q1019" t="inlineStr">
         <is>
@@ -81906,7 +81906,7 @@
         </is>
       </c>
       <c r="S1019" t="n">
-        <v>544</v>
+        <v>519</v>
       </c>
       <c r="T1019" t="n">
         <v>400</v>
@@ -81927,7 +81927,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E1020" t="n">
         <v>4</v>
@@ -81955,25 +81955,25 @@
       </c>
       <c r="K1020" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1020" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1020" t="n">
         <v>10</v>
       </c>
       <c r="N1020" t="n">
-        <v>275000</v>
+        <v>185000</v>
       </c>
       <c r="O1020" t="n">
-        <v>280000</v>
+        <v>190000</v>
       </c>
       <c r="P1020" t="n">
-        <v>277500</v>
+        <v>187500</v>
       </c>
       <c r="Q1020" t="inlineStr">
         <is>
@@ -81982,11 +81982,11 @@
       </c>
       <c r="R1020" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1020" t="n">
-        <v>694</v>
+        <v>469</v>
       </c>
       <c r="T1020" t="n">
         <v>400</v>
@@ -82007,7 +82007,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E1021" t="n">
         <v>4</v>
@@ -82044,16 +82044,16 @@
         </is>
       </c>
       <c r="M1021" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N1021" t="n">
-        <v>260000</v>
+        <v>315000</v>
       </c>
       <c r="O1021" t="n">
-        <v>270000</v>
+        <v>320000</v>
       </c>
       <c r="P1021" t="n">
-        <v>265000</v>
+        <v>317500</v>
       </c>
       <c r="Q1021" t="inlineStr">
         <is>
@@ -82066,7 +82066,7 @@
         </is>
       </c>
       <c r="S1021" t="n">
-        <v>662</v>
+        <v>794</v>
       </c>
       <c r="T1021" t="n">
         <v>400</v>
@@ -82087,7 +82087,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E1022" t="n">
         <v>4</v>
@@ -82127,13 +82127,13 @@
         <v>20</v>
       </c>
       <c r="N1022" t="n">
-        <v>230000</v>
+        <v>295000</v>
       </c>
       <c r="O1022" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="P1022" t="n">
-        <v>235000</v>
+        <v>297500</v>
       </c>
       <c r="Q1022" t="inlineStr">
         <is>
@@ -82146,7 +82146,7 @@
         </is>
       </c>
       <c r="S1022" t="n">
-        <v>588</v>
+        <v>744</v>
       </c>
       <c r="T1022" t="n">
         <v>400</v>
@@ -82167,7 +82167,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E1023" t="n">
         <v>4</v>
@@ -82204,16 +82204,16 @@
         </is>
       </c>
       <c r="M1023" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N1023" t="n">
-        <v>200000</v>
+        <v>265000</v>
       </c>
       <c r="O1023" t="n">
-        <v>210000</v>
+        <v>270000</v>
       </c>
       <c r="P1023" t="n">
-        <v>205000</v>
+        <v>267500</v>
       </c>
       <c r="Q1023" t="inlineStr">
         <is>
@@ -82226,7 +82226,7 @@
         </is>
       </c>
       <c r="S1023" t="n">
-        <v>512</v>
+        <v>669</v>
       </c>
       <c r="T1023" t="n">
         <v>400</v>
@@ -82247,7 +82247,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E1024" t="n">
         <v>4</v>
@@ -82275,25 +82275,25 @@
       </c>
       <c r="K1024" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1024" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1024" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N1024" t="n">
-        <v>200000</v>
+        <v>315000</v>
       </c>
       <c r="O1024" t="n">
-        <v>210000</v>
+        <v>320000</v>
       </c>
       <c r="P1024" t="n">
-        <v>205000</v>
+        <v>317500</v>
       </c>
       <c r="Q1024" t="inlineStr">
         <is>
@@ -82306,7 +82306,7 @@
         </is>
       </c>
       <c r="S1024" t="n">
-        <v>512</v>
+        <v>794</v>
       </c>
       <c r="T1024" t="n">
         <v>400</v>
@@ -82327,7 +82327,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E1025" t="n">
         <v>4</v>
@@ -82355,25 +82355,25 @@
       </c>
       <c r="K1025" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1025" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1025" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N1025" t="n">
-        <v>180000</v>
+        <v>285000</v>
       </c>
       <c r="O1025" t="n">
-        <v>190000</v>
+        <v>290000</v>
       </c>
       <c r="P1025" t="n">
-        <v>185000</v>
+        <v>287500</v>
       </c>
       <c r="Q1025" t="inlineStr">
         <is>
@@ -82386,7 +82386,7 @@
         </is>
       </c>
       <c r="S1025" t="n">
-        <v>462</v>
+        <v>719</v>
       </c>
       <c r="T1025" t="n">
         <v>400</v>
@@ -82407,7 +82407,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E1026" t="n">
         <v>4</v>
@@ -82435,25 +82435,25 @@
       </c>
       <c r="K1026" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1026" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1026" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N1026" t="n">
-        <v>235000</v>
+        <v>255000</v>
       </c>
       <c r="O1026" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="P1026" t="n">
-        <v>237500</v>
+        <v>257500</v>
       </c>
       <c r="Q1026" t="inlineStr">
         <is>
@@ -82466,7 +82466,7 @@
         </is>
       </c>
       <c r="S1026" t="n">
-        <v>594</v>
+        <v>644</v>
       </c>
       <c r="T1026" t="n">
         <v>400</v>
@@ -82487,7 +82487,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E1027" t="n">
         <v>4</v>
@@ -82515,25 +82515,25 @@
       </c>
       <c r="K1027" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1027" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1027" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N1027" t="n">
-        <v>215000</v>
+        <v>235000</v>
       </c>
       <c r="O1027" t="n">
-        <v>220000</v>
+        <v>240000</v>
       </c>
       <c r="P1027" t="n">
-        <v>217500</v>
+        <v>237500</v>
       </c>
       <c r="Q1027" t="inlineStr">
         <is>
@@ -82546,7 +82546,7 @@
         </is>
       </c>
       <c r="S1027" t="n">
-        <v>544</v>
+        <v>594</v>
       </c>
       <c r="T1027" t="n">
         <v>400</v>
@@ -82567,7 +82567,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E1028" t="n">
         <v>4</v>
@@ -82595,25 +82595,25 @@
       </c>
       <c r="K1028" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1028" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1028" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N1028" t="n">
-        <v>185000</v>
+        <v>215000</v>
       </c>
       <c r="O1028" t="n">
-        <v>190000</v>
+        <v>220000</v>
       </c>
       <c r="P1028" t="n">
-        <v>187500</v>
+        <v>217500</v>
       </c>
       <c r="Q1028" t="inlineStr">
         <is>
@@ -82626,7 +82626,7 @@
         </is>
       </c>
       <c r="S1028" t="n">
-        <v>469</v>
+        <v>544</v>
       </c>
       <c r="T1028" t="n">
         <v>400</v>
@@ -82647,7 +82647,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E1029" t="n">
         <v>4</v>
@@ -82675,25 +82675,25 @@
       </c>
       <c r="K1029" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1029" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1029" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N1029" t="n">
-        <v>215000</v>
+        <v>275000</v>
       </c>
       <c r="O1029" t="n">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="P1029" t="n">
-        <v>217500</v>
+        <v>277500</v>
       </c>
       <c r="Q1029" t="inlineStr">
         <is>
@@ -82702,11 +82702,11 @@
       </c>
       <c r="R1029" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1029" t="n">
-        <v>544</v>
+        <v>694</v>
       </c>
       <c r="T1029" t="n">
         <v>400</v>
@@ -82727,7 +82727,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1030" t="n">
         <v>4</v>
@@ -82755,25 +82755,25 @@
       </c>
       <c r="K1030" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1030" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1030" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N1030" t="n">
-        <v>195000</v>
+        <v>260000</v>
       </c>
       <c r="O1030" t="n">
-        <v>200000</v>
+        <v>270000</v>
       </c>
       <c r="P1030" t="n">
-        <v>197500</v>
+        <v>265000</v>
       </c>
       <c r="Q1030" t="inlineStr">
         <is>
@@ -82786,7 +82786,7 @@
         </is>
       </c>
       <c r="S1030" t="n">
-        <v>494</v>
+        <v>662</v>
       </c>
       <c r="T1030" t="n">
         <v>400</v>
@@ -82807,7 +82807,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1031" t="n">
         <v>4</v>
@@ -82835,25 +82835,25 @@
       </c>
       <c r="K1031" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1031" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1031" t="n">
         <v>20</v>
       </c>
       <c r="N1031" t="n">
-        <v>175000</v>
+        <v>230000</v>
       </c>
       <c r="O1031" t="n">
-        <v>180000</v>
+        <v>240000</v>
       </c>
       <c r="P1031" t="n">
-        <v>177500</v>
+        <v>235000</v>
       </c>
       <c r="Q1031" t="inlineStr">
         <is>
@@ -82866,7 +82866,7 @@
         </is>
       </c>
       <c r="S1031" t="n">
-        <v>444</v>
+        <v>588</v>
       </c>
       <c r="T1031" t="n">
         <v>400</v>
@@ -82887,7 +82887,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1032" t="n">
         <v>4</v>
@@ -82915,25 +82915,25 @@
       </c>
       <c r="K1032" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1032" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1032" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N1032" t="n">
-        <v>215000</v>
+        <v>200000</v>
       </c>
       <c r="O1032" t="n">
-        <v>220000</v>
+        <v>210000</v>
       </c>
       <c r="P1032" t="n">
-        <v>217500</v>
+        <v>205000</v>
       </c>
       <c r="Q1032" t="inlineStr">
         <is>
@@ -82946,7 +82946,7 @@
         </is>
       </c>
       <c r="S1032" t="n">
-        <v>544</v>
+        <v>512</v>
       </c>
       <c r="T1032" t="n">
         <v>400</v>
@@ -82967,7 +82967,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1033" t="n">
         <v>4</v>
@@ -83004,16 +83004,16 @@
         </is>
       </c>
       <c r="M1033" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N1033" t="n">
-        <v>195000</v>
+        <v>200000</v>
       </c>
       <c r="O1033" t="n">
-        <v>200000</v>
+        <v>210000</v>
       </c>
       <c r="P1033" t="n">
-        <v>197500</v>
+        <v>205000</v>
       </c>
       <c r="Q1033" t="inlineStr">
         <is>
@@ -83026,7 +83026,7 @@
         </is>
       </c>
       <c r="S1033" t="n">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="T1033" t="n">
         <v>400</v>
@@ -83047,7 +83047,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1034" t="n">
         <v>4</v>
@@ -83084,16 +83084,16 @@
         </is>
       </c>
       <c r="M1034" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N1034" t="n">
-        <v>175000</v>
+        <v>180000</v>
       </c>
       <c r="O1034" t="n">
-        <v>180000</v>
+        <v>190000</v>
       </c>
       <c r="P1034" t="n">
-        <v>177500</v>
+        <v>185000</v>
       </c>
       <c r="Q1034" t="inlineStr">
         <is>
@@ -83106,7 +83106,7 @@
         </is>
       </c>
       <c r="S1034" t="n">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="T1034" t="n">
         <v>400</v>
@@ -83127,7 +83127,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1035" t="n">
         <v>4</v>
@@ -83155,25 +83155,25 @@
       </c>
       <c r="K1035" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1035" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1035" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N1035" t="n">
-        <v>195000</v>
+        <v>235000</v>
       </c>
       <c r="O1035" t="n">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="P1035" t="n">
-        <v>197500</v>
+        <v>237500</v>
       </c>
       <c r="Q1035" t="inlineStr">
         <is>
@@ -83182,11 +83182,11 @@
       </c>
       <c r="R1035" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1035" t="n">
-        <v>494</v>
+        <v>594</v>
       </c>
       <c r="T1035" t="n">
         <v>400</v>
@@ -83207,7 +83207,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1036" t="n">
         <v>4</v>
@@ -83235,25 +83235,25 @@
       </c>
       <c r="K1036" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1036" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1036" t="n">
         <v>20</v>
       </c>
       <c r="N1036" t="n">
-        <v>175000</v>
+        <v>215000</v>
       </c>
       <c r="O1036" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="P1036" t="n">
-        <v>177500</v>
+        <v>217500</v>
       </c>
       <c r="Q1036" t="inlineStr">
         <is>
@@ -83262,11 +83262,11 @@
       </c>
       <c r="R1036" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1036" t="n">
-        <v>444</v>
+        <v>544</v>
       </c>
       <c r="T1036" t="n">
         <v>400</v>
@@ -83287,7 +83287,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1037" t="n">
         <v>4</v>
@@ -83315,25 +83315,25 @@
       </c>
       <c r="K1037" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1037" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1037" t="n">
         <v>20</v>
       </c>
       <c r="N1037" t="n">
-        <v>195000</v>
+        <v>185000</v>
       </c>
       <c r="O1037" t="n">
-        <v>200000</v>
+        <v>190000</v>
       </c>
       <c r="P1037" t="n">
-        <v>197500</v>
+        <v>187500</v>
       </c>
       <c r="Q1037" t="inlineStr">
         <is>
@@ -83346,7 +83346,7 @@
         </is>
       </c>
       <c r="S1037" t="n">
-        <v>494</v>
+        <v>469</v>
       </c>
       <c r="T1037" t="n">
         <v>400</v>
@@ -83367,7 +83367,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1038" t="n">
         <v>4</v>
@@ -83395,25 +83395,25 @@
       </c>
       <c r="K1038" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1038" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1038" t="n">
         <v>20</v>
       </c>
       <c r="N1038" t="n">
-        <v>175000</v>
+        <v>215000</v>
       </c>
       <c r="O1038" t="n">
-        <v>180000</v>
+        <v>220000</v>
       </c>
       <c r="P1038" t="n">
-        <v>177500</v>
+        <v>217500</v>
       </c>
       <c r="Q1038" t="inlineStr">
         <is>
@@ -83426,7 +83426,7 @@
         </is>
       </c>
       <c r="S1038" t="n">
-        <v>444</v>
+        <v>544</v>
       </c>
       <c r="T1038" t="n">
         <v>400</v>
@@ -83447,7 +83447,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E1039" t="n">
         <v>4</v>
@@ -83475,25 +83475,25 @@
       </c>
       <c r="K1039" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1039" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1039" t="n">
         <v>20</v>
       </c>
       <c r="N1039" t="n">
-        <v>275000</v>
+        <v>195000</v>
       </c>
       <c r="O1039" t="n">
-        <v>280000</v>
+        <v>200000</v>
       </c>
       <c r="P1039" t="n">
-        <v>277500</v>
+        <v>197500</v>
       </c>
       <c r="Q1039" t="inlineStr">
         <is>
@@ -83502,11 +83502,11 @@
       </c>
       <c r="R1039" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1039" t="n">
-        <v>694</v>
+        <v>494</v>
       </c>
       <c r="T1039" t="n">
         <v>400</v>
@@ -83527,7 +83527,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E1040" t="n">
         <v>4</v>
@@ -83555,25 +83555,25 @@
       </c>
       <c r="K1040" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1040" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1040" t="n">
         <v>20</v>
       </c>
       <c r="N1040" t="n">
-        <v>245000</v>
+        <v>175000</v>
       </c>
       <c r="O1040" t="n">
-        <v>250000</v>
+        <v>180000</v>
       </c>
       <c r="P1040" t="n">
-        <v>247500</v>
+        <v>177500</v>
       </c>
       <c r="Q1040" t="inlineStr">
         <is>
@@ -83582,11 +83582,11 @@
       </c>
       <c r="R1040" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1040" t="n">
-        <v>619</v>
+        <v>444</v>
       </c>
       <c r="T1040" t="n">
         <v>400</v>
@@ -83607,7 +83607,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E1041" t="n">
         <v>4</v>
@@ -83635,16 +83635,16 @@
       </c>
       <c r="K1041" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1041" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1041" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1041" t="n">
         <v>215000</v>
@@ -83662,7 +83662,7 @@
       </c>
       <c r="R1041" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1041" t="n">
@@ -83687,7 +83687,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E1042" t="n">
         <v>4</v>
@@ -83715,25 +83715,25 @@
       </c>
       <c r="K1042" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1042" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1042" t="n">
         <v>20</v>
       </c>
       <c r="N1042" t="n">
-        <v>255000</v>
+        <v>195000</v>
       </c>
       <c r="O1042" t="n">
-        <v>260000</v>
+        <v>200000</v>
       </c>
       <c r="P1042" t="n">
-        <v>257500</v>
+        <v>197500</v>
       </c>
       <c r="Q1042" t="inlineStr">
         <is>
@@ -83742,11 +83742,11 @@
       </c>
       <c r="R1042" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1042" t="n">
-        <v>644</v>
+        <v>494</v>
       </c>
       <c r="T1042" t="n">
         <v>400</v>
@@ -83767,7 +83767,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E1043" t="n">
         <v>4</v>
@@ -83795,25 +83795,25 @@
       </c>
       <c r="K1043" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1043" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1043" t="n">
         <v>20</v>
       </c>
       <c r="N1043" t="n">
-        <v>225000</v>
+        <v>175000</v>
       </c>
       <c r="O1043" t="n">
-        <v>230000</v>
+        <v>180000</v>
       </c>
       <c r="P1043" t="n">
-        <v>227500</v>
+        <v>177500</v>
       </c>
       <c r="Q1043" t="inlineStr">
         <is>
@@ -83822,11 +83822,11 @@
       </c>
       <c r="R1043" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1043" t="n">
-        <v>569</v>
+        <v>444</v>
       </c>
       <c r="T1043" t="n">
         <v>400</v>
@@ -83847,7 +83847,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1044" t="n">
         <v>4</v>
@@ -83880,11 +83880,11 @@
       </c>
       <c r="L1044" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1044" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N1044" t="n">
         <v>195000</v>
@@ -83927,7 +83927,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1045" t="n">
         <v>4</v>
@@ -83955,25 +83955,25 @@
       </c>
       <c r="K1045" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1045" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1045" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1045" t="n">
-        <v>220000</v>
+        <v>175000</v>
       </c>
       <c r="O1045" t="n">
-        <v>225000</v>
+        <v>180000</v>
       </c>
       <c r="P1045" t="n">
-        <v>222500</v>
+        <v>177500</v>
       </c>
       <c r="Q1045" t="inlineStr">
         <is>
@@ -83986,7 +83986,7 @@
         </is>
       </c>
       <c r="S1045" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T1045" t="n">
         <v>400</v>
@@ -84007,7 +84007,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1046" t="n">
         <v>4</v>
@@ -84047,13 +84047,13 @@
         <v>20</v>
       </c>
       <c r="N1046" t="n">
+        <v>195000</v>
+      </c>
+      <c r="O1046" t="n">
         <v>200000</v>
       </c>
-      <c r="O1046" t="n">
-        <v>205000</v>
-      </c>
       <c r="P1046" t="n">
-        <v>202500</v>
+        <v>197500</v>
       </c>
       <c r="Q1046" t="inlineStr">
         <is>
@@ -84062,11 +84062,11 @@
       </c>
       <c r="R1046" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1046" t="n">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="T1046" t="n">
         <v>400</v>
@@ -84087,7 +84087,7 @@
         </is>
       </c>
       <c r="D1047" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1047" t="n">
         <v>4</v>
@@ -84142,7 +84142,7 @@
       </c>
       <c r="R1047" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1047" t="n">
@@ -84167,7 +84167,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1048" t="n">
         <v>4</v>
@@ -84204,16 +84204,16 @@
         </is>
       </c>
       <c r="M1048" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1048" t="n">
-        <v>285000</v>
+        <v>275000</v>
       </c>
       <c r="O1048" t="n">
-        <v>290000</v>
+        <v>280000</v>
       </c>
       <c r="P1048" t="n">
-        <v>287500</v>
+        <v>277500</v>
       </c>
       <c r="Q1048" t="inlineStr">
         <is>
@@ -84226,7 +84226,7 @@
         </is>
       </c>
       <c r="S1048" t="n">
-        <v>719</v>
+        <v>694</v>
       </c>
       <c r="T1048" t="n">
         <v>400</v>
@@ -84247,7 +84247,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1049" t="n">
         <v>4</v>
@@ -84287,13 +84287,13 @@
         <v>20</v>
       </c>
       <c r="N1049" t="n">
-        <v>265000</v>
+        <v>245000</v>
       </c>
       <c r="O1049" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="P1049" t="n">
-        <v>267500</v>
+        <v>247500</v>
       </c>
       <c r="Q1049" t="inlineStr">
         <is>
@@ -84306,7 +84306,7 @@
         </is>
       </c>
       <c r="S1049" t="n">
-        <v>669</v>
+        <v>619</v>
       </c>
       <c r="T1049" t="n">
         <v>400</v>
@@ -84327,7 +84327,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1050" t="n">
         <v>4</v>
@@ -84367,13 +84367,13 @@
         <v>20</v>
       </c>
       <c r="N1050" t="n">
-        <v>245000</v>
+        <v>215000</v>
       </c>
       <c r="O1050" t="n">
-        <v>250000</v>
+        <v>220000</v>
       </c>
       <c r="P1050" t="n">
-        <v>247500</v>
+        <v>217500</v>
       </c>
       <c r="Q1050" t="inlineStr">
         <is>
@@ -84386,7 +84386,7 @@
         </is>
       </c>
       <c r="S1050" t="n">
-        <v>619</v>
+        <v>544</v>
       </c>
       <c r="T1050" t="n">
         <v>400</v>
@@ -84407,7 +84407,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1051" t="n">
         <v>4</v>
@@ -84440,20 +84440,20 @@
       </c>
       <c r="L1051" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1051" t="n">
         <v>20</v>
       </c>
       <c r="N1051" t="n">
-        <v>250000</v>
+        <v>255000</v>
       </c>
       <c r="O1051" t="n">
-        <v>255000</v>
+        <v>260000</v>
       </c>
       <c r="P1051" t="n">
-        <v>252500</v>
+        <v>257500</v>
       </c>
       <c r="Q1051" t="inlineStr">
         <is>
@@ -84466,7 +84466,7 @@
         </is>
       </c>
       <c r="S1051" t="n">
-        <v>631</v>
+        <v>644</v>
       </c>
       <c r="T1051" t="n">
         <v>400</v>
@@ -84487,7 +84487,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1052" t="n">
         <v>4</v>
@@ -84520,20 +84520,20 @@
       </c>
       <c r="L1052" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1052" t="n">
         <v>20</v>
       </c>
       <c r="N1052" t="n">
-        <v>220000</v>
+        <v>225000</v>
       </c>
       <c r="O1052" t="n">
-        <v>225000</v>
+        <v>230000</v>
       </c>
       <c r="P1052" t="n">
-        <v>222500</v>
+        <v>227500</v>
       </c>
       <c r="Q1052" t="inlineStr">
         <is>
@@ -84546,7 +84546,7 @@
         </is>
       </c>
       <c r="S1052" t="n">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="T1052" t="n">
         <v>400</v>
@@ -84567,7 +84567,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1053" t="n">
         <v>4</v>
@@ -84595,25 +84595,25 @@
       </c>
       <c r="K1053" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1053" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1053" t="n">
         <v>20</v>
       </c>
       <c r="N1053" t="n">
-        <v>205000</v>
+        <v>195000</v>
       </c>
       <c r="O1053" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="P1053" t="n">
-        <v>207500</v>
+        <v>197500</v>
       </c>
       <c r="Q1053" t="inlineStr">
         <is>
@@ -84626,7 +84626,7 @@
         </is>
       </c>
       <c r="S1053" t="n">
-        <v>519</v>
+        <v>494</v>
       </c>
       <c r="T1053" t="n">
         <v>400</v>
@@ -84647,7 +84647,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1054" t="n">
         <v>4</v>
@@ -84680,20 +84680,20 @@
       </c>
       <c r="L1054" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1054" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1054" t="n">
-        <v>165000</v>
+        <v>220000</v>
       </c>
       <c r="O1054" t="n">
-        <v>170000</v>
+        <v>225000</v>
       </c>
       <c r="P1054" t="n">
-        <v>167500</v>
+        <v>222500</v>
       </c>
       <c r="Q1054" t="inlineStr">
         <is>
@@ -84706,7 +84706,7 @@
         </is>
       </c>
       <c r="S1054" t="n">
-        <v>419</v>
+        <v>556</v>
       </c>
       <c r="T1054" t="n">
         <v>400</v>
@@ -84727,7 +84727,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E1055" t="n">
         <v>4</v>
@@ -84755,7 +84755,7 @@
       </c>
       <c r="K1055" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1055" t="inlineStr">
@@ -84767,13 +84767,13 @@
         <v>20</v>
       </c>
       <c r="N1055" t="n">
-        <v>265000</v>
+        <v>200000</v>
       </c>
       <c r="O1055" t="n">
-        <v>270000</v>
+        <v>205000</v>
       </c>
       <c r="P1055" t="n">
-        <v>267500</v>
+        <v>202500</v>
       </c>
       <c r="Q1055" t="inlineStr">
         <is>
@@ -84786,7 +84786,7 @@
         </is>
       </c>
       <c r="S1055" t="n">
-        <v>669</v>
+        <v>506</v>
       </c>
       <c r="T1055" t="n">
         <v>400</v>
@@ -84807,7 +84807,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E1056" t="n">
         <v>4</v>
@@ -84835,7 +84835,7 @@
       </c>
       <c r="K1056" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1056" t="inlineStr">
@@ -84847,13 +84847,13 @@
         <v>20</v>
       </c>
       <c r="N1056" t="n">
-        <v>225000</v>
+        <v>175000</v>
       </c>
       <c r="O1056" t="n">
-        <v>230000</v>
+        <v>180000</v>
       </c>
       <c r="P1056" t="n">
-        <v>227500</v>
+        <v>177500</v>
       </c>
       <c r="Q1056" t="inlineStr">
         <is>
@@ -84866,7 +84866,7 @@
         </is>
       </c>
       <c r="S1056" t="n">
-        <v>569</v>
+        <v>444</v>
       </c>
       <c r="T1056" t="n">
         <v>400</v>
@@ -84887,7 +84887,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1057" t="n">
         <v>4</v>
@@ -84915,25 +84915,25 @@
       </c>
       <c r="K1057" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1057" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1057" t="n">
         <v>16</v>
       </c>
       <c r="N1057" t="n">
-        <v>255000</v>
+        <v>285000</v>
       </c>
       <c r="O1057" t="n">
-        <v>260000</v>
+        <v>290000</v>
       </c>
       <c r="P1057" t="n">
-        <v>257500</v>
+        <v>287500</v>
       </c>
       <c r="Q1057" t="inlineStr">
         <is>
@@ -84946,7 +84946,7 @@
         </is>
       </c>
       <c r="S1057" t="n">
-        <v>644</v>
+        <v>719</v>
       </c>
       <c r="T1057" t="n">
         <v>400</v>
@@ -84967,7 +84967,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1058" t="n">
         <v>4</v>
@@ -84995,25 +84995,25 @@
       </c>
       <c r="K1058" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1058" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1058" t="n">
         <v>20</v>
       </c>
       <c r="N1058" t="n">
-        <v>205000</v>
+        <v>265000</v>
       </c>
       <c r="O1058" t="n">
-        <v>210000</v>
+        <v>270000</v>
       </c>
       <c r="P1058" t="n">
-        <v>207500</v>
+        <v>267500</v>
       </c>
       <c r="Q1058" t="inlineStr">
         <is>
@@ -85026,7 +85026,7 @@
         </is>
       </c>
       <c r="S1058" t="n">
-        <v>519</v>
+        <v>669</v>
       </c>
       <c r="T1058" t="n">
         <v>400</v>
@@ -85047,7 +85047,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1059" t="n">
         <v>4</v>
@@ -85075,25 +85075,25 @@
       </c>
       <c r="K1059" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1059" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1059" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1059" t="n">
-        <v>205000</v>
+        <v>245000</v>
       </c>
       <c r="O1059" t="n">
-        <v>210000</v>
+        <v>250000</v>
       </c>
       <c r="P1059" t="n">
-        <v>207500</v>
+        <v>247500</v>
       </c>
       <c r="Q1059" t="inlineStr">
         <is>
@@ -85106,7 +85106,7 @@
         </is>
       </c>
       <c r="S1059" t="n">
-        <v>519</v>
+        <v>619</v>
       </c>
       <c r="T1059" t="n">
         <v>400</v>
@@ -85127,7 +85127,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1060" t="n">
         <v>4</v>
@@ -85155,25 +85155,25 @@
       </c>
       <c r="K1060" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1060" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1060" t="n">
         <v>20</v>
       </c>
       <c r="N1060" t="n">
-        <v>175000</v>
+        <v>250000</v>
       </c>
       <c r="O1060" t="n">
-        <v>180000</v>
+        <v>255000</v>
       </c>
       <c r="P1060" t="n">
-        <v>177500</v>
+        <v>252500</v>
       </c>
       <c r="Q1060" t="inlineStr">
         <is>
@@ -85186,7 +85186,7 @@
         </is>
       </c>
       <c r="S1060" t="n">
-        <v>444</v>
+        <v>631</v>
       </c>
       <c r="T1060" t="n">
         <v>400</v>
@@ -85207,7 +85207,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E1061" t="n">
         <v>4</v>
@@ -85235,25 +85235,25 @@
       </c>
       <c r="K1061" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1061" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1061" t="n">
         <v>20</v>
       </c>
       <c r="N1061" t="n">
-        <v>235000</v>
+        <v>220000</v>
       </c>
       <c r="O1061" t="n">
-        <v>240000</v>
+        <v>225000</v>
       </c>
       <c r="P1061" t="n">
-        <v>237500</v>
+        <v>222500</v>
       </c>
       <c r="Q1061" t="inlineStr">
         <is>
@@ -85266,7 +85266,7 @@
         </is>
       </c>
       <c r="S1061" t="n">
-        <v>594</v>
+        <v>556</v>
       </c>
       <c r="T1061" t="n">
         <v>400</v>
@@ -85287,7 +85287,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E1062" t="n">
         <v>4</v>
@@ -85315,7 +85315,7 @@
       </c>
       <c r="K1062" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1062" t="inlineStr">
@@ -85327,13 +85327,13 @@
         <v>20</v>
       </c>
       <c r="N1062" t="n">
+        <v>205000</v>
+      </c>
+      <c r="O1062" t="n">
         <v>210000</v>
       </c>
-      <c r="O1062" t="n">
-        <v>215000</v>
-      </c>
       <c r="P1062" t="n">
-        <v>212500</v>
+        <v>207500</v>
       </c>
       <c r="Q1062" t="inlineStr">
         <is>
@@ -85346,7 +85346,7 @@
         </is>
       </c>
       <c r="S1062" t="n">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="T1062" t="n">
         <v>400</v>
@@ -85367,7 +85367,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E1063" t="n">
         <v>4</v>
@@ -85395,7 +85395,7 @@
       </c>
       <c r="K1063" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1063" t="inlineStr">
@@ -85404,16 +85404,16 @@
         </is>
       </c>
       <c r="M1063" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N1063" t="n">
-        <v>180000</v>
+        <v>165000</v>
       </c>
       <c r="O1063" t="n">
-        <v>185000</v>
+        <v>170000</v>
       </c>
       <c r="P1063" t="n">
-        <v>181786</v>
+        <v>167500</v>
       </c>
       <c r="Q1063" t="inlineStr">
         <is>
@@ -85426,7 +85426,7 @@
         </is>
       </c>
       <c r="S1063" t="n">
-        <v>454</v>
+        <v>419</v>
       </c>
       <c r="T1063" t="n">
         <v>400</v>
@@ -85447,7 +85447,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1064" t="n">
         <v>4</v>
@@ -85475,25 +85475,25 @@
       </c>
       <c r="K1064" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1064" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1064" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N1064" t="n">
-        <v>225000</v>
+        <v>265000</v>
       </c>
       <c r="O1064" t="n">
-        <v>230000</v>
+        <v>270000</v>
       </c>
       <c r="P1064" t="n">
-        <v>226786</v>
+        <v>267500</v>
       </c>
       <c r="Q1064" t="inlineStr">
         <is>
@@ -85506,7 +85506,7 @@
         </is>
       </c>
       <c r="S1064" t="n">
-        <v>567</v>
+        <v>669</v>
       </c>
       <c r="T1064" t="n">
         <v>400</v>
@@ -85527,7 +85527,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1065" t="n">
         <v>4</v>
@@ -85555,25 +85555,25 @@
       </c>
       <c r="K1065" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1065" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1065" t="n">
         <v>20</v>
       </c>
       <c r="N1065" t="n">
-        <v>205000</v>
+        <v>225000</v>
       </c>
       <c r="O1065" t="n">
-        <v>210000</v>
+        <v>230000</v>
       </c>
       <c r="P1065" t="n">
-        <v>207500</v>
+        <v>227500</v>
       </c>
       <c r="Q1065" t="inlineStr">
         <is>
@@ -85586,7 +85586,7 @@
         </is>
       </c>
       <c r="S1065" t="n">
-        <v>519</v>
+        <v>569</v>
       </c>
       <c r="T1065" t="n">
         <v>400</v>
@@ -85607,7 +85607,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1066" t="n">
         <v>4</v>
@@ -85640,20 +85640,20 @@
       </c>
       <c r="L1066" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1066" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1066" t="n">
-        <v>175000</v>
+        <v>255000</v>
       </c>
       <c r="O1066" t="n">
-        <v>180000</v>
+        <v>260000</v>
       </c>
       <c r="P1066" t="n">
-        <v>177500</v>
+        <v>257500</v>
       </c>
       <c r="Q1066" t="inlineStr">
         <is>
@@ -85666,7 +85666,7 @@
         </is>
       </c>
       <c r="S1066" t="n">
-        <v>444</v>
+        <v>644</v>
       </c>
       <c r="T1066" t="n">
         <v>400</v>
@@ -85687,7 +85687,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1067" t="n">
         <v>4</v>
@@ -85715,16 +85715,16 @@
       </c>
       <c r="K1067" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1067" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1067" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1067" t="n">
         <v>205000</v>
@@ -85767,7 +85767,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1068" t="n">
         <v>4</v>
@@ -85804,16 +85804,16 @@
         </is>
       </c>
       <c r="M1068" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1068" t="n">
-        <v>185000</v>
+        <v>205000</v>
       </c>
       <c r="O1068" t="n">
-        <v>190000</v>
+        <v>210000</v>
       </c>
       <c r="P1068" t="n">
-        <v>187500</v>
+        <v>207500</v>
       </c>
       <c r="Q1068" t="inlineStr">
         <is>
@@ -85826,7 +85826,7 @@
         </is>
       </c>
       <c r="S1068" t="n">
-        <v>469</v>
+        <v>519</v>
       </c>
       <c r="T1068" t="n">
         <v>400</v>
@@ -85847,7 +85847,7 @@
         </is>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1069" t="n">
         <v>4</v>
@@ -85884,16 +85884,16 @@
         </is>
       </c>
       <c r="M1069" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1069" t="n">
-        <v>155000</v>
+        <v>175000</v>
       </c>
       <c r="O1069" t="n">
-        <v>160000</v>
+        <v>180000</v>
       </c>
       <c r="P1069" t="n">
-        <v>157500</v>
+        <v>177500</v>
       </c>
       <c r="Q1069" t="inlineStr">
         <is>
@@ -85906,7 +85906,7 @@
         </is>
       </c>
       <c r="S1069" t="n">
-        <v>394</v>
+        <v>444</v>
       </c>
       <c r="T1069" t="n">
         <v>400</v>
@@ -85955,7 +85955,7 @@
       </c>
       <c r="K1070" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1070" t="inlineStr">
@@ -85964,7 +85964,7 @@
         </is>
       </c>
       <c r="M1070" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1070" t="n">
         <v>235000</v>
@@ -86035,7 +86035,7 @@
       </c>
       <c r="K1071" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1071" t="inlineStr">
@@ -86047,13 +86047,13 @@
         <v>20</v>
       </c>
       <c r="N1071" t="n">
+        <v>210000</v>
+      </c>
+      <c r="O1071" t="n">
         <v>215000</v>
       </c>
-      <c r="O1071" t="n">
-        <v>220000</v>
-      </c>
       <c r="P1071" t="n">
-        <v>217500</v>
+        <v>212500</v>
       </c>
       <c r="Q1071" t="inlineStr">
         <is>
@@ -86066,7 +86066,7 @@
         </is>
       </c>
       <c r="S1071" t="n">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="T1071" t="n">
         <v>400</v>
@@ -86115,7 +86115,7 @@
       </c>
       <c r="K1072" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1072" t="inlineStr">
@@ -86124,16 +86124,16 @@
         </is>
       </c>
       <c r="M1072" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N1072" t="n">
-        <v>195000</v>
+        <v>180000</v>
       </c>
       <c r="O1072" t="n">
-        <v>200000</v>
+        <v>185000</v>
       </c>
       <c r="P1072" t="n">
-        <v>197500</v>
+        <v>181786</v>
       </c>
       <c r="Q1072" t="inlineStr">
         <is>
@@ -86146,7 +86146,7 @@
         </is>
       </c>
       <c r="S1072" t="n">
-        <v>494</v>
+        <v>454</v>
       </c>
       <c r="T1072" t="n">
         <v>400</v>
@@ -86167,7 +86167,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1073" t="n">
         <v>4</v>
@@ -86195,7 +86195,7 @@
       </c>
       <c r="K1073" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1073" t="inlineStr">
@@ -86204,16 +86204,16 @@
         </is>
       </c>
       <c r="M1073" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N1073" t="n">
-        <v>325000</v>
+        <v>225000</v>
       </c>
       <c r="O1073" t="n">
-        <v>330000</v>
+        <v>230000</v>
       </c>
       <c r="P1073" t="n">
-        <v>327500</v>
+        <v>226786</v>
       </c>
       <c r="Q1073" t="inlineStr">
         <is>
@@ -86222,11 +86222,11 @@
       </c>
       <c r="R1073" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1073" t="n">
-        <v>819</v>
+        <v>567</v>
       </c>
       <c r="T1073" t="n">
         <v>400</v>
@@ -86247,7 +86247,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1074" t="n">
         <v>4</v>
@@ -86275,7 +86275,7 @@
       </c>
       <c r="K1074" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1074" t="inlineStr">
@@ -86284,16 +86284,16 @@
         </is>
       </c>
       <c r="M1074" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N1074" t="n">
-        <v>295000</v>
+        <v>205000</v>
       </c>
       <c r="O1074" t="n">
-        <v>300000</v>
+        <v>210000</v>
       </c>
       <c r="P1074" t="n">
-        <v>297500</v>
+        <v>207500</v>
       </c>
       <c r="Q1074" t="inlineStr">
         <is>
@@ -86302,11 +86302,11 @@
       </c>
       <c r="R1074" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1074" t="n">
-        <v>744</v>
+        <v>519</v>
       </c>
       <c r="T1074" t="n">
         <v>400</v>
@@ -86327,7 +86327,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1075" t="n">
         <v>4</v>
@@ -86360,20 +86360,20 @@
       </c>
       <c r="L1075" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1075" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N1075" t="n">
-        <v>295000</v>
+        <v>175000</v>
       </c>
       <c r="O1075" t="n">
-        <v>300000</v>
+        <v>180000</v>
       </c>
       <c r="P1075" t="n">
-        <v>297500</v>
+        <v>177500</v>
       </c>
       <c r="Q1075" t="inlineStr">
         <is>
@@ -86386,7 +86386,7 @@
         </is>
       </c>
       <c r="S1075" t="n">
-        <v>744</v>
+        <v>444</v>
       </c>
       <c r="T1075" t="n">
         <v>400</v>
@@ -86407,7 +86407,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1076" t="n">
         <v>4</v>
@@ -86435,25 +86435,25 @@
       </c>
       <c r="K1076" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1076" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1076" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N1076" t="n">
-        <v>255000</v>
+        <v>205000</v>
       </c>
       <c r="O1076" t="n">
-        <v>260000</v>
+        <v>210000</v>
       </c>
       <c r="P1076" t="n">
-        <v>257500</v>
+        <v>207500</v>
       </c>
       <c r="Q1076" t="inlineStr">
         <is>
@@ -86466,7 +86466,7 @@
         </is>
       </c>
       <c r="S1076" t="n">
-        <v>644</v>
+        <v>519</v>
       </c>
       <c r="T1076" t="n">
         <v>400</v>
@@ -86487,7 +86487,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1077" t="n">
         <v>4</v>
@@ -86515,25 +86515,25 @@
       </c>
       <c r="K1077" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1077" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1077" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1077" t="n">
-        <v>225000</v>
+        <v>185000</v>
       </c>
       <c r="O1077" t="n">
-        <v>230000</v>
+        <v>190000</v>
       </c>
       <c r="P1077" t="n">
-        <v>227500</v>
+        <v>187500</v>
       </c>
       <c r="Q1077" t="inlineStr">
         <is>
@@ -86546,7 +86546,7 @@
         </is>
       </c>
       <c r="S1077" t="n">
-        <v>569</v>
+        <v>469</v>
       </c>
       <c r="T1077" t="n">
         <v>400</v>
@@ -86567,7 +86567,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1078" t="n">
         <v>4</v>
@@ -86595,25 +86595,25 @@
       </c>
       <c r="K1078" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1078" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1078" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N1078" t="n">
-        <v>295000</v>
+        <v>155000</v>
       </c>
       <c r="O1078" t="n">
-        <v>300000</v>
+        <v>160000</v>
       </c>
       <c r="P1078" t="n">
-        <v>297500</v>
+        <v>157500</v>
       </c>
       <c r="Q1078" t="inlineStr">
         <is>
@@ -86626,7 +86626,7 @@
         </is>
       </c>
       <c r="S1078" t="n">
-        <v>744</v>
+        <v>394</v>
       </c>
       <c r="T1078" t="n">
         <v>400</v>
@@ -86647,7 +86647,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1079" t="n">
         <v>4</v>
@@ -86680,20 +86680,20 @@
       </c>
       <c r="L1079" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1079" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N1079" t="n">
-        <v>265000</v>
+        <v>235000</v>
       </c>
       <c r="O1079" t="n">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="P1079" t="n">
-        <v>267500</v>
+        <v>237500</v>
       </c>
       <c r="Q1079" t="inlineStr">
         <is>
@@ -86706,7 +86706,7 @@
         </is>
       </c>
       <c r="S1079" t="n">
-        <v>669</v>
+        <v>594</v>
       </c>
       <c r="T1079" t="n">
         <v>400</v>
@@ -86727,7 +86727,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1080" t="n">
         <v>4</v>
@@ -86760,20 +86760,20 @@
       </c>
       <c r="L1080" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1080" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1080" t="n">
-        <v>235000</v>
+        <v>215000</v>
       </c>
       <c r="O1080" t="n">
-        <v>240000</v>
+        <v>220000</v>
       </c>
       <c r="P1080" t="n">
-        <v>237500</v>
+        <v>217500</v>
       </c>
       <c r="Q1080" t="inlineStr">
         <is>
@@ -86786,7 +86786,7 @@
         </is>
       </c>
       <c r="S1080" t="n">
-        <v>594</v>
+        <v>544</v>
       </c>
       <c r="T1080" t="n">
         <v>400</v>
@@ -86807,7 +86807,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E1081" t="n">
         <v>4</v>
@@ -86835,25 +86835,25 @@
       </c>
       <c r="K1081" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1081" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1081" t="n">
         <v>16</v>
       </c>
       <c r="N1081" t="n">
-        <v>315000</v>
+        <v>195000</v>
       </c>
       <c r="O1081" t="n">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="P1081" t="n">
-        <v>317500</v>
+        <v>197500</v>
       </c>
       <c r="Q1081" t="inlineStr">
         <is>
@@ -86866,7 +86866,7 @@
         </is>
       </c>
       <c r="S1081" t="n">
-        <v>794</v>
+        <v>494</v>
       </c>
       <c r="T1081" t="n">
         <v>400</v>
@@ -86887,7 +86887,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1082" t="n">
         <v>4</v>
@@ -86920,20 +86920,20 @@
       </c>
       <c r="L1082" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1082" t="n">
         <v>20</v>
       </c>
       <c r="N1082" t="n">
-        <v>295000</v>
+        <v>325000</v>
       </c>
       <c r="O1082" t="n">
-        <v>300000</v>
+        <v>330000</v>
       </c>
       <c r="P1082" t="n">
-        <v>297500</v>
+        <v>327500</v>
       </c>
       <c r="Q1082" t="inlineStr">
         <is>
@@ -86942,11 +86942,11 @@
       </c>
       <c r="R1082" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1082" t="n">
-        <v>744</v>
+        <v>819</v>
       </c>
       <c r="T1082" t="n">
         <v>400</v>
@@ -86967,7 +86967,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1083" t="n">
         <v>4</v>
@@ -87000,20 +87000,20 @@
       </c>
       <c r="L1083" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1083" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N1083" t="n">
-        <v>275000</v>
+        <v>295000</v>
       </c>
       <c r="O1083" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="P1083" t="n">
-        <v>277500</v>
+        <v>297500</v>
       </c>
       <c r="Q1083" t="inlineStr">
         <is>
@@ -87022,11 +87022,11 @@
       </c>
       <c r="R1083" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1083" t="n">
-        <v>694</v>
+        <v>744</v>
       </c>
       <c r="T1083" t="n">
         <v>400</v>
@@ -87047,7 +87047,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1084" t="n">
         <v>4</v>
@@ -87084,16 +87084,16 @@
         </is>
       </c>
       <c r="M1084" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N1084" t="n">
-        <v>305000</v>
+        <v>295000</v>
       </c>
       <c r="O1084" t="n">
-        <v>310000</v>
+        <v>300000</v>
       </c>
       <c r="P1084" t="n">
-        <v>307500</v>
+        <v>297500</v>
       </c>
       <c r="Q1084" t="inlineStr">
         <is>
@@ -87102,11 +87102,11 @@
       </c>
       <c r="R1084" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1084" t="n">
-        <v>769</v>
+        <v>744</v>
       </c>
       <c r="T1084" t="n">
         <v>400</v>
@@ -87127,7 +87127,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1085" t="n">
         <v>4</v>
@@ -87164,16 +87164,16 @@
         </is>
       </c>
       <c r="M1085" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N1085" t="n">
-        <v>275000</v>
+        <v>255000</v>
       </c>
       <c r="O1085" t="n">
-        <v>280000</v>
+        <v>260000</v>
       </c>
       <c r="P1085" t="n">
-        <v>277500</v>
+        <v>257500</v>
       </c>
       <c r="Q1085" t="inlineStr">
         <is>
@@ -87182,11 +87182,11 @@
       </c>
       <c r="R1085" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1085" t="n">
-        <v>694</v>
+        <v>644</v>
       </c>
       <c r="T1085" t="n">
         <v>400</v>
@@ -87207,7 +87207,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1086" t="n">
         <v>4</v>
@@ -87244,16 +87244,16 @@
         </is>
       </c>
       <c r="M1086" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1086" t="n">
-        <v>235000</v>
+        <v>225000</v>
       </c>
       <c r="O1086" t="n">
-        <v>240000</v>
+        <v>230000</v>
       </c>
       <c r="P1086" t="n">
-        <v>237500</v>
+        <v>227500</v>
       </c>
       <c r="Q1086" t="inlineStr">
         <is>
@@ -87262,11 +87262,11 @@
       </c>
       <c r="R1086" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1086" t="n">
-        <v>594</v>
+        <v>569</v>
       </c>
       <c r="T1086" t="n">
         <v>400</v>
@@ -87287,7 +87287,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1087" t="n">
         <v>4</v>
@@ -87315,25 +87315,25 @@
       </c>
       <c r="K1087" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1087" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1087" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N1087" t="n">
-        <v>195000</v>
+        <v>295000</v>
       </c>
       <c r="O1087" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="P1087" t="n">
-        <v>197500</v>
+        <v>297500</v>
       </c>
       <c r="Q1087" t="inlineStr">
         <is>
@@ -87346,7 +87346,7 @@
         </is>
       </c>
       <c r="S1087" t="n">
-        <v>494</v>
+        <v>744</v>
       </c>
       <c r="T1087" t="n">
         <v>400</v>
@@ -87367,7 +87367,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1088" t="n">
         <v>4</v>
@@ -87395,7 +87395,7 @@
       </c>
       <c r="K1088" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1088" t="inlineStr">
@@ -87404,16 +87404,16 @@
         </is>
       </c>
       <c r="M1088" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N1088" t="n">
-        <v>255000</v>
+        <v>265000</v>
       </c>
       <c r="O1088" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="P1088" t="n">
-        <v>257500</v>
+        <v>267500</v>
       </c>
       <c r="Q1088" t="inlineStr">
         <is>
@@ -87426,7 +87426,7 @@
         </is>
       </c>
       <c r="S1088" t="n">
-        <v>644</v>
+        <v>669</v>
       </c>
       <c r="T1088" t="n">
         <v>400</v>
@@ -87447,7 +87447,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E1089" t="n">
         <v>4</v>
@@ -87475,25 +87475,25 @@
       </c>
       <c r="K1089" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1089" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1089" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1089" t="n">
-        <v>245000</v>
+        <v>235000</v>
       </c>
       <c r="O1089" t="n">
-        <v>250000</v>
+        <v>240000</v>
       </c>
       <c r="P1089" t="n">
-        <v>247500</v>
+        <v>237500</v>
       </c>
       <c r="Q1089" t="inlineStr">
         <is>
@@ -87502,11 +87502,11 @@
       </c>
       <c r="R1089" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1089" t="n">
-        <v>619</v>
+        <v>594</v>
       </c>
       <c r="T1089" t="n">
         <v>400</v>
@@ -87527,7 +87527,7 @@
         </is>
       </c>
       <c r="D1090" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1090" t="n">
         <v>4</v>
@@ -87560,20 +87560,20 @@
       </c>
       <c r="L1090" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1090" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1090" t="n">
-        <v>225000</v>
+        <v>315000</v>
       </c>
       <c r="O1090" t="n">
-        <v>230000</v>
+        <v>320000</v>
       </c>
       <c r="P1090" t="n">
-        <v>227500</v>
+        <v>317500</v>
       </c>
       <c r="Q1090" t="inlineStr">
         <is>
@@ -87582,11 +87582,11 @@
       </c>
       <c r="R1090" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1090" t="n">
-        <v>569</v>
+        <v>794</v>
       </c>
       <c r="T1090" t="n">
         <v>400</v>
@@ -87607,7 +87607,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1091" t="n">
         <v>4</v>
@@ -87640,20 +87640,20 @@
       </c>
       <c r="L1091" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1091" t="n">
         <v>20</v>
       </c>
       <c r="N1091" t="n">
-        <v>195000</v>
+        <v>295000</v>
       </c>
       <c r="O1091" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="P1091" t="n">
-        <v>197500</v>
+        <v>297500</v>
       </c>
       <c r="Q1091" t="inlineStr">
         <is>
@@ -87662,11 +87662,11 @@
       </c>
       <c r="R1091" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1091" t="n">
-        <v>494</v>
+        <v>744</v>
       </c>
       <c r="T1091" t="n">
         <v>400</v>
@@ -87687,7 +87687,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1092" t="n">
         <v>4</v>
@@ -87715,25 +87715,25 @@
       </c>
       <c r="K1092" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1092" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1092" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1092" t="n">
-        <v>235000</v>
+        <v>275000</v>
       </c>
       <c r="O1092" t="n">
-        <v>240000</v>
+        <v>280000</v>
       </c>
       <c r="P1092" t="n">
-        <v>237500</v>
+        <v>277500</v>
       </c>
       <c r="Q1092" t="inlineStr">
         <is>
@@ -87742,11 +87742,11 @@
       </c>
       <c r="R1092" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1092" t="n">
-        <v>594</v>
+        <v>694</v>
       </c>
       <c r="T1092" t="n">
         <v>400</v>
@@ -87767,7 +87767,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1093" t="n">
         <v>4</v>
@@ -87800,20 +87800,20 @@
       </c>
       <c r="L1093" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1093" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1093" t="n">
-        <v>205000</v>
+        <v>305000</v>
       </c>
       <c r="O1093" t="n">
-        <v>210000</v>
+        <v>310000</v>
       </c>
       <c r="P1093" t="n">
-        <v>207500</v>
+        <v>307500</v>
       </c>
       <c r="Q1093" t="inlineStr">
         <is>
@@ -87826,7 +87826,7 @@
         </is>
       </c>
       <c r="S1093" t="n">
-        <v>519</v>
+        <v>769</v>
       </c>
       <c r="T1093" t="n">
         <v>400</v>
@@ -87847,7 +87847,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1094" t="n">
         <v>4</v>
@@ -87880,20 +87880,20 @@
       </c>
       <c r="L1094" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1094" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N1094" t="n">
-        <v>185000</v>
+        <v>275000</v>
       </c>
       <c r="O1094" t="n">
-        <v>190000</v>
+        <v>280000</v>
       </c>
       <c r="P1094" t="n">
-        <v>187500</v>
+        <v>277500</v>
       </c>
       <c r="Q1094" t="inlineStr">
         <is>
@@ -87906,7 +87906,7 @@
         </is>
       </c>
       <c r="S1094" t="n">
-        <v>469</v>
+        <v>694</v>
       </c>
       <c r="T1094" t="n">
         <v>400</v>
@@ -87927,7 +87927,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1095" t="n">
         <v>4</v>
@@ -87955,25 +87955,25 @@
       </c>
       <c r="K1095" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1095" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1095" t="n">
         <v>20</v>
       </c>
       <c r="N1095" t="n">
-        <v>175000</v>
+        <v>235000</v>
       </c>
       <c r="O1095" t="n">
-        <v>180000</v>
+        <v>240000</v>
       </c>
       <c r="P1095" t="n">
-        <v>177500</v>
+        <v>237500</v>
       </c>
       <c r="Q1095" t="inlineStr">
         <is>
@@ -87982,11 +87982,11 @@
       </c>
       <c r="R1095" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1095" t="n">
-        <v>444</v>
+        <v>594</v>
       </c>
       <c r="T1095" t="n">
         <v>400</v>
@@ -88007,7 +88007,7 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1096" t="n">
         <v>4</v>
@@ -88040,20 +88040,20 @@
       </c>
       <c r="L1096" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1096" t="n">
         <v>20</v>
       </c>
       <c r="N1096" t="n">
-        <v>155000</v>
+        <v>195000</v>
       </c>
       <c r="O1096" t="n">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="P1096" t="n">
-        <v>157500</v>
+        <v>197500</v>
       </c>
       <c r="Q1096" t="inlineStr">
         <is>
@@ -88066,7 +88066,7 @@
         </is>
       </c>
       <c r="S1096" t="n">
-        <v>394</v>
+        <v>494</v>
       </c>
       <c r="T1096" t="n">
         <v>400</v>
@@ -88087,7 +88087,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1097" t="n">
         <v>4</v>
@@ -88120,20 +88120,20 @@
       </c>
       <c r="L1097" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1097" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1097" t="n">
-        <v>235000</v>
+        <v>255000</v>
       </c>
       <c r="O1097" t="n">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="P1097" t="n">
-        <v>237500</v>
+        <v>257500</v>
       </c>
       <c r="Q1097" t="inlineStr">
         <is>
@@ -88146,7 +88146,7 @@
         </is>
       </c>
       <c r="S1097" t="n">
-        <v>594</v>
+        <v>644</v>
       </c>
       <c r="T1097" t="n">
         <v>400</v>
@@ -88195,25 +88195,25 @@
       </c>
       <c r="K1098" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1098" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1098" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1098" t="n">
-        <v>215000</v>
+        <v>245000</v>
       </c>
       <c r="O1098" t="n">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="P1098" t="n">
-        <v>217500</v>
+        <v>247500</v>
       </c>
       <c r="Q1098" t="inlineStr">
         <is>
@@ -88222,11 +88222,11 @@
       </c>
       <c r="R1098" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1098" t="n">
-        <v>544</v>
+        <v>619</v>
       </c>
       <c r="T1098" t="n">
         <v>400</v>
@@ -88275,25 +88275,25 @@
       </c>
       <c r="K1099" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1099" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1099" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1099" t="n">
-        <v>195000</v>
+        <v>225000</v>
       </c>
       <c r="O1099" t="n">
-        <v>200000</v>
+        <v>230000</v>
       </c>
       <c r="P1099" t="n">
-        <v>197500</v>
+        <v>227500</v>
       </c>
       <c r="Q1099" t="inlineStr">
         <is>
@@ -88302,11 +88302,11 @@
       </c>
       <c r="R1099" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1099" t="n">
-        <v>494</v>
+        <v>569</v>
       </c>
       <c r="T1099" t="n">
         <v>400</v>
@@ -88327,7 +88327,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1100" t="n">
         <v>4</v>
@@ -88360,20 +88360,20 @@
       </c>
       <c r="L1100" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1100" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1100" t="n">
-        <v>305000</v>
+        <v>195000</v>
       </c>
       <c r="O1100" t="n">
-        <v>310000</v>
+        <v>200000</v>
       </c>
       <c r="P1100" t="n">
-        <v>307500</v>
+        <v>197500</v>
       </c>
       <c r="Q1100" t="inlineStr">
         <is>
@@ -88386,7 +88386,7 @@
         </is>
       </c>
       <c r="S1100" t="n">
-        <v>769</v>
+        <v>494</v>
       </c>
       <c r="T1100" t="n">
         <v>400</v>
@@ -88407,7 +88407,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1101" t="n">
         <v>4</v>
@@ -88435,25 +88435,25 @@
       </c>
       <c r="K1101" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1101" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1101" t="n">
-        <v>285000</v>
+        <v>235000</v>
       </c>
       <c r="O1101" t="n">
-        <v>290000</v>
+        <v>240000</v>
       </c>
       <c r="P1101" t="n">
-        <v>287500</v>
+        <v>237500</v>
       </c>
       <c r="Q1101" t="inlineStr">
         <is>
@@ -88466,7 +88466,7 @@
         </is>
       </c>
       <c r="S1101" t="n">
-        <v>719</v>
+        <v>594</v>
       </c>
       <c r="T1101" t="n">
         <v>400</v>
@@ -88487,7 +88487,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1102" t="n">
         <v>4</v>
@@ -88515,25 +88515,25 @@
       </c>
       <c r="K1102" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1102" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1102" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N1102" t="n">
-        <v>245000</v>
+        <v>205000</v>
       </c>
       <c r="O1102" t="n">
-        <v>250000</v>
+        <v>210000</v>
       </c>
       <c r="P1102" t="n">
-        <v>248214</v>
+        <v>207500</v>
       </c>
       <c r="Q1102" t="inlineStr">
         <is>
@@ -88546,7 +88546,7 @@
         </is>
       </c>
       <c r="S1102" t="n">
-        <v>621</v>
+        <v>519</v>
       </c>
       <c r="T1102" t="n">
         <v>400</v>
@@ -88567,7 +88567,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1103" t="n">
         <v>4</v>
@@ -88600,20 +88600,20 @@
       </c>
       <c r="L1103" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1103" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N1103" t="n">
-        <v>305000</v>
+        <v>185000</v>
       </c>
       <c r="O1103" t="n">
-        <v>310000</v>
+        <v>190000</v>
       </c>
       <c r="P1103" t="n">
-        <v>307500</v>
+        <v>187500</v>
       </c>
       <c r="Q1103" t="inlineStr">
         <is>
@@ -88626,7 +88626,7 @@
         </is>
       </c>
       <c r="S1103" t="n">
-        <v>769</v>
+        <v>469</v>
       </c>
       <c r="T1103" t="n">
         <v>400</v>
@@ -88647,7 +88647,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1104" t="n">
         <v>4</v>
@@ -88675,7 +88675,7 @@
       </c>
       <c r="K1104" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1104" t="inlineStr">
@@ -88684,16 +88684,16 @@
         </is>
       </c>
       <c r="M1104" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N1104" t="n">
-        <v>245000</v>
+        <v>175000</v>
       </c>
       <c r="O1104" t="n">
-        <v>250000</v>
+        <v>180000</v>
       </c>
       <c r="P1104" t="n">
-        <v>247500</v>
+        <v>177500</v>
       </c>
       <c r="Q1104" t="inlineStr">
         <is>
@@ -88702,11 +88702,11 @@
       </c>
       <c r="R1104" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1104" t="n">
-        <v>619</v>
+        <v>444</v>
       </c>
       <c r="T1104" t="n">
         <v>400</v>
@@ -88727,7 +88727,7 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1105" t="n">
         <v>4</v>
@@ -88755,7 +88755,7 @@
       </c>
       <c r="K1105" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1105" t="inlineStr">
@@ -88764,16 +88764,16 @@
         </is>
       </c>
       <c r="M1105" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1105" t="n">
-        <v>225000</v>
+        <v>155000</v>
       </c>
       <c r="O1105" t="n">
-        <v>230000</v>
+        <v>160000</v>
       </c>
       <c r="P1105" t="n">
-        <v>227500</v>
+        <v>157500</v>
       </c>
       <c r="Q1105" t="inlineStr">
         <is>
@@ -88782,11 +88782,11 @@
       </c>
       <c r="R1105" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1105" t="n">
-        <v>569</v>
+        <v>394</v>
       </c>
       <c r="T1105" t="n">
         <v>400</v>
@@ -88807,7 +88807,7 @@
         </is>
       </c>
       <c r="D1106" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1106" t="n">
         <v>4</v>
@@ -88835,25 +88835,25 @@
       </c>
       <c r="K1106" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1106" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1106" t="n">
         <v>16</v>
       </c>
       <c r="N1106" t="n">
-        <v>225000</v>
+        <v>235000</v>
       </c>
       <c r="O1106" t="n">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="P1106" t="n">
-        <v>227500</v>
+        <v>237500</v>
       </c>
       <c r="Q1106" t="inlineStr">
         <is>
@@ -88866,7 +88866,7 @@
         </is>
       </c>
       <c r="S1106" t="n">
-        <v>569</v>
+        <v>594</v>
       </c>
       <c r="T1106" t="n">
         <v>400</v>
@@ -88887,7 +88887,7 @@
         </is>
       </c>
       <c r="D1107" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1107" t="n">
         <v>4</v>
@@ -88915,25 +88915,25 @@
       </c>
       <c r="K1107" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1107" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1107" t="n">
         <v>16</v>
       </c>
       <c r="N1107" t="n">
-        <v>195000</v>
+        <v>215000</v>
       </c>
       <c r="O1107" t="n">
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="P1107" t="n">
-        <v>197500</v>
+        <v>217500</v>
       </c>
       <c r="Q1107" t="inlineStr">
         <is>
@@ -88946,7 +88946,7 @@
         </is>
       </c>
       <c r="S1107" t="n">
-        <v>494</v>
+        <v>544</v>
       </c>
       <c r="T1107" t="n">
         <v>400</v>
@@ -88967,7 +88967,7 @@
         </is>
       </c>
       <c r="D1108" s="2" t="n">
-        <v>44181</v>
+        <v>44400</v>
       </c>
       <c r="E1108" t="n">
         <v>4</v>
@@ -88995,25 +88995,25 @@
       </c>
       <c r="K1108" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1108" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1108" t="n">
         <v>16</v>
       </c>
       <c r="N1108" t="n">
-        <v>325000</v>
+        <v>195000</v>
       </c>
       <c r="O1108" t="n">
-        <v>330000</v>
+        <v>200000</v>
       </c>
       <c r="P1108" t="n">
-        <v>327500</v>
+        <v>197500</v>
       </c>
       <c r="Q1108" t="inlineStr">
         <is>
@@ -89022,11 +89022,11 @@
       </c>
       <c r="R1108" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1108" t="n">
-        <v>819</v>
+        <v>494</v>
       </c>
       <c r="T1108" t="n">
         <v>400</v>
@@ -89047,7 +89047,7 @@
         </is>
       </c>
       <c r="D1109" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1109" t="n">
         <v>4</v>
@@ -89080,20 +89080,20 @@
       </c>
       <c r="L1109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1109" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1109" t="n">
-        <v>295000</v>
+        <v>305000</v>
       </c>
       <c r="O1109" t="n">
-        <v>300000</v>
+        <v>310000</v>
       </c>
       <c r="P1109" t="n">
-        <v>297500</v>
+        <v>307500</v>
       </c>
       <c r="Q1109" t="inlineStr">
         <is>
@@ -89102,11 +89102,11 @@
       </c>
       <c r="R1109" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1109" t="n">
-        <v>744</v>
+        <v>769</v>
       </c>
       <c r="T1109" t="n">
         <v>400</v>
@@ -89127,7 +89127,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1110" t="n">
         <v>4</v>
@@ -89160,20 +89160,20 @@
       </c>
       <c r="L1110" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1110" t="n">
         <v>20</v>
       </c>
       <c r="N1110" t="n">
-        <v>255000</v>
+        <v>285000</v>
       </c>
       <c r="O1110" t="n">
-        <v>260000</v>
+        <v>290000</v>
       </c>
       <c r="P1110" t="n">
-        <v>257500</v>
+        <v>287500</v>
       </c>
       <c r="Q1110" t="inlineStr">
         <is>
@@ -89182,11 +89182,11 @@
       </c>
       <c r="R1110" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1110" t="n">
-        <v>644</v>
+        <v>719</v>
       </c>
       <c r="T1110" t="n">
         <v>400</v>
@@ -89207,7 +89207,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E1111" t="n">
         <v>4</v>
@@ -89240,20 +89240,20 @@
       </c>
       <c r="L1111" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1111" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="N1111" t="n">
-        <v>305000</v>
+        <v>245000</v>
       </c>
       <c r="O1111" t="n">
-        <v>310000</v>
+        <v>250000</v>
       </c>
       <c r="P1111" t="n">
-        <v>307500</v>
+        <v>248214</v>
       </c>
       <c r="Q1111" t="inlineStr">
         <is>
@@ -89266,7 +89266,7 @@
         </is>
       </c>
       <c r="S1111" t="n">
-        <v>769</v>
+        <v>621</v>
       </c>
       <c r="T1111" t="n">
         <v>400</v>
@@ -89287,7 +89287,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E1112" t="n">
         <v>4</v>
@@ -89315,25 +89315,25 @@
       </c>
       <c r="K1112" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1112" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N1112" t="n">
-        <v>285000</v>
+        <v>305000</v>
       </c>
       <c r="O1112" t="n">
-        <v>290000</v>
+        <v>310000</v>
       </c>
       <c r="P1112" t="n">
-        <v>287500</v>
+        <v>307500</v>
       </c>
       <c r="Q1112" t="inlineStr">
         <is>
@@ -89346,7 +89346,7 @@
         </is>
       </c>
       <c r="S1112" t="n">
-        <v>719</v>
+        <v>769</v>
       </c>
       <c r="T1112" t="n">
         <v>400</v>
@@ -89367,7 +89367,7 @@
         </is>
       </c>
       <c r="D1113" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E1113" t="n">
         <v>4</v>
@@ -89395,25 +89395,25 @@
       </c>
       <c r="K1113" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1113" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1113" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N1113" t="n">
-        <v>265000</v>
+        <v>245000</v>
       </c>
       <c r="O1113" t="n">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="P1113" t="n">
-        <v>267500</v>
+        <v>247500</v>
       </c>
       <c r="Q1113" t="inlineStr">
         <is>
@@ -89426,7 +89426,7 @@
         </is>
       </c>
       <c r="S1113" t="n">
-        <v>669</v>
+        <v>619</v>
       </c>
       <c r="T1113" t="n">
         <v>400</v>
@@ -89447,7 +89447,7 @@
         </is>
       </c>
       <c r="D1114" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E1114" t="n">
         <v>4</v>
@@ -89480,20 +89480,20 @@
       </c>
       <c r="L1114" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1114" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N1114" t="n">
-        <v>295000</v>
+        <v>225000</v>
       </c>
       <c r="O1114" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="P1114" t="n">
-        <v>297500</v>
+        <v>227500</v>
       </c>
       <c r="Q1114" t="inlineStr">
         <is>
@@ -89506,7 +89506,7 @@
         </is>
       </c>
       <c r="S1114" t="n">
-        <v>744</v>
+        <v>569</v>
       </c>
       <c r="T1114" t="n">
         <v>400</v>
@@ -89527,7 +89527,7 @@
         </is>
       </c>
       <c r="D1115" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E1115" t="n">
         <v>4</v>
@@ -89555,7 +89555,7 @@
       </c>
       <c r="K1115" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1115" t="inlineStr">
@@ -89567,13 +89567,13 @@
         <v>16</v>
       </c>
       <c r="N1115" t="n">
-        <v>265000</v>
+        <v>225000</v>
       </c>
       <c r="O1115" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="P1115" t="n">
-        <v>267500</v>
+        <v>227500</v>
       </c>
       <c r="Q1115" t="inlineStr">
         <is>
@@ -89582,11 +89582,11 @@
       </c>
       <c r="R1115" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1115" t="n">
-        <v>669</v>
+        <v>569</v>
       </c>
       <c r="T1115" t="n">
         <v>400</v>
@@ -89607,7 +89607,7 @@
         </is>
       </c>
       <c r="D1116" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E1116" t="n">
         <v>4</v>
@@ -89635,7 +89635,7 @@
       </c>
       <c r="K1116" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1116" t="inlineStr">
@@ -89644,16 +89644,16 @@
         </is>
       </c>
       <c r="M1116" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N1116" t="n">
-        <v>235000</v>
+        <v>195000</v>
       </c>
       <c r="O1116" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="P1116" t="n">
-        <v>237500</v>
+        <v>197500</v>
       </c>
       <c r="Q1116" t="inlineStr">
         <is>
@@ -89662,11 +89662,11 @@
       </c>
       <c r="R1116" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1116" t="n">
-        <v>594</v>
+        <v>494</v>
       </c>
       <c r="T1116" t="n">
         <v>400</v>
@@ -89687,7 +89687,7 @@
         </is>
       </c>
       <c r="D1117" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1117" t="n">
         <v>4</v>
@@ -89715,7 +89715,7 @@
       </c>
       <c r="K1117" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1117" t="inlineStr">
@@ -89727,13 +89727,13 @@
         <v>16</v>
       </c>
       <c r="N1117" t="n">
-        <v>235000</v>
+        <v>325000</v>
       </c>
       <c r="O1117" t="n">
-        <v>240000</v>
+        <v>330000</v>
       </c>
       <c r="P1117" t="n">
-        <v>237500</v>
+        <v>327500</v>
       </c>
       <c r="Q1117" t="inlineStr">
         <is>
@@ -89742,11 +89742,11 @@
       </c>
       <c r="R1117" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S1117" t="n">
-        <v>594</v>
+        <v>819</v>
       </c>
       <c r="T1117" t="n">
         <v>400</v>
@@ -89767,7 +89767,7 @@
         </is>
       </c>
       <c r="D1118" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1118" t="n">
         <v>4</v>
@@ -89795,7 +89795,7 @@
       </c>
       <c r="K1118" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1118" t="inlineStr">
@@ -89804,16 +89804,16 @@
         </is>
       </c>
       <c r="M1118" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1118" t="n">
-        <v>205000</v>
+        <v>295000</v>
       </c>
       <c r="O1118" t="n">
-        <v>210000</v>
+        <v>300000</v>
       </c>
       <c r="P1118" t="n">
-        <v>207500</v>
+        <v>297500</v>
       </c>
       <c r="Q1118" t="inlineStr">
         <is>
@@ -89822,11 +89822,11 @@
       </c>
       <c r="R1118" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S1118" t="n">
-        <v>519</v>
+        <v>744</v>
       </c>
       <c r="T1118" t="n">
         <v>400</v>
@@ -89847,7 +89847,7 @@
         </is>
       </c>
       <c r="D1119" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E1119" t="n">
         <v>4</v>
@@ -89875,25 +89875,25 @@
       </c>
       <c r="K1119" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1119" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1119" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N1119" t="n">
-        <v>215000</v>
+        <v>255000</v>
       </c>
       <c r="O1119" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="P1119" t="n">
-        <v>217500</v>
+        <v>257500</v>
       </c>
       <c r="Q1119" t="inlineStr">
         <is>
@@ -89902,11 +89902,11 @@
       </c>
       <c r="R1119" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="S1119" t="n">
-        <v>544</v>
+        <v>644</v>
       </c>
       <c r="T1119" t="n">
         <v>400</v>
@@ -89927,7 +89927,7 @@
         </is>
       </c>
       <c r="D1120" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1120" t="n">
         <v>4</v>
@@ -89955,25 +89955,25 @@
       </c>
       <c r="K1120" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1120" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1120" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N1120" t="n">
-        <v>195000</v>
+        <v>305000</v>
       </c>
       <c r="O1120" t="n">
-        <v>200000</v>
+        <v>310000</v>
       </c>
       <c r="P1120" t="n">
-        <v>197500</v>
+        <v>307500</v>
       </c>
       <c r="Q1120" t="inlineStr">
         <is>
@@ -89986,7 +89986,7 @@
         </is>
       </c>
       <c r="S1120" t="n">
-        <v>494</v>
+        <v>769</v>
       </c>
       <c r="T1120" t="n">
         <v>400</v>
@@ -90007,7 +90007,7 @@
         </is>
       </c>
       <c r="D1121" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1121" t="n">
         <v>4</v>
@@ -90035,25 +90035,25 @@
       </c>
       <c r="K1121" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1121" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1121" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N1121" t="n">
-        <v>175000</v>
+        <v>285000</v>
       </c>
       <c r="O1121" t="n">
-        <v>180000</v>
+        <v>290000</v>
       </c>
       <c r="P1121" t="n">
-        <v>177500</v>
+        <v>287500</v>
       </c>
       <c r="Q1121" t="inlineStr">
         <is>
@@ -90066,7 +90066,7 @@
         </is>
       </c>
       <c r="S1121" t="n">
-        <v>444</v>
+        <v>719</v>
       </c>
       <c r="T1121" t="n">
         <v>400</v>
@@ -90087,7 +90087,7 @@
         </is>
       </c>
       <c r="D1122" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1122" t="n">
         <v>4</v>
@@ -90115,25 +90115,25 @@
       </c>
       <c r="K1122" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1122" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1122" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N1122" t="n">
-        <v>205000</v>
+        <v>265000</v>
       </c>
       <c r="O1122" t="n">
-        <v>210000</v>
+        <v>270000</v>
       </c>
       <c r="P1122" t="n">
-        <v>207500</v>
+        <v>267500</v>
       </c>
       <c r="Q1122" t="inlineStr">
         <is>
@@ -90142,11 +90142,11 @@
       </c>
       <c r="R1122" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1122" t="n">
-        <v>519</v>
+        <v>669</v>
       </c>
       <c r="T1122" t="n">
         <v>400</v>
@@ -90167,7 +90167,7 @@
         </is>
       </c>
       <c r="D1123" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1123" t="n">
         <v>4</v>
@@ -90195,25 +90195,25 @@
       </c>
       <c r="K1123" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1123" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1123" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N1123" t="n">
-        <v>185000</v>
+        <v>295000</v>
       </c>
       <c r="O1123" t="n">
-        <v>190000</v>
+        <v>300000</v>
       </c>
       <c r="P1123" t="n">
-        <v>187500</v>
+        <v>297500</v>
       </c>
       <c r="Q1123" t="inlineStr">
         <is>
@@ -90222,11 +90222,11 @@
       </c>
       <c r="R1123" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1123" t="n">
-        <v>469</v>
+        <v>744</v>
       </c>
       <c r="T1123" t="n">
         <v>400</v>
@@ -90247,7 +90247,7 @@
         </is>
       </c>
       <c r="D1124" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E1124" t="n">
         <v>4</v>
@@ -90275,25 +90275,25 @@
       </c>
       <c r="K1124" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1124" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1124" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1124" t="n">
-        <v>255000</v>
+        <v>265000</v>
       </c>
       <c r="O1124" t="n">
-        <v>260000</v>
+        <v>270000</v>
       </c>
       <c r="P1124" t="n">
-        <v>257500</v>
+        <v>267500</v>
       </c>
       <c r="Q1124" t="inlineStr">
         <is>
@@ -90302,11 +90302,11 @@
       </c>
       <c r="R1124" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1124" t="n">
-        <v>644</v>
+        <v>669</v>
       </c>
       <c r="T1124" t="n">
         <v>400</v>
@@ -90327,7 +90327,7 @@
         </is>
       </c>
       <c r="D1125" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E1125" t="n">
         <v>4</v>
@@ -90355,25 +90355,25 @@
       </c>
       <c r="K1125" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1125" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1125" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N1125" t="n">
-        <v>225000</v>
+        <v>235000</v>
       </c>
       <c r="O1125" t="n">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="P1125" t="n">
-        <v>227500</v>
+        <v>237500</v>
       </c>
       <c r="Q1125" t="inlineStr">
         <is>
@@ -90382,11 +90382,11 @@
       </c>
       <c r="R1125" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1125" t="n">
-        <v>569</v>
+        <v>594</v>
       </c>
       <c r="T1125" t="n">
         <v>400</v>
@@ -90407,7 +90407,7 @@
         </is>
       </c>
       <c r="D1126" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E1126" t="n">
         <v>4</v>
@@ -90435,7 +90435,7 @@
       </c>
       <c r="K1126" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1126" t="inlineStr">
@@ -90444,16 +90444,16 @@
         </is>
       </c>
       <c r="M1126" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1126" t="n">
-        <v>255000</v>
+        <v>235000</v>
       </c>
       <c r="O1126" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="P1126" t="n">
-        <v>257500</v>
+        <v>237500</v>
       </c>
       <c r="Q1126" t="inlineStr">
         <is>
@@ -90466,7 +90466,7 @@
         </is>
       </c>
       <c r="S1126" t="n">
-        <v>644</v>
+        <v>594</v>
       </c>
       <c r="T1126" t="n">
         <v>400</v>
@@ -90487,7 +90487,7 @@
         </is>
       </c>
       <c r="D1127" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E1127" t="n">
         <v>4</v>
@@ -90515,7 +90515,7 @@
       </c>
       <c r="K1127" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1127" t="inlineStr">
@@ -90524,16 +90524,16 @@
         </is>
       </c>
       <c r="M1127" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1127" t="n">
-        <v>225000</v>
+        <v>205000</v>
       </c>
       <c r="O1127" t="n">
-        <v>230000</v>
+        <v>210000</v>
       </c>
       <c r="P1127" t="n">
-        <v>227500</v>
+        <v>207500</v>
       </c>
       <c r="Q1127" t="inlineStr">
         <is>
@@ -90546,7 +90546,7 @@
         </is>
       </c>
       <c r="S1127" t="n">
-        <v>569</v>
+        <v>519</v>
       </c>
       <c r="T1127" t="n">
         <v>400</v>
@@ -90567,7 +90567,7 @@
         </is>
       </c>
       <c r="D1128" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1128" t="n">
         <v>4</v>
@@ -90595,25 +90595,25 @@
       </c>
       <c r="K1128" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1128" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1128" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N1128" t="n">
-        <v>205000</v>
+        <v>215000</v>
       </c>
       <c r="O1128" t="n">
-        <v>210000</v>
+        <v>220000</v>
       </c>
       <c r="P1128" t="n">
-        <v>207500</v>
+        <v>217500</v>
       </c>
       <c r="Q1128" t="inlineStr">
         <is>
@@ -90622,11 +90622,11 @@
       </c>
       <c r="R1128" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1128" t="n">
-        <v>519</v>
+        <v>544</v>
       </c>
       <c r="T1128" t="n">
         <v>400</v>
@@ -90647,7 +90647,7 @@
         </is>
       </c>
       <c r="D1129" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1129" t="n">
         <v>4</v>
@@ -90675,25 +90675,25 @@
       </c>
       <c r="K1129" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1129" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1129" t="n">
         <v>20</v>
       </c>
       <c r="N1129" t="n">
-        <v>185000</v>
+        <v>195000</v>
       </c>
       <c r="O1129" t="n">
-        <v>190000</v>
+        <v>200000</v>
       </c>
       <c r="P1129" t="n">
-        <v>187500</v>
+        <v>197500</v>
       </c>
       <c r="Q1129" t="inlineStr">
         <is>
@@ -90702,11 +90702,11 @@
       </c>
       <c r="R1129" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1129" t="n">
-        <v>469</v>
+        <v>494</v>
       </c>
       <c r="T1129" t="n">
         <v>400</v>
@@ -90727,7 +90727,7 @@
         </is>
       </c>
       <c r="D1130" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E1130" t="n">
         <v>4</v>
@@ -90760,20 +90760,20 @@
       </c>
       <c r="L1130" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1130" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N1130" t="n">
-        <v>225000</v>
+        <v>175000</v>
       </c>
       <c r="O1130" t="n">
-        <v>230000</v>
+        <v>180000</v>
       </c>
       <c r="P1130" t="n">
-        <v>227500</v>
+        <v>177500</v>
       </c>
       <c r="Q1130" t="inlineStr">
         <is>
@@ -90782,11 +90782,11 @@
       </c>
       <c r="R1130" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1130" t="n">
-        <v>569</v>
+        <v>444</v>
       </c>
       <c r="T1130" t="n">
         <v>400</v>
@@ -90807,7 +90807,7 @@
         </is>
       </c>
       <c r="D1131" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E1131" t="n">
         <v>4</v>
@@ -90835,16 +90835,16 @@
       </c>
       <c r="K1131" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1131" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1131" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N1131" t="n">
         <v>205000</v>
@@ -90887,7 +90887,7 @@
         </is>
       </c>
       <c r="D1132" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E1132" t="n">
         <v>4</v>
@@ -90915,16 +90915,16 @@
       </c>
       <c r="K1132" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1132" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1132" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N1132" t="n">
         <v>185000</v>
@@ -90967,7 +90967,7 @@
         </is>
       </c>
       <c r="D1133" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1133" t="n">
         <v>4</v>
@@ -90995,7 +90995,7 @@
       </c>
       <c r="K1133" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1133" t="inlineStr">
@@ -91004,16 +91004,16 @@
         </is>
       </c>
       <c r="M1133" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N1133" t="n">
-        <v>215000</v>
+        <v>255000</v>
       </c>
       <c r="O1133" t="n">
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="P1133" t="n">
-        <v>217500</v>
+        <v>257500</v>
       </c>
       <c r="Q1133" t="inlineStr">
         <is>
@@ -91026,7 +91026,7 @@
         </is>
       </c>
       <c r="S1133" t="n">
-        <v>544</v>
+        <v>644</v>
       </c>
       <c r="T1133" t="n">
         <v>400</v>
@@ -91047,7 +91047,7 @@
         </is>
       </c>
       <c r="D1134" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1134" t="n">
         <v>4</v>
@@ -91075,7 +91075,7 @@
       </c>
       <c r="K1134" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1134" t="inlineStr">
@@ -91087,13 +91087,13 @@
         <v>20</v>
       </c>
       <c r="N1134" t="n">
-        <v>195000</v>
+        <v>225000</v>
       </c>
       <c r="O1134" t="n">
-        <v>200000</v>
+        <v>230000</v>
       </c>
       <c r="P1134" t="n">
-        <v>197500</v>
+        <v>227500</v>
       </c>
       <c r="Q1134" t="inlineStr">
         <is>
@@ -91106,7 +91106,7 @@
         </is>
       </c>
       <c r="S1134" t="n">
-        <v>494</v>
+        <v>569</v>
       </c>
       <c r="T1134" t="n">
         <v>400</v>
@@ -91127,7 +91127,7 @@
         </is>
       </c>
       <c r="D1135" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E1135" t="n">
         <v>4</v>
@@ -91155,7 +91155,7 @@
       </c>
       <c r="K1135" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1135" t="inlineStr">
@@ -91167,13 +91167,13 @@
         <v>20</v>
       </c>
       <c r="N1135" t="n">
-        <v>275000</v>
+        <v>255000</v>
       </c>
       <c r="O1135" t="n">
-        <v>280000</v>
+        <v>260000</v>
       </c>
       <c r="P1135" t="n">
-        <v>277500</v>
+        <v>257500</v>
       </c>
       <c r="Q1135" t="inlineStr">
         <is>
@@ -91186,7 +91186,7 @@
         </is>
       </c>
       <c r="S1135" t="n">
-        <v>694</v>
+        <v>644</v>
       </c>
       <c r="T1135" t="n">
         <v>400</v>
@@ -91207,7 +91207,7 @@
         </is>
       </c>
       <c r="D1136" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E1136" t="n">
         <v>4</v>
@@ -91235,7 +91235,7 @@
       </c>
       <c r="K1136" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1136" t="inlineStr">
@@ -91247,13 +91247,13 @@
         <v>20</v>
       </c>
       <c r="N1136" t="n">
-        <v>245000</v>
+        <v>225000</v>
       </c>
       <c r="O1136" t="n">
-        <v>250000</v>
+        <v>230000</v>
       </c>
       <c r="P1136" t="n">
-        <v>247500</v>
+        <v>227500</v>
       </c>
       <c r="Q1136" t="inlineStr">
         <is>
@@ -91266,7 +91266,7 @@
         </is>
       </c>
       <c r="S1136" t="n">
-        <v>619</v>
+        <v>569</v>
       </c>
       <c r="T1136" t="n">
         <v>400</v>
@@ -91287,7 +91287,7 @@
         </is>
       </c>
       <c r="D1137" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E1137" t="n">
         <v>4</v>
@@ -91315,12 +91315,12 @@
       </c>
       <c r="K1137" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1137" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1137" t="n">
@@ -91367,7 +91367,7 @@
         </is>
       </c>
       <c r="D1138" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E1138" t="n">
         <v>4</v>
@@ -91395,25 +91395,25 @@
       </c>
       <c r="K1138" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1138" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1138" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1138" t="n">
-        <v>255000</v>
+        <v>185000</v>
       </c>
       <c r="O1138" t="n">
-        <v>260000</v>
+        <v>190000</v>
       </c>
       <c r="P1138" t="n">
-        <v>257500</v>
+        <v>187500</v>
       </c>
       <c r="Q1138" t="inlineStr">
         <is>
@@ -91422,11 +91422,11 @@
       </c>
       <c r="R1138" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1138" t="n">
-        <v>644</v>
+        <v>469</v>
       </c>
       <c r="T1138" t="n">
         <v>400</v>
@@ -91447,7 +91447,7 @@
         </is>
       </c>
       <c r="D1139" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1139" t="n">
         <v>4</v>
@@ -91480,11 +91480,11 @@
       </c>
       <c r="L1139" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1139" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N1139" t="n">
         <v>225000</v>
@@ -91502,7 +91502,7 @@
       </c>
       <c r="R1139" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1139" t="n">
@@ -91527,7 +91527,7 @@
         </is>
       </c>
       <c r="D1140" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1140" t="n">
         <v>4</v>
@@ -91560,7 +91560,7 @@
       </c>
       <c r="L1140" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1140" t="n">
@@ -91582,7 +91582,7 @@
       </c>
       <c r="R1140" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1140" t="n">
@@ -91607,7 +91607,7 @@
         </is>
       </c>
       <c r="D1141" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1141" t="n">
         <v>4</v>
@@ -91635,25 +91635,25 @@
       </c>
       <c r="K1141" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1141" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1141" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N1141" t="n">
-        <v>285000</v>
+        <v>185000</v>
       </c>
       <c r="O1141" t="n">
-        <v>290000</v>
+        <v>190000</v>
       </c>
       <c r="P1141" t="n">
-        <v>287500</v>
+        <v>187500</v>
       </c>
       <c r="Q1141" t="inlineStr">
         <is>
@@ -91662,11 +91662,11 @@
       </c>
       <c r="R1141" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1141" t="n">
-        <v>719</v>
+        <v>469</v>
       </c>
       <c r="T1141" t="n">
         <v>400</v>
@@ -91687,7 +91687,7 @@
         </is>
       </c>
       <c r="D1142" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1142" t="n">
         <v>4</v>
@@ -91720,20 +91720,20 @@
       </c>
       <c r="L1142" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1142" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N1142" t="n">
-        <v>245000</v>
+        <v>215000</v>
       </c>
       <c r="O1142" t="n">
-        <v>250000</v>
+        <v>220000</v>
       </c>
       <c r="P1142" t="n">
-        <v>247500</v>
+        <v>217500</v>
       </c>
       <c r="Q1142" t="inlineStr">
         <is>
@@ -91742,11 +91742,11 @@
       </c>
       <c r="R1142" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1142" t="n">
-        <v>619</v>
+        <v>544</v>
       </c>
       <c r="T1142" t="n">
         <v>400</v>
@@ -91767,7 +91767,7 @@
         </is>
       </c>
       <c r="D1143" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E1143" t="n">
         <v>4</v>
@@ -91795,25 +91795,25 @@
       </c>
       <c r="K1143" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1143" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1143" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N1143" t="n">
-        <v>235000</v>
+        <v>195000</v>
       </c>
       <c r="O1143" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="P1143" t="n">
-        <v>237500</v>
+        <v>197500</v>
       </c>
       <c r="Q1143" t="inlineStr">
         <is>
@@ -91826,7 +91826,7 @@
         </is>
       </c>
       <c r="S1143" t="n">
-        <v>594</v>
+        <v>494</v>
       </c>
       <c r="T1143" t="n">
         <v>400</v>
@@ -91847,7 +91847,7 @@
         </is>
       </c>
       <c r="D1144" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1144" t="n">
         <v>4</v>
@@ -91880,20 +91880,20 @@
       </c>
       <c r="L1144" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1144" t="n">
         <v>20</v>
       </c>
       <c r="N1144" t="n">
-        <v>215000</v>
+        <v>275000</v>
       </c>
       <c r="O1144" t="n">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="P1144" t="n">
-        <v>217500</v>
+        <v>277500</v>
       </c>
       <c r="Q1144" t="inlineStr">
         <is>
@@ -91906,7 +91906,7 @@
         </is>
       </c>
       <c r="S1144" t="n">
-        <v>544</v>
+        <v>694</v>
       </c>
       <c r="T1144" t="n">
         <v>400</v>
@@ -91927,7 +91927,7 @@
         </is>
       </c>
       <c r="D1145" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1145" t="n">
         <v>4</v>
@@ -91955,25 +91955,25 @@
       </c>
       <c r="K1145" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1145" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1145" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N1145" t="n">
-        <v>225000</v>
+        <v>245000</v>
       </c>
       <c r="O1145" t="n">
-        <v>230000</v>
+        <v>250000</v>
       </c>
       <c r="P1145" t="n">
-        <v>227500</v>
+        <v>247500</v>
       </c>
       <c r="Q1145" t="inlineStr">
         <is>
@@ -91986,7 +91986,7 @@
         </is>
       </c>
       <c r="S1145" t="n">
-        <v>569</v>
+        <v>619</v>
       </c>
       <c r="T1145" t="n">
         <v>400</v>
@@ -92007,7 +92007,7 @@
         </is>
       </c>
       <c r="D1146" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1146" t="n">
         <v>4</v>
@@ -92035,12 +92035,12 @@
       </c>
       <c r="K1146" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1146" t="n">
@@ -92087,7 +92087,7 @@
         </is>
       </c>
       <c r="D1147" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1147" t="n">
         <v>4</v>
@@ -92120,20 +92120,20 @@
       </c>
       <c r="L1147" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1147" t="n">
         <v>16</v>
       </c>
       <c r="N1147" t="n">
-        <v>185000</v>
+        <v>255000</v>
       </c>
       <c r="O1147" t="n">
-        <v>190000</v>
+        <v>260000</v>
       </c>
       <c r="P1147" t="n">
-        <v>187500</v>
+        <v>257500</v>
       </c>
       <c r="Q1147" t="inlineStr">
         <is>
@@ -92142,11 +92142,11 @@
       </c>
       <c r="R1147" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1147" t="n">
-        <v>469</v>
+        <v>644</v>
       </c>
       <c r="T1147" t="n">
         <v>400</v>
@@ -92167,7 +92167,7 @@
         </is>
       </c>
       <c r="D1148" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1148" t="n">
         <v>4</v>
@@ -92195,16 +92195,16 @@
       </c>
       <c r="K1148" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1148" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1148" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1148" t="n">
         <v>225000</v>
@@ -92247,7 +92247,7 @@
         </is>
       </c>
       <c r="D1149" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1149" t="n">
         <v>4</v>
@@ -92275,16 +92275,16 @@
       </c>
       <c r="K1149" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1149" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1149" t="n">
         <v>205000</v>
@@ -92327,7 +92327,7 @@
         </is>
       </c>
       <c r="D1150" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1150" t="n">
         <v>4</v>
@@ -92360,20 +92360,20 @@
       </c>
       <c r="L1150" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1150" t="n">
         <v>20</v>
       </c>
       <c r="N1150" t="n">
-        <v>185000</v>
+        <v>285000</v>
       </c>
       <c r="O1150" t="n">
-        <v>190000</v>
+        <v>290000</v>
       </c>
       <c r="P1150" t="n">
-        <v>187500</v>
+        <v>287500</v>
       </c>
       <c r="Q1150" t="inlineStr">
         <is>
@@ -92386,7 +92386,7 @@
         </is>
       </c>
       <c r="S1150" t="n">
-        <v>469</v>
+        <v>719</v>
       </c>
       <c r="T1150" t="n">
         <v>400</v>
@@ -92407,7 +92407,7 @@
         </is>
       </c>
       <c r="D1151" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E1151" t="n">
         <v>4</v>
@@ -92435,25 +92435,25 @@
       </c>
       <c r="K1151" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1151" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1151" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N1151" t="n">
-        <v>325000</v>
+        <v>245000</v>
       </c>
       <c r="O1151" t="n">
-        <v>330000</v>
+        <v>250000</v>
       </c>
       <c r="P1151" t="n">
-        <v>327500</v>
+        <v>247500</v>
       </c>
       <c r="Q1151" t="inlineStr">
         <is>
@@ -92462,11 +92462,11 @@
       </c>
       <c r="R1151" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1151" t="n">
-        <v>819</v>
+        <v>619</v>
       </c>
       <c r="T1151" t="n">
         <v>400</v>
@@ -92487,7 +92487,7 @@
         </is>
       </c>
       <c r="D1152" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1152" t="n">
         <v>4</v>
@@ -92520,20 +92520,20 @@
       </c>
       <c r="L1152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1152" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N1152" t="n">
-        <v>295000</v>
+        <v>235000</v>
       </c>
       <c r="O1152" t="n">
-        <v>300000</v>
+        <v>240000</v>
       </c>
       <c r="P1152" t="n">
-        <v>297500</v>
+        <v>237500</v>
       </c>
       <c r="Q1152" t="inlineStr">
         <is>
@@ -92546,7 +92546,7 @@
         </is>
       </c>
       <c r="S1152" t="n">
-        <v>744</v>
+        <v>594</v>
       </c>
       <c r="T1152" t="n">
         <v>400</v>
@@ -92567,7 +92567,7 @@
         </is>
       </c>
       <c r="D1153" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1153" t="n">
         <v>4</v>
@@ -92595,25 +92595,25 @@
       </c>
       <c r="K1153" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1153" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1153" t="n">
         <v>20</v>
       </c>
       <c r="N1153" t="n">
-        <v>265000</v>
+        <v>215000</v>
       </c>
       <c r="O1153" t="n">
-        <v>270000</v>
+        <v>220000</v>
       </c>
       <c r="P1153" t="n">
-        <v>267500</v>
+        <v>217500</v>
       </c>
       <c r="Q1153" t="inlineStr">
         <is>
@@ -92626,7 +92626,7 @@
         </is>
       </c>
       <c r="S1153" t="n">
-        <v>669</v>
+        <v>544</v>
       </c>
       <c r="T1153" t="n">
         <v>400</v>
@@ -92647,7 +92647,7 @@
         </is>
       </c>
       <c r="D1154" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1154" t="n">
         <v>4</v>
@@ -92680,20 +92680,20 @@
       </c>
       <c r="L1154" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1154" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N1154" t="n">
-        <v>235000</v>
+        <v>225000</v>
       </c>
       <c r="O1154" t="n">
-        <v>240000</v>
+        <v>230000</v>
       </c>
       <c r="P1154" t="n">
-        <v>237500</v>
+        <v>227500</v>
       </c>
       <c r="Q1154" t="inlineStr">
         <is>
@@ -92706,7 +92706,7 @@
         </is>
       </c>
       <c r="S1154" t="n">
-        <v>594</v>
+        <v>569</v>
       </c>
       <c r="T1154" t="n">
         <v>400</v>
@@ -92727,7 +92727,7 @@
         </is>
       </c>
       <c r="D1155" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1155" t="n">
         <v>4</v>
@@ -92760,11 +92760,11 @@
       </c>
       <c r="L1155" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1155" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N1155" t="n">
         <v>205000</v>
@@ -92807,7 +92807,7 @@
         </is>
       </c>
       <c r="D1156" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E1156" t="n">
         <v>4</v>
@@ -92835,25 +92835,25 @@
       </c>
       <c r="K1156" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1156" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1156" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1156" t="n">
-        <v>310000</v>
+        <v>185000</v>
       </c>
       <c r="O1156" t="n">
-        <v>315000</v>
+        <v>190000</v>
       </c>
       <c r="P1156" t="n">
-        <v>312500</v>
+        <v>187500</v>
       </c>
       <c r="Q1156" t="inlineStr">
         <is>
@@ -92862,11 +92862,11 @@
       </c>
       <c r="R1156" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1156" t="n">
-        <v>781</v>
+        <v>469</v>
       </c>
       <c r="T1156" t="n">
         <v>400</v>
@@ -92887,7 +92887,7 @@
         </is>
       </c>
       <c r="D1157" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E1157" t="n">
         <v>4</v>
@@ -92915,25 +92915,25 @@
       </c>
       <c r="K1157" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1157" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1157" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1157" t="n">
-        <v>280000</v>
+        <v>225000</v>
       </c>
       <c r="O1157" t="n">
-        <v>285000</v>
+        <v>230000</v>
       </c>
       <c r="P1157" t="n">
-        <v>282500</v>
+        <v>227500</v>
       </c>
       <c r="Q1157" t="inlineStr">
         <is>
@@ -92946,7 +92946,7 @@
         </is>
       </c>
       <c r="S1157" t="n">
-        <v>706</v>
+        <v>569</v>
       </c>
       <c r="T1157" t="n">
         <v>400</v>
@@ -92967,7 +92967,7 @@
         </is>
       </c>
       <c r="D1158" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E1158" t="n">
         <v>4</v>
@@ -92995,25 +92995,25 @@
       </c>
       <c r="K1158" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1158" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1158" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1158" t="n">
-        <v>280000</v>
+        <v>205000</v>
       </c>
       <c r="O1158" t="n">
-        <v>285000</v>
+        <v>210000</v>
       </c>
       <c r="P1158" t="n">
-        <v>282500</v>
+        <v>207500</v>
       </c>
       <c r="Q1158" t="inlineStr">
         <is>
@@ -93026,7 +93026,7 @@
         </is>
       </c>
       <c r="S1158" t="n">
-        <v>706</v>
+        <v>519</v>
       </c>
       <c r="T1158" t="n">
         <v>400</v>
@@ -93047,7 +93047,7 @@
         </is>
       </c>
       <c r="D1159" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E1159" t="n">
         <v>4</v>
@@ -93075,25 +93075,25 @@
       </c>
       <c r="K1159" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1159" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1159" t="n">
         <v>20</v>
       </c>
       <c r="N1159" t="n">
-        <v>240000</v>
+        <v>185000</v>
       </c>
       <c r="O1159" t="n">
-        <v>245000</v>
+        <v>190000</v>
       </c>
       <c r="P1159" t="n">
-        <v>242500</v>
+        <v>187500</v>
       </c>
       <c r="Q1159" t="inlineStr">
         <is>
@@ -93106,7 +93106,7 @@
         </is>
       </c>
       <c r="S1159" t="n">
-        <v>606</v>
+        <v>469</v>
       </c>
       <c r="T1159" t="n">
         <v>400</v>
@@ -93127,7 +93127,7 @@
         </is>
       </c>
       <c r="D1160" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1160" t="n">
         <v>4</v>
@@ -93155,25 +93155,25 @@
       </c>
       <c r="K1160" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1160" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1160" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N1160" t="n">
-        <v>210000</v>
+        <v>325000</v>
       </c>
       <c r="O1160" t="n">
-        <v>215000</v>
+        <v>330000</v>
       </c>
       <c r="P1160" t="n">
-        <v>212500</v>
+        <v>327500</v>
       </c>
       <c r="Q1160" t="inlineStr">
         <is>
@@ -93182,11 +93182,11 @@
       </c>
       <c r="R1160" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1160" t="n">
-        <v>531</v>
+        <v>819</v>
       </c>
       <c r="T1160" t="n">
         <v>400</v>
@@ -93207,7 +93207,7 @@
         </is>
       </c>
       <c r="D1161" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1161" t="n">
         <v>4</v>
@@ -93235,7 +93235,7 @@
       </c>
       <c r="K1161" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1161" t="inlineStr">
@@ -93244,16 +93244,16 @@
         </is>
       </c>
       <c r="M1161" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N1161" t="n">
-        <v>230000</v>
+        <v>295000</v>
       </c>
       <c r="O1161" t="n">
-        <v>235000</v>
+        <v>300000</v>
       </c>
       <c r="P1161" t="n">
-        <v>232500</v>
+        <v>297500</v>
       </c>
       <c r="Q1161" t="inlineStr">
         <is>
@@ -93266,7 +93266,7 @@
         </is>
       </c>
       <c r="S1161" t="n">
-        <v>581</v>
+        <v>744</v>
       </c>
       <c r="T1161" t="n">
         <v>400</v>
@@ -93287,7 +93287,7 @@
         </is>
       </c>
       <c r="D1162" s="2" t="n">
-        <v>44421</v>
+        <v>44270</v>
       </c>
       <c r="E1162" t="n">
         <v>4</v>
@@ -93315,7 +93315,7 @@
       </c>
       <c r="K1162" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1162" t="inlineStr">
@@ -93342,7 +93342,7 @@
       </c>
       <c r="R1162" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1162" t="n">
@@ -93367,7 +93367,7 @@
         </is>
       </c>
       <c r="D1163" s="2" t="n">
-        <v>44421</v>
+        <v>44270</v>
       </c>
       <c r="E1163" t="n">
         <v>4</v>
@@ -93395,7 +93395,7 @@
       </c>
       <c r="K1163" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1163" t="inlineStr">
@@ -93404,7 +93404,7 @@
         </is>
       </c>
       <c r="M1163" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1163" t="n">
         <v>235000</v>
@@ -93422,7 +93422,7 @@
       </c>
       <c r="R1163" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1163" t="n">
@@ -93447,7 +93447,7 @@
         </is>
       </c>
       <c r="D1164" s="2" t="n">
-        <v>44421</v>
+        <v>44270</v>
       </c>
       <c r="E1164" t="n">
         <v>4</v>
@@ -93475,7 +93475,7 @@
       </c>
       <c r="K1164" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1164" t="inlineStr">
@@ -93484,7 +93484,7 @@
         </is>
       </c>
       <c r="M1164" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N1164" t="n">
         <v>205000</v>
@@ -93502,7 +93502,7 @@
       </c>
       <c r="R1164" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1164" t="n">
@@ -93527,7 +93527,7 @@
         </is>
       </c>
       <c r="D1165" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E1165" t="n">
         <v>4</v>
@@ -93555,7 +93555,7 @@
       </c>
       <c r="K1165" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1165" t="inlineStr">
@@ -93567,13 +93567,13 @@
         <v>20</v>
       </c>
       <c r="N1165" t="n">
-        <v>240000</v>
+        <v>310000</v>
       </c>
       <c r="O1165" t="n">
-        <v>245000</v>
+        <v>315000</v>
       </c>
       <c r="P1165" t="n">
-        <v>242500</v>
+        <v>312500</v>
       </c>
       <c r="Q1165" t="inlineStr">
         <is>
@@ -93586,7 +93586,7 @@
         </is>
       </c>
       <c r="S1165" t="n">
-        <v>606</v>
+        <v>781</v>
       </c>
       <c r="T1165" t="n">
         <v>400</v>
@@ -93607,7 +93607,7 @@
         </is>
       </c>
       <c r="D1166" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E1166" t="n">
         <v>4</v>
@@ -93635,7 +93635,7 @@
       </c>
       <c r="K1166" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1166" t="inlineStr">
@@ -93647,13 +93647,13 @@
         <v>20</v>
       </c>
       <c r="N1166" t="n">
-        <v>220000</v>
+        <v>280000</v>
       </c>
       <c r="O1166" t="n">
-        <v>225000</v>
+        <v>285000</v>
       </c>
       <c r="P1166" t="n">
-        <v>222500</v>
+        <v>282500</v>
       </c>
       <c r="Q1166" t="inlineStr">
         <is>
@@ -93666,7 +93666,7 @@
         </is>
       </c>
       <c r="S1166" t="n">
-        <v>556</v>
+        <v>706</v>
       </c>
       <c r="T1166" t="n">
         <v>400</v>
@@ -93687,7 +93687,7 @@
         </is>
       </c>
       <c r="D1167" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E1167" t="n">
         <v>4</v>
@@ -93720,20 +93720,20 @@
       </c>
       <c r="L1167" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1167" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1167" t="n">
-        <v>205000</v>
+        <v>280000</v>
       </c>
       <c r="O1167" t="n">
-        <v>210000</v>
+        <v>285000</v>
       </c>
       <c r="P1167" t="n">
-        <v>207500</v>
+        <v>282500</v>
       </c>
       <c r="Q1167" t="inlineStr">
         <is>
@@ -93746,7 +93746,7 @@
         </is>
       </c>
       <c r="S1167" t="n">
-        <v>519</v>
+        <v>706</v>
       </c>
       <c r="T1167" t="n">
         <v>400</v>
@@ -93767,7 +93767,7 @@
         </is>
       </c>
       <c r="D1168" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E1168" t="n">
         <v>4</v>
@@ -93795,7 +93795,7 @@
       </c>
       <c r="K1168" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1168" t="inlineStr">
@@ -93807,13 +93807,13 @@
         <v>20</v>
       </c>
       <c r="N1168" t="n">
-        <v>205000</v>
+        <v>240000</v>
       </c>
       <c r="O1168" t="n">
-        <v>210000</v>
+        <v>245000</v>
       </c>
       <c r="P1168" t="n">
-        <v>207500</v>
+        <v>242500</v>
       </c>
       <c r="Q1168" t="inlineStr">
         <is>
@@ -93826,7 +93826,7 @@
         </is>
       </c>
       <c r="S1168" t="n">
-        <v>519</v>
+        <v>606</v>
       </c>
       <c r="T1168" t="n">
         <v>400</v>
@@ -93847,7 +93847,7 @@
         </is>
       </c>
       <c r="D1169" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E1169" t="n">
         <v>4</v>
@@ -93875,7 +93875,7 @@
       </c>
       <c r="K1169" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1169" t="inlineStr">
@@ -93884,16 +93884,16 @@
         </is>
       </c>
       <c r="M1169" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1169" t="n">
-        <v>185000</v>
+        <v>210000</v>
       </c>
       <c r="O1169" t="n">
-        <v>190000</v>
+        <v>215000</v>
       </c>
       <c r="P1169" t="n">
-        <v>187500</v>
+        <v>212500</v>
       </c>
       <c r="Q1169" t="inlineStr">
         <is>
@@ -93906,7 +93906,7 @@
         </is>
       </c>
       <c r="S1169" t="n">
-        <v>469</v>
+        <v>531</v>
       </c>
       <c r="T1169" t="n">
         <v>400</v>
@@ -93927,7 +93927,7 @@
         </is>
       </c>
       <c r="D1170" s="2" t="n">
-        <v>44383</v>
+        <v>44295</v>
       </c>
       <c r="E1170" t="n">
         <v>4</v>
@@ -93955,25 +93955,25 @@
       </c>
       <c r="K1170" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1170" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1170" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N1170" t="n">
         <v>230000</v>
       </c>
       <c r="O1170" t="n">
-        <v>240000</v>
+        <v>235000</v>
       </c>
       <c r="P1170" t="n">
-        <v>235000</v>
+        <v>232500</v>
       </c>
       <c r="Q1170" t="inlineStr">
         <is>
@@ -93982,11 +93982,11 @@
       </c>
       <c r="R1170" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1170" t="n">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="T1170" t="n">
         <v>400</v>
@@ -94007,7 +94007,7 @@
         </is>
       </c>
       <c r="D1171" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1171" t="n">
         <v>4</v>
@@ -94040,20 +94040,20 @@
       </c>
       <c r="L1171" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1171" t="n">
         <v>20</v>
       </c>
       <c r="N1171" t="n">
-        <v>210000</v>
+        <v>265000</v>
       </c>
       <c r="O1171" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="P1171" t="n">
-        <v>215000</v>
+        <v>267500</v>
       </c>
       <c r="Q1171" t="inlineStr">
         <is>
@@ -94066,7 +94066,7 @@
         </is>
       </c>
       <c r="S1171" t="n">
-        <v>538</v>
+        <v>669</v>
       </c>
       <c r="T1171" t="n">
         <v>400</v>
@@ -94087,7 +94087,7 @@
         </is>
       </c>
       <c r="D1172" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1172" t="n">
         <v>4</v>
@@ -94120,20 +94120,20 @@
       </c>
       <c r="L1172" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1172" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N1172" t="n">
-        <v>180000</v>
+        <v>235000</v>
       </c>
       <c r="O1172" t="n">
-        <v>190000</v>
+        <v>240000</v>
       </c>
       <c r="P1172" t="n">
-        <v>185000</v>
+        <v>237500</v>
       </c>
       <c r="Q1172" t="inlineStr">
         <is>
@@ -94146,7 +94146,7 @@
         </is>
       </c>
       <c r="S1172" t="n">
-        <v>462</v>
+        <v>594</v>
       </c>
       <c r="T1172" t="n">
         <v>400</v>
@@ -94167,7 +94167,7 @@
         </is>
       </c>
       <c r="D1173" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E1173" t="n">
         <v>4</v>
@@ -94195,25 +94195,25 @@
       </c>
       <c r="K1173" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1173" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1173" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N1173" t="n">
-        <v>255000</v>
+        <v>205000</v>
       </c>
       <c r="O1173" t="n">
-        <v>260000</v>
+        <v>210000</v>
       </c>
       <c r="P1173" t="n">
-        <v>257500</v>
+        <v>207500</v>
       </c>
       <c r="Q1173" t="inlineStr">
         <is>
@@ -94222,11 +94222,11 @@
       </c>
       <c r="R1173" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1173" t="n">
-        <v>644</v>
+        <v>519</v>
       </c>
       <c r="T1173" t="n">
         <v>400</v>
@@ -94247,7 +94247,7 @@
         </is>
       </c>
       <c r="D1174" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E1174" t="n">
         <v>4</v>
@@ -94275,25 +94275,25 @@
       </c>
       <c r="K1174" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1174" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1174" t="n">
         <v>20</v>
       </c>
       <c r="N1174" t="n">
-        <v>235000</v>
+        <v>240000</v>
       </c>
       <c r="O1174" t="n">
-        <v>240000</v>
+        <v>245000</v>
       </c>
       <c r="P1174" t="n">
-        <v>237500</v>
+        <v>242500</v>
       </c>
       <c r="Q1174" t="inlineStr">
         <is>
@@ -94302,11 +94302,11 @@
       </c>
       <c r="R1174" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1174" t="n">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="T1174" t="n">
         <v>400</v>
@@ -94327,7 +94327,7 @@
         </is>
       </c>
       <c r="D1175" s="2" t="n">
-        <v>44307</v>
+        <v>44421</v>
       </c>
       <c r="E1175" t="n">
         <v>4</v>
@@ -94360,20 +94360,20 @@
       </c>
       <c r="L1175" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1175" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N1175" t="n">
-        <v>255000</v>
+        <v>220000</v>
       </c>
       <c r="O1175" t="n">
-        <v>260000</v>
+        <v>225000</v>
       </c>
       <c r="P1175" t="n">
-        <v>257500</v>
+        <v>222500</v>
       </c>
       <c r="Q1175" t="inlineStr">
         <is>
@@ -94386,7 +94386,7 @@
         </is>
       </c>
       <c r="S1175" t="n">
-        <v>644</v>
+        <v>556</v>
       </c>
       <c r="T1175" t="n">
         <v>400</v>
@@ -94407,7 +94407,7 @@
         </is>
       </c>
       <c r="D1176" s="2" t="n">
-        <v>44307</v>
+        <v>44421</v>
       </c>
       <c r="E1176" t="n">
         <v>4</v>
@@ -94440,20 +94440,20 @@
       </c>
       <c r="L1176" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1176" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1176" t="n">
-        <v>225000</v>
+        <v>205000</v>
       </c>
       <c r="O1176" t="n">
-        <v>230000</v>
+        <v>210000</v>
       </c>
       <c r="P1176" t="n">
-        <v>227500</v>
+        <v>207500</v>
       </c>
       <c r="Q1176" t="inlineStr">
         <is>
@@ -94466,7 +94466,7 @@
         </is>
       </c>
       <c r="S1176" t="n">
-        <v>569</v>
+        <v>519</v>
       </c>
       <c r="T1176" t="n">
         <v>400</v>
@@ -94487,7 +94487,7 @@
         </is>
       </c>
       <c r="D1177" s="2" t="n">
-        <v>44307</v>
+        <v>44421</v>
       </c>
       <c r="E1177" t="n">
         <v>4</v>
@@ -94515,25 +94515,25 @@
       </c>
       <c r="K1177" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1177" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1177" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N1177" t="n">
-        <v>185000</v>
+        <v>205000</v>
       </c>
       <c r="O1177" t="n">
-        <v>190000</v>
+        <v>210000</v>
       </c>
       <c r="P1177" t="n">
-        <v>187500</v>
+        <v>207500</v>
       </c>
       <c r="Q1177" t="inlineStr">
         <is>
@@ -94546,7 +94546,7 @@
         </is>
       </c>
       <c r="S1177" t="n">
-        <v>469</v>
+        <v>519</v>
       </c>
       <c r="T1177" t="n">
         <v>400</v>
@@ -94567,7 +94567,7 @@
         </is>
       </c>
       <c r="D1178" s="2" t="n">
-        <v>44307</v>
+        <v>44421</v>
       </c>
       <c r="E1178" t="n">
         <v>4</v>
@@ -94600,20 +94600,20 @@
       </c>
       <c r="L1178" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1178" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N1178" t="n">
-        <v>305000</v>
+        <v>185000</v>
       </c>
       <c r="O1178" t="n">
-        <v>310000</v>
+        <v>190000</v>
       </c>
       <c r="P1178" t="n">
-        <v>307500</v>
+        <v>187500</v>
       </c>
       <c r="Q1178" t="inlineStr">
         <is>
@@ -94626,7 +94626,7 @@
         </is>
       </c>
       <c r="S1178" t="n">
-        <v>769</v>
+        <v>469</v>
       </c>
       <c r="T1178" t="n">
         <v>400</v>
@@ -94647,7 +94647,7 @@
         </is>
       </c>
       <c r="D1179" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E1179" t="n">
         <v>4</v>
@@ -94675,25 +94675,25 @@
       </c>
       <c r="K1179" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1179" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1179" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N1179" t="n">
-        <v>275000</v>
+        <v>230000</v>
       </c>
       <c r="O1179" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="P1179" t="n">
-        <v>277500</v>
+        <v>235000</v>
       </c>
       <c r="Q1179" t="inlineStr">
         <is>
@@ -94706,7 +94706,7 @@
         </is>
       </c>
       <c r="S1179" t="n">
-        <v>694</v>
+        <v>588</v>
       </c>
       <c r="T1179" t="n">
         <v>400</v>
@@ -94727,7 +94727,7 @@
         </is>
       </c>
       <c r="D1180" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E1180" t="n">
         <v>4</v>
@@ -94760,20 +94760,20 @@
       </c>
       <c r="L1180" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1180" t="n">
         <v>20</v>
       </c>
       <c r="N1180" t="n">
-        <v>325000</v>
+        <v>210000</v>
       </c>
       <c r="O1180" t="n">
-        <v>330000</v>
+        <v>220000</v>
       </c>
       <c r="P1180" t="n">
-        <v>327500</v>
+        <v>215000</v>
       </c>
       <c r="Q1180" t="inlineStr">
         <is>
@@ -94782,11 +94782,11 @@
       </c>
       <c r="R1180" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1180" t="n">
-        <v>819</v>
+        <v>538</v>
       </c>
       <c r="T1180" t="n">
         <v>400</v>
@@ -94807,7 +94807,7 @@
         </is>
       </c>
       <c r="D1181" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E1181" t="n">
         <v>4</v>
@@ -94840,20 +94840,20 @@
       </c>
       <c r="L1181" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1181" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N1181" t="n">
-        <v>295000</v>
+        <v>180000</v>
       </c>
       <c r="O1181" t="n">
-        <v>300000</v>
+        <v>190000</v>
       </c>
       <c r="P1181" t="n">
-        <v>297500</v>
+        <v>185000</v>
       </c>
       <c r="Q1181" t="inlineStr">
         <is>
@@ -94862,11 +94862,11 @@
       </c>
       <c r="R1181" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1181" t="n">
-        <v>744</v>
+        <v>462</v>
       </c>
       <c r="T1181" t="n">
         <v>400</v>
@@ -94887,7 +94887,7 @@
         </is>
       </c>
       <c r="D1182" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1182" t="n">
         <v>4</v>
@@ -94915,7 +94915,7 @@
       </c>
       <c r="K1182" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1182" t="inlineStr">
@@ -94924,16 +94924,16 @@
         </is>
       </c>
       <c r="M1182" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N1182" t="n">
-        <v>265000</v>
+        <v>255000</v>
       </c>
       <c r="O1182" t="n">
-        <v>270000</v>
+        <v>260000</v>
       </c>
       <c r="P1182" t="n">
-        <v>267500</v>
+        <v>257500</v>
       </c>
       <c r="Q1182" t="inlineStr">
         <is>
@@ -94946,7 +94946,7 @@
         </is>
       </c>
       <c r="S1182" t="n">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="T1182" t="n">
         <v>400</v>
@@ -94967,7 +94967,7 @@
         </is>
       </c>
       <c r="D1183" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1183" t="n">
         <v>4</v>
@@ -94995,7 +94995,7 @@
       </c>
       <c r="K1183" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1183" t="inlineStr">
@@ -95047,7 +95047,7 @@
         </is>
       </c>
       <c r="D1184" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1184" t="n">
         <v>4</v>
@@ -95080,20 +95080,20 @@
       </c>
       <c r="L1184" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1184" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N1184" t="n">
-        <v>205000</v>
+        <v>255000</v>
       </c>
       <c r="O1184" t="n">
-        <v>210000</v>
+        <v>260000</v>
       </c>
       <c r="P1184" t="n">
-        <v>207500</v>
+        <v>257500</v>
       </c>
       <c r="Q1184" t="inlineStr">
         <is>
@@ -95102,11 +95102,11 @@
       </c>
       <c r="R1184" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1184" t="n">
-        <v>519</v>
+        <v>644</v>
       </c>
       <c r="T1184" t="n">
         <v>400</v>
@@ -95127,7 +95127,7 @@
         </is>
       </c>
       <c r="D1185" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E1185" t="n">
         <v>4</v>
@@ -95155,25 +95155,25 @@
       </c>
       <c r="K1185" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1185" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1185" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1185" t="n">
-        <v>265000</v>
+        <v>225000</v>
       </c>
       <c r="O1185" t="n">
-        <v>270000</v>
+        <v>230000</v>
       </c>
       <c r="P1185" t="n">
-        <v>267500</v>
+        <v>227500</v>
       </c>
       <c r="Q1185" t="inlineStr">
         <is>
@@ -95182,11 +95182,11 @@
       </c>
       <c r="R1185" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1185" t="n">
-        <v>669</v>
+        <v>569</v>
       </c>
       <c r="T1185" t="n">
         <v>400</v>
@@ -95207,7 +95207,7 @@
         </is>
       </c>
       <c r="D1186" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E1186" t="n">
         <v>4</v>
@@ -95235,25 +95235,25 @@
       </c>
       <c r="K1186" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1186" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1186" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N1186" t="n">
-        <v>235000</v>
+        <v>185000</v>
       </c>
       <c r="O1186" t="n">
-        <v>240000</v>
+        <v>190000</v>
       </c>
       <c r="P1186" t="n">
-        <v>237500</v>
+        <v>187500</v>
       </c>
       <c r="Q1186" t="inlineStr">
         <is>
@@ -95262,11 +95262,11 @@
       </c>
       <c r="R1186" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1186" t="n">
-        <v>594</v>
+        <v>469</v>
       </c>
       <c r="T1186" t="n">
         <v>400</v>
@@ -95287,7 +95287,7 @@
         </is>
       </c>
       <c r="D1187" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E1187" t="n">
         <v>4</v>
@@ -95315,25 +95315,25 @@
       </c>
       <c r="K1187" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1187" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1187" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N1187" t="n">
-        <v>215000</v>
+        <v>305000</v>
       </c>
       <c r="O1187" t="n">
-        <v>220000</v>
+        <v>310000</v>
       </c>
       <c r="P1187" t="n">
-        <v>217500</v>
+        <v>307500</v>
       </c>
       <c r="Q1187" t="inlineStr">
         <is>
@@ -95342,11 +95342,11 @@
       </c>
       <c r="R1187" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1187" t="n">
-        <v>544</v>
+        <v>769</v>
       </c>
       <c r="T1187" t="n">
         <v>400</v>
@@ -95367,7 +95367,7 @@
         </is>
       </c>
       <c r="D1188" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E1188" t="n">
         <v>4</v>
@@ -95395,25 +95395,25 @@
       </c>
       <c r="K1188" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1188" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1188" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1188" t="n">
-        <v>250000</v>
+        <v>275000</v>
       </c>
       <c r="O1188" t="n">
-        <v>255000</v>
+        <v>280000</v>
       </c>
       <c r="P1188" t="n">
-        <v>252500</v>
+        <v>277500</v>
       </c>
       <c r="Q1188" t="inlineStr">
         <is>
@@ -95422,11 +95422,11 @@
       </c>
       <c r="R1188" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1188" t="n">
-        <v>631</v>
+        <v>694</v>
       </c>
       <c r="T1188" t="n">
         <v>400</v>
@@ -95447,7 +95447,7 @@
         </is>
       </c>
       <c r="D1189" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1189" t="n">
         <v>4</v>
@@ -95475,25 +95475,25 @@
       </c>
       <c r="K1189" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1189" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1189" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1189" t="n">
-        <v>230000</v>
+        <v>325000</v>
       </c>
       <c r="O1189" t="n">
-        <v>235000</v>
+        <v>330000</v>
       </c>
       <c r="P1189" t="n">
-        <v>232500</v>
+        <v>327500</v>
       </c>
       <c r="Q1189" t="inlineStr">
         <is>
@@ -95506,7 +95506,7 @@
         </is>
       </c>
       <c r="S1189" t="n">
-        <v>581</v>
+        <v>819</v>
       </c>
       <c r="T1189" t="n">
         <v>400</v>
@@ -95527,7 +95527,7 @@
         </is>
       </c>
       <c r="D1190" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1190" t="n">
         <v>4</v>
@@ -95555,25 +95555,25 @@
       </c>
       <c r="K1190" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1190" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1190" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N1190" t="n">
-        <v>210000</v>
+        <v>295000</v>
       </c>
       <c r="O1190" t="n">
-        <v>215000</v>
+        <v>300000</v>
       </c>
       <c r="P1190" t="n">
-        <v>212500</v>
+        <v>297500</v>
       </c>
       <c r="Q1190" t="inlineStr">
         <is>
@@ -95586,7 +95586,7 @@
         </is>
       </c>
       <c r="S1190" t="n">
-        <v>531</v>
+        <v>744</v>
       </c>
       <c r="T1190" t="n">
         <v>400</v>
@@ -95607,7 +95607,7 @@
         </is>
       </c>
       <c r="D1191" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1191" t="n">
         <v>4</v>
@@ -95635,25 +95635,25 @@
       </c>
       <c r="K1191" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1191" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1191" t="n">
         <v>16</v>
       </c>
       <c r="N1191" t="n">
-        <v>200000</v>
+        <v>265000</v>
       </c>
       <c r="O1191" t="n">
-        <v>205000</v>
+        <v>270000</v>
       </c>
       <c r="P1191" t="n">
-        <v>202500</v>
+        <v>267500</v>
       </c>
       <c r="Q1191" t="inlineStr">
         <is>
@@ -95666,7 +95666,7 @@
         </is>
       </c>
       <c r="S1191" t="n">
-        <v>506</v>
+        <v>669</v>
       </c>
       <c r="T1191" t="n">
         <v>400</v>
@@ -95687,7 +95687,7 @@
         </is>
       </c>
       <c r="D1192" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1192" t="n">
         <v>4</v>
@@ -95715,25 +95715,25 @@
       </c>
       <c r="K1192" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1192" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1192" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N1192" t="n">
-        <v>180000</v>
+        <v>235000</v>
       </c>
       <c r="O1192" t="n">
-        <v>185000</v>
+        <v>240000</v>
       </c>
       <c r="P1192" t="n">
-        <v>182500</v>
+        <v>237500</v>
       </c>
       <c r="Q1192" t="inlineStr">
         <is>
@@ -95746,7 +95746,7 @@
         </is>
       </c>
       <c r="S1192" t="n">
-        <v>456</v>
+        <v>594</v>
       </c>
       <c r="T1192" t="n">
         <v>400</v>
@@ -95767,7 +95767,7 @@
         </is>
       </c>
       <c r="D1193" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E1193" t="n">
         <v>4</v>
@@ -95795,25 +95795,25 @@
       </c>
       <c r="K1193" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1193" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1193" t="n">
         <v>20</v>
       </c>
       <c r="N1193" t="n">
-        <v>275000</v>
+        <v>205000</v>
       </c>
       <c r="O1193" t="n">
-        <v>280000</v>
+        <v>210000</v>
       </c>
       <c r="P1193" t="n">
-        <v>277500</v>
+        <v>207500</v>
       </c>
       <c r="Q1193" t="inlineStr">
         <is>
@@ -95822,11 +95822,11 @@
       </c>
       <c r="R1193" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1193" t="n">
-        <v>694</v>
+        <v>519</v>
       </c>
       <c r="T1193" t="n">
         <v>400</v>
@@ -95847,7 +95847,7 @@
         </is>
       </c>
       <c r="D1194" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1194" t="n">
         <v>4</v>
@@ -95880,20 +95880,20 @@
       </c>
       <c r="L1194" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1194" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1194" t="n">
-        <v>245000</v>
+        <v>265000</v>
       </c>
       <c r="O1194" t="n">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="P1194" t="n">
-        <v>247500</v>
+        <v>267500</v>
       </c>
       <c r="Q1194" t="inlineStr">
         <is>
@@ -95902,11 +95902,11 @@
       </c>
       <c r="R1194" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1194" t="n">
-        <v>619</v>
+        <v>669</v>
       </c>
       <c r="T1194" t="n">
         <v>400</v>
@@ -95927,7 +95927,7 @@
         </is>
       </c>
       <c r="D1195" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1195" t="n">
         <v>4</v>
@@ -95960,20 +95960,20 @@
       </c>
       <c r="L1195" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1195" t="n">
         <v>20</v>
       </c>
       <c r="N1195" t="n">
-        <v>205000</v>
+        <v>235000</v>
       </c>
       <c r="O1195" t="n">
-        <v>210000</v>
+        <v>240000</v>
       </c>
       <c r="P1195" t="n">
-        <v>207500</v>
+        <v>237500</v>
       </c>
       <c r="Q1195" t="inlineStr">
         <is>
@@ -95982,11 +95982,11 @@
       </c>
       <c r="R1195" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1195" t="n">
-        <v>519</v>
+        <v>594</v>
       </c>
       <c r="T1195" t="n">
         <v>400</v>
@@ -96007,7 +96007,7 @@
         </is>
       </c>
       <c r="D1196" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1196" t="n">
         <v>4</v>
@@ -96035,25 +96035,25 @@
       </c>
       <c r="K1196" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1196" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1196" t="n">
         <v>20</v>
       </c>
       <c r="N1196" t="n">
-        <v>255000</v>
+        <v>215000</v>
       </c>
       <c r="O1196" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
       <c r="P1196" t="n">
-        <v>257500</v>
+        <v>217500</v>
       </c>
       <c r="Q1196" t="inlineStr">
         <is>
@@ -96066,7 +96066,7 @@
         </is>
       </c>
       <c r="S1196" t="n">
-        <v>644</v>
+        <v>544</v>
       </c>
       <c r="T1196" t="n">
         <v>400</v>
@@ -96087,7 +96087,7 @@
         </is>
       </c>
       <c r="D1197" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1197" t="n">
         <v>4</v>
@@ -96120,20 +96120,20 @@
       </c>
       <c r="L1197" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1197" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1197" t="n">
-        <v>225000</v>
+        <v>250000</v>
       </c>
       <c r="O1197" t="n">
-        <v>230000</v>
+        <v>255000</v>
       </c>
       <c r="P1197" t="n">
-        <v>227500</v>
+        <v>252500</v>
       </c>
       <c r="Q1197" t="inlineStr">
         <is>
@@ -96146,7 +96146,7 @@
         </is>
       </c>
       <c r="S1197" t="n">
-        <v>569</v>
+        <v>631</v>
       </c>
       <c r="T1197" t="n">
         <v>400</v>
@@ -96167,7 +96167,7 @@
         </is>
       </c>
       <c r="D1198" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1198" t="n">
         <v>4</v>
@@ -96200,20 +96200,20 @@
       </c>
       <c r="L1198" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1198" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1198" t="n">
-        <v>205000</v>
+        <v>230000</v>
       </c>
       <c r="O1198" t="n">
-        <v>210000</v>
+        <v>235000</v>
       </c>
       <c r="P1198" t="n">
-        <v>207500</v>
+        <v>232500</v>
       </c>
       <c r="Q1198" t="inlineStr">
         <is>
@@ -96226,7 +96226,7 @@
         </is>
       </c>
       <c r="S1198" t="n">
-        <v>519</v>
+        <v>581</v>
       </c>
       <c r="T1198" t="n">
         <v>400</v>
@@ -96247,7 +96247,7 @@
         </is>
       </c>
       <c r="D1199" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1199" t="n">
         <v>4</v>
@@ -96275,25 +96275,25 @@
       </c>
       <c r="K1199" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1199" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1199" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N1199" t="n">
-        <v>285000</v>
+        <v>210000</v>
       </c>
       <c r="O1199" t="n">
-        <v>290000</v>
+        <v>215000</v>
       </c>
       <c r="P1199" t="n">
-        <v>287500</v>
+        <v>212500</v>
       </c>
       <c r="Q1199" t="inlineStr">
         <is>
@@ -96302,11 +96302,11 @@
       </c>
       <c r="R1199" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1199" t="n">
-        <v>719</v>
+        <v>531</v>
       </c>
       <c r="T1199" t="n">
         <v>400</v>
@@ -96327,7 +96327,7 @@
         </is>
       </c>
       <c r="D1200" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1200" t="n">
         <v>4</v>
@@ -96360,20 +96360,20 @@
       </c>
       <c r="L1200" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1200" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1200" t="n">
-        <v>235000</v>
+        <v>200000</v>
       </c>
       <c r="O1200" t="n">
-        <v>240000</v>
+        <v>205000</v>
       </c>
       <c r="P1200" t="n">
-        <v>237500</v>
+        <v>202500</v>
       </c>
       <c r="Q1200" t="inlineStr">
         <is>
@@ -96382,11 +96382,11 @@
       </c>
       <c r="R1200" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1200" t="n">
-        <v>594</v>
+        <v>506</v>
       </c>
       <c r="T1200" t="n">
         <v>400</v>
@@ -96407,7 +96407,7 @@
         </is>
       </c>
       <c r="D1201" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E1201" t="n">
         <v>4</v>
@@ -96435,25 +96435,25 @@
       </c>
       <c r="K1201" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1201" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1201" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N1201" t="n">
-        <v>275000</v>
+        <v>180000</v>
       </c>
       <c r="O1201" t="n">
-        <v>280000</v>
+        <v>185000</v>
       </c>
       <c r="P1201" t="n">
-        <v>277500</v>
+        <v>182500</v>
       </c>
       <c r="Q1201" t="inlineStr">
         <is>
@@ -96466,7 +96466,7 @@
         </is>
       </c>
       <c r="S1201" t="n">
-        <v>694</v>
+        <v>456</v>
       </c>
       <c r="T1201" t="n">
         <v>400</v>
@@ -96487,7 +96487,7 @@
         </is>
       </c>
       <c r="D1202" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1202" t="n">
         <v>4</v>
@@ -96520,20 +96520,20 @@
       </c>
       <c r="L1202" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1202" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1202" t="n">
-        <v>225000</v>
+        <v>275000</v>
       </c>
       <c r="O1202" t="n">
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="P1202" t="n">
-        <v>227500</v>
+        <v>277500</v>
       </c>
       <c r="Q1202" t="inlineStr">
         <is>
@@ -96542,11 +96542,11 @@
       </c>
       <c r="R1202" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1202" t="n">
-        <v>569</v>
+        <v>694</v>
       </c>
       <c r="T1202" t="n">
         <v>400</v>
@@ -96567,7 +96567,7 @@
         </is>
       </c>
       <c r="D1203" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1203" t="n">
         <v>4</v>
@@ -96595,7 +96595,7 @@
       </c>
       <c r="K1203" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1203" t="inlineStr">
@@ -96607,13 +96607,13 @@
         <v>20</v>
       </c>
       <c r="N1203" t="n">
-        <v>275000</v>
+        <v>245000</v>
       </c>
       <c r="O1203" t="n">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="P1203" t="n">
-        <v>277500</v>
+        <v>247500</v>
       </c>
       <c r="Q1203" t="inlineStr">
         <is>
@@ -96622,11 +96622,11 @@
       </c>
       <c r="R1203" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1203" t="n">
-        <v>694</v>
+        <v>619</v>
       </c>
       <c r="T1203" t="n">
         <v>400</v>
@@ -96647,7 +96647,7 @@
         </is>
       </c>
       <c r="D1204" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1204" t="n">
         <v>4</v>
@@ -96675,7 +96675,7 @@
       </c>
       <c r="K1204" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1204" t="inlineStr">
@@ -96687,13 +96687,13 @@
         <v>20</v>
       </c>
       <c r="N1204" t="n">
-        <v>235000</v>
+        <v>205000</v>
       </c>
       <c r="O1204" t="n">
-        <v>240000</v>
+        <v>210000</v>
       </c>
       <c r="P1204" t="n">
-        <v>237500</v>
+        <v>207500</v>
       </c>
       <c r="Q1204" t="inlineStr">
         <is>
@@ -96702,11 +96702,11 @@
       </c>
       <c r="R1204" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1204" t="n">
-        <v>594</v>
+        <v>519</v>
       </c>
       <c r="T1204" t="n">
         <v>400</v>
@@ -96727,7 +96727,7 @@
         </is>
       </c>
       <c r="D1205" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1205" t="n">
         <v>4</v>
@@ -96755,25 +96755,25 @@
       </c>
       <c r="K1205" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1205" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1205" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1205" t="n">
-        <v>225000</v>
+        <v>255000</v>
       </c>
       <c r="O1205" t="n">
-        <v>230000</v>
+        <v>260000</v>
       </c>
       <c r="P1205" t="n">
-        <v>227500</v>
+        <v>257500</v>
       </c>
       <c r="Q1205" t="inlineStr">
         <is>
@@ -96786,7 +96786,7 @@
         </is>
       </c>
       <c r="S1205" t="n">
-        <v>569</v>
+        <v>644</v>
       </c>
       <c r="T1205" t="n">
         <v>400</v>
@@ -96807,7 +96807,7 @@
         </is>
       </c>
       <c r="D1206" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1206" t="n">
         <v>4</v>
@@ -96835,25 +96835,25 @@
       </c>
       <c r="K1206" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1206" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1206" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N1206" t="n">
-        <v>315000</v>
+        <v>225000</v>
       </c>
       <c r="O1206" t="n">
-        <v>320000</v>
+        <v>230000</v>
       </c>
       <c r="P1206" t="n">
-        <v>317500</v>
+        <v>227500</v>
       </c>
       <c r="Q1206" t="inlineStr">
         <is>
@@ -96862,11 +96862,11 @@
       </c>
       <c r="R1206" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1206" t="n">
-        <v>794</v>
+        <v>569</v>
       </c>
       <c r="T1206" t="n">
         <v>400</v>
@@ -96887,7 +96887,7 @@
         </is>
       </c>
       <c r="D1207" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1207" t="n">
         <v>4</v>
@@ -96915,25 +96915,25 @@
       </c>
       <c r="K1207" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1207" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1207" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1207" t="n">
-        <v>295000</v>
+        <v>205000</v>
       </c>
       <c r="O1207" t="n">
-        <v>300000</v>
+        <v>210000</v>
       </c>
       <c r="P1207" t="n">
-        <v>297500</v>
+        <v>207500</v>
       </c>
       <c r="Q1207" t="inlineStr">
         <is>
@@ -96942,11 +96942,11 @@
       </c>
       <c r="R1207" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1207" t="n">
-        <v>744</v>
+        <v>519</v>
       </c>
       <c r="T1207" t="n">
         <v>400</v>
@@ -96967,7 +96967,7 @@
         </is>
       </c>
       <c r="D1208" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1208" t="n">
         <v>4</v>
@@ -96995,25 +96995,25 @@
       </c>
       <c r="K1208" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1208" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1208" t="n">
         <v>20</v>
       </c>
       <c r="N1208" t="n">
-        <v>265000</v>
+        <v>285000</v>
       </c>
       <c r="O1208" t="n">
-        <v>270000</v>
+        <v>290000</v>
       </c>
       <c r="P1208" t="n">
-        <v>267500</v>
+        <v>287500</v>
       </c>
       <c r="Q1208" t="inlineStr">
         <is>
@@ -97026,7 +97026,7 @@
         </is>
       </c>
       <c r="S1208" t="n">
-        <v>669</v>
+        <v>719</v>
       </c>
       <c r="T1208" t="n">
         <v>400</v>
@@ -97047,7 +97047,7 @@
         </is>
       </c>
       <c r="D1209" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1209" t="n">
         <v>4</v>
@@ -97075,25 +97075,25 @@
       </c>
       <c r="K1209" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1209" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1209" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1209" t="n">
-        <v>310000</v>
+        <v>235000</v>
       </c>
       <c r="O1209" t="n">
-        <v>315000</v>
+        <v>240000</v>
       </c>
       <c r="P1209" t="n">
-        <v>312500</v>
+        <v>237500</v>
       </c>
       <c r="Q1209" t="inlineStr">
         <is>
@@ -97106,7 +97106,7 @@
         </is>
       </c>
       <c r="S1209" t="n">
-        <v>781</v>
+        <v>594</v>
       </c>
       <c r="T1209" t="n">
         <v>400</v>
@@ -97127,7 +97127,7 @@
         </is>
       </c>
       <c r="D1210" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1210" t="n">
         <v>4</v>
@@ -97155,7 +97155,7 @@
       </c>
       <c r="K1210" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1210" t="inlineStr">
@@ -97167,13 +97167,13 @@
         <v>16</v>
       </c>
       <c r="N1210" t="n">
+        <v>275000</v>
+      </c>
+      <c r="O1210" t="n">
         <v>280000</v>
       </c>
-      <c r="O1210" t="n">
-        <v>285000</v>
-      </c>
       <c r="P1210" t="n">
-        <v>282500</v>
+        <v>277500</v>
       </c>
       <c r="Q1210" t="inlineStr">
         <is>
@@ -97182,11 +97182,11 @@
       </c>
       <c r="R1210" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1210" t="n">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="T1210" t="n">
         <v>400</v>
@@ -97207,7 +97207,7 @@
         </is>
       </c>
       <c r="D1211" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1211" t="n">
         <v>4</v>
@@ -97235,7 +97235,7 @@
       </c>
       <c r="K1211" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1211" t="inlineStr">
@@ -97247,28 +97247,748 @@
         <v>16</v>
       </c>
       <c r="N1211" t="n">
+        <v>225000</v>
+      </c>
+      <c r="O1211" t="n">
+        <v>230000</v>
+      </c>
+      <c r="P1211" t="n">
+        <v>227500</v>
+      </c>
+      <c r="Q1211" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1211" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1211" t="n">
+        <v>569</v>
+      </c>
+      <c r="T1211" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1212" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1212" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1212" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1212" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1212" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1212" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1212" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1212" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L1212" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1212" t="n">
+        <v>20</v>
+      </c>
+      <c r="N1212" t="n">
+        <v>275000</v>
+      </c>
+      <c r="O1212" t="n">
+        <v>280000</v>
+      </c>
+      <c r="P1212" t="n">
+        <v>277500</v>
+      </c>
+      <c r="Q1212" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1212" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1212" t="n">
+        <v>694</v>
+      </c>
+      <c r="T1212" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1213" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1213" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1213" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1213" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1213" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1213" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1213" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1213" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L1213" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1213" t="n">
+        <v>20</v>
+      </c>
+      <c r="N1213" t="n">
+        <v>235000</v>
+      </c>
+      <c r="O1213" t="n">
+        <v>240000</v>
+      </c>
+      <c r="P1213" t="n">
+        <v>237500</v>
+      </c>
+      <c r="Q1213" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1213" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1213" t="n">
+        <v>594</v>
+      </c>
+      <c r="T1213" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1214" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1214" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1214" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1214" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1214" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1214" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1214" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1214" t="inlineStr">
+        <is>
+          <t>Pink Lady</t>
+        </is>
+      </c>
+      <c r="L1214" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1214" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1214" t="n">
+        <v>225000</v>
+      </c>
+      <c r="O1214" t="n">
+        <v>230000</v>
+      </c>
+      <c r="P1214" t="n">
+        <v>227500</v>
+      </c>
+      <c r="Q1214" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1214" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1214" t="n">
+        <v>569</v>
+      </c>
+      <c r="T1214" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1215" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1215" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1215" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1215" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1215" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1215" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1215" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1215" t="inlineStr">
+        <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L1215" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M1215" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1215" t="n">
+        <v>315000</v>
+      </c>
+      <c r="O1215" t="n">
+        <v>320000</v>
+      </c>
+      <c r="P1215" t="n">
+        <v>317500</v>
+      </c>
+      <c r="Q1215" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1215" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1215" t="n">
+        <v>794</v>
+      </c>
+      <c r="T1215" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1216" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1216" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1216" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1216" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1216" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1216" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1216" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1216" t="inlineStr">
+        <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L1216" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1216" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1216" t="n">
+        <v>295000</v>
+      </c>
+      <c r="O1216" t="n">
+        <v>300000</v>
+      </c>
+      <c r="P1216" t="n">
+        <v>297500</v>
+      </c>
+      <c r="Q1216" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1216" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1216" t="n">
+        <v>744</v>
+      </c>
+      <c r="T1216" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1217" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1217" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1217" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1217" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1217" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1217" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1217" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1217" t="inlineStr">
+        <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L1217" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1217" t="n">
+        <v>20</v>
+      </c>
+      <c r="N1217" t="n">
+        <v>265000</v>
+      </c>
+      <c r="O1217" t="n">
+        <v>270000</v>
+      </c>
+      <c r="P1217" t="n">
+        <v>267500</v>
+      </c>
+      <c r="Q1217" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1217" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1217" t="n">
+        <v>669</v>
+      </c>
+      <c r="T1217" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1218" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1218" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1218" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1218" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1218" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1218" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1218" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1218" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L1218" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M1218" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1218" t="n">
+        <v>310000</v>
+      </c>
+      <c r="O1218" t="n">
+        <v>315000</v>
+      </c>
+      <c r="P1218" t="n">
+        <v>312500</v>
+      </c>
+      <c r="Q1218" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1218" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1218" t="n">
+        <v>781</v>
+      </c>
+      <c r="T1218" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1219" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1219" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1219" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1219" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1219" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1219" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1219" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1219" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L1219" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1219" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1219" t="n">
+        <v>280000</v>
+      </c>
+      <c r="O1219" t="n">
+        <v>285000</v>
+      </c>
+      <c r="P1219" t="n">
+        <v>282500</v>
+      </c>
+      <c r="Q1219" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1219" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1219" t="n">
+        <v>706</v>
+      </c>
+      <c r="T1219" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1220" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1220" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1220" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1220" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1220" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1220" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1220" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1220" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L1220" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1220" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1220" t="n">
         <v>250000</v>
       </c>
-      <c r="O1211" t="n">
+      <c r="O1220" t="n">
         <v>255000</v>
       </c>
-      <c r="P1211" t="n">
+      <c r="P1220" t="n">
         <v>252500</v>
       </c>
-      <c r="Q1211" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R1211" t="inlineStr">
+      <c r="Q1220" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1220" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S1211" t="n">
+      <c r="S1220" t="n">
         <v>631</v>
       </c>
-      <c r="T1211" t="n">
+      <c r="T1220" t="n">
         <v>400</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Manzana.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Manzana.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1229"/>
+  <dimension ref="A1:T1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94727,7 +94727,7 @@
         </is>
       </c>
       <c r="D1180" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1180" t="n">
         <v>4</v>
@@ -94764,16 +94764,16 @@
         </is>
       </c>
       <c r="M1180" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N1180" t="n">
-        <v>265000</v>
+        <v>315000</v>
       </c>
       <c r="O1180" t="n">
-        <v>270000</v>
+        <v>320000</v>
       </c>
       <c r="P1180" t="n">
-        <v>267500</v>
+        <v>317500</v>
       </c>
       <c r="Q1180" t="inlineStr">
         <is>
@@ -94782,11 +94782,11 @@
       </c>
       <c r="R1180" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1180" t="n">
-        <v>669</v>
+        <v>794</v>
       </c>
       <c r="T1180" t="n">
         <v>400</v>
@@ -94807,7 +94807,7 @@
         </is>
       </c>
       <c r="D1181" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1181" t="n">
         <v>4</v>
@@ -94844,16 +94844,16 @@
         </is>
       </c>
       <c r="M1181" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N1181" t="n">
-        <v>235000</v>
+        <v>285000</v>
       </c>
       <c r="O1181" t="n">
-        <v>240000</v>
+        <v>290000</v>
       </c>
       <c r="P1181" t="n">
-        <v>237500</v>
+        <v>287500</v>
       </c>
       <c r="Q1181" t="inlineStr">
         <is>
@@ -94862,11 +94862,11 @@
       </c>
       <c r="R1181" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1181" t="n">
-        <v>594</v>
+        <v>719</v>
       </c>
       <c r="T1181" t="n">
         <v>400</v>
@@ -94887,7 +94887,7 @@
         </is>
       </c>
       <c r="D1182" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1182" t="n">
         <v>4</v>
@@ -94924,16 +94924,16 @@
         </is>
       </c>
       <c r="M1182" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1182" t="n">
-        <v>205000</v>
+        <v>255000</v>
       </c>
       <c r="O1182" t="n">
-        <v>210000</v>
+        <v>260000</v>
       </c>
       <c r="P1182" t="n">
-        <v>207500</v>
+        <v>257500</v>
       </c>
       <c r="Q1182" t="inlineStr">
         <is>
@@ -94942,11 +94942,11 @@
       </c>
       <c r="R1182" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1182" t="n">
-        <v>519</v>
+        <v>644</v>
       </c>
       <c r="T1182" t="n">
         <v>400</v>
@@ -94967,7 +94967,7 @@
         </is>
       </c>
       <c r="D1183" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1183" t="n">
         <v>4</v>
@@ -94995,25 +94995,25 @@
       </c>
       <c r="K1183" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1183" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1183" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N1183" t="n">
-        <v>240000</v>
+        <v>215000</v>
       </c>
       <c r="O1183" t="n">
-        <v>245000</v>
+        <v>220000</v>
       </c>
       <c r="P1183" t="n">
-        <v>242500</v>
+        <v>217500</v>
       </c>
       <c r="Q1183" t="inlineStr">
         <is>
@@ -95022,11 +95022,11 @@
       </c>
       <c r="R1183" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1183" t="n">
-        <v>606</v>
+        <v>544</v>
       </c>
       <c r="T1183" t="n">
         <v>400</v>
@@ -95047,7 +95047,7 @@
         </is>
       </c>
       <c r="D1184" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1184" t="n">
         <v>4</v>
@@ -95075,25 +95075,25 @@
       </c>
       <c r="K1184" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1184" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1184" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N1184" t="n">
-        <v>220000</v>
+        <v>195000</v>
       </c>
       <c r="O1184" t="n">
-        <v>225000</v>
+        <v>200000</v>
       </c>
       <c r="P1184" t="n">
-        <v>222500</v>
+        <v>197500</v>
       </c>
       <c r="Q1184" t="inlineStr">
         <is>
@@ -95102,11 +95102,11 @@
       </c>
       <c r="R1184" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1184" t="n">
-        <v>556</v>
+        <v>494</v>
       </c>
       <c r="T1184" t="n">
         <v>400</v>
@@ -95155,25 +95155,25 @@
       </c>
       <c r="K1185" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1185" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1185" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1185" t="n">
-        <v>205000</v>
+        <v>265000</v>
       </c>
       <c r="O1185" t="n">
-        <v>210000</v>
+        <v>270000</v>
       </c>
       <c r="P1185" t="n">
-        <v>207500</v>
+        <v>267500</v>
       </c>
       <c r="Q1185" t="inlineStr">
         <is>
@@ -95186,7 +95186,7 @@
         </is>
       </c>
       <c r="S1185" t="n">
-        <v>519</v>
+        <v>669</v>
       </c>
       <c r="T1185" t="n">
         <v>400</v>
@@ -95235,7 +95235,7 @@
       </c>
       <c r="K1186" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1186" t="inlineStr">
@@ -95247,13 +95247,13 @@
         <v>20</v>
       </c>
       <c r="N1186" t="n">
-        <v>205000</v>
+        <v>235000</v>
       </c>
       <c r="O1186" t="n">
-        <v>210000</v>
+        <v>240000</v>
       </c>
       <c r="P1186" t="n">
-        <v>207500</v>
+        <v>237500</v>
       </c>
       <c r="Q1186" t="inlineStr">
         <is>
@@ -95266,7 +95266,7 @@
         </is>
       </c>
       <c r="S1186" t="n">
-        <v>519</v>
+        <v>594</v>
       </c>
       <c r="T1186" t="n">
         <v>400</v>
@@ -95315,7 +95315,7 @@
       </c>
       <c r="K1187" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1187" t="inlineStr">
@@ -95324,16 +95324,16 @@
         </is>
       </c>
       <c r="M1187" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1187" t="n">
-        <v>185000</v>
+        <v>205000</v>
       </c>
       <c r="O1187" t="n">
-        <v>190000</v>
+        <v>210000</v>
       </c>
       <c r="P1187" t="n">
-        <v>187500</v>
+        <v>207500</v>
       </c>
       <c r="Q1187" t="inlineStr">
         <is>
@@ -95346,7 +95346,7 @@
         </is>
       </c>
       <c r="S1187" t="n">
-        <v>469</v>
+        <v>519</v>
       </c>
       <c r="T1187" t="n">
         <v>400</v>
@@ -95367,7 +95367,7 @@
         </is>
       </c>
       <c r="D1188" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1188" t="n">
         <v>4</v>
@@ -95395,7 +95395,7 @@
       </c>
       <c r="K1188" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1188" t="inlineStr">
@@ -95404,16 +95404,16 @@
         </is>
       </c>
       <c r="M1188" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N1188" t="n">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="O1188" t="n">
-        <v>240000</v>
+        <v>245000</v>
       </c>
       <c r="P1188" t="n">
-        <v>235000</v>
+        <v>242500</v>
       </c>
       <c r="Q1188" t="inlineStr">
         <is>
@@ -95426,7 +95426,7 @@
         </is>
       </c>
       <c r="S1188" t="n">
-        <v>588</v>
+        <v>606</v>
       </c>
       <c r="T1188" t="n">
         <v>400</v>
@@ -95447,7 +95447,7 @@
         </is>
       </c>
       <c r="D1189" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1189" t="n">
         <v>4</v>
@@ -95475,7 +95475,7 @@
       </c>
       <c r="K1189" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1189" t="inlineStr">
@@ -95487,13 +95487,13 @@
         <v>20</v>
       </c>
       <c r="N1189" t="n">
-        <v>210000</v>
+        <v>220000</v>
       </c>
       <c r="O1189" t="n">
-        <v>220000</v>
+        <v>225000</v>
       </c>
       <c r="P1189" t="n">
-        <v>215000</v>
+        <v>222500</v>
       </c>
       <c r="Q1189" t="inlineStr">
         <is>
@@ -95506,7 +95506,7 @@
         </is>
       </c>
       <c r="S1189" t="n">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="T1189" t="n">
         <v>400</v>
@@ -95527,7 +95527,7 @@
         </is>
       </c>
       <c r="D1190" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1190" t="n">
         <v>4</v>
@@ -95555,7 +95555,7 @@
       </c>
       <c r="K1190" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1190" t="inlineStr">
@@ -95564,16 +95564,16 @@
         </is>
       </c>
       <c r="M1190" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N1190" t="n">
-        <v>180000</v>
+        <v>205000</v>
       </c>
       <c r="O1190" t="n">
-        <v>190000</v>
+        <v>210000</v>
       </c>
       <c r="P1190" t="n">
-        <v>185000</v>
+        <v>207500</v>
       </c>
       <c r="Q1190" t="inlineStr">
         <is>
@@ -95586,7 +95586,7 @@
         </is>
       </c>
       <c r="S1190" t="n">
-        <v>462</v>
+        <v>519</v>
       </c>
       <c r="T1190" t="n">
         <v>400</v>
@@ -95607,7 +95607,7 @@
         </is>
       </c>
       <c r="D1191" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E1191" t="n">
         <v>4</v>
@@ -95635,25 +95635,25 @@
       </c>
       <c r="K1191" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1191" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1191" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N1191" t="n">
-        <v>255000</v>
+        <v>205000</v>
       </c>
       <c r="O1191" t="n">
-        <v>260000</v>
+        <v>210000</v>
       </c>
       <c r="P1191" t="n">
-        <v>257500</v>
+        <v>207500</v>
       </c>
       <c r="Q1191" t="inlineStr">
         <is>
@@ -95662,11 +95662,11 @@
       </c>
       <c r="R1191" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1191" t="n">
-        <v>644</v>
+        <v>519</v>
       </c>
       <c r="T1191" t="n">
         <v>400</v>
@@ -95687,7 +95687,7 @@
         </is>
       </c>
       <c r="D1192" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E1192" t="n">
         <v>4</v>
@@ -95715,25 +95715,25 @@
       </c>
       <c r="K1192" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1192" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1192" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1192" t="n">
-        <v>235000</v>
+        <v>185000</v>
       </c>
       <c r="O1192" t="n">
-        <v>240000</v>
+        <v>190000</v>
       </c>
       <c r="P1192" t="n">
-        <v>237500</v>
+        <v>187500</v>
       </c>
       <c r="Q1192" t="inlineStr">
         <is>
@@ -95742,11 +95742,11 @@
       </c>
       <c r="R1192" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1192" t="n">
-        <v>594</v>
+        <v>469</v>
       </c>
       <c r="T1192" t="n">
         <v>400</v>
@@ -95767,7 +95767,7 @@
         </is>
       </c>
       <c r="D1193" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E1193" t="n">
         <v>4</v>
@@ -95795,7 +95795,7 @@
       </c>
       <c r="K1193" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1193" t="inlineStr">
@@ -95804,16 +95804,16 @@
         </is>
       </c>
       <c r="M1193" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N1193" t="n">
-        <v>255000</v>
+        <v>230000</v>
       </c>
       <c r="O1193" t="n">
-        <v>260000</v>
+        <v>240000</v>
       </c>
       <c r="P1193" t="n">
-        <v>257500</v>
+        <v>235000</v>
       </c>
       <c r="Q1193" t="inlineStr">
         <is>
@@ -95826,7 +95826,7 @@
         </is>
       </c>
       <c r="S1193" t="n">
-        <v>644</v>
+        <v>588</v>
       </c>
       <c r="T1193" t="n">
         <v>400</v>
@@ -95847,7 +95847,7 @@
         </is>
       </c>
       <c r="D1194" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E1194" t="n">
         <v>4</v>
@@ -95875,7 +95875,7 @@
       </c>
       <c r="K1194" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1194" t="inlineStr">
@@ -95887,13 +95887,13 @@
         <v>20</v>
       </c>
       <c r="N1194" t="n">
-        <v>225000</v>
+        <v>210000</v>
       </c>
       <c r="O1194" t="n">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="P1194" t="n">
-        <v>227500</v>
+        <v>215000</v>
       </c>
       <c r="Q1194" t="inlineStr">
         <is>
@@ -95906,7 +95906,7 @@
         </is>
       </c>
       <c r="S1194" t="n">
-        <v>569</v>
+        <v>538</v>
       </c>
       <c r="T1194" t="n">
         <v>400</v>
@@ -95927,7 +95927,7 @@
         </is>
       </c>
       <c r="D1195" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E1195" t="n">
         <v>4</v>
@@ -95955,7 +95955,7 @@
       </c>
       <c r="K1195" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1195" t="inlineStr">
@@ -95967,13 +95967,13 @@
         <v>18</v>
       </c>
       <c r="N1195" t="n">
-        <v>185000</v>
+        <v>180000</v>
       </c>
       <c r="O1195" t="n">
         <v>190000</v>
       </c>
       <c r="P1195" t="n">
-        <v>187500</v>
+        <v>185000</v>
       </c>
       <c r="Q1195" t="inlineStr">
         <is>
@@ -95986,7 +95986,7 @@
         </is>
       </c>
       <c r="S1195" t="n">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="T1195" t="n">
         <v>400</v>
@@ -96007,7 +96007,7 @@
         </is>
       </c>
       <c r="D1196" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1196" t="n">
         <v>4</v>
@@ -96035,7 +96035,7 @@
       </c>
       <c r="K1196" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1196" t="inlineStr">
@@ -96047,13 +96047,13 @@
         <v>24</v>
       </c>
       <c r="N1196" t="n">
-        <v>305000</v>
+        <v>255000</v>
       </c>
       <c r="O1196" t="n">
-        <v>310000</v>
+        <v>260000</v>
       </c>
       <c r="P1196" t="n">
-        <v>307500</v>
+        <v>257500</v>
       </c>
       <c r="Q1196" t="inlineStr">
         <is>
@@ -96062,11 +96062,11 @@
       </c>
       <c r="R1196" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1196" t="n">
-        <v>769</v>
+        <v>644</v>
       </c>
       <c r="T1196" t="n">
         <v>400</v>
@@ -96087,7 +96087,7 @@
         </is>
       </c>
       <c r="D1197" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1197" t="n">
         <v>4</v>
@@ -96115,7 +96115,7 @@
       </c>
       <c r="K1197" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1197" t="inlineStr">
@@ -96127,13 +96127,13 @@
         <v>20</v>
       </c>
       <c r="N1197" t="n">
-        <v>275000</v>
+        <v>235000</v>
       </c>
       <c r="O1197" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="P1197" t="n">
-        <v>277500</v>
+        <v>237500</v>
       </c>
       <c r="Q1197" t="inlineStr">
         <is>
@@ -96142,11 +96142,11 @@
       </c>
       <c r="R1197" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1197" t="n">
-        <v>694</v>
+        <v>594</v>
       </c>
       <c r="T1197" t="n">
         <v>400</v>
@@ -96167,7 +96167,7 @@
         </is>
       </c>
       <c r="D1198" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1198" t="n">
         <v>4</v>
@@ -96195,7 +96195,7 @@
       </c>
       <c r="K1198" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1198" t="inlineStr">
@@ -96204,16 +96204,16 @@
         </is>
       </c>
       <c r="M1198" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N1198" t="n">
-        <v>325000</v>
+        <v>255000</v>
       </c>
       <c r="O1198" t="n">
-        <v>330000</v>
+        <v>260000</v>
       </c>
       <c r="P1198" t="n">
-        <v>327500</v>
+        <v>257500</v>
       </c>
       <c r="Q1198" t="inlineStr">
         <is>
@@ -96222,11 +96222,11 @@
       </c>
       <c r="R1198" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1198" t="n">
-        <v>819</v>
+        <v>644</v>
       </c>
       <c r="T1198" t="n">
         <v>400</v>
@@ -96247,7 +96247,7 @@
         </is>
       </c>
       <c r="D1199" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1199" t="n">
         <v>4</v>
@@ -96275,7 +96275,7 @@
       </c>
       <c r="K1199" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1199" t="inlineStr">
@@ -96287,13 +96287,13 @@
         <v>20</v>
       </c>
       <c r="N1199" t="n">
-        <v>295000</v>
+        <v>225000</v>
       </c>
       <c r="O1199" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="P1199" t="n">
-        <v>297500</v>
+        <v>227500</v>
       </c>
       <c r="Q1199" t="inlineStr">
         <is>
@@ -96302,11 +96302,11 @@
       </c>
       <c r="R1199" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1199" t="n">
-        <v>744</v>
+        <v>569</v>
       </c>
       <c r="T1199" t="n">
         <v>400</v>
@@ -96327,7 +96327,7 @@
         </is>
       </c>
       <c r="D1200" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1200" t="n">
         <v>4</v>
@@ -96360,20 +96360,20 @@
       </c>
       <c r="L1200" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1200" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N1200" t="n">
-        <v>265000</v>
+        <v>185000</v>
       </c>
       <c r="O1200" t="n">
-        <v>270000</v>
+        <v>190000</v>
       </c>
       <c r="P1200" t="n">
-        <v>267500</v>
+        <v>187500</v>
       </c>
       <c r="Q1200" t="inlineStr">
         <is>
@@ -96382,11 +96382,11 @@
       </c>
       <c r="R1200" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1200" t="n">
-        <v>669</v>
+        <v>469</v>
       </c>
       <c r="T1200" t="n">
         <v>400</v>
@@ -96407,7 +96407,7 @@
         </is>
       </c>
       <c r="D1201" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1201" t="n">
         <v>4</v>
@@ -96435,25 +96435,25 @@
       </c>
       <c r="K1201" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1201" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1201" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N1201" t="n">
-        <v>235000</v>
+        <v>305000</v>
       </c>
       <c r="O1201" t="n">
-        <v>240000</v>
+        <v>310000</v>
       </c>
       <c r="P1201" t="n">
-        <v>237500</v>
+        <v>307500</v>
       </c>
       <c r="Q1201" t="inlineStr">
         <is>
@@ -96462,11 +96462,11 @@
       </c>
       <c r="R1201" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1201" t="n">
-        <v>594</v>
+        <v>769</v>
       </c>
       <c r="T1201" t="n">
         <v>400</v>
@@ -96487,7 +96487,7 @@
         </is>
       </c>
       <c r="D1202" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1202" t="n">
         <v>4</v>
@@ -96515,25 +96515,25 @@
       </c>
       <c r="K1202" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1202" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1202" t="n">
         <v>20</v>
       </c>
       <c r="N1202" t="n">
-        <v>205000</v>
+        <v>275000</v>
       </c>
       <c r="O1202" t="n">
-        <v>210000</v>
+        <v>280000</v>
       </c>
       <c r="P1202" t="n">
-        <v>207500</v>
+        <v>277500</v>
       </c>
       <c r="Q1202" t="inlineStr">
         <is>
@@ -96542,11 +96542,11 @@
       </c>
       <c r="R1202" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1202" t="n">
-        <v>519</v>
+        <v>694</v>
       </c>
       <c r="T1202" t="n">
         <v>400</v>
@@ -96567,7 +96567,7 @@
         </is>
       </c>
       <c r="D1203" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1203" t="n">
         <v>4</v>
@@ -96604,16 +96604,16 @@
         </is>
       </c>
       <c r="M1203" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1203" t="n">
-        <v>265000</v>
+        <v>325000</v>
       </c>
       <c r="O1203" t="n">
-        <v>270000</v>
+        <v>330000</v>
       </c>
       <c r="P1203" t="n">
-        <v>267500</v>
+        <v>327500</v>
       </c>
       <c r="Q1203" t="inlineStr">
         <is>
@@ -96626,7 +96626,7 @@
         </is>
       </c>
       <c r="S1203" t="n">
-        <v>669</v>
+        <v>819</v>
       </c>
       <c r="T1203" t="n">
         <v>400</v>
@@ -96647,7 +96647,7 @@
         </is>
       </c>
       <c r="D1204" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1204" t="n">
         <v>4</v>
@@ -96687,13 +96687,13 @@
         <v>20</v>
       </c>
       <c r="N1204" t="n">
-        <v>235000</v>
+        <v>295000</v>
       </c>
       <c r="O1204" t="n">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="P1204" t="n">
-        <v>237500</v>
+        <v>297500</v>
       </c>
       <c r="Q1204" t="inlineStr">
         <is>
@@ -96706,7 +96706,7 @@
         </is>
       </c>
       <c r="S1204" t="n">
-        <v>594</v>
+        <v>744</v>
       </c>
       <c r="T1204" t="n">
         <v>400</v>
@@ -96727,7 +96727,7 @@
         </is>
       </c>
       <c r="D1205" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1205" t="n">
         <v>4</v>
@@ -96755,25 +96755,25 @@
       </c>
       <c r="K1205" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1205" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1205" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1205" t="n">
-        <v>215000</v>
+        <v>265000</v>
       </c>
       <c r="O1205" t="n">
-        <v>220000</v>
+        <v>270000</v>
       </c>
       <c r="P1205" t="n">
-        <v>217500</v>
+        <v>267500</v>
       </c>
       <c r="Q1205" t="inlineStr">
         <is>
@@ -96786,7 +96786,7 @@
         </is>
       </c>
       <c r="S1205" t="n">
-        <v>544</v>
+        <v>669</v>
       </c>
       <c r="T1205" t="n">
         <v>400</v>
@@ -96807,7 +96807,7 @@
         </is>
       </c>
       <c r="D1206" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1206" t="n">
         <v>4</v>
@@ -96840,20 +96840,20 @@
       </c>
       <c r="L1206" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1206" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1206" t="n">
-        <v>250000</v>
+        <v>235000</v>
       </c>
       <c r="O1206" t="n">
-        <v>255000</v>
+        <v>240000</v>
       </c>
       <c r="P1206" t="n">
-        <v>252500</v>
+        <v>237500</v>
       </c>
       <c r="Q1206" t="inlineStr">
         <is>
@@ -96866,7 +96866,7 @@
         </is>
       </c>
       <c r="S1206" t="n">
-        <v>631</v>
+        <v>594</v>
       </c>
       <c r="T1206" t="n">
         <v>400</v>
@@ -96887,7 +96887,7 @@
         </is>
       </c>
       <c r="D1207" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1207" t="n">
         <v>4</v>
@@ -96920,20 +96920,20 @@
       </c>
       <c r="L1207" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1207" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1207" t="n">
-        <v>230000</v>
+        <v>205000</v>
       </c>
       <c r="O1207" t="n">
-        <v>235000</v>
+        <v>210000</v>
       </c>
       <c r="P1207" t="n">
-        <v>232500</v>
+        <v>207500</v>
       </c>
       <c r="Q1207" t="inlineStr">
         <is>
@@ -96946,7 +96946,7 @@
         </is>
       </c>
       <c r="S1207" t="n">
-        <v>581</v>
+        <v>519</v>
       </c>
       <c r="T1207" t="n">
         <v>400</v>
@@ -96995,25 +96995,25 @@
       </c>
       <c r="K1208" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1208" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1208" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N1208" t="n">
-        <v>210000</v>
+        <v>265000</v>
       </c>
       <c r="O1208" t="n">
-        <v>215000</v>
+        <v>270000</v>
       </c>
       <c r="P1208" t="n">
-        <v>212500</v>
+        <v>267500</v>
       </c>
       <c r="Q1208" t="inlineStr">
         <is>
@@ -97026,7 +97026,7 @@
         </is>
       </c>
       <c r="S1208" t="n">
-        <v>531</v>
+        <v>669</v>
       </c>
       <c r="T1208" t="n">
         <v>400</v>
@@ -97075,7 +97075,7 @@
       </c>
       <c r="K1209" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1209" t="inlineStr">
@@ -97084,16 +97084,16 @@
         </is>
       </c>
       <c r="M1209" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1209" t="n">
-        <v>200000</v>
+        <v>235000</v>
       </c>
       <c r="O1209" t="n">
-        <v>205000</v>
+        <v>240000</v>
       </c>
       <c r="P1209" t="n">
-        <v>202500</v>
+        <v>237500</v>
       </c>
       <c r="Q1209" t="inlineStr">
         <is>
@@ -97106,7 +97106,7 @@
         </is>
       </c>
       <c r="S1209" t="n">
-        <v>506</v>
+        <v>594</v>
       </c>
       <c r="T1209" t="n">
         <v>400</v>
@@ -97155,7 +97155,7 @@
       </c>
       <c r="K1210" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1210" t="inlineStr">
@@ -97164,16 +97164,16 @@
         </is>
       </c>
       <c r="M1210" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N1210" t="n">
-        <v>180000</v>
+        <v>215000</v>
       </c>
       <c r="O1210" t="n">
-        <v>185000</v>
+        <v>220000</v>
       </c>
       <c r="P1210" t="n">
-        <v>182500</v>
+        <v>217500</v>
       </c>
       <c r="Q1210" t="inlineStr">
         <is>
@@ -97186,7 +97186,7 @@
         </is>
       </c>
       <c r="S1210" t="n">
-        <v>456</v>
+        <v>544</v>
       </c>
       <c r="T1210" t="n">
         <v>400</v>
@@ -97207,7 +97207,7 @@
         </is>
       </c>
       <c r="D1211" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1211" t="n">
         <v>4</v>
@@ -97235,7 +97235,7 @@
       </c>
       <c r="K1211" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1211" t="inlineStr">
@@ -97244,16 +97244,16 @@
         </is>
       </c>
       <c r="M1211" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1211" t="n">
-        <v>275000</v>
+        <v>250000</v>
       </c>
       <c r="O1211" t="n">
-        <v>280000</v>
+        <v>255000</v>
       </c>
       <c r="P1211" t="n">
-        <v>277500</v>
+        <v>252500</v>
       </c>
       <c r="Q1211" t="inlineStr">
         <is>
@@ -97262,11 +97262,11 @@
       </c>
       <c r="R1211" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1211" t="n">
-        <v>694</v>
+        <v>631</v>
       </c>
       <c r="T1211" t="n">
         <v>400</v>
@@ -97287,7 +97287,7 @@
         </is>
       </c>
       <c r="D1212" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1212" t="n">
         <v>4</v>
@@ -97315,7 +97315,7 @@
       </c>
       <c r="K1212" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1212" t="inlineStr">
@@ -97324,16 +97324,16 @@
         </is>
       </c>
       <c r="M1212" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1212" t="n">
-        <v>245000</v>
+        <v>230000</v>
       </c>
       <c r="O1212" t="n">
-        <v>250000</v>
+        <v>235000</v>
       </c>
       <c r="P1212" t="n">
-        <v>247500</v>
+        <v>232500</v>
       </c>
       <c r="Q1212" t="inlineStr">
         <is>
@@ -97342,11 +97342,11 @@
       </c>
       <c r="R1212" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1212" t="n">
-        <v>619</v>
+        <v>581</v>
       </c>
       <c r="T1212" t="n">
         <v>400</v>
@@ -97367,7 +97367,7 @@
         </is>
       </c>
       <c r="D1213" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1213" t="n">
         <v>4</v>
@@ -97395,7 +97395,7 @@
       </c>
       <c r="K1213" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1213" t="inlineStr">
@@ -97404,16 +97404,16 @@
         </is>
       </c>
       <c r="M1213" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N1213" t="n">
-        <v>205000</v>
+        <v>210000</v>
       </c>
       <c r="O1213" t="n">
-        <v>210000</v>
+        <v>215000</v>
       </c>
       <c r="P1213" t="n">
-        <v>207500</v>
+        <v>212500</v>
       </c>
       <c r="Q1213" t="inlineStr">
         <is>
@@ -97422,11 +97422,11 @@
       </c>
       <c r="R1213" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1213" t="n">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="T1213" t="n">
         <v>400</v>
@@ -97447,7 +97447,7 @@
         </is>
       </c>
       <c r="D1214" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1214" t="n">
         <v>4</v>
@@ -97475,25 +97475,25 @@
       </c>
       <c r="K1214" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1214" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1214" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1214" t="n">
-        <v>255000</v>
+        <v>200000</v>
       </c>
       <c r="O1214" t="n">
-        <v>260000</v>
+        <v>205000</v>
       </c>
       <c r="P1214" t="n">
-        <v>257500</v>
+        <v>202500</v>
       </c>
       <c r="Q1214" t="inlineStr">
         <is>
@@ -97506,7 +97506,7 @@
         </is>
       </c>
       <c r="S1214" t="n">
-        <v>644</v>
+        <v>506</v>
       </c>
       <c r="T1214" t="n">
         <v>400</v>
@@ -97527,7 +97527,7 @@
         </is>
       </c>
       <c r="D1215" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1215" t="n">
         <v>4</v>
@@ -97555,25 +97555,25 @@
       </c>
       <c r="K1215" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1215" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1215" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N1215" t="n">
-        <v>225000</v>
+        <v>180000</v>
       </c>
       <c r="O1215" t="n">
-        <v>230000</v>
+        <v>185000</v>
       </c>
       <c r="P1215" t="n">
-        <v>227500</v>
+        <v>182500</v>
       </c>
       <c r="Q1215" t="inlineStr">
         <is>
@@ -97586,7 +97586,7 @@
         </is>
       </c>
       <c r="S1215" t="n">
-        <v>569</v>
+        <v>456</v>
       </c>
       <c r="T1215" t="n">
         <v>400</v>
@@ -97635,25 +97635,25 @@
       </c>
       <c r="K1216" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1216" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1216" t="n">
         <v>20</v>
       </c>
       <c r="N1216" t="n">
-        <v>205000</v>
+        <v>275000</v>
       </c>
       <c r="O1216" t="n">
-        <v>210000</v>
+        <v>280000</v>
       </c>
       <c r="P1216" t="n">
-        <v>207500</v>
+        <v>277500</v>
       </c>
       <c r="Q1216" t="inlineStr">
         <is>
@@ -97662,11 +97662,11 @@
       </c>
       <c r="R1216" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1216" t="n">
-        <v>519</v>
+        <v>694</v>
       </c>
       <c r="T1216" t="n">
         <v>400</v>
@@ -97715,7 +97715,7 @@
       </c>
       <c r="K1217" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1217" t="inlineStr">
@@ -97727,13 +97727,13 @@
         <v>20</v>
       </c>
       <c r="N1217" t="n">
-        <v>285000</v>
+        <v>245000</v>
       </c>
       <c r="O1217" t="n">
-        <v>290000</v>
+        <v>250000</v>
       </c>
       <c r="P1217" t="n">
-        <v>287500</v>
+        <v>247500</v>
       </c>
       <c r="Q1217" t="inlineStr">
         <is>
@@ -97746,7 +97746,7 @@
         </is>
       </c>
       <c r="S1217" t="n">
-        <v>719</v>
+        <v>619</v>
       </c>
       <c r="T1217" t="n">
         <v>400</v>
@@ -97795,7 +97795,7 @@
       </c>
       <c r="K1218" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1218" t="inlineStr">
@@ -97807,13 +97807,13 @@
         <v>20</v>
       </c>
       <c r="N1218" t="n">
-        <v>235000</v>
+        <v>205000</v>
       </c>
       <c r="O1218" t="n">
-        <v>240000</v>
+        <v>210000</v>
       </c>
       <c r="P1218" t="n">
-        <v>237500</v>
+        <v>207500</v>
       </c>
       <c r="Q1218" t="inlineStr">
         <is>
@@ -97826,7 +97826,7 @@
         </is>
       </c>
       <c r="S1218" t="n">
-        <v>594</v>
+        <v>519</v>
       </c>
       <c r="T1218" t="n">
         <v>400</v>
@@ -97847,7 +97847,7 @@
         </is>
       </c>
       <c r="D1219" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1219" t="n">
         <v>4</v>
@@ -97875,25 +97875,25 @@
       </c>
       <c r="K1219" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1219" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1219" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1219" t="n">
-        <v>275000</v>
+        <v>255000</v>
       </c>
       <c r="O1219" t="n">
-        <v>280000</v>
+        <v>260000</v>
       </c>
       <c r="P1219" t="n">
-        <v>277500</v>
+        <v>257500</v>
       </c>
       <c r="Q1219" t="inlineStr">
         <is>
@@ -97906,7 +97906,7 @@
         </is>
       </c>
       <c r="S1219" t="n">
-        <v>694</v>
+        <v>644</v>
       </c>
       <c r="T1219" t="n">
         <v>400</v>
@@ -97927,7 +97927,7 @@
         </is>
       </c>
       <c r="D1220" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1220" t="n">
         <v>4</v>
@@ -97955,16 +97955,16 @@
       </c>
       <c r="K1220" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1220" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1220" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1220" t="n">
         <v>225000</v>
@@ -98007,7 +98007,7 @@
         </is>
       </c>
       <c r="D1221" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1221" t="n">
         <v>4</v>
@@ -98040,20 +98040,20 @@
       </c>
       <c r="L1221" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1221" t="n">
         <v>20</v>
       </c>
       <c r="N1221" t="n">
-        <v>275000</v>
+        <v>205000</v>
       </c>
       <c r="O1221" t="n">
-        <v>280000</v>
+        <v>210000</v>
       </c>
       <c r="P1221" t="n">
-        <v>277500</v>
+        <v>207500</v>
       </c>
       <c r="Q1221" t="inlineStr">
         <is>
@@ -98066,7 +98066,7 @@
         </is>
       </c>
       <c r="S1221" t="n">
-        <v>694</v>
+        <v>519</v>
       </c>
       <c r="T1221" t="n">
         <v>400</v>
@@ -98087,7 +98087,7 @@
         </is>
       </c>
       <c r="D1222" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1222" t="n">
         <v>4</v>
@@ -98115,25 +98115,25 @@
       </c>
       <c r="K1222" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1222" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1222" t="n">
         <v>20</v>
       </c>
       <c r="N1222" t="n">
-        <v>235000</v>
+        <v>285000</v>
       </c>
       <c r="O1222" t="n">
-        <v>240000</v>
+        <v>290000</v>
       </c>
       <c r="P1222" t="n">
-        <v>237500</v>
+        <v>287500</v>
       </c>
       <c r="Q1222" t="inlineStr">
         <is>
@@ -98142,11 +98142,11 @@
       </c>
       <c r="R1222" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1222" t="n">
-        <v>594</v>
+        <v>719</v>
       </c>
       <c r="T1222" t="n">
         <v>400</v>
@@ -98167,7 +98167,7 @@
         </is>
       </c>
       <c r="D1223" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1223" t="n">
         <v>4</v>
@@ -98200,20 +98200,20 @@
       </c>
       <c r="L1223" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1223" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1223" t="n">
-        <v>225000</v>
+        <v>235000</v>
       </c>
       <c r="O1223" t="n">
-        <v>230000</v>
+        <v>240000</v>
       </c>
       <c r="P1223" t="n">
-        <v>227500</v>
+        <v>237500</v>
       </c>
       <c r="Q1223" t="inlineStr">
         <is>
@@ -98222,11 +98222,11 @@
       </c>
       <c r="R1223" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1223" t="n">
-        <v>569</v>
+        <v>594</v>
       </c>
       <c r="T1223" t="n">
         <v>400</v>
@@ -98247,7 +98247,7 @@
         </is>
       </c>
       <c r="D1224" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1224" t="n">
         <v>4</v>
@@ -98280,20 +98280,20 @@
       </c>
       <c r="L1224" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1224" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N1224" t="n">
-        <v>315000</v>
+        <v>275000</v>
       </c>
       <c r="O1224" t="n">
-        <v>320000</v>
+        <v>280000</v>
       </c>
       <c r="P1224" t="n">
-        <v>317500</v>
+        <v>277500</v>
       </c>
       <c r="Q1224" t="inlineStr">
         <is>
@@ -98302,11 +98302,11 @@
       </c>
       <c r="R1224" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1224" t="n">
-        <v>794</v>
+        <v>694</v>
       </c>
       <c r="T1224" t="n">
         <v>400</v>
@@ -98327,7 +98327,7 @@
         </is>
       </c>
       <c r="D1225" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1225" t="n">
         <v>4</v>
@@ -98360,20 +98360,20 @@
       </c>
       <c r="L1225" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1225" t="n">
         <v>16</v>
       </c>
       <c r="N1225" t="n">
-        <v>295000</v>
+        <v>225000</v>
       </c>
       <c r="O1225" t="n">
-        <v>300000</v>
+        <v>230000</v>
       </c>
       <c r="P1225" t="n">
-        <v>297500</v>
+        <v>227500</v>
       </c>
       <c r="Q1225" t="inlineStr">
         <is>
@@ -98382,11 +98382,11 @@
       </c>
       <c r="R1225" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1225" t="n">
-        <v>744</v>
+        <v>569</v>
       </c>
       <c r="T1225" t="n">
         <v>400</v>
@@ -98407,7 +98407,7 @@
         </is>
       </c>
       <c r="D1226" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1226" t="n">
         <v>4</v>
@@ -98435,25 +98435,25 @@
       </c>
       <c r="K1226" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1226" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1226" t="n">
         <v>20</v>
       </c>
       <c r="N1226" t="n">
-        <v>265000</v>
+        <v>275000</v>
       </c>
       <c r="O1226" t="n">
-        <v>270000</v>
+        <v>280000</v>
       </c>
       <c r="P1226" t="n">
-        <v>267500</v>
+        <v>277500</v>
       </c>
       <c r="Q1226" t="inlineStr">
         <is>
@@ -98462,11 +98462,11 @@
       </c>
       <c r="R1226" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1226" t="n">
-        <v>669</v>
+        <v>694</v>
       </c>
       <c r="T1226" t="n">
         <v>400</v>
@@ -98487,7 +98487,7 @@
         </is>
       </c>
       <c r="D1227" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1227" t="n">
         <v>4</v>
@@ -98520,20 +98520,20 @@
       </c>
       <c r="L1227" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1227" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1227" t="n">
-        <v>310000</v>
+        <v>235000</v>
       </c>
       <c r="O1227" t="n">
-        <v>315000</v>
+        <v>240000</v>
       </c>
       <c r="P1227" t="n">
-        <v>312500</v>
+        <v>237500</v>
       </c>
       <c r="Q1227" t="inlineStr">
         <is>
@@ -98542,11 +98542,11 @@
       </c>
       <c r="R1227" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1227" t="n">
-        <v>781</v>
+        <v>594</v>
       </c>
       <c r="T1227" t="n">
         <v>400</v>
@@ -98567,7 +98567,7 @@
         </is>
       </c>
       <c r="D1228" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1228" t="n">
         <v>4</v>
@@ -98595,7 +98595,7 @@
       </c>
       <c r="K1228" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1228" t="inlineStr">
@@ -98607,13 +98607,13 @@
         <v>16</v>
       </c>
       <c r="N1228" t="n">
-        <v>280000</v>
+        <v>225000</v>
       </c>
       <c r="O1228" t="n">
-        <v>285000</v>
+        <v>230000</v>
       </c>
       <c r="P1228" t="n">
-        <v>282500</v>
+        <v>227500</v>
       </c>
       <c r="Q1228" t="inlineStr">
         <is>
@@ -98622,11 +98622,11 @@
       </c>
       <c r="R1228" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1228" t="n">
-        <v>706</v>
+        <v>569</v>
       </c>
       <c r="T1228" t="n">
         <v>400</v>
@@ -98675,40 +98675,440 @@
       </c>
       <c r="K1229" t="inlineStr">
         <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L1229" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M1229" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1229" t="n">
+        <v>315000</v>
+      </c>
+      <c r="O1229" t="n">
+        <v>320000</v>
+      </c>
+      <c r="P1229" t="n">
+        <v>317500</v>
+      </c>
+      <c r="Q1229" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1229" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1229" t="n">
+        <v>794</v>
+      </c>
+      <c r="T1229" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1230" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1230" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1230" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1230" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1230" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1230" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1230" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1230" t="inlineStr">
+        <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L1230" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1230" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1230" t="n">
+        <v>295000</v>
+      </c>
+      <c r="O1230" t="n">
+        <v>300000</v>
+      </c>
+      <c r="P1230" t="n">
+        <v>297500</v>
+      </c>
+      <c r="Q1230" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1230" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1230" t="n">
+        <v>744</v>
+      </c>
+      <c r="T1230" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1231" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1231" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1231" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1231" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1231" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1231" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1231" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1231" t="inlineStr">
+        <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L1231" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1231" t="n">
+        <v>20</v>
+      </c>
+      <c r="N1231" t="n">
+        <v>265000</v>
+      </c>
+      <c r="O1231" t="n">
+        <v>270000</v>
+      </c>
+      <c r="P1231" t="n">
+        <v>267500</v>
+      </c>
+      <c r="Q1231" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1231" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1231" t="n">
+        <v>669</v>
+      </c>
+      <c r="T1231" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1232" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1232" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1232" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1232" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1232" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1232" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1232" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1232" t="inlineStr">
+        <is>
           <t>Granny Smith</t>
         </is>
       </c>
-      <c r="L1229" t="inlineStr">
+      <c r="L1232" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M1232" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1232" t="n">
+        <v>310000</v>
+      </c>
+      <c r="O1232" t="n">
+        <v>315000</v>
+      </c>
+      <c r="P1232" t="n">
+        <v>312500</v>
+      </c>
+      <c r="Q1232" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1232" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1232" t="n">
+        <v>781</v>
+      </c>
+      <c r="T1232" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1233" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1233" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1233" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1233" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1233" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1233" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1233" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1233" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L1233" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1233" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1233" t="n">
+        <v>280000</v>
+      </c>
+      <c r="O1233" t="n">
+        <v>285000</v>
+      </c>
+      <c r="P1233" t="n">
+        <v>282500</v>
+      </c>
+      <c r="Q1233" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1233" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1233" t="n">
+        <v>706</v>
+      </c>
+      <c r="T1233" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1234" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1234" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1234" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1234" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1234" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1234" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1234" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1234" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L1234" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M1229" t="n">
+      <c r="M1234" t="n">
         <v>16</v>
       </c>
-      <c r="N1229" t="n">
+      <c r="N1234" t="n">
         <v>250000</v>
       </c>
-      <c r="O1229" t="n">
+      <c r="O1234" t="n">
         <v>255000</v>
       </c>
-      <c r="P1229" t="n">
+      <c r="P1234" t="n">
         <v>252500</v>
       </c>
-      <c r="Q1229" t="inlineStr">
-        <is>
-          <t>$/bins (400 kilos)</t>
-        </is>
-      </c>
-      <c r="R1229" t="inlineStr">
+      <c r="Q1234" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1234" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S1229" t="n">
+      <c r="S1234" t="n">
         <v>631</v>
       </c>
-      <c r="T1229" t="n">
+      <c r="T1234" t="n">
         <v>400</v>
       </c>
     </row>
